--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495CEB01-FD86-4036-87B7-79C58B678E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501AF4D-D2EA-4536-B252-ABFBDA37BB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
+    <sheet name="テクスチャ一覧" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -221,6 +222,176 @@
     <rPh sb="23" eb="25">
       <t>チョウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・背景の一枚絵と左下に「PressButton」的なメッセージのシーン</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイトル画面を1トーン落とした背景に、ステージ一覧を表示。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム本編を1トーン落とした背景に、メニューを表示させる。</t>
+    <rPh sb="4" eb="6">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の一枚絵。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム本編中の一枚絵。</t>
+    <rPh sb="3" eb="5">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル形式</t>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>● 依頼テクスチャ</t>
+    <rPh sb="2" eb="4">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター（Player）のモデル。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター（Enemy）のモデル。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト（Cube）のモデル。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト（GravityCube）のモデル。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム本編背景</t>
+    <rPh sb="3" eb="5">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト（Stages）のモデル。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -253,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -378,13 +549,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +793,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -457,7 +805,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,902 +1137,233 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>194856</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5FA01C-D3EF-4108-B273-8C5706E33088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="19480" t="16414" r="10172" b="10230"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459479" y="5631180"/>
+          <a:ext cx="3364777" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>22858</xdr:colOff>
+      <xdr:colOff>22104</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>91993</xdr:rowOff>
+      <xdr:rowOff>32314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24" descr="PS4：風ノ旅ビト評価感想。本当にオススメしたいゲームを語る | have a ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602DAE56-15FB-4488-88F7-FD82DDEC38BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-20000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3451104" y="3087934"/>
+          <a:ext cx="2210556" cy="1240225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33745</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2176055" cy="1325880"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFA299E-7729-44F0-A525-9B79DE666E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19480" t="23283" r="25416" b="17027"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3462745" y="8145780"/>
+          <a:ext cx="2176055" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>193897</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161371</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56" name="グループ化 55">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AD6CE5-0D45-4FD6-BC43-8BF750C6A973}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F41DF8-E18C-49FE-A8EE-46FF981EA116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="18440" t="18631" r="19469" b="19327"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3451858" y="3147613"/>
-          <a:ext cx="3383282" cy="1898178"/>
-          <a:chOff x="3451858" y="3147613"/>
-          <a:chExt cx="3383282" cy="1898178"/>
+          <a:off x="4613910" y="3848100"/>
+          <a:ext cx="2209387" cy="1234440"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="25" name="図 24" descr="PS4：風ノ旅ビト評価感想。本当にオススメしたいゲームを語る | have a ...">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602DAE56-15FB-4488-88F7-FD82DDEC38BB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:alphaModFix/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="-20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3451858" y="3147613"/>
-            <a:ext cx="3383282" cy="1898178"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="グループ化 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22D07B9-250B-4C43-86BA-39C8787A9D27}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3909061" y="3566713"/>
-            <a:ext cx="2858425" cy="267846"/>
-            <a:chOff x="3916681" y="3345733"/>
-            <a:chExt cx="2858425" cy="267846"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="28" name="図 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC702150-3739-406D-91F3-EC44168CCD6F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId5">
-                      <a14:imgEffect>
-                        <a14:saturation sat="0"/>
-                      </a14:imgEffect>
-                      <a14:imgEffect>
-                        <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3916681" y="3347979"/>
-              <a:ext cx="563879" cy="263943"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="図 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8C7C41-CDC4-47FC-8AFD-B5988E407720}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId5">
-                      <a14:imgEffect>
-                        <a14:saturation sat="0"/>
-                      </a14:imgEffect>
-                      <a14:imgEffect>
-                        <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4495798" y="3345733"/>
-              <a:ext cx="563879" cy="263943"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="図 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554D162A-F4D2-449B-AF9B-BAE1F7DA55D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId5">
-                      <a14:imgEffect>
-                        <a14:saturation sat="0"/>
-                      </a14:imgEffect>
-                      <a14:imgEffect>
-                        <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5071201" y="3345733"/>
-              <a:ext cx="563879" cy="263943"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="図 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCAB0FF-EC88-4C25-AA3C-963F3BB706DE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId5">
-                      <a14:imgEffect>
-                        <a14:saturation sat="0"/>
-                      </a14:imgEffect>
-                      <a14:imgEffect>
-                        <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5643258" y="3349636"/>
-              <a:ext cx="563879" cy="263943"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="35" name="図 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8D9765-A928-4EC5-8F9E-3E9A73DC1D15}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId5">
-                      <a14:imgEffect>
-                        <a14:saturation sat="0"/>
-                      </a14:imgEffect>
-                      <a14:imgEffect>
-                        <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6211227" y="3349451"/>
-              <a:ext cx="563879" cy="263943"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="55" name="グループ化 54">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85414BBF-D41D-4D2D-94E4-5C7732EBE96D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3909058" y="4046773"/>
-            <a:ext cx="2858427" cy="594953"/>
-            <a:chOff x="3924298" y="3909613"/>
-            <a:chExt cx="2858427" cy="594953"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="37" name="グループ化 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DE6184-DE25-4255-87F2-6442957EB9CA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3924298" y="3909613"/>
-              <a:ext cx="2858425" cy="267846"/>
-              <a:chOff x="3916681" y="3345733"/>
-              <a:chExt cx="2858425" cy="267846"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="38" name="図 37">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C393FC-BC7F-4318-B41D-73DD6D3C9BE0}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3916681" y="3347979"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="39" name="図 38">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3595023C-C18B-40D9-A84D-D2867C531E18}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4495798" y="3345733"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="40" name="図 39">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED97F6B-2152-4ACF-982B-29E27DC518FA}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5071201" y="3345733"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="41" name="図 40">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5905ABCD-D539-4BDC-BD39-8F0150E3B213}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5643258" y="3349636"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="42" name="図 41">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521B5E3F-8100-4CB0-98F7-7D2FA76D7D60}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="6211227" y="3349451"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="49" name="グループ化 48">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0857099A-6D94-4754-AFFA-08AC9D37D214}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3924300" y="4236720"/>
-              <a:ext cx="2858425" cy="267846"/>
-              <a:chOff x="3916681" y="3345733"/>
-              <a:chExt cx="2858425" cy="267846"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="50" name="図 49">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDC7250-23BB-4F7B-ADFA-382588C07C62}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3916681" y="3347979"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="51" name="図 50">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FDCA37-CA11-4F3C-A2EC-7EE2531DACC3}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4495798" y="3345733"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="52" name="図 51">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5065DA61-FD6D-4B0D-AE88-0486BF62E0F9}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5071201" y="3345733"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="53" name="図 52">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85967F9-7D92-4E4F-8222-C623318202B8}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5643258" y="3349636"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="54" name="図 53">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A01CE5-2917-48E8-8C56-9784D9398D3E}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a14:imgLayer r:embed="rId5">
-                        <a14:imgEffect>
-                          <a14:saturation sat="0"/>
-                        </a14:imgEffect>
-                        <a14:imgEffect>
-                          <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                        </a14:imgEffect>
-                      </a14:imgLayer>
-                    </a14:imgProps>
-                  </a:ext>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="6211227" y="3349451"/>
-                <a:ext cx="563879" cy="263943"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </xdr:grpSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>196780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="図 69">
+        <xdr:cNvPr id="45" name="図 44" descr="Graceful Explosion Machine』：解説録">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E376415-6AE2-4DE0-BCEE-50E7EC4D96BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E95F1C-3BB8-4ABC-BCDB-429CCADFB82B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,20 +1372,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="19672" t="24590" r="19672" b="31147"/>
+        <a:srcRect l="3213" r="2892"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3619500" y="4236720"/>
-          <a:ext cx="281940" cy="205740"/>
+          <a:off x="4754880" y="8902693"/>
+          <a:ext cx="2065020" cy="1238187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,219 +1404,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="図 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7BB334-A139-4E88-8839-4594FA04F2C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="22951" t="29508" r="24590" b="36066"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3649980" y="3627120"/>
-          <a:ext cx="243840" cy="160020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>220981</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106843</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8850BE02-324D-4E0E-B72A-8C6D3865C17D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId9">
-                  <a14:imgEffect>
-                    <a14:saturation sat="0"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="1" r="15254" b="2310"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6393181" y="4762663"/>
-          <a:ext cx="380999" cy="205578"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>202476</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5FA01C-D3EF-4108-B273-8C5706E33088}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect l="19480" t="23283" r="10172" b="17027"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467099" y="5815964"/>
-          <a:ext cx="3364777" cy="1605916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3364777" cy="1605916"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="図 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFA299E-7729-44F0-A525-9B79DE666E6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="19480" t="23283" r="10172" b="17027"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467099" y="5815964"/>
-          <a:ext cx="3364777" cy="1605916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2204,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B314E92D-39CE-4A69-84B6-AC5234CB9296}">
   <dimension ref="B1:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM43" sqref="AM43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2246,12 +1748,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -2270,8 +1772,8 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="1" t="s">
-        <v>8</v>
+      <c r="AE3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="AF3" s="1"/>
     </row>
@@ -2306,7 +1808,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" s="1"/>
     </row>
@@ -2340,7 +1842,9 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="9"/>
-      <c r="AE5" s="1"/>
+      <c r="AE5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2351,12 +1855,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -2413,12 +1917,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2509,12 +2013,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2592,7 +2096,7 @@
       <c r="AU11" s="1"/>
     </row>
     <row r="12" spans="2:47" x14ac:dyDescent="0.45">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="N12" s="16"/>
@@ -2659,7 +2163,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -2690,7 +2194,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -2721,7 +2225,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -2752,7 +2256,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="16:31" x14ac:dyDescent="0.45">
@@ -2771,6 +2275,9 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="9"/>
+      <c r="AE18" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="16:31" x14ac:dyDescent="0.45">
       <c r="P19" s="8"/>
@@ -2987,7 +2494,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="9"/>
     </row>
-    <row r="33" spans="16:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="16:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -3004,12 +2511,12 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="7"/>
     </row>
-    <row r="35" spans="16:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="16:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P36" s="3"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -3026,10 +2533,10 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="16:31" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P37" s="8"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3046,10 +2553,10 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="16:31" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P38" s="8"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3066,10 +2573,10 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="16:31" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P39" s="8"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3085,8 +2592,11 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="9"/>
-    </row>
-    <row r="40" spans="16:31" x14ac:dyDescent="0.45">
+      <c r="AE39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P40" s="8"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3103,7 +2613,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P41" s="8"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3120,7 +2630,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P42" s="8"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3137,7 +2647,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="9"/>
     </row>
-    <row r="43" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="16:36" x14ac:dyDescent="0.45">
       <c r="P43" s="8"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3154,7 +2664,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="9"/>
     </row>
-    <row r="44" spans="16:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="16:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P44" s="5"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -3170,6 +2680,7 @@
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="7"/>
+      <c r="AJ44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3183,4 +2694,158 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2"/>
+    <col min="2" max="2" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="3" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="33">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="33">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="35">
+        <v>7</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501AF4D-D2EA-4536-B252-ABFBDA37BB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043C6A3-042F-463D-928C-D7A7E8282B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -392,6 +392,27 @@
   </si>
   <si>
     <t>オブジェクト（Stages）のモデル。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重力操作時、クールタイムアイコン。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -796,6 +817,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -805,43 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,12 +1769,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -1855,12 +1876,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1917,12 +1938,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2013,12 +2034,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2698,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2715,130 +2736,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="30">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="33">
+      <c r="B5" s="29">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="33">
+      <c r="B6" s="29"/>
+      <c r="C6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E7" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="33">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="33">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="29">
         <v>5</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E9" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="33">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="29">
         <v>6</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E10" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="35">
+    <row r="11" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="31">
         <v>7</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E11" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043C6A3-042F-463D-928C-D7A7E8282B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207800E-8F69-4829-8BB2-0800FC41DAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クールタイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重力操作時、クールタイムアイコン。</t>
     <rPh sb="0" eb="2">
       <t>ジュウリョク</t>
@@ -413,6 +409,88 @@
     <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールタイム_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールタイム_02</t>
+  </si>
+  <si>
+    <t>重力操作時、クールタイムゲージ。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>●テクスチャイメージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（※画像はイメージ）</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム本編背景</t>
+    <rPh sb="3" eb="5">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +509,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -750,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,9 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +944,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -863,6 +957,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1428,6 +1525,621 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195590</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="PS4：風ノ旅ビト評価感想。本当にオススメしたいゲームを語る | have a ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DF1C57-7BD5-4262-81FD-34A2289D852A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="13122"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="1028700"/>
+          <a:ext cx="2230130" cy="1440180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>226116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1525DC51-86A3-4851-99F0-CBD37C766307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="9046" t="-1" r="9990" b="435"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8580120" y="982979"/>
+          <a:ext cx="2232660" cy="1544377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EB019E-F17F-463E-8DB7-0546581F251D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11272520" y="757189"/>
+          <a:ext cx="1943100" cy="1980084"/>
+          <a:chOff x="11262360" y="755496"/>
+          <a:chExt cx="1943100" cy="1980084"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 11" descr="Unity] NGUIでドーナツ状ゲージを作ってみた: ものづくりログ">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372FC6FF-922D-4B81-AEA4-C6731165A620}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="8401" r="9207"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11262360" y="755496"/>
+            <a:ext cx="1943100" cy="1980084"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="図 13" descr="砂時計のイラストアイコン素材 2 | 商用可の無料(フリー)のアイコン ...">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4C1B9E-495B-4B58-A420-D0D88F7D9E1E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="10320" r="9252"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11826240" y="1257300"/>
+            <a:ext cx="790582" cy="982980"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>187335</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86104</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADABFC4-6396-43DB-A5C6-8A32B144C119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6085995" y="3479800"/>
+          <a:ext cx="2203940" cy="1677837"/>
+          <a:chOff x="6069061" y="3479800"/>
+          <a:chExt cx="2203940" cy="1677837"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="図 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C7FE5F-4FFE-426E-BECB-625796D9B1F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="52142" r="17287" b="13806"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6069061" y="3492883"/>
+            <a:ext cx="780472" cy="1661511"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="図 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A7C7D2-6F82-4A41-8CD9-3B91409DAA76}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="17844" r="62272" b="18256"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7753929" y="3479800"/>
+            <a:ext cx="519072" cy="1594156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="図 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DDD2B3-0F9C-4EFE-ABE4-7E17BC535280}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="6443" r="64098" b="13806"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6909570" y="3484417"/>
+            <a:ext cx="761230" cy="1673220"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>24065</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>193685</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36" descr="サソリ｜蠍｜動物シルエット｜無料イラスト素材">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E40CA06-33D9-437F-88B9-7B7E8B005F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="18091" b="15914"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="8583865" y="3550802"/>
+          <a:ext cx="2227020" cy="1469931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67735</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>199319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44" descr="Red Sandstone | Minecraft Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F43F45-ECAC-4CC4-8F62-5D7B265564E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8856135" y="5982052"/>
+          <a:ext cx="1701798" cy="1702302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>224702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47" descr="作業台 - Minecraft Wiki">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89950B6-A1AB-48F2-B98C-37CA87C6A48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6324601" y="6007435"/>
+          <a:ext cx="1727200" cy="1727712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>225393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48" descr="Sandstone – Official Minecraft Wiki">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE10935A-E5FE-484C-81D6-66AD47A68BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11370733" y="3468126"/>
+          <a:ext cx="1701801" cy="1703313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1728,7 +2440,7 @@
   <dimension ref="B1:AZ44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM43" sqref="AM43"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2117,7 +2829,7 @@
       <c r="AU11" s="1"/>
     </row>
     <row r="12" spans="2:47" x14ac:dyDescent="0.45">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="38" t="s">
         <v>4</v>
       </c>
       <c r="N12" s="16"/>
@@ -2719,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2735,150 +3447,1035 @@
     <col min="6" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="23" t="s">
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="26">
+      <c r="I3" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
+      <c r="T3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="36"/>
+      <c r="AE3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
+    </row>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="29">
+      <c r="I4" s="8"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="9"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="9"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="9"/>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="29"/>
-      <c r="C6" s="22" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="9"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="9"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="9"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="9"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="9"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B7" s="28">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="29">
-        <v>3</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="9"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="9"/>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B8" s="28">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="29">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="9"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="9"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="9"/>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="29">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="9"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="9"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="9"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="29">
-        <v>6</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="9"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="9"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B11" s="28">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="31">
-        <v>7</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="9"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="9"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="9"/>
+    </row>
+    <row r="12" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="30">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="7"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="7"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="T14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="36"/>
+      <c r="AE14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="36"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="9"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="9"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="9"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="9"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="9"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="9"/>
+    </row>
+    <row r="17" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="9"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="9"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="9"/>
+    </row>
+    <row r="18" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="9"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="9"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="9"/>
+    </row>
+    <row r="19" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="9"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="9"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="9"/>
+    </row>
+    <row r="20" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="9"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="9"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="9"/>
+    </row>
+    <row r="21" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="9"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="9"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="9"/>
+    </row>
+    <row r="22" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="9"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="9"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="9"/>
+    </row>
+    <row r="23" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I23" s="5"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="7"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="7"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="25" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I25" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="T25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="36"/>
+    </row>
+    <row r="26" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="9"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="9"/>
+    </row>
+    <row r="27" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="9"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="9"/>
+    </row>
+    <row r="28" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I28" s="8"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="9"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="9"/>
+    </row>
+    <row r="29" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I29" s="8"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="9"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="9"/>
+    </row>
+    <row r="30" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="9"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="9"/>
+    </row>
+    <row r="31" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I31" s="8"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="9"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="9"/>
+    </row>
+    <row r="32" spans="9:40" x14ac:dyDescent="0.45">
+      <c r="I32" s="8"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="9"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="9"/>
+    </row>
+    <row r="33" spans="9:29" x14ac:dyDescent="0.45">
+      <c r="I33" s="8"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="9"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="9"/>
+    </row>
+    <row r="34" spans="9:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I34" s="5"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="7"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="AE3:AN3"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="T14:AC14"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="I25:R25"/>
+    <mergeCell ref="T25:AC25"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="T3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207800E-8F69-4829-8BB2-0800FC41DAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0020E52-4EE9-44A3-9205-5852CB3B9BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -947,6 +947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -957,9 +960,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,60 +1067,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF56820-81B9-4E02-B11E-8E0FD9E19155}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="464820"/>
-          <a:ext cx="0" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1520,6 +1466,59 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5027608-AA07-4C8F-A771-DEA6A8482620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="701040"/>
+          <a:ext cx="0" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2439,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B314E92D-39CE-4A69-84B6-AC5234CB9296}">
   <dimension ref="B1:AZ44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2481,12 +2480,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -2588,12 +2587,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -2650,12 +2649,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2746,12 +2745,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2829,7 +2828,7 @@
       <c r="AU11" s="1"/>
     </row>
     <row r="12" spans="2:47" x14ac:dyDescent="0.45">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>4</v>
       </c>
       <c r="N12" s="16"/>
@@ -3433,7 +3432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
   <dimension ref="B2:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
@@ -3448,12 +3447,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
@@ -3471,42 +3470,42 @@
       <c r="E3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="T3" s="34" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="37"/>
+      <c r="T3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AE3" s="34" t="s">
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="37"/>
+      <c r="AE3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -3911,42 +3910,42 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="T14" s="34" t="s">
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="T14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="36"/>
-      <c r="AE14" s="34" t="s">
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="37"/>
+      <c r="AE14" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="37"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.45">
       <c r="I15" s="8"/>
@@ -4238,30 +4237,30 @@
     </row>
     <row r="24" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="T25" s="34" t="s">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="37"/>
+      <c r="T25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="9:40" x14ac:dyDescent="0.45">
       <c r="I26" s="8"/>
@@ -4463,15 +4462,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="T3:AC3"/>
     <mergeCell ref="AE3:AN3"/>
     <mergeCell ref="I14:R14"/>
     <mergeCell ref="T14:AC14"/>
     <mergeCell ref="AE14:AN14"/>
     <mergeCell ref="I25:R25"/>
     <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="T3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0020E52-4EE9-44A3-9205-5852CB3B9BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6AB90-DCBB-4D19-9EA8-27A06BF0AFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
-    <sheet name="テクスチャ一覧" sheetId="5" r:id="rId2"/>
+    <sheet name="オブジェクト一覧" sheetId="5" r:id="rId2"/>
+    <sheet name="ステージ一覧" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -353,14 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オブジェクト（Cube）のモデル。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト（GravityCube）のモデル。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクター_01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -493,12 +486,127 @@
     <t>ステージ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>5*5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ（xyz）</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1*2*1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5*0.8*1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5*1.5*1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1*1*1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>オブジェクト（Cube）のモデル。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>オブジェクト（GravityCube）のモデル。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1：拡大有り</t>
+    <rPh sb="3" eb="5">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●例</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スムーズにCubeを落とすために「サイズ、質量」を要調整。</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Cubeの上を通るために「Retry_Zone（下）」を要調整。</t>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,16 +638,50 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -838,13 +980,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,6 +1214,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,13 +1868,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>195590</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -1587,13 +1927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>226116</xdr:rowOff>
@@ -1630,13 +1970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>54456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
@@ -1654,7 +1994,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11272520" y="757189"/>
+          <a:off x="12855787" y="757189"/>
           <a:ext cx="1943100" cy="1980084"/>
           <a:chOff x="11262360" y="755496"/>
           <a:chExt cx="1943100" cy="1980084"/>
@@ -1753,13 +2093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>40795</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>187335</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>86104</xdr:rowOff>
@@ -1777,7 +2117,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6085995" y="3479800"/>
+          <a:off x="7669262" y="3479800"/>
           <a:ext cx="2203940" cy="1677837"/>
           <a:chOff x="6069061" y="3479800"/>
           <a:chExt cx="2203940" cy="1677837"/>
@@ -1896,13 +2236,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>24065</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>79469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>193685</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -1955,13 +2295,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>67735</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>199319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>169333</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>72821</xdr:rowOff>
@@ -2016,13 +2356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>50801</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>224702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>177801</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>123614</xdr:rowOff>
@@ -2077,13 +2417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>67733</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>225393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>169334</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>99906</xdr:rowOff>
@@ -2134,6 +2474,259 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>112514</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 下カーブ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7089AF47-95B7-4E0C-B263-E2B76526129A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2017412">
+          <a:off x="2322225" y="7677438"/>
+          <a:ext cx="990689" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122009</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 下カーブ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCE676A-E1C4-4DBA-8FEE-C0A3671E87A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2017412">
+          <a:off x="4389120" y="7665720"/>
+          <a:ext cx="990689" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 上 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54D92F4-A488-4EAF-9F2B-2CCE2CEB4D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="11780520"/>
+          <a:ext cx="426720" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 上 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62748351-73E1-4955-94EF-2326A7129F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5158740" y="9464040"/>
+          <a:ext cx="426720" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2438,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B314E92D-39CE-4A69-84B6-AC5234CB9296}">
   <dimension ref="B1:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -3430,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
-  <dimension ref="B2:AN34"/>
+  <dimension ref="B2:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3442,22 +4035,24 @@
     <col min="2" max="2" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="3" style="2"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="38"/>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
@@ -3467,13 +4062,15 @@
       <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="36"/>
+      <c r="J3" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
@@ -3481,11 +4078,11 @@
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="37"/>
-      <c r="T3" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="U3" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="V3" s="36"/>
       <c r="W3" s="36"/>
       <c r="X3" s="36"/>
@@ -3493,11 +4090,11 @@
       <c r="Z3" s="36"/>
       <c r="AA3" s="36"/>
       <c r="AB3" s="36"/>
-      <c r="AC3" s="37"/>
-      <c r="AE3" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AF3" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AG3" s="36"/>
       <c r="AH3" s="36"/>
       <c r="AI3" s="36"/>
@@ -3505,9 +4102,10 @@
       <c r="AK3" s="36"/>
       <c r="AL3" s="36"/>
       <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="37"/>
+    </row>
+    <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
         <v>1</v>
       </c>
@@ -3517,10 +4115,1123 @@
       <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="9"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="9"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="9"/>
+    </row>
+    <row r="5" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="9"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="9"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="9"/>
+    </row>
+    <row r="6" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="9"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="9"/>
+    </row>
+    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B7" s="28">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="9"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="9"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="9"/>
+    </row>
+    <row r="8" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B8" s="28">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="9"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="9"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="9"/>
+    </row>
+    <row r="9" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="9"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="9"/>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="9"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="9"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="9"/>
+    </row>
+    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B11" s="28">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="9"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="9"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="9"/>
+    </row>
+    <row r="12" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="30">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="7"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="7"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="U14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="37"/>
+      <c r="AF14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="37"/>
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="J15" s="8"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="9"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="9"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="9"/>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="J16" s="8"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="9"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="9"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="9"/>
+    </row>
+    <row r="17" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J17" s="8"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="9"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="9"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="9"/>
+    </row>
+    <row r="18" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J18" s="8"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="9"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="9"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="9"/>
+    </row>
+    <row r="19" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J19" s="8"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="9"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="9"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="9"/>
+    </row>
+    <row r="20" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J20" s="8"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="9"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="9"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="9"/>
+    </row>
+    <row r="21" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J21" s="8"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="9"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="9"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="9"/>
+    </row>
+    <row r="22" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J22" s="8"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="9"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="9"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="9"/>
+    </row>
+    <row r="23" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J23" s="5"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="7"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="7"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="7"/>
+    </row>
+    <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J25" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
+      <c r="U25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="37"/>
+    </row>
+    <row r="26" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J26" s="8"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="9"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="9"/>
+    </row>
+    <row r="27" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J27" s="8"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="9"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="9"/>
+    </row>
+    <row r="28" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J28" s="8"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="9"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="9"/>
+    </row>
+    <row r="29" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J29" s="8"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="9"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="9"/>
+    </row>
+    <row r="30" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J30" s="8"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="9"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="9"/>
+    </row>
+    <row r="31" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J31" s="8"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="9"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="9"/>
+    </row>
+    <row r="32" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="J32" s="8"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="9"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="9"/>
+    </row>
+    <row r="33" spans="10:30" x14ac:dyDescent="0.45">
+      <c r="J33" s="8"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="9"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="9"/>
+    </row>
+    <row r="34" spans="10:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J34" s="5"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="7"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
+  <dimension ref="A1:BJ90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY27" sqref="AY27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3" style="11" customWidth="1"/>
+    <col min="2" max="15" width="3" style="11"/>
+    <col min="16" max="52" width="3" style="2"/>
+    <col min="53" max="16384" width="3" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+    </row>
+    <row r="2" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="44"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3529,8 +5240,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="9"/>
-      <c r="T4" s="8"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -3539,32 +5251,34 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="9"/>
-      <c r="AE4" s="8"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="9"/>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B5" s="28">
-        <v>2</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8"/>
+      <c r="AI4" s="45"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3573,8 +5287,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="9"/>
-      <c r="T5" s="8"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -3583,32 +5298,34 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="9"/>
-      <c r="AE5" s="8"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="9"/>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B6" s="28">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="8"/>
+      <c r="AI5" s="45"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3617,8 +5334,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="9"/>
-      <c r="T6" s="8"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -3627,32 +5345,34 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="9"/>
-      <c r="AE6" s="8"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="9"/>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B7" s="28">
-        <v>4</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="8"/>
+      <c r="AI6" s="45"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3661,8 +5381,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="9"/>
-      <c r="T7" s="8"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -3671,32 +5392,34 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="9"/>
-      <c r="AE7" s="8"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="9"/>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B8" s="28">
-        <v>5</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="8"/>
+      <c r="AI7" s="45"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3705,8 +5428,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="9"/>
-      <c r="T8" s="8"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -3715,32 +5439,34 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="9"/>
-      <c r="AE8" s="8"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="9"/>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B9" s="28">
-        <v>6</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="AI8" s="45"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3749,8 +5475,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="9"/>
-      <c r="T9" s="8"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -3759,32 +5486,34 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="9"/>
-      <c r="AE9" s="8"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="9"/>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B10" s="28">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="AI9" s="45"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3793,8 +5522,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="9"/>
-      <c r="T10" s="8"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -3803,32 +5533,34 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="9"/>
-      <c r="AE10" s="8"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="9"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B11" s="28">
-        <v>8</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="AI10" s="45"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3837,8 +5569,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="9"/>
-      <c r="T11" s="8"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -3847,108 +5580,175 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="9"/>
-      <c r="AE11" s="8"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="9"/>
-    </row>
-    <row r="12" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="30">
-        <v>9</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="7"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="7"/>
-    </row>
-    <row r="13" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="1"/>
+      <c r="AI11" s="45"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="45"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="T14" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="37"/>
-      <c r="AE14" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="37"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="I15" s="8"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="45"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="45"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3957,8 +5757,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="9"/>
-      <c r="T15" s="8"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -3967,20 +5768,34 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="9"/>
-      <c r="AE15" s="8"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="9"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="I16" s="8"/>
+      <c r="AI15" s="45"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3989,8 +5804,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="9"/>
-      <c r="T16" s="8"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -3999,20 +5815,34 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="9"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="66"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="9"/>
-    </row>
-    <row r="17" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I17" s="8"/>
+      <c r="AI16" s="45"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4021,8 +5851,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="9"/>
-      <c r="T17" s="8"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -4031,239 +5862,358 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="9"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="67"/>
       <c r="AG17" s="1"/>
-      <c r="AH17"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="9"/>
-    </row>
-    <row r="18" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="9"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="9"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="9"/>
-    </row>
-    <row r="19" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="9"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="9"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="9"/>
-    </row>
-    <row r="20" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="9"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="9"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="9"/>
-    </row>
-    <row r="21" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="9"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="9"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="9"/>
-    </row>
-    <row r="22" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I22" s="8"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="9"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="9"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="9"/>
-    </row>
-    <row r="23" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I23" s="5"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="7"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="7"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="7"/>
-    </row>
-    <row r="24" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="25" spans="9:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
-      <c r="T25" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="37"/>
-    </row>
-    <row r="26" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I26" s="8"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="45"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="46"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="45"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="45"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4272,8 +6222,9 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="9"/>
-      <c r="T26" s="8"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -4282,20 +6233,45 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I27" s="8"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="45"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="9"/>
-      <c r="T27" s="8"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -4304,54 +6280,128 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="9"/>
-    </row>
-    <row r="28" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I28" s="8"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="45"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="9"/>
-      <c r="T28" s="8"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="9"/>
-    </row>
-    <row r="29" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I29" s="8"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="45"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="9"/>
-      <c r="T29" s="8"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29"/>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="9"/>
-    </row>
-    <row r="30" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I30" s="8"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="45"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4360,8 +6410,9 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="9"/>
-      <c r="T30" s="8"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -4370,10 +6421,34 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="9"/>
-    </row>
-    <row r="31" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I31" s="8"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="45"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4382,8 +6457,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="9"/>
-      <c r="T31" s="8"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -4392,10 +6468,34 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="9"/>
-    </row>
-    <row r="32" spans="9:40" x14ac:dyDescent="0.45">
-      <c r="I32" s="8"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="45"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4404,8 +6504,9 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="9"/>
-      <c r="T32" s="8"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -4414,10 +6515,34 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="9"/>
-    </row>
-    <row r="33" spans="9:29" x14ac:dyDescent="0.45">
-      <c r="I33" s="8"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="45"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4426,8 +6551,9 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="9"/>
-      <c r="T33" s="8"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -4436,41 +6562,1982 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="9"/>
-    </row>
-    <row r="34" spans="9:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I34" s="5"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="7"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="7"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="45"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+    </row>
+    <row r="34" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="45"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="45"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+    </row>
+    <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="59"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="45"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+    </row>
+    <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="46"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+    </row>
+    <row r="39" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+    </row>
+    <row r="40" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="44"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="45"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="45"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="45"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="45"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="45"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="45"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="45"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="45"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+    </row>
+    <row r="49" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="45"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+    </row>
+    <row r="50" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="45"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
+    </row>
+    <row r="51" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="45"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+    </row>
+    <row r="52" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="45"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="2"/>
+    </row>
+    <row r="53" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="45"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
+    </row>
+    <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="67"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="45"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="2"/>
+    </row>
+    <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="48"/>
+      <c r="AH55" s="49"/>
+      <c r="AI55" s="46"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2"/>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="2"/>
+    </row>
+    <row r="56" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+      <c r="BJ56" s="2"/>
+    </row>
+    <row r="57" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="2"/>
+    </row>
+    <row r="58" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+      <c r="BJ58" s="2"/>
+    </row>
+    <row r="59" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="2"/>
+    </row>
+    <row r="60" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="2"/>
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BJ60" s="2"/>
+    </row>
+    <row r="61" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="2"/>
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="2"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+      <c r="BJ61" s="2"/>
+    </row>
+    <row r="62" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="BA62" s="2"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="2"/>
+      <c r="BE62" s="2"/>
+      <c r="BF62" s="2"/>
+      <c r="BG62" s="2"/>
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+      <c r="BJ62" s="2"/>
+    </row>
+    <row r="63" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="BA63" s="2"/>
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="2"/>
+      <c r="BD63" s="2"/>
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="2"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+      <c r="BJ63" s="2"/>
+    </row>
+    <row r="64" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="BA64" s="2"/>
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="2"/>
+      <c r="BD64" s="2"/>
+      <c r="BE64" s="2"/>
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="2"/>
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+      <c r="BJ64" s="2"/>
+    </row>
+    <row r="65" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="BA65" s="2"/>
+      <c r="BB65" s="2"/>
+      <c r="BC65" s="2"/>
+      <c r="BD65" s="2"/>
+      <c r="BE65" s="2"/>
+      <c r="BF65" s="2"/>
+      <c r="BG65" s="2"/>
+      <c r="BH65" s="2"/>
+      <c r="BI65" s="2"/>
+      <c r="BJ65" s="2"/>
+    </row>
+    <row r="66" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="2"/>
+      <c r="BE66" s="2"/>
+      <c r="BF66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+      <c r="BJ66" s="2"/>
+    </row>
+    <row r="67" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="2"/>
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+      <c r="BJ67" s="2"/>
+    </row>
+    <row r="68" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+    </row>
+    <row r="69" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="2"/>
+    </row>
+    <row r="70" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="BA70" s="2"/>
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="2"/>
+      <c r="BD70" s="2"/>
+      <c r="BE70" s="2"/>
+      <c r="BF70" s="2"/>
+      <c r="BG70" s="2"/>
+      <c r="BH70" s="2"/>
+      <c r="BI70" s="2"/>
+      <c r="BJ70" s="2"/>
+    </row>
+    <row r="71" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="BA71" s="2"/>
+      <c r="BB71" s="2"/>
+      <c r="BC71" s="2"/>
+      <c r="BD71" s="2"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+      <c r="BJ71" s="2"/>
+    </row>
+    <row r="72" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="BA72" s="2"/>
+      <c r="BB72" s="2"/>
+      <c r="BC72" s="2"/>
+      <c r="BD72" s="2"/>
+      <c r="BE72" s="2"/>
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+      <c r="BJ72" s="2"/>
+    </row>
+    <row r="73" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="BA73" s="2"/>
+      <c r="BB73" s="2"/>
+      <c r="BC73" s="2"/>
+      <c r="BD73" s="2"/>
+      <c r="BE73" s="2"/>
+      <c r="BF73" s="2"/>
+      <c r="BG73" s="2"/>
+      <c r="BH73" s="2"/>
+      <c r="BI73" s="2"/>
+      <c r="BJ73" s="2"/>
+    </row>
+    <row r="74" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="BA74" s="2"/>
+      <c r="BB74" s="2"/>
+      <c r="BC74" s="2"/>
+      <c r="BD74" s="2"/>
+      <c r="BE74" s="2"/>
+      <c r="BF74" s="2"/>
+      <c r="BG74" s="2"/>
+      <c r="BH74" s="2"/>
+      <c r="BI74" s="2"/>
+      <c r="BJ74" s="2"/>
+    </row>
+    <row r="75" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="BA75" s="2"/>
+      <c r="BB75" s="2"/>
+      <c r="BC75" s="2"/>
+      <c r="BD75" s="2"/>
+      <c r="BE75" s="2"/>
+      <c r="BF75" s="2"/>
+      <c r="BG75" s="2"/>
+      <c r="BH75" s="2"/>
+      <c r="BI75" s="2"/>
+      <c r="BJ75" s="2"/>
+    </row>
+    <row r="76" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="2"/>
+      <c r="BD76" s="2"/>
+      <c r="BE76" s="2"/>
+      <c r="BF76" s="2"/>
+      <c r="BG76" s="2"/>
+      <c r="BH76" s="2"/>
+      <c r="BI76" s="2"/>
+      <c r="BJ76" s="2"/>
+    </row>
+    <row r="77" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="BA77" s="2"/>
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="2"/>
+      <c r="BD77" s="2"/>
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="2"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+      <c r="BJ77" s="2"/>
+    </row>
+    <row r="78" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="BA78" s="2"/>
+      <c r="BB78" s="2"/>
+      <c r="BC78" s="2"/>
+      <c r="BD78" s="2"/>
+      <c r="BE78" s="2"/>
+      <c r="BF78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+      <c r="BJ78" s="2"/>
+    </row>
+    <row r="79" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="BA79" s="2"/>
+      <c r="BB79" s="2"/>
+      <c r="BC79" s="2"/>
+      <c r="BD79" s="2"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="2"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+      <c r="BJ79" s="2"/>
+    </row>
+    <row r="80" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="BA80" s="2"/>
+      <c r="BB80" s="2"/>
+      <c r="BC80" s="2"/>
+      <c r="BD80" s="2"/>
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+      <c r="BJ80" s="2"/>
+    </row>
+    <row r="81" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="BA81" s="2"/>
+      <c r="BB81" s="2"/>
+      <c r="BC81" s="2"/>
+      <c r="BD81" s="2"/>
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="2"/>
+      <c r="BG81" s="2"/>
+      <c r="BH81" s="2"/>
+      <c r="BI81" s="2"/>
+      <c r="BJ81" s="2"/>
+    </row>
+    <row r="82" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="BA82" s="2"/>
+      <c r="BB82" s="2"/>
+      <c r="BC82" s="2"/>
+      <c r="BD82" s="2"/>
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+      <c r="BJ82" s="2"/>
+    </row>
+    <row r="83" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+    </row>
+    <row r="84" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="BA84" s="2"/>
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="2"/>
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="2"/>
+      <c r="BG84" s="2"/>
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+      <c r="BJ84" s="2"/>
+    </row>
+    <row r="85" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="BA85" s="2"/>
+      <c r="BB85" s="2"/>
+      <c r="BC85" s="2"/>
+      <c r="BD85" s="2"/>
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="2"/>
+      <c r="BG85" s="2"/>
+      <c r="BH85" s="2"/>
+      <c r="BI85" s="2"/>
+      <c r="BJ85" s="2"/>
+    </row>
+    <row r="86" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="BA86" s="2"/>
+      <c r="BB86" s="2"/>
+      <c r="BC86" s="2"/>
+      <c r="BD86" s="2"/>
+      <c r="BE86" s="2"/>
+      <c r="BF86" s="2"/>
+      <c r="BG86" s="2"/>
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+      <c r="BJ86" s="2"/>
+    </row>
+    <row r="87" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="BA87" s="2"/>
+      <c r="BB87" s="2"/>
+      <c r="BC87" s="2"/>
+      <c r="BD87" s="2"/>
+      <c r="BE87" s="2"/>
+      <c r="BF87" s="2"/>
+      <c r="BG87" s="2"/>
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+      <c r="BJ87" s="2"/>
+    </row>
+    <row r="88" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="BA88" s="2"/>
+      <c r="BB88" s="2"/>
+      <c r="BC88" s="2"/>
+      <c r="BD88" s="2"/>
+      <c r="BE88" s="2"/>
+      <c r="BF88" s="2"/>
+      <c r="BG88" s="2"/>
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+      <c r="BJ88" s="2"/>
+    </row>
+    <row r="89" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="BA89" s="2"/>
+      <c r="BB89" s="2"/>
+      <c r="BC89" s="2"/>
+      <c r="BD89" s="2"/>
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="2"/>
+      <c r="BJ89" s="2"/>
+    </row>
+    <row r="90" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="BA90" s="2"/>
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="2"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+      <c r="BJ90" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="T3:AC3"/>
-    <mergeCell ref="AE3:AN3"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="T14:AC14"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="I25:R25"/>
-    <mergeCell ref="T25:AC25"/>
+  <mergeCells count="21">
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AI40:AI55"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="C55:N55"/>
+    <mergeCell ref="W55:AH55"/>
+    <mergeCell ref="L40:Y40"/>
+    <mergeCell ref="AF53:AF54"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="P37:U37"/>
+    <mergeCell ref="B40:B55"/>
+    <mergeCell ref="B22:B37"/>
+    <mergeCell ref="C22:AH22"/>
+    <mergeCell ref="AI22:AI37"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="Y37:AH37"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="AI3:AI18"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6AB90-DCBB-4D19-9EA8-27A06BF0AFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D0D1F-5E6F-4408-934E-B8828DD89E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -601,6 +601,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1680*1050</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -681,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -995,45 +999,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1097,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,68 +1168,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1279,6 +1184,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,19 +1237,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2295,16 +2251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>67735</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>199319</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72821</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2334,7 +2290,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8856135" y="5982052"/>
+          <a:off x="12962469" y="3374319"/>
           <a:ext cx="1701798" cy="1702302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2397,67 +2353,6 @@
         <a:xfrm>
           <a:off x="6324601" y="6007435"/>
           <a:ext cx="1727200" cy="1727712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>225393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99906</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48" descr="Sandstone – Official Minecraft Wiki">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE10935A-E5FE-484C-81D6-66AD47A68BE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11370733" y="3468126"/>
-          <a:ext cx="1701801" cy="1703313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,12 +2968,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -3180,12 +3075,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -3242,12 +3137,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -3338,12 +3233,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -4025,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
   <dimension ref="B2:AO34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4041,13 +3936,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -4062,48 +3957,48 @@
       <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="35" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="U3" s="35" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="37"/>
-      <c r="AF3" s="35" t="s">
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="45"/>
+      <c r="AF3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="37"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="45"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -4115,7 +4010,9 @@
       <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="F4" s="27" t="s">
         <v>26</v>
       </c>
@@ -4160,7 +4057,9 @@
       <c r="D5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="F5" s="29" t="s">
         <v>27</v>
       </c>
@@ -4205,7 +4104,7 @@
       <c r="D6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -4252,7 +4151,7 @@
       <c r="D7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -4299,7 +4198,7 @@
       <c r="D8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -4346,7 +4245,7 @@
       <c r="D9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -4393,7 +4292,7 @@
       <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -4440,7 +4339,7 @@
       <c r="D11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -4487,7 +4386,7 @@
       <c r="D12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -4534,42 +4433,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="37"/>
-      <c r="U14" s="35" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+      <c r="U14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="37"/>
-      <c r="AF14" s="35" t="s">
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="45"/>
+      <c r="AF14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="45"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -4861,30 +4760,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="U25" s="35" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
+      <c r="U25" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="37"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="45"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -5086,8 +4985,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -5095,6 +4992,8 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5107,7 +5006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
@@ -5177,40 +5076,40 @@
     </row>
     <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="44"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="47"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
@@ -5224,7 +5123,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5257,7 +5156,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="45"/>
+      <c r="AI4" s="48"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
@@ -5271,7 +5170,7 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="45"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5304,7 +5203,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="45"/>
+      <c r="AI5" s="48"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
@@ -5318,7 +5217,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5351,7 +5250,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="45"/>
+      <c r="AI6" s="48"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
@@ -5365,7 +5264,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5398,7 +5297,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="45"/>
+      <c r="AI7" s="48"/>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
@@ -5412,7 +5311,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5445,7 +5344,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="45"/>
+      <c r="AI8" s="48"/>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
@@ -5459,7 +5358,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="45"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5492,7 +5391,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="45"/>
+      <c r="AI9" s="48"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
@@ -5506,7 +5405,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5539,7 +5438,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="45"/>
+      <c r="AI10" s="48"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
@@ -5553,7 +5452,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5586,7 +5485,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="45"/>
+      <c r="AI11" s="48"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
@@ -5600,7 +5499,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5633,7 +5532,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="45"/>
+      <c r="AI12" s="48"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
@@ -5647,7 +5546,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5680,7 +5579,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="45"/>
+      <c r="AI13" s="48"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
@@ -5694,7 +5593,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5727,7 +5626,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="45"/>
+      <c r="AI14" s="48"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
@@ -5741,7 +5640,7 @@
     </row>
     <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5774,7 +5673,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="45"/>
+      <c r="AI15" s="48"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
@@ -5788,10 +5687,10 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5818,10 +5717,10 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="66"/>
+      <c r="AF16" s="63"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="45"/>
+      <c r="AI16" s="48"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
@@ -5835,10 +5734,10 @@
     </row>
     <row r="17" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5865,10 +5764,10 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="67"/>
+      <c r="AF17" s="64"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="45"/>
+      <c r="AI17" s="48"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
@@ -5882,40 +5781,40 @@
     </row>
     <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="49"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
@@ -6012,40 +5911,40 @@
     </row>
     <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="47"/>
       <c r="AJ22" s="2" t="s">
         <v>68</v>
       </c>
@@ -6062,7 +5961,7 @@
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6095,7 +5994,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="45"/>
+      <c r="AI23" s="48"/>
       <c r="AJ23" s="2" t="s">
         <v>69</v>
       </c>
@@ -6112,7 +6011,7 @@
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6145,7 +6044,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="45"/>
+      <c r="AI24" s="48"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
@@ -6159,7 +6058,7 @@
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
-      <c r="B25" s="45"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6192,7 +6091,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="45"/>
+      <c r="AI25" s="48"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
@@ -6206,7 +6105,7 @@
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6239,7 +6138,7 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="45"/>
+      <c r="AI26" s="48"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
@@ -6253,7 +6152,7 @@
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="45"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6286,7 +6185,7 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="45"/>
+      <c r="AI27" s="48"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
@@ -6300,7 +6199,7 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6333,7 +6232,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="45"/>
+      <c r="AI28" s="48"/>
       <c r="BA28" s="2"/>
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
@@ -6347,7 +6246,7 @@
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -6380,7 +6279,7 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="45"/>
+      <c r="AI29" s="48"/>
       <c r="BA29" s="2"/>
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
@@ -6394,7 +6293,7 @@
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6427,7 +6326,7 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="45"/>
+      <c r="AI30" s="48"/>
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
@@ -6441,7 +6340,7 @@
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6474,7 +6373,7 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="45"/>
+      <c r="AI31" s="48"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
@@ -6488,7 +6387,7 @@
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6521,7 +6420,7 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="45"/>
+      <c r="AI32" s="48"/>
       <c r="BA32" s="2"/>
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
@@ -6535,7 +6434,7 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6568,7 +6467,7 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="45"/>
+      <c r="AI33" s="48"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
@@ -6582,7 +6481,7 @@
     </row>
     <row r="34" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6615,7 +6514,7 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="45"/>
+      <c r="AI34" s="48"/>
       <c r="BA34" s="2"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
@@ -6629,22 +6528,22 @@
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="51"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="37"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -6656,10 +6555,10 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="66"/>
+      <c r="AF35" s="63"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="45"/>
+      <c r="AI35" s="48"/>
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
@@ -6673,22 +6572,22 @@
     </row>
     <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2"/>
-      <c r="B36" s="45"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="52"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="59"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="39"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -6700,10 +6599,10 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="67"/>
+      <c r="AF36" s="64"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="45"/>
+      <c r="AI36" s="48"/>
       <c r="BA36" s="2"/>
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
@@ -6717,40 +6616,40 @@
     </row>
     <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="46"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="62"/>
+      <c r="AI37" s="49"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
@@ -6820,40 +6719,40 @@
     </row>
     <row r="40" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="2"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="44"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="47"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
@@ -6867,7 +6766,7 @@
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
-      <c r="B41" s="45"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6900,7 +6799,7 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
-      <c r="AI41" s="45"/>
+      <c r="AI41" s="48"/>
       <c r="BA41" s="2"/>
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
@@ -6914,7 +6813,7 @@
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
-      <c r="B42" s="45"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6947,7 +6846,7 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
-      <c r="AI42" s="45"/>
+      <c r="AI42" s="48"/>
       <c r="BA42" s="2"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
@@ -6961,7 +6860,7 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="45"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6994,7 +6893,7 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
-      <c r="AI43" s="45"/>
+      <c r="AI43" s="48"/>
       <c r="BA43" s="2"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
@@ -7008,7 +6907,7 @@
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="45"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7041,7 +6940,7 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
-      <c r="AI44" s="45"/>
+      <c r="AI44" s="48"/>
       <c r="BA44" s="2"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
@@ -7055,7 +6954,7 @@
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7088,7 +6987,7 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
-      <c r="AI45" s="45"/>
+      <c r="AI45" s="48"/>
       <c r="BA45" s="2"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
@@ -7102,7 +7001,7 @@
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7135,7 +7034,7 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="45"/>
+      <c r="AI46" s="48"/>
       <c r="BA46" s="2"/>
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
@@ -7149,7 +7048,7 @@
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
-      <c r="B47" s="45"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -7182,7 +7081,7 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
-      <c r="AI47" s="45"/>
+      <c r="AI47" s="48"/>
       <c r="BA47" s="2"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
@@ -7196,7 +7095,7 @@
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
-      <c r="B48" s="45"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -7229,7 +7128,7 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
-      <c r="AI48" s="45"/>
+      <c r="AI48" s="48"/>
       <c r="BA48" s="2"/>
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
@@ -7243,7 +7142,7 @@
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
-      <c r="B49" s="45"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -7276,7 +7175,7 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
-      <c r="AI49" s="45"/>
+      <c r="AI49" s="48"/>
       <c r="BA49" s="2"/>
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
@@ -7290,7 +7189,7 @@
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -7323,7 +7222,7 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
-      <c r="AI50" s="45"/>
+      <c r="AI50" s="48"/>
       <c r="BA50" s="2"/>
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
@@ -7337,7 +7236,7 @@
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -7370,7 +7269,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
-      <c r="AI51" s="45"/>
+      <c r="AI51" s="48"/>
       <c r="BA51" s="2"/>
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
@@ -7384,7 +7283,7 @@
     </row>
     <row r="52" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="2"/>
-      <c r="B52" s="45"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -7417,7 +7316,7 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
-      <c r="AI52" s="45"/>
+      <c r="AI52" s="48"/>
       <c r="BA52" s="2"/>
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
@@ -7431,10 +7330,10 @@
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
-      <c r="B53" s="45"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="43"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -7461,10 +7360,10 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="66"/>
+      <c r="AF53" s="63"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
-      <c r="AI53" s="45"/>
+      <c r="AI53" s="48"/>
       <c r="BA53" s="2"/>
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
@@ -7478,10 +7377,10 @@
     </row>
     <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="2"/>
-      <c r="B54" s="45"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="50"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -7508,10 +7407,10 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="67"/>
+      <c r="AF54" s="64"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
-      <c r="AI54" s="45"/>
+      <c r="AI54" s="48"/>
       <c r="BA54" s="2"/>
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
@@ -7525,40 +7424,40 @@
     </row>
     <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="64"/>
-      <c r="U55" s="64"/>
-      <c r="V55" s="64"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="48"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="48"/>
-      <c r="AE55" s="48"/>
-      <c r="AF55" s="48"/>
-      <c r="AG55" s="48"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="46"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="49"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
@@ -8517,7 +8416,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="B40:B55"/>
+    <mergeCell ref="B22:B37"/>
+    <mergeCell ref="C22:AH22"/>
+    <mergeCell ref="AI22:AI37"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="Y37:AH37"/>
     <mergeCell ref="AI40:AI55"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="AF35:AF36"/>
@@ -8527,17 +8431,12 @@
     <mergeCell ref="AF53:AF54"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="P37:U37"/>
-    <mergeCell ref="B40:B55"/>
-    <mergeCell ref="B22:B37"/>
-    <mergeCell ref="C22:AH22"/>
-    <mergeCell ref="AI22:AI37"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="Y37:AH37"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="C18:AH18"/>
     <mergeCell ref="AI3:AI18"/>
     <mergeCell ref="C3:AH3"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="AF16:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D0D1F-5E6F-4408-934E-B8828DD89E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE2336-C480-41F1-ADD4-460E29554E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -558,13 +558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●例</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●1-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -603,6 +596,89 @@
   </si>
   <si>
     <t>1680*1050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●例_命名規則</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規ステージ（シーン）を作る際は「Reference_Stage」を複製したもので制作すること</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・複製したステージ（シーン）の名前は「stage-○-○」に変更すること</t>
+    <rPh sb="1" eb="3">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規オブジェクトを制作する際は「Objects+・Stages+」内に制作すること</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・既存の「Objects・Stages」はチェック機能を使って有無を管理すること</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1213,21 +1289,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,10 +1313,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3920,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
   <dimension ref="B2:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4011,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>26</v>
@@ -4058,7 +4134,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>27</v>
@@ -4985,6 +5061,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -4992,8 +5070,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5006,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BJ90"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY27" sqref="AY27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5048,7 +5124,7 @@
     <row r="2" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5077,39 +5153,42 @@
     <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="47"/>
+      <c r="AJ3" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
@@ -5157,6 +5236,9 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="48"/>
+      <c r="AJ4" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
@@ -5204,6 +5286,9 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="48"/>
+      <c r="AJ5" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
@@ -5251,6 +5336,9 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="48"/>
+      <c r="AJ6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
@@ -5690,7 +5778,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5717,7 +5805,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="63"/>
+      <c r="AF16" s="60"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="48"/>
@@ -5737,7 +5825,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="54"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5764,7 +5852,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="64"/>
+      <c r="AF17" s="61"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="48"/>
@@ -5782,38 +5870,38 @@
     <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="52"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="64"/>
       <c r="AI18" s="49"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -5883,7 +5971,7 @@
     <row r="21" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5912,41 +6000,41 @@
     <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="57"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="52"/>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
@@ -5996,7 +6084,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="48"/>
       <c r="AJ23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
@@ -6531,7 +6619,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="58"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -6555,7 +6643,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="63"/>
+      <c r="AF35" s="60"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="48"/>
@@ -6575,7 +6663,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="59"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6599,7 +6687,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="64"/>
+      <c r="AF36" s="61"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="48"/>
@@ -6617,38 +6705,38 @@
     <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
       <c r="M37" s="40"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="64"/>
       <c r="V37" s="41"/>
       <c r="W37" s="41"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="61"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="61"/>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="61"/>
-      <c r="AF37" s="61"/>
-      <c r="AG37" s="61"/>
-      <c r="AH37" s="62"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="57"/>
       <c r="AI37" s="49"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -6691,7 +6779,7 @@
     <row r="39" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -6729,20 +6817,20 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="52"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="64"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
       <c r="AB40" s="41"/>
@@ -7333,7 +7421,7 @@
       <c r="B53" s="48"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="53"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -7360,7 +7448,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="63"/>
+      <c r="AF53" s="60"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="48"/>
@@ -7380,7 +7468,7 @@
       <c r="B54" s="48"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="54"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -7407,7 +7495,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="64"/>
+      <c r="AF54" s="61"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="48"/>
@@ -7425,18 +7513,18 @@
     <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
       <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="52"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="64"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -7445,18 +7533,18 @@
       <c r="T55" s="41"/>
       <c r="U55" s="41"/>
       <c r="V55" s="41"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="51"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="52"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
+      <c r="AD55" s="63"/>
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="64"/>
       <c r="AI55" s="49"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
@@ -8416,6 +8504,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="AI3:AI18"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="AF16:AF17"/>
     <mergeCell ref="B40:B55"/>
     <mergeCell ref="B22:B37"/>
     <mergeCell ref="C22:AH22"/>
@@ -8431,12 +8525,6 @@
     <mergeCell ref="AF53:AF54"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="P37:U37"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="AI3:AI18"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AF16:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE2336-C480-41F1-ADD4-460E29554E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCCAD1-991C-4CB5-8EA7-B4BA98255429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -612,25 +612,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・新規ステージ（シーン）を作る際は「Reference_Stage」を複製したもので制作すること</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>フクセイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・複製したステージ（シーン）の名前は「stage-○-○」に変更すること</t>
     <rPh sb="1" eb="3">
       <t>フクセイ</t>
@@ -678,6 +659,53 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規ステージ（シーン）を作る際は「Sample Scene」を複製したもので制作すること</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規オブジェクトを成形する際は必ず「正方形などの四角形体」であること</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セイホウケイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カッケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1289,6 +1317,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,27 +1360,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5061,15 +5089,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5083,7 +5111,7 @@
   <dimension ref="A1:BJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5153,41 +5181,41 @@
     <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
       <c r="AI3" s="47"/>
       <c r="AJ3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
@@ -5237,7 +5265,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="48"/>
       <c r="AJ4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
@@ -5287,7 +5315,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="48"/>
       <c r="AJ5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
@@ -5337,7 +5365,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="48"/>
       <c r="AJ6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
@@ -5386,6 +5414,9 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="48"/>
+      <c r="AJ7" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
@@ -5778,7 +5809,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="58"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5805,7 +5836,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="60"/>
+      <c r="AF16" s="55"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="48"/>
@@ -5825,7 +5856,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="59"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5852,7 +5883,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="61"/>
+      <c r="AF17" s="56"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="48"/>
@@ -5870,38 +5901,38 @@
     <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="64"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
       <c r="AI18" s="49"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -6000,38 +6031,38 @@
     <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="52"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="59"/>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="2" t="s">
         <v>67</v>
@@ -6619,7 +6650,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="53"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -6643,7 +6674,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="60"/>
+      <c r="AF35" s="55"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="48"/>
@@ -6663,7 +6694,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="54"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6687,7 +6718,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="61"/>
+      <c r="AF36" s="56"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="48"/>
@@ -6705,38 +6736,38 @@
     <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="40"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="64"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
       <c r="V37" s="41"/>
       <c r="W37" s="41"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="57"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="64"/>
       <c r="AI37" s="49"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -6817,20 +6848,20 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="64"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="52"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
       <c r="AB40" s="41"/>
@@ -7421,7 +7452,7 @@
       <c r="B53" s="48"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="58"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -7448,7 +7479,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="60"/>
+      <c r="AF53" s="55"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="48"/>
@@ -7468,7 +7499,7 @@
       <c r="B54" s="48"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="59"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -7495,7 +7526,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="61"/>
+      <c r="AF54" s="56"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="48"/>
@@ -7513,18 +7544,18 @@
     <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
       <c r="B55" s="49"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="64"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="52"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -7533,18 +7564,18 @@
       <c r="T55" s="41"/>
       <c r="U55" s="41"/>
       <c r="V55" s="41"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="63"/>
-      <c r="AF55" s="63"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="64"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="52"/>
       <c r="AI55" s="49"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
@@ -8504,12 +8535,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="AI3:AI18"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AF16:AF17"/>
     <mergeCell ref="B40:B55"/>
     <mergeCell ref="B22:B37"/>
     <mergeCell ref="C22:AH22"/>
@@ -8525,6 +8550,12 @@
     <mergeCell ref="AF53:AF54"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="P37:U37"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="AI3:AI18"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="AF16:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCCAD1-991C-4CB5-8EA7-B4BA98255429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BC979-49C3-43A7-BEE0-AB5527D20836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -706,6 +706,19 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・極力、「EnemyとCube（GravityCube）」の干渉を避けること</t>
+    <rPh sb="1" eb="3">
+      <t>キョクリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1317,27 +1330,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,6 +1352,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5089,15 +5102,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,7 +5124,7 @@
   <dimension ref="A1:BJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5181,38 +5194,38 @@
     <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="47"/>
       <c r="AJ3" s="2" t="s">
         <v>74</v>
@@ -5464,6 +5477,9 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="48"/>
+      <c r="AJ8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
@@ -5809,7 +5825,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5836,7 +5852,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="55"/>
+      <c r="AF16" s="60"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="48"/>
@@ -5856,7 +5872,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="54"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5883,7 +5899,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="56"/>
+      <c r="AF17" s="61"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="48"/>
@@ -5901,38 +5917,38 @@
     <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="52"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="64"/>
       <c r="AI18" s="49"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -6031,38 +6047,38 @@
     <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="59"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="52"/>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="2" t="s">
         <v>67</v>
@@ -6650,7 +6666,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="60"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -6674,7 +6690,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="55"/>
+      <c r="AF35" s="60"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="48"/>
@@ -6694,7 +6710,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="61"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6718,7 +6734,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="56"/>
+      <c r="AF36" s="61"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="48"/>
@@ -6736,38 +6752,38 @@
     <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
       <c r="M37" s="40"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="64"/>
       <c r="V37" s="41"/>
       <c r="W37" s="41"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="63"/>
-      <c r="AD37" s="63"/>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="64"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="57"/>
       <c r="AI37" s="49"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -6848,20 +6864,20 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="52"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="64"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
       <c r="AB40" s="41"/>
@@ -7452,7 +7468,7 @@
       <c r="B53" s="48"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="53"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -7479,7 +7495,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="55"/>
+      <c r="AF53" s="60"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="48"/>
@@ -7499,7 +7515,7 @@
       <c r="B54" s="48"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="54"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -7526,7 +7542,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="56"/>
+      <c r="AF54" s="61"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="48"/>
@@ -7544,18 +7560,18 @@
     <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
       <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="52"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="64"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -7564,18 +7580,18 @@
       <c r="T55" s="41"/>
       <c r="U55" s="41"/>
       <c r="V55" s="41"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="51"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="52"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
+      <c r="AD55" s="63"/>
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="64"/>
       <c r="AI55" s="49"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
@@ -8535,6 +8551,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="AI3:AI18"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="AF16:AF17"/>
     <mergeCell ref="B40:B55"/>
     <mergeCell ref="B22:B37"/>
     <mergeCell ref="C22:AH22"/>
@@ -8550,12 +8572,6 @@
     <mergeCell ref="AF53:AF54"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="P37:U37"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="AI3:AI18"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AF16:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BC979-49C3-43A7-BEE0-AB5527D20836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC018A34-00DC-4D66-8784-01DC9361E661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
     <sheet name="オブジェクト一覧" sheetId="5" r:id="rId2"/>
-    <sheet name="ステージ一覧" sheetId="6" r:id="rId3"/>
+    <sheet name="オーディオ一覧 " sheetId="7" r:id="rId3"/>
+    <sheet name="ステージ一覧" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -719,6 +720,294 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>● オーディオリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title・StageSelect</t>
+  </si>
+  <si>
+    <t>Title_BGM</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleとStageSelect内で流れるBGM。風の音などが理想。</t>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢などを選択したときの音。ラスアスとかイイよね。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢などの決定音。ラスアスとかイイよね。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage_BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage内で流れるBGM。砂の音、風の音が理想。</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAUSE画面などで前の選択肢に戻る時の音。ラスアスとかイイよね。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Landing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Revolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔を回転させたときの音。グルンッ！って感じ。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが地面に着地するときの音。タッっていう軽い音で。</t>
+    <rPh sb="7" eb="9">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CubeMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動かせるCubeを動かしたときの音。ｽﾞﾘｽﾞﾘって感じ。</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CubeLanding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cubeが地面に着地したときの音。ドンッ！！と重い音で。</t>
+    <rPh sb="5" eb="7">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemyが動く時の音。ｶｻｶｻって感じで。</t>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴に落ちたり、敵にぶつかったときの音。ラスアスっていいよね。</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールに到達したときの音。CCFF7のラストシーンとかいいよね。</t>
+    <rPh sb="4" eb="6">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -802,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1173,13 +1462,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,6 +1703,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,26 +1748,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5102,6 +5496,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -5109,8 +5505,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5120,10 +5514,269 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
+  <dimension ref="B2:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2"/>
+    <col min="2" max="2" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="3" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="70">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="28">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="28">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="28">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="28">
+        <v>9</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="28">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="28">
+        <v>11</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="30">
+        <v>12</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
@@ -5194,38 +5847,38 @@
     <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
       <c r="AI3" s="47"/>
       <c r="AJ3" s="2" t="s">
         <v>74</v>
@@ -5825,7 +6478,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="58"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5852,7 +6505,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="60"/>
+      <c r="AF16" s="55"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="48"/>
@@ -5872,7 +6525,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="59"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5899,7 +6552,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="61"/>
+      <c r="AF17" s="56"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="48"/>
@@ -5917,38 +6570,38 @@
     <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="64"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
       <c r="AI18" s="49"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -6047,38 +6700,38 @@
     <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="52"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="59"/>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="2" t="s">
         <v>67</v>
@@ -6666,7 +7319,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="53"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -6690,7 +7343,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="60"/>
+      <c r="AF35" s="55"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="48"/>
@@ -6710,7 +7363,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="54"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6734,7 +7387,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="61"/>
+      <c r="AF36" s="56"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="48"/>
@@ -6752,38 +7405,38 @@
     <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="40"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="64"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
       <c r="V37" s="41"/>
       <c r="W37" s="41"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="57"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="64"/>
       <c r="AI37" s="49"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -6864,20 +7517,20 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="64"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="52"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
       <c r="AB40" s="41"/>
@@ -7468,7 +8121,7 @@
       <c r="B53" s="48"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="58"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -7495,7 +8148,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="60"/>
+      <c r="AF53" s="55"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="48"/>
@@ -7515,7 +8168,7 @@
       <c r="B54" s="48"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="59"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -7542,7 +8195,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="61"/>
+      <c r="AF54" s="56"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="48"/>
@@ -7560,18 +8213,18 @@
     <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
       <c r="B55" s="49"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="64"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="52"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -7580,18 +8233,18 @@
       <c r="T55" s="41"/>
       <c r="U55" s="41"/>
       <c r="V55" s="41"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="63"/>
-      <c r="AF55" s="63"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="64"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="52"/>
       <c r="AI55" s="49"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
@@ -8551,12 +9204,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="AI3:AI18"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AF16:AF17"/>
     <mergeCell ref="B40:B55"/>
     <mergeCell ref="B22:B37"/>
     <mergeCell ref="C22:AH22"/>
@@ -8572,6 +9219,12 @@
     <mergeCell ref="AF53:AF54"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="P37:U37"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="AI3:AI18"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="AF16:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC018A34-00DC-4D66-8784-01DC9361E661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A56F2-7597-48B7-9DA3-54FF2BC40099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1008,6 +1008,13 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1552,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +1689,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1694,6 +1713,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,27 +1723,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,26 +1749,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3479,12 +3489,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -3586,12 +3596,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -3648,12 +3658,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -3744,12 +3754,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -4447,13 +4457,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -4474,42 +4484,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
-      <c r="U3" s="43" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
+      <c r="U3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="45"/>
-      <c r="AF3" s="43" t="s">
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="49"/>
+      <c r="AF3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="45"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="49"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -4944,42 +4954,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
-      <c r="U14" s="43" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="U14" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="45"/>
-      <c r="AF14" s="43" t="s">
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="49"/>
+      <c r="AF14" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="45"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="49"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -5271,30 +5281,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="U25" s="43" t="s">
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
+      <c r="U25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="49"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -5496,15 +5506,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5515,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5529,53 +5539,58 @@
     <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="3" style="2"/>
+    <col min="7" max="7" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-    </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="66" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="70">
+      <c r="G3" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -5588,11 +5603,12 @@
       <c r="E5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -5605,11 +5621,12 @@
       <c r="E6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -5622,11 +5639,12 @@
       <c r="E7" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
         <v>5</v>
       </c>
@@ -5639,11 +5657,12 @@
       <c r="E8" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
         <v>6</v>
       </c>
@@ -5656,11 +5675,12 @@
       <c r="E9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="28">
         <v>7</v>
       </c>
@@ -5673,11 +5693,12 @@
       <c r="E10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
         <v>8</v>
       </c>
@@ -5690,11 +5711,12 @@
       <c r="E11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="70"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="28">
         <v>9</v>
       </c>
@@ -5707,11 +5729,12 @@
       <c r="E12" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
         <v>10</v>
       </c>
@@ -5724,11 +5747,12 @@
       <c r="E13" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
         <v>11</v>
       </c>
@@ -5741,11 +5765,12 @@
       <c r="E14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="30">
         <v>12</v>
       </c>
@@ -5758,9 +5783,10 @@
       <c r="E15" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>109</v>
       </c>
+      <c r="G15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5846,40 +5872,40 @@
     </row>
     <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="47"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="52"/>
       <c r="AJ3" s="2" t="s">
         <v>74</v>
       </c>
@@ -5896,7 +5922,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="48"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5929,7 +5955,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="48"/>
+      <c r="AI4" s="53"/>
       <c r="AJ4" s="2" t="s">
         <v>71</v>
       </c>
@@ -5946,7 +5972,7 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5979,7 +6005,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="48"/>
+      <c r="AI5" s="53"/>
       <c r="AJ5" s="2" t="s">
         <v>73</v>
       </c>
@@ -5996,7 +6022,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6029,7 +6055,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="48"/>
+      <c r="AI6" s="53"/>
       <c r="AJ6" s="2" t="s">
         <v>72</v>
       </c>
@@ -6046,7 +6072,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6079,7 +6105,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="48"/>
+      <c r="AI7" s="53"/>
       <c r="AJ7" s="2" t="s">
         <v>75</v>
       </c>
@@ -6096,7 +6122,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="48"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -6129,7 +6155,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="48"/>
+      <c r="AI8" s="53"/>
       <c r="AJ8" s="2" t="s">
         <v>76</v>
       </c>
@@ -6146,7 +6172,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="48"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -6179,7 +6205,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="48"/>
+      <c r="AI9" s="53"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
@@ -6193,7 +6219,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="48"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -6226,7 +6252,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="48"/>
+      <c r="AI10" s="53"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
@@ -6240,7 +6266,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="48"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6273,7 +6299,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="48"/>
+      <c r="AI11" s="53"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
@@ -6287,7 +6313,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6320,7 +6346,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="48"/>
+      <c r="AI12" s="53"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
@@ -6334,7 +6360,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
-      <c r="B13" s="48"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -6367,7 +6393,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="48"/>
+      <c r="AI13" s="53"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
@@ -6381,7 +6407,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -6414,7 +6440,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="48"/>
+      <c r="AI14" s="53"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
@@ -6428,7 +6454,7 @@
     </row>
     <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -6461,7 +6487,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="48"/>
+      <c r="AI15" s="53"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
@@ -6475,10 +6501,10 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6505,10 +6531,10 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="55"/>
+      <c r="AF16" s="65"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="48"/>
+      <c r="AI16" s="53"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
@@ -6522,10 +6548,10 @@
     </row>
     <row r="17" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="54"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6552,10 +6578,10 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="56"/>
+      <c r="AF17" s="66"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="48"/>
+      <c r="AI17" s="53"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
@@ -6569,40 +6595,40 @@
     </row>
     <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="49"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="54"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
@@ -6699,40 +6725,40 @@
     </row>
     <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="47"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="52"/>
       <c r="AJ22" s="2" t="s">
         <v>67</v>
       </c>
@@ -6749,7 +6775,7 @@
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
-      <c r="B23" s="48"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6782,7 +6808,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="48"/>
+      <c r="AI23" s="53"/>
       <c r="AJ23" s="2" t="s">
         <v>68</v>
       </c>
@@ -6799,7 +6825,7 @@
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6832,7 +6858,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="48"/>
+      <c r="AI24" s="53"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
@@ -6846,7 +6872,7 @@
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
-      <c r="B25" s="48"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6879,7 +6905,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="48"/>
+      <c r="AI25" s="53"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
@@ -6893,7 +6919,7 @@
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="48"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6926,7 +6952,7 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="48"/>
+      <c r="AI26" s="53"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
@@ -6940,7 +6966,7 @@
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="48"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6973,7 +6999,7 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="48"/>
+      <c r="AI27" s="53"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
@@ -6987,7 +7013,7 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
-      <c r="B28" s="48"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7020,7 +7046,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="48"/>
+      <c r="AI28" s="53"/>
       <c r="BA28" s="2"/>
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
@@ -7034,7 +7060,7 @@
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7067,7 +7093,7 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="48"/>
+      <c r="AI29" s="53"/>
       <c r="BA29" s="2"/>
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
@@ -7081,7 +7107,7 @@
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7114,7 +7140,7 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="48"/>
+      <c r="AI30" s="53"/>
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
@@ -7128,7 +7154,7 @@
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7161,7 +7187,7 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="48"/>
+      <c r="AI31" s="53"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
@@ -7175,7 +7201,7 @@
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="48"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7208,7 +7234,7 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="48"/>
+      <c r="AI32" s="53"/>
       <c r="BA32" s="2"/>
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
@@ -7222,7 +7248,7 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7255,7 +7281,7 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="48"/>
+      <c r="AI33" s="53"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
@@ -7269,7 +7295,7 @@
     </row>
     <row r="34" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -7302,7 +7328,7 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="48"/>
+      <c r="AI34" s="53"/>
       <c r="BA34" s="2"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
@@ -7316,10 +7342,10 @@
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
-      <c r="B35" s="48"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="60"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -7343,10 +7369,10 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="55"/>
+      <c r="AF35" s="65"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="48"/>
+      <c r="AI35" s="53"/>
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
@@ -7360,10 +7386,10 @@
     </row>
     <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="61"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -7387,10 +7413,10 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="56"/>
+      <c r="AF36" s="66"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="48"/>
+      <c r="AI36" s="53"/>
       <c r="BA36" s="2"/>
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
@@ -7404,40 +7430,40 @@
     </row>
     <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="40"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="69"/>
       <c r="V37" s="41"/>
       <c r="W37" s="41"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="63"/>
-      <c r="AD37" s="63"/>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="49"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="62"/>
+      <c r="AI37" s="54"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
@@ -7507,7 +7533,7 @@
     </row>
     <row r="40" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="2"/>
-      <c r="B40" s="47"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
@@ -7517,20 +7543,20 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="52"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="69"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
       <c r="AB40" s="41"/>
@@ -7540,7 +7566,7 @@
       <c r="AF40" s="41"/>
       <c r="AG40" s="41"/>
       <c r="AH40" s="41"/>
-      <c r="AI40" s="47"/>
+      <c r="AI40" s="52"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
@@ -7554,7 +7580,7 @@
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
-      <c r="B41" s="48"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -7587,7 +7613,7 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
-      <c r="AI41" s="48"/>
+      <c r="AI41" s="53"/>
       <c r="BA41" s="2"/>
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
@@ -7601,7 +7627,7 @@
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
-      <c r="B42" s="48"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -7634,7 +7660,7 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
-      <c r="AI42" s="48"/>
+      <c r="AI42" s="53"/>
       <c r="BA42" s="2"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
@@ -7648,7 +7674,7 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="48"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -7681,7 +7707,7 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
-      <c r="AI43" s="48"/>
+      <c r="AI43" s="53"/>
       <c r="BA43" s="2"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
@@ -7695,7 +7721,7 @@
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="48"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7728,7 +7754,7 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
-      <c r="AI44" s="48"/>
+      <c r="AI44" s="53"/>
       <c r="BA44" s="2"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
@@ -7742,7 +7768,7 @@
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
-      <c r="B45" s="48"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7775,7 +7801,7 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
-      <c r="AI45" s="48"/>
+      <c r="AI45" s="53"/>
       <c r="BA45" s="2"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
@@ -7789,7 +7815,7 @@
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7822,7 +7848,7 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="48"/>
+      <c r="AI46" s="53"/>
       <c r="BA46" s="2"/>
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
@@ -7836,7 +7862,7 @@
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -7869,7 +7895,7 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
-      <c r="AI47" s="48"/>
+      <c r="AI47" s="53"/>
       <c r="BA47" s="2"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
@@ -7883,7 +7909,7 @@
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
-      <c r="B48" s="48"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -7916,7 +7942,7 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
-      <c r="AI48" s="48"/>
+      <c r="AI48" s="53"/>
       <c r="BA48" s="2"/>
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
@@ -7930,7 +7956,7 @@
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
-      <c r="B49" s="48"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -7963,7 +7989,7 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
-      <c r="AI49" s="48"/>
+      <c r="AI49" s="53"/>
       <c r="BA49" s="2"/>
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
@@ -7977,7 +8003,7 @@
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
-      <c r="B50" s="48"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -8010,7 +8036,7 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
-      <c r="AI50" s="48"/>
+      <c r="AI50" s="53"/>
       <c r="BA50" s="2"/>
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
@@ -8024,7 +8050,7 @@
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -8057,7 +8083,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
-      <c r="AI51" s="48"/>
+      <c r="AI51" s="53"/>
       <c r="BA51" s="2"/>
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
@@ -8071,7 +8097,7 @@
     </row>
     <row r="52" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="2"/>
-      <c r="B52" s="48"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -8104,7 +8130,7 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
-      <c r="AI52" s="48"/>
+      <c r="AI52" s="53"/>
       <c r="BA52" s="2"/>
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
@@ -8118,10 +8144,10 @@
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
-      <c r="B53" s="48"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="53"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -8148,10 +8174,10 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="55"/>
+      <c r="AF53" s="65"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
-      <c r="AI53" s="48"/>
+      <c r="AI53" s="53"/>
       <c r="BA53" s="2"/>
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
@@ -8165,10 +8191,10 @@
     </row>
     <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="2"/>
-      <c r="B54" s="48"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="54"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -8195,10 +8221,10 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="56"/>
+      <c r="AF54" s="66"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
-      <c r="AI54" s="48"/>
+      <c r="AI54" s="53"/>
       <c r="BA54" s="2"/>
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
@@ -8212,19 +8238,19 @@
     </row>
     <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="52"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="69"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -8233,19 +8259,19 @@
       <c r="T55" s="41"/>
       <c r="U55" s="41"/>
       <c r="V55" s="41"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="51"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="52"/>
-      <c r="AI55" s="49"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="68"/>
+      <c r="AB55" s="68"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="68"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="68"/>
+      <c r="AG55" s="68"/>
+      <c r="AH55" s="69"/>
+      <c r="AI55" s="54"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
@@ -9204,6 +9230,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="AI3:AI18"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="AF16:AF17"/>
     <mergeCell ref="B40:B55"/>
     <mergeCell ref="B22:B37"/>
     <mergeCell ref="C22:AH22"/>
@@ -9219,12 +9251,6 @@
     <mergeCell ref="AF53:AF54"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="P37:U37"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="AI3:AI18"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AF16:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A56F2-7597-48B7-9DA3-54FF2BC40099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FD8DEE-08A5-4BED-BA46-2D62712F6E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -559,43 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●1-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●1-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・スムーズにCubeを落とすために「サイズ、質量」を要調整。</t>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ヨウチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Cubeの上を通るために「Retry_Zone（下）」を要調整。</t>
-    <rPh sb="6" eb="7">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ヨウチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1680*1050</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1015,6 +978,143 @@
     <t>済</t>
     <rPh sb="0" eb="1">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Z軸は常に「0」の位置にし、微少のズレにも注意すること</t>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・下書き図のオブジェクトは下記の一覧を確認すること</t>
+    <rPh sb="1" eb="3">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･ステージブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･プレイヤーキャラクター（スタート）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･反転ブロック</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･エネミーキャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●時間制限</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・早くしないとエネミーがブロックでゴールを閉じてしまう</t>
+    <rPh sb="1" eb="2">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・足止めギミックを追加？</t>
+    <rPh sb="1" eb="3">
+      <t>アシド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●迷路</t>
+    <rPh sb="1" eb="3">
+      <t>メイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・迷路状の狭い道になってるので、エネミーの動きに気をつけながら通る必要がある</t>
+    <rPh sb="1" eb="4">
+      <t>メイロジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●隠し扉</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トビラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1023,7 +1123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,8 +1171,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,8 +1204,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1415,55 +1534,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1476,8 +1562,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1489,10 +1592,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1501,28 +1602,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1531,24 +1615,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1559,7 +1632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,38 +1741,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1716,68 +1777,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2899,250 +2984,380 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>36225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87918</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>112514</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>34578</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矢印: 下カーブ 11">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7089AF47-95B7-4E0C-B263-E2B76526129A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18082240-50CF-4B4F-8668-5C1B71EC7684}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2017412">
-          <a:off x="2322225" y="7677438"/>
-          <a:ext cx="990689" cy="411480"/>
+        <a:xfrm>
+          <a:off x="571500" y="7985760"/>
+          <a:ext cx="7139940" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedDownArrow">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>122009</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矢印: 下カーブ 12">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCE676A-E1C4-4DBA-8FEE-C0A3671E87A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC22AD93-5317-4688-A7D4-0B00C99C15F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2017412">
-          <a:off x="4389120" y="7665720"/>
-          <a:ext cx="990689" cy="411480"/>
+        <a:xfrm>
+          <a:off x="586740" y="9151620"/>
+          <a:ext cx="5509260" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedDownArrow">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矢印: 上 13">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54D92F4-A488-4EAF-9F2B-2CCE2CEB4D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F232D98-FB5A-415D-A28F-B25FACA2C336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="11780520"/>
-          <a:ext cx="426720" cy="434340"/>
+          <a:off x="6522720" y="9166860"/>
+          <a:ext cx="1196340" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矢印: 上 15">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62748351-73E1-4955-94EF-2326A7129F12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13506BF4-68CB-41A8-9C37-1B1D84152B10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5158740" y="9464040"/>
-          <a:ext cx="426720" cy="434340"/>
+        <a:xfrm>
+          <a:off x="5806440" y="10302240"/>
+          <a:ext cx="1897380" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170F0435-BA9E-4A72-AAFB-45DDAC1A61DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="9372600"/>
+          <a:ext cx="0" cy="2796540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB5CAE2-6B9A-4396-809B-537A1015210D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="10477500"/>
+          <a:ext cx="0" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42DA701-DB1D-4205-9B3B-679BAC080571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="9563100"/>
+          <a:ext cx="0" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3489,12 +3704,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -3596,12 +3811,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -3658,12 +3873,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -3754,12 +3969,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -4457,13 +4672,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -4484,42 +4699,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
-      <c r="U3" s="47" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="49"/>
-      <c r="AF3" s="47" t="s">
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="45"/>
+      <c r="AF3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="49"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="45"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -4532,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>26</v>
@@ -4579,7 +4794,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>27</v>
@@ -4954,42 +5169,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="U14" s="47" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+      <c r="U14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AF14" s="47" t="s">
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="45"/>
+      <c r="AF14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="49"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="45"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -5281,30 +5496,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="49"/>
-      <c r="U25" s="47" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
+      <c r="U25" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="49"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="45"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -5506,15 +5721,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5527,7 +5742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -5544,67 +5759,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="E3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="72" t="s">
-        <v>110</v>
+      <c r="G3" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="46">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="28">
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -5613,16 +5828,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="29"/>
     </row>
@@ -5631,16 +5846,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="29"/>
     </row>
@@ -5649,16 +5864,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G8" s="29"/>
     </row>
@@ -5667,34 +5882,34 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="70"/>
+        <v>95</v>
+      </c>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="28">
         <v>7</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G10" s="29"/>
     </row>
@@ -5703,34 +5918,34 @@
         <v>8</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="70"/>
+        <v>97</v>
+      </c>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="28">
         <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G12" s="29"/>
     </row>
@@ -5739,16 +5954,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G13" s="29"/>
     </row>
@@ -5757,16 +5972,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="29"/>
     </row>
@@ -5775,16 +5990,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G15" s="32"/>
     </row>
@@ -5800,3458 +6015,2833 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
-  <dimension ref="A1:BJ90"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
     <col min="2" max="15" width="3" style="11"/>
-    <col min="16" max="52" width="3" style="2"/>
     <col min="53" max="16384" width="3" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
     </row>
     <row r="2" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A3"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="2" t="s">
+      <c r="A4"/>
+      <c r="B4" s="51"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A5"/>
+      <c r="B5" s="51"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A6"/>
+      <c r="B6" s="51"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A7"/>
+      <c r="B7" s="51"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" t="s">
         <v>71</v>
       </c>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="2" t="s">
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A8"/>
+      <c r="B8" s="51"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" t="s">
         <v>72</v>
       </c>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="53"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="53"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="53"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="53"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="2"/>
-      <c r="BJ12" s="2"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="53"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="53"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
+      <c r="A9"/>
+      <c r="B9" s="51"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+    </row>
+    <row r="10" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10"/>
+      <c r="B10" s="51"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+    </row>
+    <row r="11" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11"/>
+      <c r="B11" s="51"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="AI11" s="52"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+    </row>
+    <row r="12" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12"/>
+      <c r="B12" s="51"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="AI12" s="52"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+    </row>
+    <row r="13" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13"/>
+      <c r="B13" s="51"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="AI13" s="52"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+    </row>
+    <row r="14" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14"/>
+      <c r="B14" s="51"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="AI14" s="52"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
     </row>
     <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="53"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="2"/>
-      <c r="BJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="53"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
-      <c r="BI16" s="2"/>
-      <c r="BJ16" s="2"/>
-    </row>
-    <row r="17" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="53"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2"/>
-    </row>
-    <row r="18" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="54"/>
+      <c r="A15"/>
+      <c r="B15" s="51"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="58"/>
+      <c r="AI15" s="52"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+    </row>
+    <row r="16" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16"/>
+      <c r="B16" s="51"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="60"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="62"/>
+      <c r="AI16" s="52"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+    </row>
+    <row r="17" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17"/>
+      <c r="B17" s="51"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="60"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="65"/>
+      <c r="AI17" s="52"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+    </row>
+    <row r="18" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="54"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
-      <c r="BF18" s="2"/>
-      <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
-      <c r="BI18" s="2"/>
-      <c r="BJ18" s="2"/>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="2"/>
-      <c r="BJ20" s="2"/>
-    </row>
-    <row r="21" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2"/>
-    </row>
-    <row r="22" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="57"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="68"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+    </row>
+    <row r="20" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A21"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="B22" s="51"/>
+      <c r="J22" s="69"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="R22" s="69"/>
+      <c r="Z22" s="69"/>
       <c r="AI22" s="52"/>
-      <c r="AJ22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2"/>
-      <c r="BJ23" s="2"/>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="53"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="2"/>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="53"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="53"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="2"/>
-      <c r="BJ26" s="2"/>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="53"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="2"/>
-      <c r="BI27" s="2"/>
-      <c r="BJ27" s="2"/>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="53"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="53"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="53"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
-      <c r="BE30" s="2"/>
-      <c r="BF30" s="2"/>
-      <c r="BG30" s="2"/>
-      <c r="BH30" s="2"/>
-      <c r="BI30" s="2"/>
-      <c r="BJ30" s="2"/>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="53"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-    </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="53"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="2"/>
-      <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
-      <c r="BE32" s="2"/>
-      <c r="BF32" s="2"/>
-      <c r="BG32" s="2"/>
-      <c r="BH32" s="2"/>
-      <c r="BI32" s="2"/>
-      <c r="BJ32" s="2"/>
+      <c r="AJ22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A23"/>
+      <c r="B23" s="51"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="J23" s="69"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="R23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AI23" s="52"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+      <c r="B24" s="51"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="J24" s="70"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="R24" s="69"/>
+      <c r="T24" s="71"/>
+      <c r="Z24" s="69"/>
+      <c r="AI24" s="52"/>
+      <c r="AK24" s="11"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A25"/>
+      <c r="B25" s="51"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="F25" s="69"/>
+      <c r="G25"/>
+      <c r="I25"/>
+      <c r="J25" s="69"/>
+      <c r="K25"/>
+      <c r="M25"/>
+      <c r="N25" s="69"/>
+      <c r="O25"/>
+      <c r="R25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AI25" s="52"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A26"/>
+      <c r="B26" s="51"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="F26" s="69"/>
+      <c r="I26"/>
+      <c r="J26" s="69"/>
+      <c r="M26"/>
+      <c r="N26" s="69"/>
+      <c r="O26"/>
+      <c r="R26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AI26" s="52"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A27"/>
+      <c r="B27" s="51"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="F27" s="69"/>
+      <c r="I27"/>
+      <c r="J27" s="69"/>
+      <c r="M27"/>
+      <c r="N27" s="69"/>
+      <c r="O27"/>
+      <c r="R27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AI27" s="52"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A28"/>
+      <c r="B28" s="51"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="F28" s="69"/>
+      <c r="G28"/>
+      <c r="I28"/>
+      <c r="J28" s="69"/>
+      <c r="M28"/>
+      <c r="N28" s="69"/>
+      <c r="O28"/>
+      <c r="R28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AI28" s="52"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A29"/>
+      <c r="B29" s="51"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" s="69"/>
+      <c r="G29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29" s="69"/>
+      <c r="O29"/>
+      <c r="R29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AI29" s="52"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A30"/>
+      <c r="B30" s="51"/>
+      <c r="C30"/>
+      <c r="D30" s="60"/>
+      <c r="F30" s="69"/>
+      <c r="G30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" s="69"/>
+      <c r="O30"/>
+      <c r="V30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AI30" s="52"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+      <c r="B31" s="51"/>
+      <c r="C31"/>
+      <c r="D31" s="60"/>
+      <c r="F31" s="69"/>
+      <c r="G31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31" s="69"/>
+      <c r="O31"/>
+      <c r="V31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AI31" s="52"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+    </row>
+    <row r="32" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AI32" s="52"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="53"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
-    </row>
-    <row r="34" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="53"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
-    </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="37"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="53"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2"/>
-      <c r="BJ35" s="2"/>
+      <c r="A33"/>
+      <c r="B33" s="51"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="58"/>
+      <c r="AI33" s="52"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A34"/>
+      <c r="B34" s="51"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="62"/>
+      <c r="AI34" s="52"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+    </row>
+    <row r="35" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35"/>
+      <c r="B35" s="51"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="65"/>
+      <c r="AI35" s="52"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
     </row>
     <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="39"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="53"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-      <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="2"/>
-      <c r="BJ36" s="2"/>
-    </row>
-    <row r="37" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="2"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="61"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="61"/>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="61"/>
-      <c r="AF37" s="61"/>
-      <c r="AG37" s="61"/>
-      <c r="AH37" s="62"/>
-      <c r="AI37" s="54"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="2"/>
-    </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
+      <c r="A36"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="68"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+    </row>
+    <row r="38" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
     </row>
     <row r="39" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-    </row>
-    <row r="40" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
+      <c r="A39"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A40"/>
+      <c r="B40" s="51"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40" s="74"/>
+      <c r="O40"/>
+      <c r="AB40" s="69"/>
+      <c r="AD40" s="74"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="58"/>
       <c r="AI40" s="52"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="2"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="53"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
-    </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="53"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
-      <c r="BD42" s="2"/>
-      <c r="BE42" s="2"/>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="2"/>
+      <c r="A41"/>
+      <c r="B41" s="51"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="AB41" s="69"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="62"/>
+      <c r="AI41" s="52"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+    </row>
+    <row r="42" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42"/>
+      <c r="B42" s="51"/>
+      <c r="D42"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="65"/>
+      <c r="AI42" s="52"/>
+      <c r="BA42"/>
+      <c r="BB42"/>
+      <c r="BC42"/>
+      <c r="BD42"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="53"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
-      <c r="BI43" s="2"/>
-      <c r="BJ43" s="2"/>
+      <c r="A43"/>
+      <c r="B43" s="51"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43" s="69"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="T43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="69"/>
+      <c r="AB43" s="69"/>
+      <c r="AE43" s="69"/>
+      <c r="AF43" s="69"/>
+      <c r="AG43" s="69"/>
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="52"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="53"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="2"/>
-      <c r="BJ44" s="2"/>
+      <c r="A44"/>
+      <c r="B44" s="51"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44" s="69"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="T44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="AI44" s="52"/>
+      <c r="BA44"/>
+      <c r="BB44"/>
+      <c r="BC44"/>
+      <c r="BD44"/>
+      <c r="BE44"/>
+      <c r="BF44"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="53"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="2"/>
-      <c r="BD45" s="2"/>
-      <c r="BE45" s="2"/>
-      <c r="BF45" s="2"/>
-      <c r="BG45" s="2"/>
-      <c r="BH45" s="2"/>
-      <c r="BI45" s="2"/>
-      <c r="BJ45" s="2"/>
+      <c r="A45"/>
+      <c r="B45" s="51"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="T45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="AE45" s="74"/>
+      <c r="AI45" s="52"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="53"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
-      <c r="BE46" s="2"/>
-      <c r="BF46" s="2"/>
-      <c r="BG46" s="2"/>
-      <c r="BH46" s="2"/>
-      <c r="BI46" s="2"/>
-      <c r="BJ46" s="2"/>
+      <c r="A46"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="74"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46" s="69"/>
+      <c r="O46"/>
+      <c r="Q46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="74"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="69"/>
+      <c r="AC46" s="69"/>
+      <c r="AD46" s="69"/>
+      <c r="AE46" s="69"/>
+      <c r="AF46" s="69"/>
+      <c r="AG46" s="69"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="52"/>
+      <c r="BA46"/>
+      <c r="BB46"/>
+      <c r="BC46"/>
+      <c r="BD46"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="53"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="2"/>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="2"/>
-      <c r="BH47" s="2"/>
-      <c r="BI47" s="2"/>
-      <c r="BJ47" s="2"/>
+      <c r="A47"/>
+      <c r="B47" s="51"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47" s="69"/>
+      <c r="O47"/>
+      <c r="Q47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="Z47" s="69"/>
+      <c r="AI47" s="52"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="53"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2"/>
-      <c r="BF48" s="2"/>
-      <c r="BG48" s="2"/>
-      <c r="BH48" s="2"/>
-      <c r="BI48" s="2"/>
-      <c r="BJ48" s="2"/>
+      <c r="A48"/>
+      <c r="B48" s="51"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="69"/>
+      <c r="O48"/>
+      <c r="Q48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="Z48" s="69"/>
+      <c r="AB48" s="60"/>
+      <c r="AI48" s="52"/>
+      <c r="BA48"/>
+      <c r="BB48"/>
+      <c r="BC48"/>
+      <c r="BD48"/>
+      <c r="BE48"/>
+      <c r="BF48"/>
+      <c r="BG48"/>
+      <c r="BH48"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="53"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="2"/>
-      <c r="BH49" s="2"/>
-      <c r="BI49" s="2"/>
-      <c r="BJ49" s="2"/>
+      <c r="A49"/>
+      <c r="B49" s="51"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="69"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" s="69"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49" s="69"/>
+      <c r="O49"/>
+      <c r="T49" s="69"/>
+      <c r="W49" s="69"/>
+      <c r="Z49" s="69"/>
+      <c r="AB49" s="60"/>
+      <c r="AI49" s="52"/>
+      <c r="BA49"/>
+      <c r="BB49"/>
+      <c r="BC49"/>
+      <c r="BD49"/>
+      <c r="BE49"/>
+      <c r="BF49"/>
+      <c r="BG49"/>
+      <c r="BH49"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="53"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
-      <c r="BE50" s="2"/>
-      <c r="BF50" s="2"/>
-      <c r="BG50" s="2"/>
-      <c r="BH50" s="2"/>
-      <c r="BI50" s="2"/>
-      <c r="BJ50" s="2"/>
+      <c r="A50"/>
+      <c r="B50" s="51"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50" s="69"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50" s="69"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50" s="69"/>
+      <c r="O50"/>
+      <c r="T50" s="69"/>
+      <c r="W50" s="69"/>
+      <c r="Z50" s="75"/>
+      <c r="AA50" s="75"/>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="75"/>
+      <c r="AD50" s="75"/>
+      <c r="AE50" s="69"/>
+      <c r="AF50" s="69"/>
+      <c r="AI50" s="52"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="53"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
-      <c r="BE51" s="2"/>
-      <c r="BF51" s="2"/>
-      <c r="BG51" s="2"/>
-      <c r="BH51" s="2"/>
-      <c r="BI51" s="2"/>
-      <c r="BJ51" s="2"/>
-    </row>
-    <row r="52" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="53"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="2"/>
-      <c r="BD52" s="2"/>
-      <c r="BE52" s="2"/>
-      <c r="BF52" s="2"/>
-      <c r="BG52" s="2"/>
-      <c r="BH52" s="2"/>
-      <c r="BI52" s="2"/>
-      <c r="BJ52" s="2"/>
+      <c r="A51"/>
+      <c r="B51" s="51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="69"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="69"/>
+      <c r="AD51" s="69"/>
+      <c r="AE51" s="69"/>
+      <c r="AF51" s="69"/>
+      <c r="AI51" s="52"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+    </row>
+    <row r="52" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A52"/>
+      <c r="B52" s="51"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" s="72"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="AI52" s="52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52"/>
+      <c r="BF52"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="65"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="53"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
-      <c r="BE53" s="2"/>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2"/>
-      <c r="BJ53" s="2"/>
+      <c r="A53"/>
+      <c r="B53" s="51"/>
+      <c r="C53"/>
+      <c r="E53" s="72"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="AI53" s="52"/>
+      <c r="BA53"/>
+      <c r="BB53"/>
+      <c r="BC53"/>
+      <c r="BD53"/>
+      <c r="BE53"/>
+      <c r="BF53"/>
+      <c r="BG53"/>
+      <c r="BH53"/>
+      <c r="BI53"/>
+      <c r="BJ53"/>
     </row>
     <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="66"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="53"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
-    </row>
-    <row r="55" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="2"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="68"/>
-      <c r="AB55" s="68"/>
-      <c r="AC55" s="68"/>
-      <c r="AD55" s="68"/>
-      <c r="AE55" s="68"/>
-      <c r="AF55" s="68"/>
-      <c r="AG55" s="68"/>
-      <c r="AH55" s="69"/>
-      <c r="AI55" s="54"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="2"/>
-      <c r="BD55" s="2"/>
-      <c r="BE55" s="2"/>
-      <c r="BF55" s="2"/>
-      <c r="BG55" s="2"/>
-      <c r="BH55" s="2"/>
-      <c r="BI55" s="2"/>
-      <c r="BJ55" s="2"/>
-    </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="2"/>
-      <c r="BD56" s="2"/>
-      <c r="BE56" s="2"/>
-      <c r="BF56" s="2"/>
-      <c r="BG56" s="2"/>
-      <c r="BH56" s="2"/>
-      <c r="BI56" s="2"/>
-      <c r="BJ56" s="2"/>
+      <c r="A54"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
+      <c r="AE54" s="67"/>
+      <c r="AF54" s="67"/>
+      <c r="AG54" s="67"/>
+      <c r="AH54" s="67"/>
+      <c r="AI54" s="68"/>
+      <c r="BA54"/>
+      <c r="BB54"/>
+      <c r="BC54"/>
+      <c r="BD54"/>
+      <c r="BE54"/>
+      <c r="BF54"/>
+      <c r="BG54"/>
+      <c r="BH54"/>
+      <c r="BI54"/>
+      <c r="BJ54"/>
+    </row>
+    <row r="55" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="BA55"/>
+      <c r="BB55"/>
+      <c r="BC55"/>
+      <c r="BD55"/>
+      <c r="BE55"/>
+      <c r="BF55"/>
+      <c r="BG55"/>
+      <c r="BH55"/>
+      <c r="BI55"/>
+      <c r="BJ55"/>
+    </row>
+    <row r="56" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56"/>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56"/>
+      <c r="BF56"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="2"/>
-      <c r="BE57" s="2"/>
-      <c r="BF57" s="2"/>
-      <c r="BG57" s="2"/>
-      <c r="BH57" s="2"/>
-      <c r="BI57" s="2"/>
-      <c r="BJ57" s="2"/>
-    </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="BA58" s="2"/>
-      <c r="BB58" s="2"/>
-      <c r="BC58" s="2"/>
-      <c r="BD58" s="2"/>
-      <c r="BE58" s="2"/>
-      <c r="BF58" s="2"/>
-      <c r="BG58" s="2"/>
-      <c r="BH58" s="2"/>
-      <c r="BI58" s="2"/>
-      <c r="BJ58" s="2"/>
+      <c r="A57"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="49"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="49"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="49"/>
+      <c r="AI57" s="50"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+    </row>
+    <row r="58" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58"/>
+      <c r="B58" s="51"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" s="69"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58" s="69"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="Z58" s="69"/>
+      <c r="AE58" s="69"/>
+      <c r="AI58" s="52"/>
+      <c r="BA58"/>
+      <c r="BB58"/>
+      <c r="BC58"/>
+      <c r="BD58"/>
+      <c r="BE58"/>
+      <c r="BF58"/>
+      <c r="BG58"/>
+      <c r="BH58"/>
+      <c r="BI58"/>
+      <c r="BJ58"/>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="2"/>
-      <c r="BC59" s="2"/>
-      <c r="BD59" s="2"/>
-      <c r="BE59" s="2"/>
-      <c r="BF59" s="2"/>
-      <c r="BG59" s="2"/>
-      <c r="BH59" s="2"/>
-      <c r="BI59" s="2"/>
-      <c r="BJ59" s="2"/>
+      <c r="A59"/>
+      <c r="B59" s="51"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" s="69"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59" s="69"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="Z59" s="69"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="58"/>
+      <c r="AE59" s="69"/>
+      <c r="AI59" s="52"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="2"/>
-      <c r="BD60" s="2"/>
-      <c r="BE60" s="2"/>
-      <c r="BF60" s="2"/>
-      <c r="BG60" s="2"/>
-      <c r="BH60" s="2"/>
-      <c r="BI60" s="2"/>
-      <c r="BJ60" s="2"/>
-    </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="2"/>
-      <c r="BD61" s="2"/>
-      <c r="BE61" s="2"/>
-      <c r="BF61" s="2"/>
-      <c r="BG61" s="2"/>
-      <c r="BH61" s="2"/>
-      <c r="BI61" s="2"/>
-      <c r="BJ61" s="2"/>
+      <c r="A60"/>
+      <c r="B60" s="51"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" s="69"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60" s="69"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="Z60" s="69"/>
+      <c r="AB60" s="61"/>
+      <c r="AC60" s="62"/>
+      <c r="AE60" s="69"/>
+      <c r="AI60" s="52"/>
+      <c r="BA60"/>
+      <c r="BB60"/>
+      <c r="BC60"/>
+      <c r="BD60"/>
+      <c r="BE60"/>
+      <c r="BF60"/>
+      <c r="BG60"/>
+      <c r="BH60"/>
+      <c r="BI60"/>
+      <c r="BJ60"/>
+    </row>
+    <row r="61" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61"/>
+      <c r="B61" s="51"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" s="69"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61" s="69"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" s="69"/>
+      <c r="U61" s="69"/>
+      <c r="Z61" s="69"/>
+      <c r="AB61" s="64"/>
+      <c r="AC61" s="65"/>
+      <c r="AE61" s="69"/>
+      <c r="AI61" s="52"/>
+      <c r="BA61"/>
+      <c r="BB61"/>
+      <c r="BC61"/>
+      <c r="BD61"/>
+      <c r="BE61"/>
+      <c r="BF61"/>
+      <c r="BG61"/>
+      <c r="BH61"/>
+      <c r="BI61"/>
+      <c r="BJ61"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="BA62" s="2"/>
-      <c r="BB62" s="2"/>
-      <c r="BC62" s="2"/>
-      <c r="BD62" s="2"/>
-      <c r="BE62" s="2"/>
-      <c r="BF62" s="2"/>
-      <c r="BG62" s="2"/>
-      <c r="BH62" s="2"/>
-      <c r="BI62" s="2"/>
-      <c r="BJ62" s="2"/>
+      <c r="A62"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="69"/>
+      <c r="V62" s="69"/>
+      <c r="W62" s="69"/>
+      <c r="X62" s="69"/>
+      <c r="Y62" s="69"/>
+      <c r="Z62" s="69"/>
+      <c r="AA62" s="69"/>
+      <c r="AB62" s="69"/>
+      <c r="AC62" s="69"/>
+      <c r="AD62" s="69"/>
+      <c r="AE62" s="69"/>
+      <c r="AF62" s="69"/>
+      <c r="AG62" s="69"/>
+      <c r="AH62" s="69"/>
+      <c r="AI62" s="52"/>
+      <c r="BA62"/>
+      <c r="BB62"/>
+      <c r="BC62"/>
+      <c r="BD62"/>
+      <c r="BE62"/>
+      <c r="BF62"/>
+      <c r="BG62"/>
+      <c r="BH62"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="BA63" s="2"/>
-      <c r="BB63" s="2"/>
-      <c r="BC63" s="2"/>
-      <c r="BD63" s="2"/>
-      <c r="BE63" s="2"/>
-      <c r="BF63" s="2"/>
-      <c r="BG63" s="2"/>
-      <c r="BH63" s="2"/>
-      <c r="BI63" s="2"/>
-      <c r="BJ63" s="2"/>
+      <c r="A63"/>
+      <c r="B63" s="51"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" s="69"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63" s="69"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63" s="69"/>
+      <c r="U63" s="69"/>
+      <c r="Z63" s="69"/>
+      <c r="AE63" s="69"/>
+      <c r="AI63" s="52"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
     </row>
     <row r="64" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="BA64" s="2"/>
-      <c r="BB64" s="2"/>
-      <c r="BC64" s="2"/>
-      <c r="BD64" s="2"/>
-      <c r="BE64" s="2"/>
-      <c r="BF64" s="2"/>
-      <c r="BG64" s="2"/>
-      <c r="BH64" s="2"/>
-      <c r="BI64" s="2"/>
-      <c r="BJ64" s="2"/>
+      <c r="A64"/>
+      <c r="B64" s="51"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" s="69"/>
+      <c r="J64"/>
+      <c r="K64" s="69"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64" s="69"/>
+      <c r="U64" s="69"/>
+      <c r="Z64" s="69"/>
+      <c r="AE64" s="69"/>
+      <c r="AI64" s="52"/>
+      <c r="BA64"/>
+      <c r="BB64"/>
+      <c r="BC64"/>
+      <c r="BD64"/>
+      <c r="BE64"/>
+      <c r="BF64"/>
+      <c r="BG64"/>
+      <c r="BH64"/>
+      <c r="BI64"/>
+      <c r="BJ64"/>
     </row>
     <row r="65" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="BA65" s="2"/>
-      <c r="BB65" s="2"/>
-      <c r="BC65" s="2"/>
-      <c r="BD65" s="2"/>
-      <c r="BE65" s="2"/>
-      <c r="BF65" s="2"/>
-      <c r="BG65" s="2"/>
-      <c r="BH65" s="2"/>
-      <c r="BI65" s="2"/>
-      <c r="BJ65" s="2"/>
+      <c r="A65"/>
+      <c r="B65" s="51"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" s="69"/>
+      <c r="J65"/>
+      <c r="K65" s="69"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="Z65" s="69"/>
+      <c r="AE65" s="69"/>
+      <c r="AI65" s="52"/>
+      <c r="BA65"/>
+      <c r="BB65"/>
+      <c r="BC65"/>
+      <c r="BD65"/>
+      <c r="BE65"/>
+      <c r="BF65"/>
+      <c r="BG65"/>
+      <c r="BH65"/>
+      <c r="BI65"/>
+      <c r="BJ65"/>
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="2"/>
-      <c r="BD66" s="2"/>
-      <c r="BE66" s="2"/>
-      <c r="BF66" s="2"/>
-      <c r="BG66" s="2"/>
-      <c r="BH66" s="2"/>
-      <c r="BI66" s="2"/>
-      <c r="BJ66" s="2"/>
+      <c r="A66"/>
+      <c r="B66" s="51"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" s="69"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66" s="69"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66" s="69"/>
+      <c r="U66" s="69"/>
+      <c r="Z66" s="69"/>
+      <c r="AE66" s="69"/>
+      <c r="AI66" s="52"/>
+      <c r="BA66"/>
+      <c r="BB66"/>
+      <c r="BC66"/>
+      <c r="BD66"/>
+      <c r="BE66"/>
+      <c r="BF66"/>
+      <c r="BG66"/>
+      <c r="BH66"/>
+      <c r="BI66"/>
+      <c r="BJ66"/>
     </row>
     <row r="67" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="BA67" s="2"/>
-      <c r="BB67" s="2"/>
-      <c r="BC67" s="2"/>
-      <c r="BD67" s="2"/>
-      <c r="BE67" s="2"/>
-      <c r="BF67" s="2"/>
-      <c r="BG67" s="2"/>
-      <c r="BH67" s="2"/>
-      <c r="BI67" s="2"/>
-      <c r="BJ67" s="2"/>
+      <c r="A67"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="69"/>
+      <c r="R67" s="69"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
+      <c r="V67" s="69"/>
+      <c r="W67" s="69"/>
+      <c r="X67" s="69"/>
+      <c r="Y67" s="69"/>
+      <c r="Z67" s="69"/>
+      <c r="AA67" s="69"/>
+      <c r="AB67" s="69"/>
+      <c r="AC67" s="69"/>
+      <c r="AD67" s="69"/>
+      <c r="AE67" s="69"/>
+      <c r="AF67" s="69"/>
+      <c r="AG67" s="69"/>
+      <c r="AH67" s="69"/>
+      <c r="AI67" s="52"/>
+      <c r="BA67"/>
+      <c r="BB67"/>
+      <c r="BC67"/>
+      <c r="BD67"/>
+      <c r="BE67"/>
+      <c r="BF67"/>
+      <c r="BG67"/>
+      <c r="BH67"/>
+      <c r="BI67"/>
+      <c r="BJ67"/>
     </row>
     <row r="68" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="BA68" s="2"/>
-      <c r="BB68" s="2"/>
-      <c r="BC68" s="2"/>
-      <c r="BD68" s="2"/>
-      <c r="BE68" s="2"/>
-      <c r="BF68" s="2"/>
-      <c r="BG68" s="2"/>
-      <c r="BH68" s="2"/>
-      <c r="BI68" s="2"/>
-      <c r="BJ68" s="2"/>
+      <c r="A68"/>
+      <c r="B68" s="51"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" s="69"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68" s="69"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68" s="69"/>
+      <c r="U68" s="69"/>
+      <c r="Z68" s="69"/>
+      <c r="AB68" s="76"/>
+      <c r="AE68" s="75"/>
+      <c r="AI68" s="52"/>
+      <c r="BA68"/>
+      <c r="BB68"/>
+      <c r="BC68"/>
+      <c r="BD68"/>
+      <c r="BE68"/>
+      <c r="BF68"/>
+      <c r="BG68"/>
+      <c r="BH68"/>
+      <c r="BI68"/>
+      <c r="BJ68"/>
     </row>
     <row r="69" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="2"/>
-      <c r="BC69" s="2"/>
-      <c r="BD69" s="2"/>
-      <c r="BE69" s="2"/>
-      <c r="BF69" s="2"/>
-      <c r="BG69" s="2"/>
-      <c r="BH69" s="2"/>
-      <c r="BI69" s="2"/>
-      <c r="BJ69" s="2"/>
+      <c r="A69"/>
+      <c r="B69" s="51"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" s="69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69" s="69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="Z69" s="69"/>
+      <c r="AE69" s="69"/>
+      <c r="AI69" s="52"/>
+      <c r="BA69"/>
+      <c r="BB69"/>
+      <c r="BC69"/>
+      <c r="BD69"/>
+      <c r="BE69"/>
+      <c r="BF69"/>
+      <c r="BG69"/>
+      <c r="BH69"/>
+      <c r="BI69"/>
+      <c r="BJ69"/>
     </row>
     <row r="70" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="BA70" s="2"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
-      <c r="BD70" s="2"/>
-      <c r="BE70" s="2"/>
-      <c r="BF70" s="2"/>
-      <c r="BG70" s="2"/>
-      <c r="BH70" s="2"/>
-      <c r="BI70" s="2"/>
-      <c r="BJ70" s="2"/>
+      <c r="A70"/>
+      <c r="B70" s="51"/>
+      <c r="C70"/>
+      <c r="D70" s="60"/>
+      <c r="F70" s="69"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" s="69"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="Z70" s="69"/>
+      <c r="AE70" s="69"/>
+      <c r="AI70" s="52"/>
+      <c r="BA70"/>
+      <c r="BB70"/>
+      <c r="BC70"/>
+      <c r="BD70"/>
+      <c r="BE70"/>
+      <c r="BF70"/>
+      <c r="BG70"/>
+      <c r="BH70"/>
+      <c r="BI70"/>
+      <c r="BJ70"/>
     </row>
     <row r="71" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="BA71" s="2"/>
-      <c r="BB71" s="2"/>
-      <c r="BC71" s="2"/>
-      <c r="BD71" s="2"/>
-      <c r="BE71" s="2"/>
-      <c r="BF71" s="2"/>
-      <c r="BG71" s="2"/>
-      <c r="BH71" s="2"/>
-      <c r="BI71" s="2"/>
-      <c r="BJ71" s="2"/>
-    </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="BA72" s="2"/>
-      <c r="BB72" s="2"/>
-      <c r="BC72" s="2"/>
-      <c r="BD72" s="2"/>
-      <c r="BE72" s="2"/>
-      <c r="BF72" s="2"/>
-      <c r="BG72" s="2"/>
-      <c r="BH72" s="2"/>
-      <c r="BI72" s="2"/>
-      <c r="BJ72" s="2"/>
+      <c r="A71"/>
+      <c r="B71" s="51"/>
+      <c r="C71"/>
+      <c r="D71" s="60"/>
+      <c r="F71" s="69"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71" s="69"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="Z71" s="69"/>
+      <c r="AE71" s="69"/>
+      <c r="AI71" s="52"/>
+      <c r="BA71"/>
+      <c r="BB71"/>
+      <c r="BC71"/>
+      <c r="BD71"/>
+      <c r="BE71"/>
+      <c r="BF71"/>
+      <c r="BG71"/>
+      <c r="BH71"/>
+      <c r="BI71"/>
+      <c r="BJ71"/>
+    </row>
+    <row r="72" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="67"/>
+      <c r="AA72" s="67"/>
+      <c r="AB72" s="67"/>
+      <c r="AC72" s="67"/>
+      <c r="AD72" s="67"/>
+      <c r="AE72" s="67"/>
+      <c r="AF72" s="67"/>
+      <c r="AG72" s="67"/>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="68"/>
+      <c r="BA72"/>
+      <c r="BB72"/>
+      <c r="BC72"/>
+      <c r="BD72"/>
+      <c r="BE72"/>
+      <c r="BF72"/>
+      <c r="BG72"/>
+      <c r="BH72"/>
+      <c r="BI72"/>
+      <c r="BJ72"/>
     </row>
     <row r="73" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="BA73" s="2"/>
-      <c r="BB73" s="2"/>
-      <c r="BC73" s="2"/>
-      <c r="BD73" s="2"/>
-      <c r="BE73" s="2"/>
-      <c r="BF73" s="2"/>
-      <c r="BG73" s="2"/>
-      <c r="BH73" s="2"/>
-      <c r="BI73" s="2"/>
-      <c r="BJ73" s="2"/>
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="BA73"/>
+      <c r="BB73"/>
+      <c r="BC73"/>
+      <c r="BD73"/>
+      <c r="BE73"/>
+      <c r="BF73"/>
+      <c r="BG73"/>
+      <c r="BH73"/>
+      <c r="BI73"/>
+      <c r="BJ73"/>
     </row>
     <row r="74" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="BA74" s="2"/>
-      <c r="BB74" s="2"/>
-      <c r="BC74" s="2"/>
-      <c r="BD74" s="2"/>
-      <c r="BE74" s="2"/>
-      <c r="BF74" s="2"/>
-      <c r="BG74" s="2"/>
-      <c r="BH74" s="2"/>
-      <c r="BI74" s="2"/>
-      <c r="BJ74" s="2"/>
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="BA74"/>
+      <c r="BB74"/>
+      <c r="BC74"/>
+      <c r="BD74"/>
+      <c r="BE74"/>
+      <c r="BF74"/>
+      <c r="BG74"/>
+      <c r="BH74"/>
+      <c r="BI74"/>
+      <c r="BJ74"/>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="BA75" s="2"/>
-      <c r="BB75" s="2"/>
-      <c r="BC75" s="2"/>
-      <c r="BD75" s="2"/>
-      <c r="BE75" s="2"/>
-      <c r="BF75" s="2"/>
-      <c r="BG75" s="2"/>
-      <c r="BH75" s="2"/>
-      <c r="BI75" s="2"/>
-      <c r="BJ75" s="2"/>
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="BA75"/>
+      <c r="BB75"/>
+      <c r="BC75"/>
+      <c r="BD75"/>
+      <c r="BE75"/>
+      <c r="BF75"/>
+      <c r="BG75"/>
+      <c r="BH75"/>
+      <c r="BI75"/>
+      <c r="BJ75"/>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="BA76" s="2"/>
-      <c r="BB76" s="2"/>
-      <c r="BC76" s="2"/>
-      <c r="BD76" s="2"/>
-      <c r="BE76" s="2"/>
-      <c r="BF76" s="2"/>
-      <c r="BG76" s="2"/>
-      <c r="BH76" s="2"/>
-      <c r="BI76" s="2"/>
-      <c r="BJ76" s="2"/>
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="BA76"/>
+      <c r="BB76"/>
+      <c r="BC76"/>
+      <c r="BD76"/>
+      <c r="BE76"/>
+      <c r="BF76"/>
+      <c r="BG76"/>
+      <c r="BH76"/>
+      <c r="BI76"/>
+      <c r="BJ76"/>
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="BA77" s="2"/>
-      <c r="BB77" s="2"/>
-      <c r="BC77" s="2"/>
-      <c r="BD77" s="2"/>
-      <c r="BE77" s="2"/>
-      <c r="BF77" s="2"/>
-      <c r="BG77" s="2"/>
-      <c r="BH77" s="2"/>
-      <c r="BI77" s="2"/>
-      <c r="BJ77" s="2"/>
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="BA77"/>
+      <c r="BB77"/>
+      <c r="BC77"/>
+      <c r="BD77"/>
+      <c r="BE77"/>
+      <c r="BF77"/>
+      <c r="BG77"/>
+      <c r="BH77"/>
+      <c r="BI77"/>
+      <c r="BJ77"/>
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="BA78" s="2"/>
-      <c r="BB78" s="2"/>
-      <c r="BC78" s="2"/>
-      <c r="BD78" s="2"/>
-      <c r="BE78" s="2"/>
-      <c r="BF78" s="2"/>
-      <c r="BG78" s="2"/>
-      <c r="BH78" s="2"/>
-      <c r="BI78" s="2"/>
-      <c r="BJ78" s="2"/>
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="BA78"/>
+      <c r="BB78"/>
+      <c r="BC78"/>
+      <c r="BD78"/>
+      <c r="BE78"/>
+      <c r="BF78"/>
+      <c r="BG78"/>
+      <c r="BH78"/>
+      <c r="BI78"/>
+      <c r="BJ78"/>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="BA79" s="2"/>
-      <c r="BB79" s="2"/>
-      <c r="BC79" s="2"/>
-      <c r="BD79" s="2"/>
-      <c r="BE79" s="2"/>
-      <c r="BF79" s="2"/>
-      <c r="BG79" s="2"/>
-      <c r="BH79" s="2"/>
-      <c r="BI79" s="2"/>
-      <c r="BJ79" s="2"/>
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="BA79"/>
+      <c r="BB79"/>
+      <c r="BC79"/>
+      <c r="BD79"/>
+      <c r="BE79"/>
+      <c r="BF79"/>
+      <c r="BG79"/>
+      <c r="BH79"/>
+      <c r="BI79"/>
+      <c r="BJ79"/>
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="BA80" s="2"/>
-      <c r="BB80" s="2"/>
-      <c r="BC80" s="2"/>
-      <c r="BD80" s="2"/>
-      <c r="BE80" s="2"/>
-      <c r="BF80" s="2"/>
-      <c r="BG80" s="2"/>
-      <c r="BH80" s="2"/>
-      <c r="BI80" s="2"/>
-      <c r="BJ80" s="2"/>
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="BA80"/>
+      <c r="BB80"/>
+      <c r="BC80"/>
+      <c r="BD80"/>
+      <c r="BE80"/>
+      <c r="BF80"/>
+      <c r="BG80"/>
+      <c r="BH80"/>
+      <c r="BI80"/>
+      <c r="BJ80"/>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="BA81" s="2"/>
-      <c r="BB81" s="2"/>
-      <c r="BC81" s="2"/>
-      <c r="BD81" s="2"/>
-      <c r="BE81" s="2"/>
-      <c r="BF81" s="2"/>
-      <c r="BG81" s="2"/>
-      <c r="BH81" s="2"/>
-      <c r="BI81" s="2"/>
-      <c r="BJ81" s="2"/>
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="BA81"/>
+      <c r="BB81"/>
+      <c r="BC81"/>
+      <c r="BD81"/>
+      <c r="BE81"/>
+      <c r="BF81"/>
+      <c r="BG81"/>
+      <c r="BH81"/>
+      <c r="BI81"/>
+      <c r="BJ81"/>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="BA82" s="2"/>
-      <c r="BB82" s="2"/>
-      <c r="BC82" s="2"/>
-      <c r="BD82" s="2"/>
-      <c r="BE82" s="2"/>
-      <c r="BF82" s="2"/>
-      <c r="BG82" s="2"/>
-      <c r="BH82" s="2"/>
-      <c r="BI82" s="2"/>
-      <c r="BJ82" s="2"/>
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="BA82"/>
+      <c r="BB82"/>
+      <c r="BC82"/>
+      <c r="BD82"/>
+      <c r="BE82"/>
+      <c r="BF82"/>
+      <c r="BG82"/>
+      <c r="BH82"/>
+      <c r="BI82"/>
+      <c r="BJ82"/>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="BA83" s="2"/>
-      <c r="BB83" s="2"/>
-      <c r="BC83" s="2"/>
-      <c r="BD83" s="2"/>
-      <c r="BE83" s="2"/>
-      <c r="BF83" s="2"/>
-      <c r="BG83" s="2"/>
-      <c r="BH83" s="2"/>
-      <c r="BI83" s="2"/>
-      <c r="BJ83" s="2"/>
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="BA83"/>
+      <c r="BB83"/>
+      <c r="BC83"/>
+      <c r="BD83"/>
+      <c r="BE83"/>
+      <c r="BF83"/>
+      <c r="BG83"/>
+      <c r="BH83"/>
+      <c r="BI83"/>
+      <c r="BJ83"/>
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="BA84" s="2"/>
-      <c r="BB84" s="2"/>
-      <c r="BC84" s="2"/>
-      <c r="BD84" s="2"/>
-      <c r="BE84" s="2"/>
-      <c r="BF84" s="2"/>
-      <c r="BG84" s="2"/>
-      <c r="BH84" s="2"/>
-      <c r="BI84" s="2"/>
-      <c r="BJ84" s="2"/>
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="BA84"/>
+      <c r="BB84"/>
+      <c r="BC84"/>
+      <c r="BD84"/>
+      <c r="BE84"/>
+      <c r="BF84"/>
+      <c r="BG84"/>
+      <c r="BH84"/>
+      <c r="BI84"/>
+      <c r="BJ84"/>
     </row>
     <row r="85" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="BA85" s="2"/>
-      <c r="BB85" s="2"/>
-      <c r="BC85" s="2"/>
-      <c r="BD85" s="2"/>
-      <c r="BE85" s="2"/>
-      <c r="BF85" s="2"/>
-      <c r="BG85" s="2"/>
-      <c r="BH85" s="2"/>
-      <c r="BI85" s="2"/>
-      <c r="BJ85" s="2"/>
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="BA85"/>
+      <c r="BB85"/>
+      <c r="BC85"/>
+      <c r="BD85"/>
+      <c r="BE85"/>
+      <c r="BF85"/>
+      <c r="BG85"/>
+      <c r="BH85"/>
+      <c r="BI85"/>
+      <c r="BJ85"/>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="BA86" s="2"/>
-      <c r="BB86" s="2"/>
-      <c r="BC86" s="2"/>
-      <c r="BD86" s="2"/>
-      <c r="BE86" s="2"/>
-      <c r="BF86" s="2"/>
-      <c r="BG86" s="2"/>
-      <c r="BH86" s="2"/>
-      <c r="BI86" s="2"/>
-      <c r="BJ86" s="2"/>
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="BA86"/>
+      <c r="BB86"/>
+      <c r="BC86"/>
+      <c r="BD86"/>
+      <c r="BE86"/>
+      <c r="BF86"/>
+      <c r="BG86"/>
+      <c r="BH86"/>
+      <c r="BI86"/>
+      <c r="BJ86"/>
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="BA87" s="2"/>
-      <c r="BB87" s="2"/>
-      <c r="BC87" s="2"/>
-      <c r="BD87" s="2"/>
-      <c r="BE87" s="2"/>
-      <c r="BF87" s="2"/>
-      <c r="BG87" s="2"/>
-      <c r="BH87" s="2"/>
-      <c r="BI87" s="2"/>
-      <c r="BJ87" s="2"/>
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="BA87"/>
+      <c r="BB87"/>
+      <c r="BC87"/>
+      <c r="BD87"/>
+      <c r="BE87"/>
+      <c r="BF87"/>
+      <c r="BG87"/>
+      <c r="BH87"/>
+      <c r="BI87"/>
+      <c r="BJ87"/>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="BA88" s="2"/>
-      <c r="BB88" s="2"/>
-      <c r="BC88" s="2"/>
-      <c r="BD88" s="2"/>
-      <c r="BE88" s="2"/>
-      <c r="BF88" s="2"/>
-      <c r="BG88" s="2"/>
-      <c r="BH88" s="2"/>
-      <c r="BI88" s="2"/>
-      <c r="BJ88" s="2"/>
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="BA88"/>
+      <c r="BB88"/>
+      <c r="BC88"/>
+      <c r="BD88"/>
+      <c r="BE88"/>
+      <c r="BF88"/>
+      <c r="BG88"/>
+      <c r="BH88"/>
+      <c r="BI88"/>
+      <c r="BJ88"/>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="BA89" s="2"/>
-      <c r="BB89" s="2"/>
-      <c r="BC89" s="2"/>
-      <c r="BD89" s="2"/>
-      <c r="BE89" s="2"/>
-      <c r="BF89" s="2"/>
-      <c r="BG89" s="2"/>
-      <c r="BH89" s="2"/>
-      <c r="BI89" s="2"/>
-      <c r="BJ89" s="2"/>
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="BA89"/>
+      <c r="BB89"/>
+      <c r="BC89"/>
+      <c r="BD89"/>
+      <c r="BE89"/>
+      <c r="BF89"/>
+      <c r="BG89"/>
+      <c r="BH89"/>
+      <c r="BI89"/>
+      <c r="BJ89"/>
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="BA90" s="2"/>
-      <c r="BB90" s="2"/>
-      <c r="BC90" s="2"/>
-      <c r="BD90" s="2"/>
-      <c r="BE90" s="2"/>
-      <c r="BF90" s="2"/>
-      <c r="BG90" s="2"/>
-      <c r="BH90" s="2"/>
-      <c r="BI90" s="2"/>
-      <c r="BJ90" s="2"/>
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="BA90"/>
+      <c r="BB90"/>
+      <c r="BC90"/>
+      <c r="BD90"/>
+      <c r="BE90"/>
+      <c r="BF90"/>
+      <c r="BG90"/>
+      <c r="BH90"/>
+      <c r="BI90"/>
+      <c r="BJ90"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="AI3:AI18"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="B40:B55"/>
-    <mergeCell ref="B22:B37"/>
-    <mergeCell ref="C22:AH22"/>
-    <mergeCell ref="AI22:AI37"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="Y37:AH37"/>
-    <mergeCell ref="AI40:AI55"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="C55:N55"/>
-    <mergeCell ref="W55:AH55"/>
-    <mergeCell ref="L40:Y40"/>
-    <mergeCell ref="AF53:AF54"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="P37:U37"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FD8DEE-08A5-4BED-BA46-2D62712F6E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22F38F-3D0F-4A07-8656-AACAE2B5490D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="23040" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1067,16 +1067,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・足止めギミックを追加？</t>
-    <rPh sb="1" eb="3">
-      <t>アシド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●迷路</t>
     <rPh sb="1" eb="3">
       <t>メイロ</t>
@@ -1115,6 +1105,141 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・足止めギミックを追加してもよい（穴やエネミーなど）</t>
+    <rPh sb="1" eb="3">
+      <t>アシド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・壁の中にブロックが点在しており、押せるようになっている</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロックのテクスチャは敢えてステージブロックにするのも有り</t>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リトライやブロックを押し戻すなど、としてエネミーを追加してもよい</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・重力ブロックや大きさを変えて、詰み要素を追加しても良い</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●最終面</t>
+    <rPh sb="1" eb="4">
+      <t>サイシュウメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・このステージのみ、X軸のステージ拡張前提として設計</t>
+    <rPh sb="11" eb="12">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・後方から特大エネミーが追いかけてくる強制スクロール形式</t>
+    <rPh sb="1" eb="3">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エネミー、ブロックや穴など道中に障害物を配置</t>
+    <rPh sb="11" eb="12">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1123,7 +1248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1298,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1632,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1762,21 +1895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1862,6 +1980,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3360,6 +3508,437 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA951F-CEFB-4503-93F6-7AAB1B4FF7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="7985760"/>
+          <a:ext cx="7139940" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43965166-95F3-47DB-884B-D5944387460F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586740" y="9151620"/>
+          <a:ext cx="5509260" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85F34D7-3D26-491A-9FAB-059102B63C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6522720" y="9166860"/>
+          <a:ext cx="1196340" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3E816C-3974-4222-88E2-462938C592F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806440" y="10302240"/>
+          <a:ext cx="1897380" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4E55C7-42FA-4C9C-8EAF-58BDDEE692F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="9372600"/>
+          <a:ext cx="0" cy="2796540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B152935-02D2-402E-8F88-702C56AB7601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="10477500"/>
+          <a:ext cx="0" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55D559E-245E-44C5-943F-3F7513339F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="9563100"/>
+          <a:ext cx="0" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D474F0D-8669-4664-993B-0834F320CDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="18920460"/>
+          <a:ext cx="6903720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3704,12 +4283,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -3811,12 +4390,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -3873,12 +4452,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -3969,12 +4548,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -4672,13 +5251,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -4699,42 +5278,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
-      <c r="U3" s="43" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="74"/>
+      <c r="U3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="45"/>
-      <c r="AF3" s="43" t="s">
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="74"/>
+      <c r="AF3" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="45"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="74"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -5169,42 +5748,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
-      <c r="U14" s="43" t="s">
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="U14" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="45"/>
-      <c r="AF14" s="43" t="s">
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AF14" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="45"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="74"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -5496,30 +6075,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="U25" s="43" t="s">
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="74"/>
+      <c r="U25" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="74"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -5721,6 +6300,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -5728,8 +6309,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5759,13 +6338,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -6018,7 +6597,7 @@
   <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18"/>
+      <selection activeCell="AT65" sqref="AT65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6086,40 +6665,40 @@
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A3"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="50"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
       <c r="AJ3" t="s">
         <v>70</v>
       </c>
@@ -6136,7 +6715,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="46"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -6150,7 +6729,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="AI4" s="52"/>
+      <c r="AI4" s="47"/>
       <c r="AJ4" t="s">
         <v>67</v>
       </c>
@@ -6167,7 +6746,7 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5"/>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -6181,7 +6760,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="AI5" s="52"/>
+      <c r="AI5" s="47"/>
       <c r="AJ5" t="s">
         <v>69</v>
       </c>
@@ -6198,7 +6777,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="46"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -6212,7 +6791,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="AI6" s="52"/>
+      <c r="AI6" s="47"/>
       <c r="AJ6" t="s">
         <v>68</v>
       </c>
@@ -6229,7 +6808,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7"/>
-      <c r="B7" s="51"/>
+      <c r="B7" s="46"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -6243,7 +6822,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="AI7" s="52"/>
+      <c r="AI7" s="47"/>
       <c r="AJ7" t="s">
         <v>71</v>
       </c>
@@ -6260,7 +6839,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8"/>
-      <c r="B8" s="51"/>
+      <c r="B8" s="46"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -6274,7 +6853,7 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="AI8" s="52"/>
+      <c r="AI8" s="47"/>
       <c r="AJ8" t="s">
         <v>72</v>
       </c>
@@ -6291,7 +6870,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="46"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -6305,7 +6884,7 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="AI9" s="52"/>
+      <c r="AI9" s="47"/>
       <c r="AJ9" t="s">
         <v>107</v>
       </c>
@@ -6322,7 +6901,7 @@
     </row>
     <row r="10" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="46"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -6336,7 +6915,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="AI10" s="52"/>
+      <c r="AI10" s="47"/>
       <c r="AJ10" t="s">
         <v>108</v>
       </c>
@@ -6353,7 +6932,7 @@
     </row>
     <row r="11" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11"/>
-      <c r="B11" s="51"/>
+      <c r="B11" s="46"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -6367,8 +6946,8 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="AI11" s="52"/>
-      <c r="AK11" s="53"/>
+      <c r="AI11" s="47"/>
+      <c r="AK11" s="48"/>
       <c r="AL11" t="s">
         <v>109</v>
       </c>
@@ -6385,7 +6964,7 @@
     </row>
     <row r="12" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="46"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -6399,8 +6978,8 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="AI12" s="52"/>
-      <c r="AK12" s="54"/>
+      <c r="AI12" s="47"/>
+      <c r="AK12" s="49"/>
       <c r="AL12" t="s">
         <v>110</v>
       </c>
@@ -6417,7 +6996,7 @@
     </row>
     <row r="13" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="46"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -6431,8 +7010,8 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="AI13" s="52"/>
-      <c r="AK13" s="55"/>
+      <c r="AI13" s="47"/>
+      <c r="AK13" s="50"/>
       <c r="AL13" t="s">
         <v>111</v>
       </c>
@@ -6449,7 +7028,7 @@
     </row>
     <row r="14" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="46"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -6463,8 +7042,8 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="AI14" s="52"/>
-      <c r="AK14" s="56"/>
+      <c r="AI14" s="47"/>
+      <c r="AK14" s="51"/>
       <c r="AL14" t="s">
         <v>112</v>
       </c>
@@ -6481,7 +7060,7 @@
     </row>
     <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="46"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -6495,10 +7074,10 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="58"/>
-      <c r="AI15" s="52"/>
-      <c r="AK15" s="59"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="53"/>
+      <c r="AI15" s="47"/>
+      <c r="AK15" s="54"/>
       <c r="AL15" t="s">
         <v>113</v>
       </c>
@@ -6515,10 +7094,10 @@
     </row>
     <row r="16" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="46"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="60"/>
+      <c r="E16" s="55"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -6529,10 +7108,10 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="62"/>
-      <c r="AI16" s="52"/>
-      <c r="AK16" s="63"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="57"/>
+      <c r="AI16" s="47"/>
+      <c r="AK16" s="58"/>
       <c r="AL16" t="s">
         <v>114</v>
       </c>
@@ -6549,10 +7128,10 @@
     </row>
     <row r="17" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="46"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="60"/>
+      <c r="E17" s="55"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -6563,9 +7142,9 @@
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="65"/>
-      <c r="AI17" s="52"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
+      <c r="AI17" s="47"/>
       <c r="BA17"/>
       <c r="BB17"/>
       <c r="BC17"/>
@@ -6579,40 +7158,40 @@
     </row>
     <row r="18" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
       <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>
@@ -6682,40 +7261,40 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A21"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="50"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="45"/>
       <c r="AJ21" t="s">
         <v>116</v>
       </c>
@@ -6732,16 +7311,16 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A22"/>
-      <c r="B22" s="51"/>
-      <c r="J22" s="69"/>
+      <c r="B22" s="46"/>
+      <c r="J22" s="64"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="R22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AI22" s="52"/>
+      <c r="R22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AI22" s="47"/>
       <c r="AJ22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BA22"/>
       <c r="BB22"/>
@@ -6756,17 +7335,17 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A23"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="46"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="J23" s="69"/>
+      <c r="J23" s="64"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
-      <c r="R23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AI23" s="52"/>
+      <c r="R23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AI23" s="47"/>
       <c r="BM23"/>
       <c r="BN23"/>
       <c r="BO23"/>
@@ -6774,18 +7353,18 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A24"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="46"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="65"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="R24" s="69"/>
-      <c r="T24" s="71"/>
-      <c r="Z24" s="69"/>
-      <c r="AI24" s="52"/>
+      <c r="R24" s="64"/>
+      <c r="T24" s="66"/>
+      <c r="Z24" s="64"/>
+      <c r="AI24" s="47"/>
       <c r="AK24" s="11"/>
       <c r="BA24"/>
       <c r="BB24"/>
@@ -6800,22 +7379,22 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A25"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="46"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="F25" s="69"/>
+      <c r="F25" s="64"/>
       <c r="G25"/>
       <c r="I25"/>
-      <c r="J25" s="69"/>
+      <c r="J25" s="64"/>
       <c r="K25"/>
       <c r="M25"/>
-      <c r="N25" s="69"/>
+      <c r="N25" s="64"/>
       <c r="O25"/>
-      <c r="R25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AI25" s="52"/>
+      <c r="R25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AI25" s="47"/>
       <c r="BA25"/>
       <c r="BB25"/>
       <c r="BC25"/>
@@ -6829,20 +7408,20 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A26"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="46"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="F26" s="69"/>
+      <c r="F26" s="64"/>
       <c r="I26"/>
-      <c r="J26" s="69"/>
+      <c r="J26" s="64"/>
       <c r="M26"/>
-      <c r="N26" s="69"/>
+      <c r="N26" s="64"/>
       <c r="O26"/>
-      <c r="R26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AI26" s="52"/>
+      <c r="R26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AI26" s="47"/>
       <c r="BA26"/>
       <c r="BB26"/>
       <c r="BC26"/>
@@ -6856,20 +7435,20 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A27"/>
-      <c r="B27" s="51"/>
+      <c r="B27" s="46"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="F27" s="69"/>
+      <c r="F27" s="64"/>
       <c r="I27"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="64"/>
       <c r="M27"/>
-      <c r="N27" s="69"/>
+      <c r="N27" s="64"/>
       <c r="O27"/>
-      <c r="R27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AI27" s="52"/>
+      <c r="R27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AI27" s="47"/>
       <c r="BA27"/>
       <c r="BB27"/>
       <c r="BC27"/>
@@ -6883,21 +7462,21 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A28"/>
-      <c r="B28" s="51"/>
+      <c r="B28" s="46"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="F28" s="69"/>
+      <c r="F28" s="64"/>
       <c r="G28"/>
       <c r="I28"/>
-      <c r="J28" s="69"/>
+      <c r="J28" s="64"/>
       <c r="M28"/>
-      <c r="N28" s="69"/>
+      <c r="N28" s="64"/>
       <c r="O28"/>
-      <c r="R28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AI28" s="52"/>
+      <c r="R28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AI28" s="47"/>
       <c r="BA28"/>
       <c r="BB28"/>
       <c r="BC28"/>
@@ -6911,23 +7490,23 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A29"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="46"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="69"/>
+      <c r="F29" s="64"/>
       <c r="G29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="69"/>
+      <c r="N29" s="64"/>
       <c r="O29"/>
-      <c r="R29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AI29" s="52"/>
+      <c r="R29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AI29" s="47"/>
       <c r="BA29"/>
       <c r="BB29"/>
       <c r="BC29"/>
@@ -6941,21 +7520,21 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A30"/>
-      <c r="B30" s="51"/>
+      <c r="B30" s="46"/>
       <c r="C30"/>
-      <c r="D30" s="60"/>
-      <c r="F30" s="69"/>
+      <c r="D30" s="55"/>
+      <c r="F30" s="64"/>
       <c r="G30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="69"/>
+      <c r="N30" s="64"/>
       <c r="O30"/>
-      <c r="V30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AI30" s="52"/>
+      <c r="V30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AI30" s="47"/>
       <c r="BA30"/>
       <c r="BB30"/>
       <c r="BC30"/>
@@ -6969,21 +7548,21 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A31"/>
-      <c r="B31" s="51"/>
+      <c r="B31" s="46"/>
       <c r="C31"/>
-      <c r="D31" s="60"/>
-      <c r="F31" s="69"/>
+      <c r="D31" s="55"/>
+      <c r="F31" s="64"/>
       <c r="G31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="69"/>
+      <c r="N31" s="64"/>
       <c r="O31"/>
-      <c r="V31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AI31" s="52"/>
+      <c r="V31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AI31" s="47"/>
       <c r="BA31"/>
       <c r="BB31"/>
       <c r="BC31"/>
@@ -6997,36 +7576,36 @@
     </row>
     <row r="32" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AI32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AI32" s="47"/>
       <c r="BA32"/>
       <c r="BB32"/>
       <c r="BC32"/>
@@ -7040,14 +7619,14 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A33"/>
-      <c r="B33" s="51"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="58"/>
-      <c r="AI33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AI33" s="47"/>
       <c r="BA33"/>
       <c r="BB33"/>
       <c r="BC33"/>
@@ -7061,14 +7640,14 @@
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A34"/>
-      <c r="B34" s="51"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="AF34" s="61"/>
-      <c r="AG34" s="62"/>
-      <c r="AI34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="57"/>
+      <c r="AI34" s="47"/>
       <c r="BA34"/>
       <c r="BB34"/>
       <c r="BC34"/>
@@ -7082,15 +7661,15 @@
     </row>
     <row r="35" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35"/>
-      <c r="B35" s="51"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="65"/>
-      <c r="AI35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="60"/>
+      <c r="AI35" s="47"/>
       <c r="BA35"/>
       <c r="BB35"/>
       <c r="BC35"/>
@@ -7104,40 +7683,40 @@
     </row>
     <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="68"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
+      <c r="AH36" s="62"/>
+      <c r="AI36" s="63"/>
       <c r="BA36"/>
       <c r="BB36"/>
       <c r="BC36"/>
@@ -7179,7 +7758,7 @@
     <row r="38" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -7207,42 +7786,42 @@
     </row>
     <row r="39" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="50"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="45"/>
       <c r="AJ39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BA39"/>
       <c r="BB39"/>
@@ -7257,7 +7836,7 @@
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A40"/>
-      <c r="B40" s="51"/>
+      <c r="B40" s="46"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -7268,13 +7847,13 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="74"/>
+      <c r="N40" s="69"/>
       <c r="O40"/>
-      <c r="AB40" s="69"/>
-      <c r="AD40" s="74"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="58"/>
-      <c r="AI40" s="52"/>
+      <c r="AB40" s="64"/>
+      <c r="AD40" s="69"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="53"/>
+      <c r="AI40" s="47"/>
       <c r="BA40"/>
       <c r="BB40"/>
       <c r="BC40"/>
@@ -7288,7 +7867,7 @@
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A41"/>
-      <c r="B41" s="51"/>
+      <c r="B41" s="46"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -7301,10 +7880,10 @@
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
-      <c r="AB41" s="69"/>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="62"/>
-      <c r="AI41" s="52"/>
+      <c r="AB41" s="64"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="57"/>
+      <c r="AI41" s="47"/>
       <c r="BA41"/>
       <c r="BB41"/>
       <c r="BC41"/>
@@ -7318,33 +7897,33 @@
     </row>
     <row r="42" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42"/>
-      <c r="B42" s="51"/>
+      <c r="B42" s="46"/>
       <c r="D42"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="69"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="65"/>
-      <c r="AI42" s="52"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="60"/>
+      <c r="AI42" s="47"/>
       <c r="BA42"/>
       <c r="BB42"/>
       <c r="BC42"/>
@@ -7358,7 +7937,7 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A43"/>
-      <c r="B43" s="51"/>
+      <c r="B43" s="46"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -7368,20 +7947,20 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43" s="69"/>
+      <c r="L43" s="64"/>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
-      <c r="T43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="69"/>
-      <c r="AB43" s="69"/>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="69"/>
-      <c r="AG43" s="69"/>
-      <c r="AH43" s="69"/>
-      <c r="AI43" s="52"/>
+      <c r="T43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="64"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="64"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="64"/>
+      <c r="AI43" s="47"/>
       <c r="BA43"/>
       <c r="BB43"/>
       <c r="BC43"/>
@@ -7395,7 +7974,7 @@
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A44"/>
-      <c r="B44" s="51"/>
+      <c r="B44" s="46"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -7405,13 +7984,13 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44" s="69"/>
+      <c r="L44" s="64"/>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
-      <c r="T44" s="69"/>
-      <c r="W44" s="69"/>
-      <c r="AI44" s="52"/>
+      <c r="T44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="AI44" s="47"/>
       <c r="BA44"/>
       <c r="BB44"/>
       <c r="BC44"/>
@@ -7425,26 +8004,26 @@
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45"/>
-      <c r="B45" s="51"/>
+      <c r="B45" s="46"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="W45" s="69"/>
-      <c r="AE45" s="74"/>
-      <c r="AI45" s="52"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="AE45" s="69"/>
+      <c r="AI45" s="47"/>
       <c r="BA45"/>
       <c r="BB45"/>
       <c r="BC45"/>
@@ -7458,8 +8037,8 @@
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A46"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="69"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -7469,22 +8048,22 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="69"/>
+      <c r="N46" s="64"/>
       <c r="O46"/>
-      <c r="Q46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="W46" s="69"/>
-      <c r="X46" s="74"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="69"/>
-      <c r="AB46" s="69"/>
-      <c r="AC46" s="69"/>
-      <c r="AD46" s="69"/>
-      <c r="AE46" s="69"/>
-      <c r="AF46" s="69"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="52"/>
+      <c r="Q46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="69"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="64"/>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="64"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="47"/>
       <c r="BA46"/>
       <c r="BB46"/>
       <c r="BC46"/>
@@ -7498,7 +8077,7 @@
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A47"/>
-      <c r="B47" s="51"/>
+      <c r="B47" s="46"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -7508,13 +8087,13 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="69"/>
+      <c r="N47" s="64"/>
       <c r="O47"/>
-      <c r="Q47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="Z47" s="69"/>
-      <c r="AI47" s="52"/>
+      <c r="Q47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AI47" s="47"/>
       <c r="BA47"/>
       <c r="BB47"/>
       <c r="BC47"/>
@@ -7528,26 +8107,26 @@
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48"/>
-      <c r="B48" s="51"/>
+      <c r="B48" s="46"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
       <c r="L48"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="64"/>
       <c r="O48"/>
-      <c r="Q48" s="69"/>
-      <c r="T48" s="69"/>
-      <c r="W48" s="69"/>
-      <c r="Z48" s="69"/>
-      <c r="AB48" s="60"/>
-      <c r="AI48" s="52"/>
+      <c r="Q48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AB48" s="55"/>
+      <c r="AI48" s="47"/>
       <c r="BA48"/>
       <c r="BB48"/>
       <c r="BC48"/>
@@ -7561,25 +8140,25 @@
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A49"/>
-      <c r="B49" s="51"/>
+      <c r="B49" s="46"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="69"/>
+      <c r="E49" s="64"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" s="69"/>
+      <c r="K49" s="64"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="69"/>
+      <c r="N49" s="64"/>
       <c r="O49"/>
-      <c r="T49" s="69"/>
-      <c r="W49" s="69"/>
-      <c r="Z49" s="69"/>
-      <c r="AB49" s="60"/>
-      <c r="AI49" s="52"/>
+      <c r="T49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AB49" s="55"/>
+      <c r="AI49" s="47"/>
       <c r="BA49"/>
       <c r="BB49"/>
       <c r="BC49"/>
@@ -7593,30 +8172,30 @@
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A50"/>
-      <c r="B50" s="51"/>
+      <c r="B50" s="46"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" s="69"/>
+      <c r="E50" s="64"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
-      <c r="K50" s="69"/>
+      <c r="K50" s="64"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="69"/>
+      <c r="N50" s="64"/>
       <c r="O50"/>
-      <c r="T50" s="69"/>
-      <c r="W50" s="69"/>
-      <c r="Z50" s="75"/>
-      <c r="AA50" s="75"/>
-      <c r="AB50" s="75"/>
-      <c r="AC50" s="75"/>
-      <c r="AD50" s="75"/>
-      <c r="AE50" s="69"/>
-      <c r="AF50" s="69"/>
-      <c r="AI50" s="52"/>
+      <c r="T50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="Z50" s="70"/>
+      <c r="AA50" s="70"/>
+      <c r="AB50" s="70"/>
+      <c r="AC50" s="70"/>
+      <c r="AD50" s="70"/>
+      <c r="AE50" s="64"/>
+      <c r="AF50" s="64"/>
+      <c r="AI50" s="47"/>
       <c r="BA50"/>
       <c r="BB50"/>
       <c r="BC50"/>
@@ -7630,36 +8209,36 @@
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A51"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="46"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51" s="69"/>
+      <c r="E51" s="64"/>
       <c r="F51"/>
       <c r="G51"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="69"/>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="69"/>
-      <c r="AI51" s="52"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="64"/>
+      <c r="AF51" s="64"/>
+      <c r="AI51" s="47"/>
       <c r="BA51"/>
       <c r="BB51"/>
       <c r="BC51"/>
@@ -7673,10 +8252,10 @@
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A52"/>
-      <c r="B52" s="51"/>
+      <c r="B52" s="46"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="72"/>
+      <c r="E52" s="67"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -7687,7 +8266,7 @@
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
-      <c r="AI52" s="52"/>
+      <c r="AI52" s="47"/>
       <c r="BA52"/>
       <c r="BB52"/>
       <c r="BC52"/>
@@ -7701,9 +8280,9 @@
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A53"/>
-      <c r="B53" s="51"/>
+      <c r="B53" s="46"/>
       <c r="C53"/>
-      <c r="E53" s="72"/>
+      <c r="E53" s="67"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
@@ -7714,7 +8293,7 @@
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
-      <c r="AI53" s="52"/>
+      <c r="AI53" s="47"/>
       <c r="BA53"/>
       <c r="BB53"/>
       <c r="BC53"/>
@@ -7728,40 +8307,40 @@
     </row>
     <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
-      <c r="AE54" s="67"/>
-      <c r="AF54" s="67"/>
-      <c r="AG54" s="67"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="68"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62"/>
+      <c r="AB54" s="62"/>
+      <c r="AC54" s="62"/>
+      <c r="AD54" s="62"/>
+      <c r="AE54" s="62"/>
+      <c r="AF54" s="62"/>
+      <c r="AG54" s="62"/>
+      <c r="AH54" s="62"/>
+      <c r="AI54" s="63"/>
       <c r="BA54"/>
       <c r="BB54"/>
       <c r="BC54"/>
@@ -7803,7 +8382,7 @@
     <row r="56" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -7831,40 +8410,43 @@
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A57"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="49"/>
-      <c r="AC57" s="49"/>
-      <c r="AD57" s="49"/>
-      <c r="AE57" s="49"/>
-      <c r="AF57" s="49"/>
-      <c r="AG57" s="49"/>
-      <c r="AH57" s="49"/>
-      <c r="AI57" s="50"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="45"/>
+      <c r="AJ57" t="s">
+        <v>121</v>
+      </c>
       <c r="BA57"/>
       <c r="BB57"/>
       <c r="BC57"/>
@@ -7878,21 +8460,21 @@
     </row>
     <row r="58" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58"/>
-      <c r="B58" s="51"/>
+      <c r="B58" s="46"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58" s="69"/>
+      <c r="G58" s="64"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58" s="69"/>
-      <c r="N58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58" s="64"/>
       <c r="O58"/>
-      <c r="P58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="Z58" s="69"/>
-      <c r="AE58" s="69"/>
-      <c r="AI58" s="52"/>
+      <c r="U58" s="64"/>
+      <c r="AB58" s="64"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" t="s">
+        <v>122</v>
+      </c>
       <c r="BA58"/>
       <c r="BB58"/>
       <c r="BC58"/>
@@ -7906,23 +8488,23 @@
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A59"/>
-      <c r="B59" s="51"/>
+      <c r="B59" s="46"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59" s="69"/>
+      <c r="G59" s="64"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59" s="69"/>
-      <c r="N59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59" s="64"/>
       <c r="O59"/>
-      <c r="P59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="Z59" s="69"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="58"/>
-      <c r="AE59" s="69"/>
-      <c r="AI59" s="52"/>
+      <c r="U59" s="64"/>
+      <c r="AB59" s="64"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="53"/>
+      <c r="AI59" s="47"/>
+      <c r="AJ59" t="s">
+        <v>123</v>
+      </c>
       <c r="BA59"/>
       <c r="BB59"/>
       <c r="BC59"/>
@@ -7936,23 +8518,23 @@
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A60"/>
-      <c r="B60" s="51"/>
+      <c r="B60" s="46"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60" s="69"/>
+      <c r="G60" s="68"/>
       <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60" s="69"/>
-      <c r="N60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60" s="64"/>
       <c r="O60"/>
-      <c r="P60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="Z60" s="69"/>
-      <c r="AB60" s="61"/>
-      <c r="AC60" s="62"/>
-      <c r="AE60" s="69"/>
-      <c r="AI60" s="52"/>
+      <c r="U60" s="68"/>
+      <c r="AB60" s="64"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="57"/>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" t="s">
+        <v>124</v>
+      </c>
       <c r="BA60"/>
       <c r="BB60"/>
       <c r="BC60"/>
@@ -7966,23 +8548,20 @@
     </row>
     <row r="61" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="46"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61" s="69"/>
+      <c r="G61" s="68"/>
       <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61" s="69"/>
-      <c r="N61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61" s="64"/>
       <c r="O61"/>
-      <c r="P61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="Z61" s="69"/>
+      <c r="U61" s="68"/>
       <c r="AB61" s="64"/>
-      <c r="AC61" s="65"/>
-      <c r="AE61" s="69"/>
-      <c r="AI61" s="52"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="60"/>
+      <c r="AI61" s="47"/>
       <c r="BA61"/>
       <c r="BB61"/>
       <c r="BC61"/>
@@ -7996,40 +8575,35 @@
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A62"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-      <c r="P62" s="69"/>
-      <c r="Q62" s="69"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
-      <c r="X62" s="69"/>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="69"/>
-      <c r="AB62" s="69"/>
-      <c r="AC62" s="69"/>
-      <c r="AD62" s="69"/>
-      <c r="AE62" s="69"/>
-      <c r="AF62" s="69"/>
-      <c r="AG62" s="69"/>
-      <c r="AH62" s="69"/>
-      <c r="AI62" s="52"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="67"/>
+      <c r="E62"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+      <c r="Z62" s="64"/>
+      <c r="AA62" s="64"/>
+      <c r="AB62" s="64"/>
+      <c r="AC62" s="64"/>
+      <c r="AD62" s="64"/>
+      <c r="AE62" s="64"/>
+      <c r="AF62" s="64"/>
+      <c r="AI62" s="47"/>
       <c r="BA62"/>
       <c r="BB62"/>
       <c r="BC62"/>
@@ -8043,21 +8617,18 @@
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A63"/>
-      <c r="B63" s="51"/>
+      <c r="B63" s="46"/>
       <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63" s="69"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63" s="69"/>
-      <c r="N63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" s="64"/>
+      <c r="M63"/>
       <c r="O63"/>
-      <c r="P63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AE63" s="69"/>
-      <c r="AI63" s="52"/>
+      <c r="P63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="AD63" s="64"/>
+      <c r="AI63" s="47"/>
       <c r="BA63"/>
       <c r="BB63"/>
       <c r="BC63"/>
@@ -8071,20 +8642,17 @@
     </row>
     <row r="64" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A64"/>
-      <c r="B64" s="51"/>
+      <c r="B64" s="46"/>
       <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64" s="69"/>
-      <c r="J64"/>
-      <c r="K64" s="69"/>
-      <c r="N64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" s="64"/>
+      <c r="M64"/>
       <c r="O64"/>
-      <c r="P64" s="69"/>
-      <c r="U64" s="69"/>
-      <c r="Z64" s="69"/>
-      <c r="AE64" s="69"/>
-      <c r="AI64" s="52"/>
+      <c r="P64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="AD64" s="64"/>
+      <c r="AI64" s="47"/>
       <c r="BA64"/>
       <c r="BB64"/>
       <c r="BC64"/>
@@ -8098,19 +8666,16 @@
     </row>
     <row r="65" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A65"/>
-      <c r="B65" s="51"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65" s="69"/>
-      <c r="J65"/>
-      <c r="K65" s="69"/>
-      <c r="N65"/>
+      <c r="B65" s="46"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" s="64"/>
+      <c r="M65"/>
       <c r="O65"/>
-      <c r="P65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AE65" s="69"/>
-      <c r="AI65" s="52"/>
+      <c r="P65" s="64"/>
+      <c r="W65" s="68"/>
+      <c r="AD65" s="68"/>
+      <c r="AI65" s="47"/>
       <c r="BA65"/>
       <c r="BB65"/>
       <c r="BC65"/>
@@ -8124,21 +8689,18 @@
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A66"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="46"/>
       <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66" s="69"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66" s="69"/>
-      <c r="N66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" s="64"/>
+      <c r="M66"/>
       <c r="O66"/>
-      <c r="P66" s="69"/>
-      <c r="U66" s="69"/>
-      <c r="Z66" s="69"/>
-      <c r="AE66" s="69"/>
-      <c r="AI66" s="52"/>
+      <c r="P66" s="64"/>
+      <c r="W66" s="68"/>
+      <c r="AD66" s="68"/>
+      <c r="AI66" s="47"/>
       <c r="BA66"/>
       <c r="BB66"/>
       <c r="BC66"/>
@@ -8152,40 +8714,34 @@
     </row>
     <row r="67" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A67"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="69"/>
-      <c r="R67" s="69"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="69"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="69"/>
-      <c r="Y67" s="69"/>
-      <c r="Z67" s="69"/>
-      <c r="AA67" s="69"/>
-      <c r="AB67" s="69"/>
-      <c r="AC67" s="69"/>
-      <c r="AD67" s="69"/>
-      <c r="AE67" s="69"/>
-      <c r="AF67" s="69"/>
-      <c r="AG67" s="69"/>
-      <c r="AH67" s="69"/>
-      <c r="AI67" s="52"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="64"/>
+      <c r="D67"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="L67"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="T67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="AA67" s="64"/>
+      <c r="AB67" s="64"/>
+      <c r="AC67" s="64"/>
+      <c r="AD67" s="64"/>
+      <c r="AE67" s="64"/>
+      <c r="AF67" s="64"/>
+      <c r="AG67" s="64"/>
+      <c r="AH67" s="64"/>
+      <c r="AI67" s="47"/>
       <c r="BA67"/>
       <c r="BB67"/>
       <c r="BC67"/>
@@ -8199,22 +8755,18 @@
     </row>
     <row r="68" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A68"/>
-      <c r="B68" s="51"/>
+      <c r="B68" s="46"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68" s="69"/>
-      <c r="I68"/>
+      <c r="G68" s="64"/>
       <c r="J68"/>
-      <c r="K68" s="69"/>
-      <c r="N68"/>
+      <c r="M68"/>
+      <c r="N68" s="64"/>
       <c r="O68"/>
-      <c r="P68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="Z68" s="69"/>
-      <c r="AB68" s="76"/>
-      <c r="AE68" s="75"/>
-      <c r="AI68" s="52"/>
+      <c r="U68" s="64"/>
+      <c r="Y68" s="71"/>
+      <c r="AB68" s="64"/>
+      <c r="AI68" s="47"/>
       <c r="BA68"/>
       <c r="BB68"/>
       <c r="BC68"/>
@@ -8228,21 +8780,17 @@
     </row>
     <row r="69" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A69"/>
-      <c r="B69" s="51"/>
+      <c r="B69" s="46"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69" s="69"/>
-      <c r="I69"/>
+      <c r="G69" s="64"/>
       <c r="J69"/>
-      <c r="K69" s="69"/>
-      <c r="N69"/>
+      <c r="M69"/>
+      <c r="N69" s="64"/>
       <c r="O69"/>
-      <c r="P69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AE69" s="69"/>
-      <c r="AI69" s="52"/>
+      <c r="U69" s="64"/>
+      <c r="AB69" s="64"/>
+      <c r="AI69" s="47"/>
       <c r="BA69"/>
       <c r="BB69"/>
       <c r="BC69"/>
@@ -8256,20 +8804,16 @@
     </row>
     <row r="70" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A70"/>
-      <c r="B70" s="51"/>
-      <c r="C70"/>
-      <c r="D70" s="60"/>
-      <c r="F70" s="69"/>
-      <c r="I70"/>
+      <c r="B70" s="46"/>
+      <c r="D70" s="55"/>
+      <c r="G70" s="68"/>
       <c r="J70"/>
-      <c r="K70" s="69"/>
-      <c r="N70"/>
+      <c r="M70"/>
+      <c r="N70" s="68"/>
       <c r="O70"/>
-      <c r="P70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="Z70" s="69"/>
-      <c r="AE70" s="69"/>
-      <c r="AI70" s="52"/>
+      <c r="U70" s="64"/>
+      <c r="AB70" s="68"/>
+      <c r="AI70" s="47"/>
       <c r="BA70"/>
       <c r="BB70"/>
       <c r="BC70"/>
@@ -8283,20 +8827,16 @@
     </row>
     <row r="71" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A71"/>
-      <c r="B71" s="51"/>
-      <c r="C71"/>
-      <c r="D71" s="60"/>
-      <c r="F71" s="69"/>
-      <c r="I71"/>
+      <c r="B71" s="46"/>
+      <c r="D71" s="55"/>
+      <c r="G71" s="68"/>
       <c r="J71"/>
-      <c r="K71" s="69"/>
-      <c r="N71"/>
+      <c r="M71"/>
+      <c r="N71" s="68"/>
       <c r="O71"/>
-      <c r="P71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="Z71" s="69"/>
-      <c r="AE71" s="69"/>
-      <c r="AI71" s="52"/>
+      <c r="U71" s="64"/>
+      <c r="AB71" s="68"/>
+      <c r="AI71" s="47"/>
       <c r="BA71"/>
       <c r="BB71"/>
       <c r="BC71"/>
@@ -8310,40 +8850,40 @@
     </row>
     <row r="72" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="67"/>
-      <c r="O72" s="67"/>
-      <c r="P72" s="67"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="67"/>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
-      <c r="X72" s="67"/>
-      <c r="Y72" s="67"/>
-      <c r="Z72" s="67"/>
-      <c r="AA72" s="67"/>
-      <c r="AB72" s="67"/>
-      <c r="AC72" s="67"/>
-      <c r="AD72" s="67"/>
-      <c r="AE72" s="67"/>
-      <c r="AF72" s="67"/>
-      <c r="AG72" s="67"/>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="68"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="62"/>
+      <c r="U72" s="62"/>
+      <c r="V72" s="62"/>
+      <c r="W72" s="62"/>
+      <c r="X72" s="62"/>
+      <c r="Y72" s="62"/>
+      <c r="Z72" s="62"/>
+      <c r="AA72" s="62"/>
+      <c r="AB72" s="62"/>
+      <c r="AC72" s="62"/>
+      <c r="AD72" s="62"/>
+      <c r="AE72" s="62"/>
+      <c r="AF72" s="62"/>
+      <c r="AG72" s="62"/>
+      <c r="AH72" s="62"/>
+      <c r="AI72" s="63"/>
       <c r="BA72"/>
       <c r="BB72"/>
       <c r="BC72"/>
@@ -8382,9 +8922,11 @@
       <c r="BI73"/>
       <c r="BJ73"/>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74"/>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
@@ -8411,20 +8953,43 @@
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="77"/>
+      <c r="R75" s="77"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="44"/>
+      <c r="X75" s="44"/>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="44"/>
+      <c r="AC75" s="44"/>
+      <c r="AD75" s="44"/>
+      <c r="AE75" s="44"/>
+      <c r="AF75" s="44"/>
+      <c r="AG75" s="44"/>
+      <c r="AH75" s="44"/>
+      <c r="AI75" s="45"/>
+      <c r="AJ75" t="s">
+        <v>126</v>
+      </c>
       <c r="BA75"/>
       <c r="BB75"/>
       <c r="BC75"/>
@@ -8438,7 +9003,7 @@
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A76"/>
-      <c r="B76"/>
+      <c r="B76" s="56"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
@@ -8452,6 +9017,11 @@
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
+      <c r="AC76" s="64"/>
+      <c r="AI76" s="47"/>
+      <c r="AJ76" t="s">
+        <v>127</v>
+      </c>
       <c r="BA76"/>
       <c r="BB76"/>
       <c r="BC76"/>
@@ -8465,10 +9035,10 @@
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -8479,6 +9049,11 @@
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
+      <c r="AC77" s="64"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" t="s">
+        <v>128</v>
+      </c>
       <c r="BA77"/>
       <c r="BB77"/>
       <c r="BC77"/>
@@ -8492,10 +9067,10 @@
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
@@ -8506,6 +9081,8 @@
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
+      <c r="AC78" s="64"/>
+      <c r="AI78" s="47"/>
       <c r="BA78"/>
       <c r="BB78"/>
       <c r="BC78"/>
@@ -8519,10 +9096,10 @@
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
@@ -8533,6 +9110,8 @@
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
+      <c r="AC79" s="64"/>
+      <c r="AI79" s="47"/>
       <c r="BA79"/>
       <c r="BB79"/>
       <c r="BC79"/>
@@ -8546,10 +9125,10 @@
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
@@ -8560,6 +9139,8 @@
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
+      <c r="AC80" s="64"/>
+      <c r="AI80" s="47"/>
       <c r="BA80"/>
       <c r="BB80"/>
       <c r="BC80"/>
@@ -8573,10 +9154,10 @@
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
@@ -8587,6 +9168,8 @@
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
+      <c r="AC81" s="64"/>
+      <c r="AI81" s="47"/>
       <c r="BA81"/>
       <c r="BB81"/>
       <c r="BC81"/>
@@ -8600,10 +9183,10 @@
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
@@ -8614,6 +9197,8 @@
       <c r="M82"/>
       <c r="N82"/>
       <c r="O82"/>
+      <c r="AC82" s="64"/>
+      <c r="AI82" s="47"/>
       <c r="BA82"/>
       <c r="BB82"/>
       <c r="BC82"/>
@@ -8627,10 +9212,10 @@
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
@@ -8641,6 +9226,8 @@
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
+      <c r="AC83" s="64"/>
+      <c r="AI83" s="47"/>
       <c r="BA83"/>
       <c r="BB83"/>
       <c r="BC83"/>
@@ -8654,10 +9241,10 @@
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
@@ -8668,6 +9255,8 @@
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
+      <c r="AC84" s="64"/>
+      <c r="AI84" s="47"/>
       <c r="BA84"/>
       <c r="BB84"/>
       <c r="BC84"/>
@@ -8681,10 +9270,10 @@
     </row>
     <row r="85" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
@@ -8695,6 +9284,8 @@
       <c r="M85"/>
       <c r="N85"/>
       <c r="O85"/>
+      <c r="AC85" s="64"/>
+      <c r="AI85" s="47"/>
       <c r="BA85"/>
       <c r="BB85"/>
       <c r="BC85"/>
@@ -8706,12 +9297,12 @@
       <c r="BI85"/>
       <c r="BJ85"/>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
@@ -8722,6 +9313,8 @@
       <c r="M86"/>
       <c r="N86"/>
       <c r="O86"/>
+      <c r="AC86" s="64"/>
+      <c r="AI86" s="47"/>
       <c r="BA86"/>
       <c r="BB86"/>
       <c r="BC86"/>
@@ -8735,10 +9328,10 @@
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
@@ -8749,6 +9342,12 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
+      <c r="AC87" s="79"/>
+      <c r="AF87" s="52"/>
+      <c r="AG87" s="53"/>
+      <c r="AI87" s="47"/>
       <c r="BA87"/>
       <c r="BB87"/>
       <c r="BC87"/>
@@ -8762,20 +9361,23 @@
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="80"/>
       <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
+      <c r="H88" s="55"/>
       <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="64"/>
+      <c r="AC88" s="79"/>
+      <c r="AF88" s="56"/>
+      <c r="AG88" s="57"/>
+      <c r="AI88" s="47"/>
       <c r="BA88"/>
       <c r="BB88"/>
       <c r="BC88"/>
@@ -8787,22 +9389,25 @@
       <c r="BI88"/>
       <c r="BJ88"/>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="80"/>
       <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
+      <c r="H89" s="55"/>
       <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="64"/>
+      <c r="N89" s="64"/>
+      <c r="O89" s="64"/>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="64"/>
+      <c r="AC89" s="79"/>
+      <c r="AF89" s="59"/>
+      <c r="AG89" s="60"/>
+      <c r="AI89" s="47"/>
       <c r="BA89"/>
       <c r="BB89"/>
       <c r="BC89"/>
@@ -8814,22 +9419,42 @@
       <c r="BI89"/>
       <c r="BJ89"/>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="62"/>
+      <c r="S90" s="62"/>
+      <c r="T90" s="62"/>
+      <c r="U90" s="62"/>
+      <c r="V90" s="62"/>
+      <c r="W90" s="62"/>
+      <c r="X90" s="81"/>
+      <c r="Y90" s="81"/>
+      <c r="Z90" s="81"/>
+      <c r="AA90" s="62"/>
+      <c r="AB90" s="62"/>
+      <c r="AC90" s="62"/>
+      <c r="AD90" s="62"/>
+      <c r="AE90" s="62"/>
+      <c r="AF90" s="62"/>
+      <c r="AG90" s="62"/>
+      <c r="AH90" s="62"/>
+      <c r="AI90" s="63"/>
       <c r="BA90"/>
       <c r="BB90"/>
       <c r="BC90"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22F38F-3D0F-4A07-8656-AACAE2B5490D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CD7F8-7DB7-45D7-8426-7947B0D401BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="23040" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1240,6 +1240,25 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カメラズームやZ軸の障害物設置などで視界制限をつけるものあり</t>
+    <rPh sb="9" eb="10">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1765,7 +1784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1976,10 +1995,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1995,21 +2026,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3187,330 +3203,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC22AD93-5317-4688-A7D4-0B00C99C15F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="586740" y="9151620"/>
-          <a:ext cx="5509260" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F232D98-FB5A-415D-A28F-B25FACA2C336}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6522720" y="9166860"/>
-          <a:ext cx="1196340" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13506BF4-68CB-41A8-9C37-1B1D84152B10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5806440" y="10302240"/>
-          <a:ext cx="1897380" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170F0435-BA9E-4A72-AAFB-45DDAC1A61DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="9372600"/>
-          <a:ext cx="0" cy="2796540"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB5CAE2-6B9A-4396-809B-537A1015210D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2857500" y="10477500"/>
-          <a:ext cx="0" cy="1242060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42DA701-DB1D-4205-9B3B-679BAC080571}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5379720" y="9563100"/>
-          <a:ext cx="0" cy="1943100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -3536,330 +3228,6 @@
         <a:xfrm>
           <a:off x="571500" y="7985760"/>
           <a:ext cx="7139940" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43965166-95F3-47DB-884B-D5944387460F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="586740" y="9151620"/>
-          <a:ext cx="5509260" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85F34D7-3D26-491A-9FAB-059102B63C93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6522720" y="9166860"/>
-          <a:ext cx="1196340" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3E816C-3974-4222-88E2-462938C592F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5806440" y="10302240"/>
-          <a:ext cx="1897380" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4E55C7-42FA-4C9C-8EAF-58BDDEE692F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="9372600"/>
-          <a:ext cx="0" cy="2796540"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B152935-02D2-402E-8F88-702C56AB7601}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2857500" y="10477500"/>
-          <a:ext cx="0" cy="1242060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55D559E-245E-44C5-943F-3F7513339F02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5379720" y="9563100"/>
-          <a:ext cx="0" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3919,6 +3287,330 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2EF1B8-9BBC-49D7-83BF-9B0446A3BF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="12131040"/>
+          <a:ext cx="6454140" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FEFD8A-58A0-40B6-B627-3E695D77C6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="9837420"/>
+          <a:ext cx="0" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F19F3C-9306-4E8B-A16A-20C1DD93B8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="9098280"/>
+          <a:ext cx="0" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B3F4A5-0100-4A9B-941B-D4B66303053D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="10081260"/>
+          <a:ext cx="1927860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A07239-2F68-493F-AEC6-E1409450074F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="9151620"/>
+          <a:ext cx="5349240" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D294C3-8B32-444B-97DE-F0C46F4B42D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="10538460"/>
+          <a:ext cx="1920240" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4283,12 +3975,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4390,12 +4082,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -4452,12 +4144,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -4548,12 +4240,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5251,13 +4943,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5278,42 +4970,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="74"/>
-      <c r="U3" s="72" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
+      <c r="U3" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="74"/>
-      <c r="AF3" s="72" t="s">
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="78"/>
+      <c r="AF3" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="74"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="78"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -5748,42 +5440,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-      <c r="U14" s="72" t="s">
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="78"/>
+      <c r="U14" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
-      <c r="AF14" s="72" t="s">
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="78"/>
+      <c r="AF14" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="74"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="78"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6075,30 +5767,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="74"/>
-      <c r="U25" s="72" t="s">
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="78"/>
+      <c r="U25" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="74"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="78"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6300,15 +5992,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6338,13 +6030,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -6596,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT65" sqref="AT65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO50" sqref="AO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7837,23 +7529,22 @@
     <row r="40" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A40"/>
       <c r="B40" s="46"/>
-      <c r="C40"/>
-      <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
+      <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40" s="69"/>
-      <c r="O40"/>
+      <c r="O40" s="74"/>
       <c r="AB40" s="64"/>
-      <c r="AD40" s="69"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="53"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="53"/>
       <c r="AI40" s="47"/>
+      <c r="AJ40" t="s">
+        <v>129</v>
+      </c>
       <c r="BA40"/>
       <c r="BB40"/>
       <c r="BC40"/>
@@ -7872,6 +7563,7 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
+      <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -7881,8 +7573,8 @@
       <c r="N41"/>
       <c r="O41"/>
       <c r="AB41" s="64"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="57"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="57"/>
       <c r="AI41" s="47"/>
       <c r="BA41"/>
       <c r="BB41"/>
@@ -7898,31 +7590,12 @@
     <row r="42" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42"/>
       <c r="B42" s="46"/>
+      <c r="C42"/>
       <c r="D42"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
+      <c r="O42"/>
       <c r="AB42" s="64"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="60"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="60"/>
       <c r="AI42" s="47"/>
       <c r="BA42"/>
       <c r="BB42"/>
@@ -7938,28 +7611,32 @@
     <row r="43" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A43"/>
       <c r="B43" s="46"/>
-      <c r="C43"/>
       <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
       <c r="L43" s="64"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
       <c r="O43"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
       <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="Z43" s="64"/>
       <c r="AA43" s="64"/>
       <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="64"/>
       <c r="AE43" s="64"/>
       <c r="AF43" s="64"/>
-      <c r="AG43" s="64"/>
-      <c r="AH43" s="64"/>
       <c r="AI43" s="47"/>
       <c r="BA43"/>
       <c r="BB43"/>
@@ -7977,16 +7654,8 @@
       <c r="B44" s="46"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44" s="64"/>
-      <c r="M44"/>
-      <c r="N44"/>
+      <c r="I44" s="74"/>
+      <c r="N44" s="67"/>
       <c r="O44"/>
       <c r="T44" s="64"/>
       <c r="W44" s="64"/>
@@ -8005,24 +7674,12 @@
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45"/>
       <c r="B45" s="46"/>
-      <c r="C45"/>
+      <c r="C45" s="69"/>
       <c r="D45"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
       <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
+      <c r="O45"/>
       <c r="T45" s="64"/>
       <c r="W45" s="64"/>
-      <c r="AE45" s="69"/>
       <c r="AI45" s="47"/>
       <c r="BA45"/>
       <c r="BB45"/>
@@ -8038,31 +7695,15 @@
     <row r="46" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A46"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="69"/>
+      <c r="C46"/>
       <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="J46"/>
-      <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46" s="64"/>
-      <c r="O46"/>
-      <c r="Q46" s="64"/>
       <c r="T46" s="64"/>
       <c r="W46" s="64"/>
       <c r="X46" s="69"/>
-      <c r="Z46" s="64"/>
-      <c r="AA46" s="64"/>
-      <c r="AB46" s="64"/>
-      <c r="AC46" s="64"/>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="64"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="64"/>
+      <c r="AD46" s="69"/>
       <c r="AI46" s="47"/>
       <c r="BA46"/>
       <c r="BB46"/>
@@ -8078,21 +7719,31 @@
     <row r="47" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A47"/>
       <c r="B47" s="46"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="J47"/>
-      <c r="K47"/>
+      <c r="C47"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" s="64"/>
-      <c r="O47"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
       <c r="Q47" s="64"/>
       <c r="T47" s="64"/>
       <c r="W47" s="64"/>
       <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="64"/>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="64"/>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="64"/>
       <c r="AI47" s="47"/>
       <c r="BA47"/>
       <c r="BB47"/>
@@ -8108,24 +7759,15 @@
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48"/>
       <c r="B48" s="46"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48"/>
-      <c r="M48" s="69"/>
+      <c r="E48" s="67"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48" s="67"/>
       <c r="N48" s="64"/>
       <c r="O48"/>
-      <c r="Q48" s="64"/>
       <c r="T48" s="64"/>
       <c r="W48" s="64"/>
       <c r="Z48" s="64"/>
-      <c r="AB48" s="55"/>
       <c r="AI48" s="47"/>
       <c r="BA48"/>
       <c r="BB48"/>
@@ -8146,7 +7788,6 @@
       <c r="E49" s="64"/>
       <c r="F49"/>
       <c r="G49"/>
-      <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="64"/>
@@ -8157,7 +7798,7 @@
       <c r="T49" s="64"/>
       <c r="W49" s="64"/>
       <c r="Z49" s="64"/>
-      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
       <c r="AI49" s="47"/>
       <c r="BA49"/>
       <c r="BB49"/>
@@ -8178,9 +7819,6 @@
       <c r="E50" s="64"/>
       <c r="F50"/>
       <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
       <c r="K50" s="64"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -8188,13 +7826,8 @@
       <c r="O50"/>
       <c r="T50" s="64"/>
       <c r="W50" s="64"/>
-      <c r="Z50" s="70"/>
-      <c r="AA50" s="70"/>
-      <c r="AB50" s="70"/>
-      <c r="AC50" s="70"/>
-      <c r="AD50" s="70"/>
-      <c r="AE50" s="64"/>
-      <c r="AF50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AC50" s="55"/>
       <c r="AI50" s="47"/>
       <c r="BA50"/>
       <c r="BB50"/>
@@ -8258,7 +7891,6 @@
       <c r="E52" s="67"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -8285,7 +7917,6 @@
       <c r="E53" s="67"/>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -8293,6 +7924,7 @@
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
+      <c r="U53" s="69"/>
       <c r="AI53" s="47"/>
       <c r="BA53"/>
       <c r="BB53"/>
@@ -8764,7 +8396,7 @@
       <c r="N68" s="64"/>
       <c r="O68"/>
       <c r="U68" s="64"/>
-      <c r="Y68" s="71"/>
+      <c r="Y68" s="70"/>
       <c r="AB68" s="64"/>
       <c r="AI68" s="47"/>
       <c r="BA68"/>
@@ -8962,14 +8594,14 @@
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
       <c r="J75" s="44"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="77"/>
-      <c r="R75" s="77"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
       <c r="U75" s="44"/>
@@ -9035,7 +8667,7 @@
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A77"/>
-      <c r="B77" s="78"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="69"/>
       <c r="D77" s="69"/>
       <c r="E77" s="69"/>
@@ -9067,7 +8699,7 @@
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A78"/>
-      <c r="B78" s="78"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="69"/>
       <c r="D78" s="69"/>
       <c r="E78" s="69"/>
@@ -9096,7 +8728,7 @@
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A79"/>
-      <c r="B79" s="78"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="69"/>
       <c r="D79" s="69"/>
       <c r="E79" s="69"/>
@@ -9125,7 +8757,7 @@
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A80"/>
-      <c r="B80" s="78"/>
+      <c r="B80" s="72"/>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
       <c r="E80" s="69"/>
@@ -9154,7 +8786,7 @@
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A81"/>
-      <c r="B81" s="78"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
       <c r="E81" s="69"/>
@@ -9183,7 +8815,7 @@
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A82"/>
-      <c r="B82" s="78"/>
+      <c r="B82" s="72"/>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
       <c r="E82" s="69"/>
@@ -9212,7 +8844,7 @@
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A83"/>
-      <c r="B83" s="78"/>
+      <c r="B83" s="72"/>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
       <c r="E83" s="69"/>
@@ -9241,7 +8873,7 @@
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A84"/>
-      <c r="B84" s="78"/>
+      <c r="B84" s="72"/>
       <c r="C84" s="69"/>
       <c r="D84" s="69"/>
       <c r="E84" s="69"/>
@@ -9270,7 +8902,7 @@
     </row>
     <row r="85" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A85"/>
-      <c r="B85" s="78"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="69"/>
       <c r="D85" s="69"/>
       <c r="E85" s="69"/>
@@ -9299,7 +8931,7 @@
     </row>
     <row r="86" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86"/>
-      <c r="B86" s="78"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="69"/>
       <c r="D86" s="69"/>
       <c r="E86" s="69"/>
@@ -9328,7 +8960,7 @@
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A87"/>
-      <c r="B87" s="78"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="69"/>
       <c r="D87" s="69"/>
       <c r="E87" s="69"/>
@@ -9344,7 +8976,7 @@
       <c r="O87"/>
       <c r="P87" s="64"/>
       <c r="Q87" s="64"/>
-      <c r="AC87" s="79"/>
+      <c r="AC87" s="73"/>
       <c r="AF87" s="52"/>
       <c r="AG87" s="53"/>
       <c r="AI87" s="47"/>
@@ -9361,10 +8993,10 @@
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A88"/>
-      <c r="B88" s="78"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="69"/>
       <c r="D88" s="69"/>
-      <c r="E88" s="80"/>
+      <c r="E88" s="74"/>
       <c r="F88"/>
       <c r="H88" s="55"/>
       <c r="I88"/>
@@ -9374,7 +9006,7 @@
       <c r="O88" s="64"/>
       <c r="P88" s="64"/>
       <c r="Q88" s="64"/>
-      <c r="AC88" s="79"/>
+      <c r="AC88" s="73"/>
       <c r="AF88" s="56"/>
       <c r="AG88" s="57"/>
       <c r="AI88" s="47"/>
@@ -9391,10 +9023,10 @@
     </row>
     <row r="89" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89"/>
-      <c r="B89" s="78"/>
+      <c r="B89" s="72"/>
       <c r="C89" s="69"/>
       <c r="D89" s="69"/>
-      <c r="E89" s="80"/>
+      <c r="E89" s="74"/>
       <c r="F89"/>
       <c r="H89" s="55"/>
       <c r="I89"/>
@@ -9404,7 +9036,7 @@
       <c r="O89" s="64"/>
       <c r="P89" s="64"/>
       <c r="Q89" s="64"/>
-      <c r="AC89" s="79"/>
+      <c r="AC89" s="73"/>
       <c r="AF89" s="59"/>
       <c r="AG89" s="60"/>
       <c r="AI89" s="47"/>
@@ -9443,9 +9075,9 @@
       <c r="U90" s="62"/>
       <c r="V90" s="62"/>
       <c r="W90" s="62"/>
-      <c r="X90" s="81"/>
-      <c r="Y90" s="81"/>
-      <c r="Z90" s="81"/>
+      <c r="X90" s="75"/>
+      <c r="Y90" s="75"/>
+      <c r="Z90" s="75"/>
       <c r="AA90" s="62"/>
       <c r="AB90" s="62"/>
       <c r="AC90" s="62"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CD7F8-7DB7-45D7-8426-7947B0D401BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACCBE0-6150-4257-B0BA-33892E7F0A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1260,6 +1260,14 @@
     <rPh sb="21" eb="23">
       <t>セイゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ガチパズル_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●クロネコヤマト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1331,7 +1339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,8 +1376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1778,13 +1792,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,9 +2070,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2027,6 +2111,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3631,6 +3781,545 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6C779-DAB6-4236-AA16-385D46B8B587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="7772400"/>
+          <a:ext cx="7139940" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0755A639-1998-4933-BDC2-11C85E77A3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="18920460"/>
+          <a:ext cx="6903720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2782FDA2-221B-46FA-AB2C-9F58971730D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="12131040"/>
+          <a:ext cx="6454140" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97CCB95-4702-4E52-82E0-B5C404271282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="9837420"/>
+          <a:ext cx="0" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C8C653-466D-4247-BFBD-F0F5C59075B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="9098280"/>
+          <a:ext cx="0" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B90DED9-7955-44A8-9351-2E238FEB2B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="10081260"/>
+          <a:ext cx="1927860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5860DE-69F4-48C2-836A-0FE02E1DF7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="9151620"/>
+          <a:ext cx="5349240" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1008723E-A931-48A8-ADB5-F7C4D2C3B893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="10538460"/>
+          <a:ext cx="1920240" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FB6046-3F29-4084-8B41-33355A84F526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118360" y="6819900"/>
+          <a:ext cx="1463040" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1905605B-8784-4965-8519-FFA1BC52A976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="5013960"/>
+          <a:ext cx="2865120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3975,12 +4664,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4082,12 +4771,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -4144,12 +4833,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -4240,12 +4929,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -4943,13 +5632,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -4970,42 +5659,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="U3" s="76" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="U3" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AF3" s="76" t="s">
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AF3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="78"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="77"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -5440,42 +6129,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="78"/>
-      <c r="U14" s="76" t="s">
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
+      <c r="U14" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="78"/>
-      <c r="AF14" s="76" t="s">
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="77"/>
+      <c r="AF14" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="78"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="77"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -5767,30 +6456,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="76" t="s">
+      <c r="J25" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="78"/>
-      <c r="U25" s="76" t="s">
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="77"/>
+      <c r="U25" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="78"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="77"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -5992,15 +6681,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6030,13 +6719,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -6286,10 +6975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO50" sqref="AO50"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO129" sqref="AO129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6373,7 +7062,7 @@
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
+      <c r="R3" s="80"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
@@ -6421,6 +7110,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
+      <c r="R4" s="81"/>
       <c r="AI4" s="47"/>
       <c r="AJ4" t="s">
         <v>67</v>
@@ -6452,6 +7142,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
+      <c r="R5" s="81"/>
       <c r="AI5" s="47"/>
       <c r="AJ5" t="s">
         <v>69</v>
@@ -6483,6 +7174,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
+      <c r="R6" s="81"/>
       <c r="AI6" s="47"/>
       <c r="AJ6" t="s">
         <v>68</v>
@@ -6514,6 +7206,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
+      <c r="R7" s="81"/>
       <c r="AI7" s="47"/>
       <c r="AJ7" t="s">
         <v>71</v>
@@ -6545,6 +7238,7 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
+      <c r="R8" s="81"/>
       <c r="AI8" s="47"/>
       <c r="AJ8" t="s">
         <v>72</v>
@@ -6576,6 +7270,7 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
+      <c r="R9" s="81"/>
       <c r="AI9" s="47"/>
       <c r="AJ9" t="s">
         <v>107</v>
@@ -6593,21 +7288,40 @@
     </row>
     <row r="10" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10"/>
-      <c r="B10" s="46"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="AI10" s="47"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="85"/>
       <c r="AJ10" t="s">
         <v>108</v>
       </c>
@@ -6638,6 +7352,7 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
+      <c r="R11" s="81"/>
       <c r="AI11" s="47"/>
       <c r="AK11" s="48"/>
       <c r="AL11" t="s">
@@ -6670,6 +7385,7 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
+      <c r="R12" s="81"/>
       <c r="AI12" s="47"/>
       <c r="AK12" s="49"/>
       <c r="AL12" t="s">
@@ -6702,6 +7418,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
+      <c r="R13" s="81"/>
       <c r="AI13" s="47"/>
       <c r="AK13" s="50"/>
       <c r="AL13" t="s">
@@ -6734,6 +7451,7 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
+      <c r="R14" s="81"/>
       <c r="AI14" s="47"/>
       <c r="AK14" s="51"/>
       <c r="AL14" t="s">
@@ -6766,6 +7484,7 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
+      <c r="R15" s="81"/>
       <c r="AE15" s="52"/>
       <c r="AF15" s="53"/>
       <c r="AI15" s="47"/>
@@ -6800,6 +7519,7 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
+      <c r="R16" s="81"/>
       <c r="AE16" s="56"/>
       <c r="AF16" s="57"/>
       <c r="AI16" s="47"/>
@@ -6834,6 +7554,7 @@
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
+      <c r="R17" s="81"/>
       <c r="AE17" s="59"/>
       <c r="AF17" s="60"/>
       <c r="AI17" s="47"/>
@@ -6866,7 +7587,7 @@
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
+      <c r="R18" s="86"/>
       <c r="S18" s="62"/>
       <c r="T18" s="62"/>
       <c r="U18" s="62"/>
@@ -6964,15 +7685,15 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
       <c r="X21" s="44"/>
@@ -7004,12 +7725,9 @@
     <row r="22" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A22"/>
       <c r="B22" s="46"/>
-      <c r="J22" s="64"/>
       <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="R22" s="64"/>
-      <c r="Z22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Z22" s="68"/>
       <c r="AI22" s="47"/>
       <c r="AJ22" t="s">
         <v>120</v>
@@ -7031,12 +7749,8 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="J23" s="64"/>
       <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="R23" s="64"/>
-      <c r="Z23" s="64"/>
+      <c r="P23" s="64"/>
       <c r="AI23" s="47"/>
       <c r="BM23"/>
       <c r="BN23"/>
@@ -7049,13 +7763,8 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="J24" s="65"/>
       <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="R24" s="64"/>
-      <c r="T24" s="66"/>
-      <c r="Z24" s="64"/>
+      <c r="P24" s="64"/>
       <c r="AI24" s="47"/>
       <c r="AK24" s="11"/>
       <c r="BA24"/>
@@ -7074,17 +7783,13 @@
       <c r="B25" s="46"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="F25" s="64"/>
+      <c r="F25"/>
       <c r="G25"/>
-      <c r="I25"/>
-      <c r="J25" s="64"/>
+      <c r="I25" s="64"/>
       <c r="K25"/>
       <c r="M25"/>
-      <c r="N25" s="64"/>
-      <c r="O25"/>
-      <c r="R25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="Z25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="W25" s="64"/>
       <c r="AD25" s="64"/>
       <c r="AI25" s="47"/>
       <c r="BA25"/>
@@ -7103,15 +7808,11 @@
       <c r="B26" s="46"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="F26" s="64"/>
-      <c r="I26"/>
-      <c r="J26" s="64"/>
+      <c r="F26"/>
+      <c r="I26" s="64"/>
       <c r="M26"/>
-      <c r="N26" s="64"/>
-      <c r="O26"/>
-      <c r="R26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="Z26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="W26" s="64"/>
       <c r="AD26" s="64"/>
       <c r="AI26" s="47"/>
       <c r="BA26"/>
@@ -7130,15 +7831,11 @@
       <c r="B27" s="46"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="F27" s="64"/>
-      <c r="I27"/>
-      <c r="J27" s="64"/>
+      <c r="F27"/>
+      <c r="I27" s="65"/>
       <c r="M27"/>
-      <c r="N27" s="64"/>
-      <c r="O27"/>
-      <c r="R27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="Z27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="W27" s="64"/>
       <c r="AD27" s="64"/>
       <c r="AI27" s="47"/>
       <c r="BA27"/>
@@ -7157,16 +7854,13 @@
       <c r="B28" s="46"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="F28" s="64"/>
+      <c r="F28"/>
       <c r="G28"/>
-      <c r="I28"/>
-      <c r="J28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28"/>
       <c r="M28"/>
-      <c r="N28" s="64"/>
       <c r="O28"/>
-      <c r="R28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="Z28" s="64"/>
+      <c r="W28" s="64"/>
       <c r="AD28" s="64"/>
       <c r="AI28" s="47"/>
       <c r="BA28"/>
@@ -7184,19 +7878,16 @@
       <c r="A29"/>
       <c r="B29" s="46"/>
       <c r="C29"/>
-      <c r="D29"/>
+      <c r="D29" s="55"/>
       <c r="E29"/>
-      <c r="F29" s="64"/>
+      <c r="F29"/>
       <c r="G29"/>
-      <c r="I29"/>
+      <c r="I29" s="64"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="64"/>
       <c r="O29"/>
-      <c r="R29" s="64"/>
-      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
       <c r="AD29" s="64"/>
       <c r="AI29" s="47"/>
       <c r="BA29"/>
@@ -7215,16 +7906,15 @@
       <c r="B30" s="46"/>
       <c r="C30"/>
       <c r="D30" s="55"/>
-      <c r="F30" s="64"/>
+      <c r="F30"/>
       <c r="G30"/>
-      <c r="I30"/>
+      <c r="I30" s="64"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
+      <c r="L30" s="87"/>
       <c r="M30"/>
-      <c r="N30" s="64"/>
       <c r="O30"/>
-      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
       <c r="AD30" s="64"/>
       <c r="AI30" s="47"/>
       <c r="BA30"/>
@@ -7241,18 +7931,33 @@
     <row r="31" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A31"/>
       <c r="B31" s="46"/>
-      <c r="C31"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="64"/>
-      <c r="G31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31" s="64"/>
-      <c r="O31"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
       <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
       <c r="AD31" s="64"/>
       <c r="AI31" s="47"/>
       <c r="BA31"/>
@@ -7269,34 +7974,10 @@
     <row r="32" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
       <c r="AI32" s="47"/>
       <c r="BA32"/>
       <c r="BB32"/>
@@ -7312,10 +7993,10 @@
     <row r="33" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A33"/>
       <c r="B33" s="46"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
       <c r="AF33" s="52"/>
       <c r="AG33" s="53"/>
       <c r="AI33" s="47"/>
@@ -7333,10 +8014,11 @@
     <row r="34" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A34"/>
       <c r="B34" s="46"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
       <c r="AF34" s="56"/>
       <c r="AG34" s="57"/>
       <c r="AI34" s="47"/>
@@ -7354,11 +8036,34 @@
     <row r="35" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35"/>
       <c r="B35" s="46"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
       <c r="AF35" s="59"/>
       <c r="AG35" s="60"/>
       <c r="AI35" s="47"/>
@@ -7537,7 +8242,7 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="O40" s="74"/>
+      <c r="O40" s="73"/>
       <c r="AB40" s="64"/>
       <c r="AD40" s="52"/>
       <c r="AE40" s="53"/>
@@ -7654,8 +8359,8 @@
       <c r="B44" s="46"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="I44" s="74"/>
-      <c r="N44" s="67"/>
+      <c r="I44" s="73"/>
+      <c r="N44" s="66"/>
       <c r="O44"/>
       <c r="T44" s="64"/>
       <c r="W44" s="64"/>
@@ -7674,7 +8379,7 @@
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="69"/>
+      <c r="C45" s="68"/>
       <c r="D45"/>
       <c r="N45" s="64"/>
       <c r="O45"/>
@@ -7702,8 +8407,8 @@
       <c r="N46" s="64"/>
       <c r="T46" s="64"/>
       <c r="W46" s="64"/>
-      <c r="X46" s="69"/>
-      <c r="AD46" s="69"/>
+      <c r="X46" s="68"/>
+      <c r="AD46" s="68"/>
       <c r="AI46" s="47"/>
       <c r="BA46"/>
       <c r="BB46"/>
@@ -7759,10 +8464,10 @@
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48"/>
       <c r="B48" s="46"/>
-      <c r="E48" s="67"/>
+      <c r="E48" s="66"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48" s="67"/>
+      <c r="K48" s="66"/>
       <c r="N48" s="64"/>
       <c r="O48"/>
       <c r="T48" s="64"/>
@@ -7888,7 +8593,7 @@
       <c r="B52" s="46"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="67"/>
+      <c r="E52" s="66"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="I52"/>
@@ -7914,7 +8619,7 @@
       <c r="A53"/>
       <c r="B53" s="46"/>
       <c r="C53"/>
-      <c r="E53" s="67"/>
+      <c r="E53" s="66"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="I53"/>
@@ -7924,7 +8629,7 @@
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
-      <c r="U53" s="69"/>
+      <c r="U53" s="68"/>
       <c r="AI53" s="47"/>
       <c r="BA53"/>
       <c r="BB53"/>
@@ -8153,13 +8858,13 @@
       <c r="B60" s="46"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="G60" s="68"/>
+      <c r="G60" s="67"/>
       <c r="I60"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60" s="64"/>
       <c r="O60"/>
-      <c r="U60" s="68"/>
+      <c r="U60" s="67"/>
       <c r="AB60" s="64"/>
       <c r="AD60" s="56"/>
       <c r="AE60" s="57"/>
@@ -8183,13 +8888,13 @@
       <c r="B61" s="46"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="G61" s="68"/>
+      <c r="G61" s="67"/>
       <c r="I61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61" s="64"/>
       <c r="O61"/>
-      <c r="U61" s="68"/>
+      <c r="U61" s="67"/>
       <c r="AB61" s="64"/>
       <c r="AD61" s="59"/>
       <c r="AE61" s="60"/>
@@ -8208,18 +8913,18 @@
     <row r="62" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A62"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="67"/>
+      <c r="C62" s="66"/>
       <c r="E62"/>
       <c r="F62" s="64"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
       <c r="I62" s="64"/>
       <c r="J62" s="64"/>
-      <c r="K62" s="67"/>
+      <c r="K62" s="66"/>
       <c r="L62" s="64"/>
       <c r="M62" s="64"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
       <c r="P62" s="64"/>
       <c r="Q62" s="64"/>
       <c r="T62" s="64"/>
@@ -8305,8 +9010,8 @@
       <c r="M65"/>
       <c r="O65"/>
       <c r="P65" s="64"/>
-      <c r="W65" s="68"/>
-      <c r="AD65" s="68"/>
+      <c r="W65" s="67"/>
+      <c r="AD65" s="67"/>
       <c r="AI65" s="47"/>
       <c r="BA65"/>
       <c r="BB65"/>
@@ -8330,8 +9035,8 @@
       <c r="M66"/>
       <c r="O66"/>
       <c r="P66" s="64"/>
-      <c r="W66" s="68"/>
-      <c r="AD66" s="68"/>
+      <c r="W66" s="67"/>
+      <c r="AD66" s="67"/>
       <c r="AI66" s="47"/>
       <c r="BA66"/>
       <c r="BB66"/>
@@ -8350,14 +9055,14 @@
       <c r="C67" s="64"/>
       <c r="D67"/>
       <c r="F67" s="64"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
       <c r="I67" s="64"/>
       <c r="J67" s="64"/>
       <c r="L67"/>
       <c r="M67" s="64"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
       <c r="P67" s="64"/>
       <c r="Q67" s="64"/>
       <c r="T67" s="64"/>
@@ -8396,7 +9101,7 @@
       <c r="N68" s="64"/>
       <c r="O68"/>
       <c r="U68" s="64"/>
-      <c r="Y68" s="70"/>
+      <c r="Y68" s="69"/>
       <c r="AB68" s="64"/>
       <c r="AI68" s="47"/>
       <c r="BA68"/>
@@ -8438,13 +9143,13 @@
       <c r="A70"/>
       <c r="B70" s="46"/>
       <c r="D70" s="55"/>
-      <c r="G70" s="68"/>
+      <c r="G70" s="67"/>
       <c r="J70"/>
       <c r="M70"/>
-      <c r="N70" s="68"/>
+      <c r="N70" s="67"/>
       <c r="O70"/>
       <c r="U70" s="64"/>
-      <c r="AB70" s="68"/>
+      <c r="AB70" s="67"/>
       <c r="AI70" s="47"/>
       <c r="BA70"/>
       <c r="BB70"/>
@@ -8461,13 +9166,13 @@
       <c r="A71"/>
       <c r="B71" s="46"/>
       <c r="D71" s="55"/>
-      <c r="G71" s="68"/>
+      <c r="G71" s="67"/>
       <c r="J71"/>
       <c r="M71"/>
-      <c r="N71" s="68"/>
+      <c r="N71" s="67"/>
       <c r="O71"/>
       <c r="U71" s="64"/>
-      <c r="AB71" s="68"/>
+      <c r="AB71" s="67"/>
       <c r="AI71" s="47"/>
       <c r="BA71"/>
       <c r="BB71"/>
@@ -8594,14 +9299,14 @@
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
       <c r="J75" s="44"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="70"/>
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
       <c r="U75" s="44"/>
@@ -8667,10 +9372,10 @@
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A77"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -8699,10 +9404,10 @@
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A78"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
@@ -8728,10 +9433,10 @@
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A79"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
@@ -8757,10 +9462,10 @@
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A80"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
@@ -8786,10 +9491,10 @@
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A81"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
@@ -8815,10 +9520,10 @@
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A82"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
@@ -8844,10 +9549,10 @@
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A83"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
@@ -8873,10 +9578,10 @@
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A84"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
@@ -8902,10 +9607,10 @@
     </row>
     <row r="85" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A85"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
@@ -8931,10 +9636,10 @@
     </row>
     <row r="86" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
@@ -8960,10 +9665,10 @@
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A87"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
@@ -8976,7 +9681,7 @@
       <c r="O87"/>
       <c r="P87" s="64"/>
       <c r="Q87" s="64"/>
-      <c r="AC87" s="73"/>
+      <c r="AC87" s="72"/>
       <c r="AF87" s="52"/>
       <c r="AG87" s="53"/>
       <c r="AI87" s="47"/>
@@ -8993,10 +9698,10 @@
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A88"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="74"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="73"/>
       <c r="F88"/>
       <c r="H88" s="55"/>
       <c r="I88"/>
@@ -9006,7 +9711,7 @@
       <c r="O88" s="64"/>
       <c r="P88" s="64"/>
       <c r="Q88" s="64"/>
-      <c r="AC88" s="73"/>
+      <c r="AC88" s="72"/>
       <c r="AF88" s="56"/>
       <c r="AG88" s="57"/>
       <c r="AI88" s="47"/>
@@ -9023,10 +9728,10 @@
     </row>
     <row r="89" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="74"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="73"/>
       <c r="F89"/>
       <c r="H89" s="55"/>
       <c r="I89"/>
@@ -9036,7 +9741,7 @@
       <c r="O89" s="64"/>
       <c r="P89" s="64"/>
       <c r="Q89" s="64"/>
-      <c r="AC89" s="73"/>
+      <c r="AC89" s="72"/>
       <c r="AF89" s="59"/>
       <c r="AG89" s="60"/>
       <c r="AI89" s="47"/>
@@ -9075,9 +9780,9 @@
       <c r="U90" s="62"/>
       <c r="V90" s="62"/>
       <c r="W90" s="62"/>
-      <c r="X90" s="75"/>
-      <c r="Y90" s="75"/>
-      <c r="Z90" s="75"/>
+      <c r="X90" s="74"/>
+      <c r="Y90" s="74"/>
+      <c r="Z90" s="74"/>
       <c r="AA90" s="62"/>
       <c r="AB90" s="62"/>
       <c r="AC90" s="62"/>
@@ -9098,6 +9803,1061 @@
       <c r="BI90"/>
       <c r="BJ90"/>
     </row>
+    <row r="92" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="44"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="44"/>
+      <c r="AD93" s="44"/>
+      <c r="AE93" s="44"/>
+      <c r="AF93" s="44"/>
+      <c r="AG93" s="44"/>
+      <c r="AH93" s="44"/>
+      <c r="AI93" s="45"/>
+    </row>
+    <row r="94" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="B94" s="46"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="AI94" s="47"/>
+    </row>
+    <row r="95" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="B95" s="46"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="AI95" s="47"/>
+    </row>
+    <row r="96" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B96" s="46"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="AI96" s="47"/>
+    </row>
+    <row r="97" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B97" s="46"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="88"/>
+      <c r="O97" s="89"/>
+      <c r="X97" s="64"/>
+      <c r="Y97" s="64"/>
+      <c r="AI97" s="47"/>
+    </row>
+    <row r="98" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B98" s="46"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="90"/>
+      <c r="O98" s="91"/>
+      <c r="X98" s="64"/>
+      <c r="Y98" s="64"/>
+      <c r="AI98" s="47"/>
+    </row>
+    <row r="99" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B99" s="46"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="90"/>
+      <c r="O99" s="91"/>
+      <c r="X99" s="64"/>
+      <c r="Y99" s="64"/>
+      <c r="AI99" s="47"/>
+    </row>
+    <row r="100" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B100" s="46"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
+      <c r="N100" s="90"/>
+      <c r="O100" s="91"/>
+      <c r="P100" s="64"/>
+      <c r="Q100" s="64"/>
+      <c r="R100" s="64"/>
+      <c r="S100" s="64"/>
+      <c r="T100" s="64"/>
+      <c r="U100" s="64"/>
+      <c r="V100" s="92"/>
+      <c r="W100" s="92"/>
+      <c r="X100" s="64"/>
+      <c r="Y100" s="64"/>
+      <c r="AI100" s="47"/>
+    </row>
+    <row r="101" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B101" s="46"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101" s="64"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="64"/>
+      <c r="N101" s="90"/>
+      <c r="O101" s="91"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="64"/>
+      <c r="R101" s="64"/>
+      <c r="S101" s="64"/>
+      <c r="T101" s="64"/>
+      <c r="U101" s="64"/>
+      <c r="V101" s="92"/>
+      <c r="W101" s="92"/>
+      <c r="X101" s="64"/>
+      <c r="Y101" s="64"/>
+      <c r="AI101" s="47"/>
+    </row>
+    <row r="102" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B102" s="46"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="90"/>
+      <c r="O102" s="91"/>
+      <c r="V102" s="92"/>
+      <c r="W102" s="92"/>
+      <c r="X102" s="64"/>
+      <c r="Y102" s="64"/>
+      <c r="AI102" s="47"/>
+    </row>
+    <row r="103" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B103" s="46"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
+      <c r="N103" s="90"/>
+      <c r="O103" s="91"/>
+      <c r="V103" s="92"/>
+      <c r="W103" s="92"/>
+      <c r="X103" s="64"/>
+      <c r="Y103" s="64"/>
+      <c r="AI103" s="47"/>
+    </row>
+    <row r="104" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B104" s="46"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104" s="64"/>
+      <c r="L104" s="64"/>
+      <c r="M104" s="64"/>
+      <c r="N104" s="93"/>
+      <c r="O104" s="94"/>
+      <c r="V104" s="92"/>
+      <c r="W104" s="92"/>
+      <c r="X104" s="64"/>
+      <c r="Y104" s="64"/>
+      <c r="AI104" s="47"/>
+    </row>
+    <row r="105" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B105" s="46"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="N105" s="95"/>
+      <c r="O105" s="96"/>
+      <c r="V105" s="92"/>
+      <c r="W105" s="92"/>
+      <c r="X105" s="65"/>
+      <c r="Y105" s="65"/>
+      <c r="AE105" s="52"/>
+      <c r="AF105" s="53"/>
+      <c r="AI105" s="47"/>
+    </row>
+    <row r="106" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B106" s="46"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106" s="97"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="N106" s="98"/>
+      <c r="O106" s="99"/>
+      <c r="V106" s="92"/>
+      <c r="W106" s="92"/>
+      <c r="X106" s="65"/>
+      <c r="Y106" s="65"/>
+      <c r="AE106" s="56"/>
+      <c r="AF106" s="57"/>
+      <c r="AI106" s="47"/>
+    </row>
+    <row r="107" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B107" s="46"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107" s="97"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="M107"/>
+      <c r="N107" s="100"/>
+      <c r="O107" s="101"/>
+      <c r="V107" s="92"/>
+      <c r="W107" s="92"/>
+      <c r="X107" s="65"/>
+      <c r="Y107" s="65"/>
+      <c r="AE107" s="59"/>
+      <c r="AF107" s="60"/>
+      <c r="AI107" s="47"/>
+    </row>
+    <row r="108" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="61"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
+      <c r="O108" s="62"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="62"/>
+      <c r="S108" s="62"/>
+      <c r="T108" s="62"/>
+      <c r="U108" s="62"/>
+      <c r="V108" s="62"/>
+      <c r="W108" s="62"/>
+      <c r="X108" s="62"/>
+      <c r="Y108" s="62"/>
+      <c r="Z108" s="62"/>
+      <c r="AA108" s="62"/>
+      <c r="AB108" s="62"/>
+      <c r="AC108" s="62"/>
+      <c r="AD108" s="62"/>
+      <c r="AE108" s="62"/>
+      <c r="AF108" s="62"/>
+      <c r="AG108" s="62"/>
+      <c r="AH108" s="62"/>
+      <c r="AI108" s="63"/>
+    </row>
+    <row r="110" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B111" s="43"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="44"/>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="44"/>
+      <c r="S111" s="44"/>
+      <c r="T111" s="44"/>
+      <c r="U111" s="44"/>
+      <c r="V111" s="44"/>
+      <c r="W111" s="44"/>
+      <c r="X111" s="44"/>
+      <c r="Y111" s="44"/>
+      <c r="Z111" s="44"/>
+      <c r="AA111" s="70"/>
+      <c r="AB111" s="70"/>
+      <c r="AC111" s="70"/>
+      <c r="AD111" s="70"/>
+      <c r="AE111" s="70"/>
+      <c r="AF111" s="70"/>
+      <c r="AG111" s="70"/>
+      <c r="AH111" s="70"/>
+      <c r="AI111" s="45"/>
+    </row>
+    <row r="112" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B112" s="46"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="G112" s="64"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="Z112" s="64"/>
+      <c r="AI112" s="47"/>
+    </row>
+    <row r="113" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B113" s="46"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="Z113" s="64"/>
+      <c r="AI113" s="47"/>
+    </row>
+    <row r="114" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B114" s="46"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="S114" s="67"/>
+      <c r="T114" s="67"/>
+      <c r="U114" s="67"/>
+      <c r="V114" s="67"/>
+      <c r="Z114" s="64"/>
+      <c r="AI114" s="47"/>
+    </row>
+    <row r="115" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B115" s="46"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115" s="64"/>
+      <c r="S115" s="67"/>
+      <c r="T115" s="67"/>
+      <c r="U115" s="67"/>
+      <c r="V115" s="67"/>
+      <c r="Z115" s="64"/>
+      <c r="AI115" s="47"/>
+    </row>
+    <row r="116" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B116" s="46"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="66"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="64"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="64"/>
+      <c r="R116" s="64"/>
+      <c r="S116" s="64"/>
+      <c r="V116" s="64"/>
+      <c r="W116" s="64"/>
+      <c r="Z116" s="64"/>
+      <c r="AI116" s="47"/>
+    </row>
+    <row r="117" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B117" s="46"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+      <c r="L117" s="66"/>
+      <c r="M117" s="64"/>
+      <c r="N117" s="64"/>
+      <c r="O117" s="64"/>
+      <c r="P117" s="64"/>
+      <c r="Q117" s="64"/>
+      <c r="R117" s="64"/>
+      <c r="S117" s="64"/>
+      <c r="V117" s="64"/>
+      <c r="W117" s="64"/>
+      <c r="Z117" s="64"/>
+      <c r="AI117" s="47"/>
+    </row>
+    <row r="118" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B118" s="46"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="S118" s="64"/>
+      <c r="V118" s="64"/>
+      <c r="W118" s="64"/>
+      <c r="Z118" s="64"/>
+      <c r="AI118" s="47"/>
+    </row>
+    <row r="119" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B119" s="46"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="S119" s="64"/>
+      <c r="V119" s="64"/>
+      <c r="W119" s="64"/>
+      <c r="Z119" s="64"/>
+      <c r="AI119" s="47"/>
+    </row>
+    <row r="120" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B120" s="46"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="S120" s="64"/>
+      <c r="V120" s="64"/>
+      <c r="W120" s="64"/>
+      <c r="Z120" s="64"/>
+      <c r="AF120" s="52"/>
+      <c r="AG120" s="53"/>
+      <c r="AI120" s="47"/>
+    </row>
+    <row r="121" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B121" s="46"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
+      <c r="L121" s="66"/>
+      <c r="O121"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="64"/>
+      <c r="R121" s="64"/>
+      <c r="S121" s="64"/>
+      <c r="V121" s="64"/>
+      <c r="W121" s="64"/>
+      <c r="Z121" s="64"/>
+      <c r="AF121" s="56"/>
+      <c r="AG121" s="57"/>
+      <c r="AI121" s="47"/>
+    </row>
+    <row r="122" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B122" s="46"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="66"/>
+      <c r="L122" s="66"/>
+      <c r="O122"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="64"/>
+      <c r="R122" s="64"/>
+      <c r="S122" s="64"/>
+      <c r="V122" s="64"/>
+      <c r="W122" s="64"/>
+      <c r="Z122" s="64"/>
+      <c r="AF122" s="59"/>
+      <c r="AG122" s="60"/>
+      <c r="AI122" s="47"/>
+    </row>
+    <row r="123" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B123" s="46"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="I123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="S123" s="64"/>
+      <c r="AE123" s="64"/>
+      <c r="AF123" s="64"/>
+      <c r="AG123" s="64"/>
+      <c r="AH123" s="64"/>
+      <c r="AI123" s="47"/>
+    </row>
+    <row r="124" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B124" s="46"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124" s="55"/>
+      <c r="F124"/>
+      <c r="G124" s="92"/>
+      <c r="H124" s="92"/>
+      <c r="J124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="S124" s="64"/>
+      <c r="T124" s="64"/>
+      <c r="U124" s="64"/>
+      <c r="AE124" s="64"/>
+      <c r="AF124" s="64"/>
+      <c r="AG124" s="64"/>
+      <c r="AH124" s="64"/>
+      <c r="AI124" s="47"/>
+    </row>
+    <row r="125" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B125" s="46"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125" s="55"/>
+      <c r="F125"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="92"/>
+      <c r="J125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="S125" s="64"/>
+      <c r="T125" s="64"/>
+      <c r="U125" s="64"/>
+      <c r="AE125" s="64"/>
+      <c r="AF125" s="64"/>
+      <c r="AG125" s="64"/>
+      <c r="AH125" s="64"/>
+      <c r="AI125" s="47"/>
+    </row>
+    <row r="126" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B126" s="61"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
+      <c r="I126" s="62"/>
+      <c r="J126" s="62"/>
+      <c r="K126" s="62"/>
+      <c r="L126" s="62"/>
+      <c r="M126" s="62"/>
+      <c r="N126" s="62"/>
+      <c r="O126" s="62"/>
+      <c r="P126" s="62"/>
+      <c r="Q126" s="62"/>
+      <c r="R126" s="62"/>
+      <c r="S126" s="62"/>
+      <c r="T126" s="62"/>
+      <c r="U126" s="62"/>
+      <c r="V126" s="62"/>
+      <c r="W126" s="62"/>
+      <c r="X126" s="62"/>
+      <c r="Y126" s="62"/>
+      <c r="Z126" s="62"/>
+      <c r="AA126" s="62"/>
+      <c r="AB126" s="62"/>
+      <c r="AC126" s="62"/>
+      <c r="AD126" s="62"/>
+      <c r="AE126" s="62"/>
+      <c r="AF126" s="62"/>
+      <c r="AG126" s="62"/>
+      <c r="AH126" s="62"/>
+      <c r="AI126" s="63"/>
+    </row>
+    <row r="128" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACCBE0-6150-4257-B0BA-33892E7F0A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945D9E8B-F5B8-4569-A96A-3BA86D807BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="23040" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1268,6 +1268,26 @@
   </si>
   <si>
     <t>●クロネコヤマト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●二つの砂時計</t>
+    <rPh sb="1" eb="2">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スナドケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●マジ卍（風車）</t>
+    <rPh sb="3" eb="4">
+      <t>マンジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カザグルマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1871,7 +1891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,21 +2117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2177,6 +2182,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4664,12 +4708,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4771,12 +4815,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -4833,12 +4877,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -4929,12 +4973,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5632,13 +5676,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5659,42 +5703,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="U3" s="75" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99"/>
+      <c r="U3" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AF3" s="75" t="s">
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="99"/>
+      <c r="AF3" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="77"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="99"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6129,42 +6173,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="75" t="s">
+      <c r="J14" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="77"/>
-      <c r="U14" s="75" t="s">
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="U14" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="77"/>
-      <c r="AF14" s="75" t="s">
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="99"/>
+      <c r="AF14" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="77"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="99"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6456,30 +6500,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="77"/>
-      <c r="U25" s="75" t="s">
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="99"/>
+      <c r="U25" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="77"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="99"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6681,6 +6725,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -6688,8 +6734,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6719,13 +6763,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -6975,10 +7019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO129" sqref="AO129"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ148" sqref="AQ148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7062,7 +7106,7 @@
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="80"/>
+      <c r="R3" s="75"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
@@ -7110,7 +7154,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="R4" s="81"/>
+      <c r="R4" s="76"/>
       <c r="AI4" s="47"/>
       <c r="AJ4" t="s">
         <v>67</v>
@@ -7142,7 +7186,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="R5" s="81"/>
+      <c r="R5" s="76"/>
       <c r="AI5" s="47"/>
       <c r="AJ5" t="s">
         <v>69</v>
@@ -7174,7 +7218,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="R6" s="81"/>
+      <c r="R6" s="76"/>
       <c r="AI6" s="47"/>
       <c r="AJ6" t="s">
         <v>68</v>
@@ -7206,7 +7250,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="R7" s="81"/>
+      <c r="R7" s="76"/>
       <c r="AI7" s="47"/>
       <c r="AJ7" t="s">
         <v>71</v>
@@ -7238,7 +7282,7 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="R8" s="81"/>
+      <c r="R8" s="76"/>
       <c r="AI8" s="47"/>
       <c r="AJ8" t="s">
         <v>72</v>
@@ -7270,7 +7314,7 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="R9" s="81"/>
+      <c r="R9" s="76"/>
       <c r="AI9" s="47"/>
       <c r="AJ9" t="s">
         <v>107</v>
@@ -7288,40 +7332,40 @@
     </row>
     <row r="10" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="85"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="80"/>
       <c r="AJ10" t="s">
         <v>108</v>
       </c>
@@ -7352,7 +7396,7 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="R11" s="81"/>
+      <c r="R11" s="76"/>
       <c r="AI11" s="47"/>
       <c r="AK11" s="48"/>
       <c r="AL11" t="s">
@@ -7385,7 +7429,7 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="R12" s="81"/>
+      <c r="R12" s="76"/>
       <c r="AI12" s="47"/>
       <c r="AK12" s="49"/>
       <c r="AL12" t="s">
@@ -7418,7 +7462,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="R13" s="81"/>
+      <c r="R13" s="76"/>
       <c r="AI13" s="47"/>
       <c r="AK13" s="50"/>
       <c r="AL13" t="s">
@@ -7451,7 +7495,7 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="R14" s="81"/>
+      <c r="R14" s="76"/>
       <c r="AI14" s="47"/>
       <c r="AK14" s="51"/>
       <c r="AL14" t="s">
@@ -7484,7 +7528,7 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="R15" s="81"/>
+      <c r="R15" s="76"/>
       <c r="AE15" s="52"/>
       <c r="AF15" s="53"/>
       <c r="AI15" s="47"/>
@@ -7519,7 +7563,7 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="R16" s="81"/>
+      <c r="R16" s="76"/>
       <c r="AE16" s="56"/>
       <c r="AF16" s="57"/>
       <c r="AI16" s="47"/>
@@ -7554,7 +7598,7 @@
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="R17" s="81"/>
+      <c r="R17" s="76"/>
       <c r="AE17" s="59"/>
       <c r="AF17" s="60"/>
       <c r="AI17" s="47"/>
@@ -7587,7 +7631,7 @@
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
-      <c r="R18" s="86"/>
+      <c r="R18" s="81"/>
       <c r="S18" s="62"/>
       <c r="T18" s="62"/>
       <c r="U18" s="62"/>
@@ -7911,7 +7955,7 @@
       <c r="I30" s="64"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" s="87"/>
+      <c r="L30" s="82"/>
       <c r="M30"/>
       <c r="O30"/>
       <c r="W30" s="64"/>
@@ -9915,8 +9959,8 @@
       <c r="K97" s="64"/>
       <c r="L97" s="64"/>
       <c r="M97" s="64"/>
-      <c r="N97" s="88"/>
-      <c r="O97" s="89"/>
+      <c r="N97" s="83"/>
+      <c r="O97" s="84"/>
       <c r="X97" s="64"/>
       <c r="Y97" s="64"/>
       <c r="AI97" s="47"/>
@@ -9934,8 +9978,8 @@
       <c r="K98" s="64"/>
       <c r="L98" s="64"/>
       <c r="M98" s="64"/>
-      <c r="N98" s="90"/>
-      <c r="O98" s="91"/>
+      <c r="N98" s="85"/>
+      <c r="O98" s="86"/>
       <c r="X98" s="64"/>
       <c r="Y98" s="64"/>
       <c r="AI98" s="47"/>
@@ -9953,8 +9997,8 @@
       <c r="K99" s="64"/>
       <c r="L99" s="64"/>
       <c r="M99" s="64"/>
-      <c r="N99" s="90"/>
-      <c r="O99" s="91"/>
+      <c r="N99" s="85"/>
+      <c r="O99" s="86"/>
       <c r="X99" s="64"/>
       <c r="Y99" s="64"/>
       <c r="AI99" s="47"/>
@@ -9972,16 +10016,16 @@
       <c r="K100" s="64"/>
       <c r="L100" s="64"/>
       <c r="M100" s="64"/>
-      <c r="N100" s="90"/>
-      <c r="O100" s="91"/>
+      <c r="N100" s="85"/>
+      <c r="O100" s="86"/>
       <c r="P100" s="64"/>
       <c r="Q100" s="64"/>
       <c r="R100" s="64"/>
       <c r="S100" s="64"/>
       <c r="T100" s="64"/>
       <c r="U100" s="64"/>
-      <c r="V100" s="92"/>
-      <c r="W100" s="92"/>
+      <c r="V100" s="87"/>
+      <c r="W100" s="87"/>
       <c r="X100" s="64"/>
       <c r="Y100" s="64"/>
       <c r="AI100" s="47"/>
@@ -9999,16 +10043,16 @@
       <c r="K101" s="64"/>
       <c r="L101" s="64"/>
       <c r="M101" s="64"/>
-      <c r="N101" s="90"/>
-      <c r="O101" s="91"/>
+      <c r="N101" s="85"/>
+      <c r="O101" s="86"/>
       <c r="P101" s="64"/>
       <c r="Q101" s="64"/>
       <c r="R101" s="64"/>
       <c r="S101" s="64"/>
       <c r="T101" s="64"/>
       <c r="U101" s="64"/>
-      <c r="V101" s="92"/>
-      <c r="W101" s="92"/>
+      <c r="V101" s="87"/>
+      <c r="W101" s="87"/>
       <c r="X101" s="64"/>
       <c r="Y101" s="64"/>
       <c r="AI101" s="47"/>
@@ -10026,10 +10070,10 @@
       <c r="K102" s="64"/>
       <c r="L102" s="64"/>
       <c r="M102" s="64"/>
-      <c r="N102" s="90"/>
-      <c r="O102" s="91"/>
-      <c r="V102" s="92"/>
-      <c r="W102" s="92"/>
+      <c r="N102" s="85"/>
+      <c r="O102" s="86"/>
+      <c r="V102" s="87"/>
+      <c r="W102" s="87"/>
       <c r="X102" s="64"/>
       <c r="Y102" s="64"/>
       <c r="AI102" s="47"/>
@@ -10047,10 +10091,10 @@
       <c r="K103" s="64"/>
       <c r="L103" s="64"/>
       <c r="M103" s="64"/>
-      <c r="N103" s="90"/>
-      <c r="O103" s="91"/>
-      <c r="V103" s="92"/>
-      <c r="W103" s="92"/>
+      <c r="N103" s="85"/>
+      <c r="O103" s="86"/>
+      <c r="V103" s="87"/>
+      <c r="W103" s="87"/>
       <c r="X103" s="64"/>
       <c r="Y103" s="64"/>
       <c r="AI103" s="47"/>
@@ -10068,10 +10112,10 @@
       <c r="K104" s="64"/>
       <c r="L104" s="64"/>
       <c r="M104" s="64"/>
-      <c r="N104" s="93"/>
-      <c r="O104" s="94"/>
-      <c r="V104" s="92"/>
-      <c r="W104" s="92"/>
+      <c r="N104" s="88"/>
+      <c r="O104" s="89"/>
+      <c r="V104" s="87"/>
+      <c r="W104" s="87"/>
       <c r="X104" s="64"/>
       <c r="Y104" s="64"/>
       <c r="AI104" s="47"/>
@@ -10087,10 +10131,10 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-      <c r="N105" s="95"/>
-      <c r="O105" s="96"/>
-      <c r="V105" s="92"/>
-      <c r="W105" s="92"/>
+      <c r="N105" s="90"/>
+      <c r="O105" s="91"/>
+      <c r="V105" s="87"/>
+      <c r="W105" s="87"/>
       <c r="X105" s="65"/>
       <c r="Y105" s="65"/>
       <c r="AE105" s="52"/>
@@ -10101,17 +10145,17 @@
       <c r="B106" s="46"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" s="97"/>
+      <c r="E106" s="92"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
-      <c r="N106" s="98"/>
-      <c r="O106" s="99"/>
-      <c r="V106" s="92"/>
-      <c r="W106" s="92"/>
+      <c r="N106" s="93"/>
+      <c r="O106" s="94"/>
+      <c r="V106" s="87"/>
+      <c r="W106" s="87"/>
       <c r="X106" s="65"/>
       <c r="Y106" s="65"/>
       <c r="AE106" s="56"/>
@@ -10122,7 +10166,7 @@
       <c r="B107" s="46"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="97"/>
+      <c r="E107" s="92"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
@@ -10130,10 +10174,10 @@
       <c r="J107"/>
       <c r="K107"/>
       <c r="M107"/>
-      <c r="N107" s="100"/>
-      <c r="O107" s="101"/>
-      <c r="V107" s="92"/>
-      <c r="W107" s="92"/>
+      <c r="N107" s="95"/>
+      <c r="O107" s="96"/>
+      <c r="V107" s="87"/>
+      <c r="W107" s="87"/>
       <c r="X107" s="65"/>
       <c r="Y107" s="65"/>
       <c r="AE107" s="59"/>
@@ -10480,8 +10524,8 @@
       <c r="D124"/>
       <c r="E124" s="55"/>
       <c r="F124"/>
-      <c r="G124" s="92"/>
-      <c r="H124" s="92"/>
+      <c r="G124" s="87"/>
+      <c r="H124" s="87"/>
       <c r="J124"/>
       <c r="L124"/>
       <c r="M124"/>
@@ -10502,8 +10546,8 @@
       <c r="D125"/>
       <c r="E125" s="55"/>
       <c r="F125"/>
-      <c r="G125" s="92"/>
-      <c r="H125" s="92"/>
+      <c r="G125" s="87"/>
+      <c r="H125" s="87"/>
       <c r="J125"/>
       <c r="L125"/>
       <c r="M125"/>
@@ -10554,8 +10598,10 @@
       <c r="AH126" s="62"/>
       <c r="AI126" s="63"/>
     </row>
-    <row r="128" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B128"/>
+    <row r="128" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
@@ -10570,263 +10616,433 @@
       <c r="N128"/>
       <c r="O128"/>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B130"/>
+    <row r="129" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B129" s="43"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
+      <c r="K129" s="44"/>
+      <c r="L129" s="44"/>
+      <c r="M129" s="44"/>
+      <c r="N129" s="44"/>
+      <c r="O129" s="44"/>
+      <c r="P129" s="44"/>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="44"/>
+      <c r="S129" s="44"/>
+      <c r="T129" s="44"/>
+      <c r="U129" s="44"/>
+      <c r="V129" s="44"/>
+      <c r="W129" s="44"/>
+      <c r="X129" s="44"/>
+      <c r="Y129" s="44"/>
+      <c r="Z129" s="44"/>
+      <c r="AA129" s="44"/>
+      <c r="AB129" s="44"/>
+      <c r="AC129" s="44"/>
+      <c r="AD129" s="44"/>
+      <c r="AE129" s="44"/>
+      <c r="AF129" s="44"/>
+      <c r="AG129" s="44"/>
+      <c r="AH129" s="44"/>
+      <c r="AI129" s="45"/>
+    </row>
+    <row r="130" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B130" s="46"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
       <c r="O130"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B131"/>
-      <c r="C131"/>
+      <c r="AI130" s="47"/>
+    </row>
+    <row r="131" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B131" s="46"/>
+      <c r="C131" s="64"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
       <c r="O131"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
+      <c r="AH131" s="64"/>
+      <c r="AI131" s="47"/>
+    </row>
+    <row r="132" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B132" s="46"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132"/>
       <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
+      <c r="P132" s="64"/>
+      <c r="Q132" s="64"/>
+      <c r="R132" s="64"/>
+      <c r="S132" s="64"/>
+      <c r="T132" s="64"/>
+      <c r="U132" s="64"/>
+      <c r="AG132" s="64"/>
+      <c r="AH132" s="64"/>
+      <c r="AI132" s="47"/>
+    </row>
+    <row r="133" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B133" s="46"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="64"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
-      <c r="O133"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
+      <c r="O133" s="64"/>
+      <c r="P133" s="64"/>
+      <c r="Q133" s="64"/>
+      <c r="R133" s="64"/>
+      <c r="S133" s="64"/>
+      <c r="T133" s="64"/>
+      <c r="U133" s="64"/>
+      <c r="V133" s="64"/>
+      <c r="AF133" s="64"/>
+      <c r="AG133" s="64"/>
+      <c r="AH133" s="64"/>
+      <c r="AI133" s="47"/>
+    </row>
+    <row r="134" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B134" s="46"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="64"/>
       <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="67"/>
       <c r="L134"/>
       <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
+      <c r="N134" s="64"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="64"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="64"/>
+      <c r="S134" s="64"/>
+      <c r="T134" s="64"/>
+      <c r="U134" s="64"/>
+      <c r="V134" s="64"/>
+      <c r="W134" s="64"/>
+      <c r="AE134" s="64"/>
+      <c r="AF134" s="64"/>
+      <c r="AG134" s="64"/>
+      <c r="AH134" s="64"/>
+      <c r="AI134" s="47"/>
+    </row>
+    <row r="135" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B135" s="46"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="64"/>
+      <c r="G135" s="64"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="67"/>
+      <c r="J135" s="67"/>
+      <c r="K135" s="67"/>
       <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135"/>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
+      <c r="M135" s="64"/>
+      <c r="N135" s="64"/>
+      <c r="O135" s="64"/>
+      <c r="P135" s="64"/>
+      <c r="Q135" s="64"/>
+      <c r="R135" s="64"/>
+      <c r="S135" s="64"/>
+      <c r="T135" s="64"/>
+      <c r="U135" s="64"/>
+      <c r="V135" s="64"/>
+      <c r="W135" s="64"/>
+      <c r="X135" s="64"/>
+      <c r="Z135" s="102"/>
+      <c r="AA135" s="103"/>
+      <c r="AB135" s="104"/>
+      <c r="AD135" s="64"/>
+      <c r="AE135" s="64"/>
+      <c r="AF135" s="64"/>
+      <c r="AG135" s="64"/>
+      <c r="AH135" s="64"/>
+      <c r="AI135" s="47"/>
+    </row>
+    <row r="136" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B136" s="46"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="64"/>
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
+      <c r="L136" s="64"/>
+      <c r="M136" s="64"/>
+      <c r="N136" s="64"/>
+      <c r="O136" s="64"/>
+      <c r="P136" s="64"/>
+      <c r="Q136" s="64"/>
+      <c r="R136" s="64"/>
+      <c r="S136" s="64"/>
+      <c r="T136" s="64"/>
+      <c r="U136" s="64"/>
+      <c r="V136" s="64"/>
+      <c r="W136" s="64"/>
+      <c r="X136" s="64"/>
+      <c r="Y136" s="64"/>
+      <c r="Z136" s="105"/>
+      <c r="AA136" s="106"/>
+      <c r="AB136" s="107"/>
+      <c r="AC136" s="64"/>
+      <c r="AD136" s="64"/>
+      <c r="AE136" s="64"/>
+      <c r="AF136" s="64"/>
+      <c r="AG136" s="64"/>
+      <c r="AH136" s="64"/>
+      <c r="AI136" s="47"/>
+    </row>
+    <row r="137" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B137" s="46"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="64"/>
+      <c r="G137" s="64"/>
+      <c r="H137" s="64"/>
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
+      <c r="L137" s="64"/>
+      <c r="M137" s="64"/>
+      <c r="N137" s="64"/>
+      <c r="O137" s="64"/>
+      <c r="P137" s="64"/>
+      <c r="Q137" s="64"/>
+      <c r="R137" s="64"/>
+      <c r="S137" s="64"/>
+      <c r="T137" s="64"/>
+      <c r="U137" s="64"/>
+      <c r="V137" s="64"/>
+      <c r="W137" s="64"/>
+      <c r="X137" s="64"/>
+      <c r="Y137" s="64"/>
+      <c r="Z137" s="88"/>
+      <c r="AA137" s="108"/>
+      <c r="AB137" s="89"/>
+      <c r="AC137" s="64"/>
+      <c r="AD137" s="64"/>
+      <c r="AE137" s="64"/>
+      <c r="AF137" s="64"/>
+      <c r="AG137" s="64"/>
+      <c r="AH137" s="64"/>
+      <c r="AI137" s="47"/>
+    </row>
+    <row r="138" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B138" s="46"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="64"/>
+      <c r="G138" s="64"/>
       <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
+      <c r="M138" s="64"/>
+      <c r="N138" s="64"/>
+      <c r="O138" s="64"/>
+      <c r="P138" s="64"/>
+      <c r="Q138" s="64"/>
+      <c r="R138" s="64"/>
+      <c r="S138" s="64"/>
+      <c r="T138" s="64"/>
+      <c r="U138" s="64"/>
+      <c r="V138" s="64"/>
+      <c r="W138" s="64"/>
+      <c r="X138" s="64"/>
+      <c r="Z138" s="83"/>
+      <c r="AA138" s="109"/>
+      <c r="AB138" s="84"/>
+      <c r="AD138" s="64"/>
+      <c r="AE138" s="64"/>
+      <c r="AF138" s="64"/>
+      <c r="AG138" s="64"/>
+      <c r="AH138" s="64"/>
+      <c r="AI138" s="47"/>
+    </row>
+    <row r="139" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B139" s="46"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="64"/>
       <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
       <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
       <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
+      <c r="N139" s="64"/>
+      <c r="O139" s="64"/>
+      <c r="P139" s="64"/>
+      <c r="Q139" s="64"/>
+      <c r="R139" s="64"/>
+      <c r="S139" s="64"/>
+      <c r="T139" s="64"/>
+      <c r="U139" s="64"/>
+      <c r="V139" s="64"/>
+      <c r="W139" s="64"/>
+      <c r="Z139" s="85"/>
+      <c r="AA139" s="87"/>
+      <c r="AB139" s="86"/>
+      <c r="AE139" s="64"/>
+      <c r="AF139" s="64"/>
+      <c r="AG139" s="64"/>
+      <c r="AH139" s="64"/>
+      <c r="AI139" s="47"/>
+    </row>
+    <row r="140" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B140" s="46"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="64"/>
       <c r="F140"/>
       <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
-      <c r="O140"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
+      <c r="O140" s="64"/>
+      <c r="P140" s="64"/>
+      <c r="Q140" s="64"/>
+      <c r="R140" s="64"/>
+      <c r="S140" s="64"/>
+      <c r="T140" s="64"/>
+      <c r="U140" s="64"/>
+      <c r="V140" s="64"/>
+      <c r="Z140" s="88"/>
+      <c r="AA140" s="108"/>
+      <c r="AB140" s="89"/>
+      <c r="AF140" s="64"/>
+      <c r="AG140" s="64"/>
+      <c r="AH140" s="64"/>
+      <c r="AI140" s="47"/>
+    </row>
+    <row r="141" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B141" s="46"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-      <c r="M141"/>
       <c r="N141"/>
       <c r="O141"/>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
+      <c r="P141" s="64"/>
+      <c r="Q141" s="64"/>
+      <c r="R141" s="64"/>
+      <c r="S141" s="64"/>
+      <c r="T141" s="64"/>
+      <c r="U141" s="64"/>
+      <c r="Z141" s="83"/>
+      <c r="AA141" s="109"/>
+      <c r="AB141" s="84"/>
+      <c r="AD141" s="52"/>
+      <c r="AE141" s="53"/>
+      <c r="AG141" s="64"/>
+      <c r="AH141" s="64"/>
+      <c r="AI141" s="47"/>
+    </row>
+    <row r="142" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B142" s="46"/>
+      <c r="C142" s="64"/>
+      <c r="E142" s="55"/>
+      <c r="H142" s="83"/>
+      <c r="I142" s="84"/>
+      <c r="K142" s="90"/>
+      <c r="L142" s="91"/>
       <c r="O142"/>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B143"/>
+      <c r="Q142" s="64"/>
+      <c r="R142" s="64"/>
+      <c r="S142" s="64"/>
+      <c r="T142" s="64"/>
+      <c r="Z142" s="85"/>
+      <c r="AA142" s="87"/>
+      <c r="AB142" s="86"/>
+      <c r="AD142" s="56"/>
+      <c r="AE142" s="57"/>
+      <c r="AH142" s="64"/>
+      <c r="AI142" s="47"/>
+    </row>
+    <row r="143" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B143" s="46"/>
       <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="L143"/>
-      <c r="M143"/>
-      <c r="N143"/>
+      <c r="E143" s="55"/>
+      <c r="H143" s="88"/>
+      <c r="I143" s="89"/>
+      <c r="K143" s="88"/>
+      <c r="L143" s="89"/>
       <c r="O143"/>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144"/>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="R143" s="64"/>
+      <c r="S143" s="64"/>
+      <c r="Z143" s="88"/>
+      <c r="AA143" s="108"/>
+      <c r="AB143" s="89"/>
+      <c r="AD143" s="59"/>
+      <c r="AE143" s="60"/>
+      <c r="AI143" s="47"/>
+    </row>
+    <row r="144" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B144" s="61"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="62"/>
+      <c r="J144" s="62"/>
+      <c r="K144" s="62"/>
+      <c r="L144" s="62"/>
+      <c r="M144" s="62"/>
+      <c r="N144" s="62"/>
+      <c r="O144" s="62"/>
+      <c r="P144" s="62"/>
+      <c r="Q144" s="62"/>
+      <c r="R144" s="62"/>
+      <c r="S144" s="62"/>
+      <c r="T144" s="62"/>
+      <c r="U144" s="62"/>
+      <c r="V144" s="62"/>
+      <c r="W144" s="62"/>
+      <c r="X144" s="62"/>
+      <c r="Y144" s="62"/>
+      <c r="Z144" s="62"/>
+      <c r="AA144" s="62"/>
+      <c r="AB144" s="62"/>
+      <c r="AC144" s="62"/>
+      <c r="AD144" s="62"/>
+      <c r="AE144" s="62"/>
+      <c r="AF144" s="62"/>
+      <c r="AG144" s="62"/>
+      <c r="AH144" s="62"/>
+      <c r="AI144" s="63"/>
+    </row>
+    <row r="145" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -10842,8 +11058,10 @@
       <c r="N145"/>
       <c r="O145"/>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B146"/>
+    <row r="146" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B146" t="s">
+        <v>133</v>
+      </c>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
@@ -10858,6 +11076,378 @@
       <c r="N146"/>
       <c r="O146"/>
     </row>
+    <row r="147" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B147" s="43"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="M147" s="70"/>
+      <c r="N147" s="70"/>
+      <c r="O147" s="70"/>
+      <c r="P147" s="44"/>
+      <c r="Q147" s="44"/>
+      <c r="R147" s="70"/>
+      <c r="S147" s="70"/>
+      <c r="T147" s="70"/>
+      <c r="U147" s="70"/>
+      <c r="V147" s="70"/>
+      <c r="W147" s="70"/>
+      <c r="X147" s="70"/>
+      <c r="Y147" s="70"/>
+      <c r="Z147" s="70"/>
+      <c r="AA147" s="70"/>
+      <c r="AB147" s="70"/>
+      <c r="AC147" s="70"/>
+      <c r="AD147" s="70"/>
+      <c r="AE147" s="70"/>
+      <c r="AF147" s="70"/>
+      <c r="AG147" s="70"/>
+      <c r="AH147" s="70"/>
+      <c r="AI147" s="45"/>
+    </row>
+    <row r="148" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B148" s="46"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="P148" s="64"/>
+      <c r="Q148" s="64"/>
+      <c r="AI148" s="47"/>
+    </row>
+    <row r="149" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B149" s="46"/>
+      <c r="C149"/>
+      <c r="F149" s="64"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="64"/>
+      <c r="I149" s="64"/>
+      <c r="J149" s="64"/>
+      <c r="K149" s="64"/>
+      <c r="L149" s="64"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149" s="64"/>
+      <c r="Q149" s="64"/>
+      <c r="T149" s="64"/>
+      <c r="U149" s="64"/>
+      <c r="V149" s="64"/>
+      <c r="W149" s="64"/>
+      <c r="X149" s="64"/>
+      <c r="Y149" s="64"/>
+      <c r="Z149" s="64"/>
+      <c r="AD149" s="64"/>
+      <c r="AE149" s="64"/>
+      <c r="AI149" s="47"/>
+    </row>
+    <row r="150" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B150" s="46"/>
+      <c r="C150"/>
+      <c r="F150" s="64"/>
+      <c r="G150" s="64"/>
+      <c r="H150" s="64"/>
+      <c r="I150" s="64"/>
+      <c r="J150" s="64"/>
+      <c r="K150" s="64"/>
+      <c r="L150" s="64"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150" s="64"/>
+      <c r="Q150" s="64"/>
+      <c r="T150" s="64"/>
+      <c r="U150" s="64"/>
+      <c r="V150" s="64"/>
+      <c r="W150" s="64"/>
+      <c r="X150" s="64"/>
+      <c r="Y150" s="64"/>
+      <c r="Z150" s="64"/>
+      <c r="AD150" s="64"/>
+      <c r="AE150" s="64"/>
+      <c r="AI150" s="47"/>
+    </row>
+    <row r="151" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B151" s="46"/>
+      <c r="C151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151" s="64"/>
+      <c r="L151" s="64"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151" s="64"/>
+      <c r="Q151" s="64"/>
+      <c r="Y151" s="64"/>
+      <c r="Z151" s="64"/>
+      <c r="AD151" s="64"/>
+      <c r="AE151" s="64"/>
+      <c r="AI151" s="47"/>
+    </row>
+    <row r="152" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B152" s="46"/>
+      <c r="C152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152" s="55"/>
+      <c r="J152"/>
+      <c r="K152" s="64"/>
+      <c r="L152" s="64"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152" s="64"/>
+      <c r="Q152" s="64"/>
+      <c r="Y152" s="64"/>
+      <c r="Z152" s="64"/>
+      <c r="AD152" s="64"/>
+      <c r="AE152" s="64"/>
+      <c r="AI152" s="47"/>
+    </row>
+    <row r="153" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B153" s="46"/>
+      <c r="C153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153" s="55"/>
+      <c r="J153"/>
+      <c r="K153" s="64"/>
+      <c r="L153" s="64"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153" s="64"/>
+      <c r="Q153" s="64"/>
+      <c r="Y153" s="64"/>
+      <c r="Z153" s="64"/>
+      <c r="AD153" s="64"/>
+      <c r="AE153" s="64"/>
+      <c r="AI153" s="47"/>
+    </row>
+    <row r="154" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B154" s="46"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="64"/>
+      <c r="H154" s="64"/>
+      <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
+      <c r="K154" s="64"/>
+      <c r="L154" s="64"/>
+      <c r="M154" s="64"/>
+      <c r="N154" s="64"/>
+      <c r="O154" s="64"/>
+      <c r="P154" s="64"/>
+      <c r="Q154" s="64"/>
+      <c r="T154" s="64"/>
+      <c r="U154" s="64"/>
+      <c r="V154" s="64"/>
+      <c r="W154" s="64"/>
+      <c r="X154" s="64"/>
+      <c r="Y154" s="64"/>
+      <c r="Z154" s="64"/>
+      <c r="AA154" s="64"/>
+      <c r="AB154" s="64"/>
+      <c r="AC154" s="64"/>
+      <c r="AD154" s="64"/>
+      <c r="AE154" s="64"/>
+      <c r="AI154" s="47"/>
+    </row>
+    <row r="155" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B155" s="46"/>
+      <c r="F155" s="64"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="64"/>
+      <c r="I155" s="64"/>
+      <c r="J155" s="64"/>
+      <c r="K155" s="64"/>
+      <c r="L155" s="64"/>
+      <c r="M155" s="64"/>
+      <c r="N155" s="64"/>
+      <c r="O155" s="64"/>
+      <c r="P155" s="64"/>
+      <c r="Q155" s="64"/>
+      <c r="T155" s="64"/>
+      <c r="U155" s="64"/>
+      <c r="V155" s="64"/>
+      <c r="W155" s="64"/>
+      <c r="X155" s="64"/>
+      <c r="Y155" s="64"/>
+      <c r="Z155" s="64"/>
+      <c r="AA155" s="64"/>
+      <c r="AB155" s="64"/>
+      <c r="AC155" s="64"/>
+      <c r="AD155" s="64"/>
+      <c r="AE155" s="64"/>
+      <c r="AI155" s="47"/>
+    </row>
+    <row r="156" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B156" s="46"/>
+      <c r="F156" s="64"/>
+      <c r="G156" s="64"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156" s="64"/>
+      <c r="L156" s="64"/>
+      <c r="M156"/>
+      <c r="N156" s="52"/>
+      <c r="O156" s="53"/>
+      <c r="T156" s="64"/>
+      <c r="U156" s="64"/>
+      <c r="Y156" s="64"/>
+      <c r="Z156" s="64"/>
+      <c r="AI156" s="47"/>
+    </row>
+    <row r="157" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B157" s="46"/>
+      <c r="F157" s="64"/>
+      <c r="G157" s="64"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157" s="64"/>
+      <c r="L157" s="64"/>
+      <c r="M157"/>
+      <c r="N157" s="56"/>
+      <c r="O157" s="57"/>
+      <c r="T157" s="64"/>
+      <c r="U157" s="64"/>
+      <c r="Y157" s="64"/>
+      <c r="Z157" s="64"/>
+      <c r="AI157" s="47"/>
+    </row>
+    <row r="158" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B158" s="46"/>
+      <c r="F158" s="64"/>
+      <c r="G158" s="64"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158" s="64"/>
+      <c r="L158" s="64"/>
+      <c r="M158"/>
+      <c r="N158" s="59"/>
+      <c r="O158" s="60"/>
+      <c r="T158" s="64"/>
+      <c r="U158" s="64"/>
+      <c r="Y158" s="64"/>
+      <c r="Z158" s="64"/>
+      <c r="AI158" s="47"/>
+    </row>
+    <row r="159" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B159" s="46"/>
+      <c r="C159"/>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159" s="64"/>
+      <c r="L159" s="64"/>
+      <c r="M159" s="64"/>
+      <c r="N159" s="64"/>
+      <c r="O159" s="64"/>
+      <c r="P159" s="64"/>
+      <c r="Q159" s="64"/>
+      <c r="R159" s="64"/>
+      <c r="S159" s="64"/>
+      <c r="T159" s="64"/>
+      <c r="U159" s="64"/>
+      <c r="Y159" s="64"/>
+      <c r="Z159" s="64"/>
+      <c r="AA159" s="64"/>
+      <c r="AB159" s="64"/>
+      <c r="AC159" s="64"/>
+      <c r="AD159" s="64"/>
+      <c r="AE159" s="64"/>
+      <c r="AI159" s="47"/>
+    </row>
+    <row r="160" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B160" s="46"/>
+      <c r="C160"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="64"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160" s="64"/>
+      <c r="L160" s="64"/>
+      <c r="M160" s="64"/>
+      <c r="N160" s="64"/>
+      <c r="O160" s="64"/>
+      <c r="P160" s="64"/>
+      <c r="Q160" s="64"/>
+      <c r="R160" s="64"/>
+      <c r="S160" s="64"/>
+      <c r="T160" s="64"/>
+      <c r="U160" s="64"/>
+      <c r="Y160" s="64"/>
+      <c r="Z160" s="64"/>
+      <c r="AA160" s="64"/>
+      <c r="AB160" s="64"/>
+      <c r="AC160" s="64"/>
+      <c r="AD160" s="64"/>
+      <c r="AE160" s="64"/>
+      <c r="AI160" s="47"/>
+    </row>
+    <row r="161" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B161" s="46"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="AI161" s="47"/>
+    </row>
+    <row r="162" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B162" s="61"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="74"/>
+      <c r="L162" s="74"/>
+      <c r="M162" s="74"/>
+      <c r="N162" s="74"/>
+      <c r="O162" s="74"/>
+      <c r="P162" s="74"/>
+      <c r="Q162" s="74"/>
+      <c r="R162" s="74"/>
+      <c r="S162" s="74"/>
+      <c r="T162" s="74"/>
+      <c r="U162" s="74"/>
+      <c r="V162" s="74"/>
+      <c r="W162" s="74"/>
+      <c r="X162" s="74"/>
+      <c r="Y162" s="74"/>
+      <c r="Z162" s="74"/>
+      <c r="AA162" s="74"/>
+      <c r="AB162" s="74"/>
+      <c r="AC162" s="74"/>
+      <c r="AD162" s="74"/>
+      <c r="AE162" s="74"/>
+      <c r="AF162" s="74"/>
+      <c r="AG162" s="74"/>
+      <c r="AH162" s="74"/>
+      <c r="AI162" s="63"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945D9E8B-F5B8-4569-A96A-3BA86D807BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19325227-7CE7-4743-8F0B-68708A45BE2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="23040" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1288,6 +1288,10 @@
     <rPh sb="5" eb="7">
       <t>カザグルマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ダブルロック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1891,7 +1895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2183,6 +2187,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2198,28 +2226,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4364,6 +4410,276 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F8BA58-9F63-4227-B927-ADC77927C0A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196340" y="40507920"/>
+          <a:ext cx="5105400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C72CC64-F5B6-46B5-9DDC-1BB32D0DE397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="38206680"/>
+          <a:ext cx="1889760" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044AF18A-576B-4960-9CD4-8277CF81B7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="38206680"/>
+          <a:ext cx="1912620" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0805F4-788B-4888-94D3-90E6FE80FF5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1668780" y="38892480"/>
+          <a:ext cx="1927860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8CA136-A517-49EE-9728-507C8125460C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="38900100"/>
+          <a:ext cx="1927860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4708,12 +5024,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="107"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4815,12 +5131,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -4877,12 +5193,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -4973,12 +5289,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5676,13 +5992,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5703,42 +6019,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="U3" s="97" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
+      <c r="U3" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="107"/>
+      <c r="AF3" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="99"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="107"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6173,42 +6489,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="99"/>
-      <c r="U14" s="97" t="s">
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="107"/>
+      <c r="U14" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="99"/>
-      <c r="AF14" s="97" t="s">
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="107"/>
+      <c r="AF14" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="98"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="99"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="106"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="106"/>
+      <c r="AN14" s="106"/>
+      <c r="AO14" s="107"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6500,30 +6816,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="99"/>
-      <c r="U25" s="97" t="s">
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="107"/>
+      <c r="U25" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="99"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="107"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6725,15 +7041,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6763,13 +7079,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7019,10 +7335,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ148" sqref="AQ148"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ173" sqref="AQ173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10778,9 +11094,9 @@
       <c r="V135" s="64"/>
       <c r="W135" s="64"/>
       <c r="X135" s="64"/>
-      <c r="Z135" s="102"/>
-      <c r="AA135" s="103"/>
-      <c r="AB135" s="104"/>
+      <c r="Z135" s="97"/>
+      <c r="AA135" s="98"/>
+      <c r="AB135" s="99"/>
       <c r="AD135" s="64"/>
       <c r="AE135" s="64"/>
       <c r="AF135" s="64"/>
@@ -10813,9 +11129,9 @@
       <c r="W136" s="64"/>
       <c r="X136" s="64"/>
       <c r="Y136" s="64"/>
-      <c r="Z136" s="105"/>
-      <c r="AA136" s="106"/>
-      <c r="AB136" s="107"/>
+      <c r="Z136" s="100"/>
+      <c r="AA136" s="101"/>
+      <c r="AB136" s="102"/>
       <c r="AC136" s="64"/>
       <c r="AD136" s="64"/>
       <c r="AE136" s="64"/>
@@ -10850,7 +11166,7 @@
       <c r="X137" s="64"/>
       <c r="Y137" s="64"/>
       <c r="Z137" s="88"/>
-      <c r="AA137" s="108"/>
+      <c r="AA137" s="103"/>
       <c r="AB137" s="89"/>
       <c r="AC137" s="64"/>
       <c r="AD137" s="64"/>
@@ -10881,7 +11197,7 @@
       <c r="W138" s="64"/>
       <c r="X138" s="64"/>
       <c r="Z138" s="83"/>
-      <c r="AA138" s="109"/>
+      <c r="AA138" s="104"/>
       <c r="AB138" s="84"/>
       <c r="AD138" s="64"/>
       <c r="AE138" s="64"/>
@@ -10936,7 +11252,7 @@
       <c r="U140" s="64"/>
       <c r="V140" s="64"/>
       <c r="Z140" s="88"/>
-      <c r="AA140" s="108"/>
+      <c r="AA140" s="103"/>
       <c r="AB140" s="89"/>
       <c r="AF140" s="64"/>
       <c r="AG140" s="64"/>
@@ -10959,7 +11275,7 @@
       <c r="T141" s="64"/>
       <c r="U141" s="64"/>
       <c r="Z141" s="83"/>
-      <c r="AA141" s="109"/>
+      <c r="AA141" s="104"/>
       <c r="AB141" s="84"/>
       <c r="AD141" s="52"/>
       <c r="AE141" s="53"/>
@@ -11000,7 +11316,7 @@
       <c r="R143" s="64"/>
       <c r="S143" s="64"/>
       <c r="Z143" s="88"/>
-      <c r="AA143" s="108"/>
+      <c r="AA143" s="103"/>
       <c r="AB143" s="89"/>
       <c r="AD143" s="59"/>
       <c r="AE143" s="60"/>
@@ -11448,6 +11764,587 @@
       <c r="AH162" s="74"/>
       <c r="AI162" s="63"/>
     </row>
+    <row r="164" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+    </row>
+    <row r="165" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B165" s="43"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="44"/>
+      <c r="I165" s="44"/>
+      <c r="J165" s="44"/>
+      <c r="K165" s="44"/>
+      <c r="L165" s="44"/>
+      <c r="M165" s="44"/>
+      <c r="N165" s="44"/>
+      <c r="O165" s="44"/>
+      <c r="P165" s="44"/>
+      <c r="Q165" s="44"/>
+      <c r="R165" s="44"/>
+      <c r="S165" s="44"/>
+      <c r="T165" s="44"/>
+      <c r="U165" s="44"/>
+      <c r="V165" s="44"/>
+      <c r="W165" s="44"/>
+      <c r="X165" s="44"/>
+      <c r="Y165" s="44"/>
+      <c r="Z165" s="44"/>
+      <c r="AA165" s="44"/>
+      <c r="AB165" s="44"/>
+      <c r="AC165" s="44"/>
+      <c r="AD165" s="44"/>
+      <c r="AE165" s="44"/>
+      <c r="AF165" s="44"/>
+      <c r="AG165" s="44"/>
+      <c r="AH165" s="44"/>
+      <c r="AI165" s="45"/>
+    </row>
+    <row r="166" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B166" s="46"/>
+      <c r="C166" s="113"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="113"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="116"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="113"/>
+      <c r="K166" s="113"/>
+      <c r="L166" s="113"/>
+      <c r="M166" s="113"/>
+      <c r="N166" s="113"/>
+      <c r="P166" s="113"/>
+      <c r="Q166" s="111"/>
+      <c r="R166" s="113"/>
+      <c r="T166" s="116"/>
+      <c r="U166" s="113"/>
+      <c r="V166" s="111"/>
+      <c r="W166" s="113"/>
+      <c r="Y166" s="111"/>
+      <c r="AB166" s="113"/>
+      <c r="AC166" s="111"/>
+      <c r="AD166" s="111"/>
+      <c r="AE166" s="111"/>
+      <c r="AF166" s="111"/>
+      <c r="AG166" s="111"/>
+      <c r="AH166" s="113"/>
+      <c r="AI166" s="47"/>
+    </row>
+    <row r="167" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B167" s="46"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="113"/>
+      <c r="E167" s="113"/>
+      <c r="F167" s="113"/>
+      <c r="G167" s="114"/>
+      <c r="H167" s="113"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="113"/>
+      <c r="K167" s="113"/>
+      <c r="L167" s="113"/>
+      <c r="M167" s="113"/>
+      <c r="N167" s="113"/>
+      <c r="O167" s="113"/>
+      <c r="P167" s="113"/>
+      <c r="Q167" s="111"/>
+      <c r="R167" s="113"/>
+      <c r="S167" s="113"/>
+      <c r="T167" s="113"/>
+      <c r="U167" s="113"/>
+      <c r="V167" s="113"/>
+      <c r="W167" s="113"/>
+      <c r="X167" s="113"/>
+      <c r="Y167" s="113"/>
+      <c r="Z167" s="113"/>
+      <c r="AA167" s="113"/>
+      <c r="AB167" s="113"/>
+      <c r="AC167" s="83"/>
+      <c r="AD167" s="84"/>
+      <c r="AE167" s="111"/>
+      <c r="AF167" s="111"/>
+      <c r="AG167" s="111"/>
+      <c r="AH167" s="113"/>
+      <c r="AI167" s="47"/>
+    </row>
+    <row r="168" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B168" s="46"/>
+      <c r="C168" s="113"/>
+      <c r="D168" s="113"/>
+      <c r="E168" s="113"/>
+      <c r="F168" s="113"/>
+      <c r="G168" s="114"/>
+      <c r="H168" s="113"/>
+      <c r="I168" s="113"/>
+      <c r="J168" s="113"/>
+      <c r="K168" s="113"/>
+      <c r="L168" s="113"/>
+      <c r="M168" s="113"/>
+      <c r="N168" s="113"/>
+      <c r="O168" s="113"/>
+      <c r="P168" s="113"/>
+      <c r="Q168" s="111"/>
+      <c r="R168" s="113"/>
+      <c r="S168" s="113"/>
+      <c r="T168" s="113"/>
+      <c r="U168" s="113"/>
+      <c r="V168" s="113"/>
+      <c r="W168" s="113"/>
+      <c r="X168" s="113"/>
+      <c r="Y168" s="113"/>
+      <c r="Z168" s="113"/>
+      <c r="AA168" s="113"/>
+      <c r="AB168" s="113"/>
+      <c r="AC168" s="85"/>
+      <c r="AD168" s="86"/>
+      <c r="AE168" s="111"/>
+      <c r="AF168" s="111"/>
+      <c r="AG168" s="111"/>
+      <c r="AH168" s="113"/>
+      <c r="AI168" s="47"/>
+    </row>
+    <row r="169" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B169" s="46"/>
+      <c r="C169" s="113"/>
+      <c r="D169" s="113"/>
+      <c r="E169" s="113"/>
+      <c r="F169" s="113"/>
+      <c r="G169" s="114"/>
+      <c r="H169" s="113"/>
+      <c r="I169" s="113"/>
+      <c r="J169" s="113"/>
+      <c r="L169" s="116"/>
+      <c r="P169" s="113"/>
+      <c r="Q169" s="111"/>
+      <c r="R169" s="113"/>
+      <c r="S169" s="113"/>
+      <c r="T169" s="113"/>
+      <c r="U169" s="113"/>
+      <c r="V169" s="113"/>
+      <c r="W169" s="113"/>
+      <c r="X169" s="116"/>
+      <c r="Z169" s="113"/>
+      <c r="AA169" s="113"/>
+      <c r="AB169" s="113"/>
+      <c r="AC169" s="88"/>
+      <c r="AD169" s="89"/>
+      <c r="AE169" s="113"/>
+      <c r="AF169" s="113"/>
+      <c r="AG169" s="113"/>
+      <c r="AH169" s="113"/>
+      <c r="AI169" s="47"/>
+    </row>
+    <row r="170" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B170" s="46"/>
+      <c r="C170" s="110"/>
+      <c r="D170" s="110"/>
+      <c r="E170" s="112"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="112"/>
+      <c r="I170" s="112"/>
+      <c r="J170" s="110"/>
+      <c r="K170" s="110"/>
+      <c r="L170" s="110"/>
+      <c r="M170" s="110"/>
+      <c r="N170" s="110"/>
+      <c r="O170" s="110"/>
+      <c r="P170" s="110"/>
+      <c r="Q170" s="110"/>
+      <c r="R170" s="110"/>
+      <c r="S170" s="110"/>
+      <c r="T170" s="110"/>
+      <c r="U170" s="110"/>
+      <c r="V170" s="110"/>
+      <c r="W170" s="110"/>
+      <c r="X170" s="110"/>
+      <c r="Y170" s="110"/>
+      <c r="Z170" s="110"/>
+      <c r="AA170" s="110"/>
+      <c r="AB170" s="110"/>
+      <c r="AC170" s="83"/>
+      <c r="AD170" s="84"/>
+      <c r="AE170" s="110"/>
+      <c r="AF170" s="110"/>
+      <c r="AG170" s="110"/>
+      <c r="AH170" s="110"/>
+      <c r="AI170" s="47"/>
+    </row>
+    <row r="171" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B171" s="46"/>
+      <c r="C171" s="113"/>
+      <c r="D171" s="113"/>
+      <c r="E171" s="113"/>
+      <c r="F171" s="114"/>
+      <c r="G171" s="113"/>
+      <c r="H171" s="113"/>
+      <c r="I171" s="113"/>
+      <c r="J171" s="113"/>
+      <c r="K171" s="113"/>
+      <c r="L171" s="113"/>
+      <c r="M171" s="113"/>
+      <c r="N171" s="113"/>
+      <c r="O171" s="113"/>
+      <c r="P171" s="113"/>
+      <c r="Q171" s="111"/>
+      <c r="R171" s="111"/>
+      <c r="S171" s="113"/>
+      <c r="T171" s="113"/>
+      <c r="U171" s="113"/>
+      <c r="V171" s="113"/>
+      <c r="W171" s="113"/>
+      <c r="X171" s="113"/>
+      <c r="Y171" s="113"/>
+      <c r="Z171" s="113"/>
+      <c r="AA171" s="111"/>
+      <c r="AB171" s="111"/>
+      <c r="AC171" s="85"/>
+      <c r="AD171" s="86"/>
+      <c r="AE171" s="113"/>
+      <c r="AF171" s="113"/>
+      <c r="AG171" s="113"/>
+      <c r="AH171" s="113"/>
+      <c r="AI171" s="47"/>
+    </row>
+    <row r="172" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B172" s="46"/>
+      <c r="C172" s="114"/>
+      <c r="D172" s="114"/>
+      <c r="E172" s="114"/>
+      <c r="F172" s="114"/>
+      <c r="G172" s="113"/>
+      <c r="H172" s="114"/>
+      <c r="I172" s="114"/>
+      <c r="J172" s="114"/>
+      <c r="K172" s="114"/>
+      <c r="L172" s="114"/>
+      <c r="M172" s="114"/>
+      <c r="N172" s="114"/>
+      <c r="O172" s="113"/>
+      <c r="P172" s="113"/>
+      <c r="Q172" s="113"/>
+      <c r="R172" s="111"/>
+      <c r="S172" s="113"/>
+      <c r="T172" s="113"/>
+      <c r="U172" s="113"/>
+      <c r="V172" s="113"/>
+      <c r="W172" s="113"/>
+      <c r="X172" s="113"/>
+      <c r="Y172" s="113"/>
+      <c r="Z172" s="111"/>
+      <c r="AA172" s="111"/>
+      <c r="AB172" s="111"/>
+      <c r="AC172" s="85"/>
+      <c r="AD172" s="86"/>
+      <c r="AE172" s="113"/>
+      <c r="AF172" s="52"/>
+      <c r="AG172" s="53"/>
+      <c r="AH172" s="113"/>
+      <c r="AI172" s="47"/>
+    </row>
+    <row r="173" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B173" s="46"/>
+      <c r="C173" s="113"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="114"/>
+      <c r="G173" s="113"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="113"/>
+      <c r="J173" s="113"/>
+      <c r="K173" s="113"/>
+      <c r="L173" s="16"/>
+      <c r="M173" s="113"/>
+      <c r="N173" s="113"/>
+      <c r="O173" s="113"/>
+      <c r="P173" s="111"/>
+      <c r="Q173" s="111"/>
+      <c r="S173" s="113"/>
+      <c r="T173" s="113"/>
+      <c r="U173" s="113"/>
+      <c r="V173" s="113"/>
+      <c r="W173" s="113"/>
+      <c r="X173" s="113"/>
+      <c r="Y173" s="113"/>
+      <c r="Z173" s="117"/>
+      <c r="AA173" s="111"/>
+      <c r="AB173" s="111"/>
+      <c r="AC173" s="85"/>
+      <c r="AD173" s="86"/>
+      <c r="AE173" s="113"/>
+      <c r="AF173" s="56"/>
+      <c r="AG173" s="57"/>
+      <c r="AH173" s="113"/>
+      <c r="AI173" s="47"/>
+    </row>
+    <row r="174" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B174" s="46"/>
+      <c r="C174" s="113"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="114"/>
+      <c r="G174" s="114"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="113"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="113"/>
+      <c r="L174" s="16"/>
+      <c r="M174" s="113"/>
+      <c r="N174" s="113"/>
+      <c r="O174" s="113"/>
+      <c r="P174" s="111"/>
+      <c r="Q174" s="111"/>
+      <c r="S174" s="113"/>
+      <c r="T174" s="113"/>
+      <c r="U174" s="113"/>
+      <c r="V174" s="113"/>
+      <c r="W174" s="113"/>
+      <c r="X174" s="113"/>
+      <c r="Y174" s="113"/>
+      <c r="Z174" s="117"/>
+      <c r="AA174" s="111"/>
+      <c r="AB174" s="111"/>
+      <c r="AC174" s="85"/>
+      <c r="AD174" s="86"/>
+      <c r="AE174" s="113"/>
+      <c r="AF174" s="59"/>
+      <c r="AG174" s="60"/>
+      <c r="AH174" s="113"/>
+      <c r="AI174" s="47"/>
+    </row>
+    <row r="175" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B175" s="46"/>
+      <c r="C175" s="110"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="110"/>
+      <c r="G175" s="110"/>
+      <c r="H175" s="110"/>
+      <c r="I175" s="112"/>
+      <c r="J175" s="110"/>
+      <c r="K175" s="110"/>
+      <c r="L175" s="110"/>
+      <c r="M175" s="110"/>
+      <c r="N175" s="110"/>
+      <c r="O175" s="110"/>
+      <c r="P175" s="110"/>
+      <c r="Q175" s="110"/>
+      <c r="R175" s="110"/>
+      <c r="S175" s="110"/>
+      <c r="T175" s="110"/>
+      <c r="U175" s="110"/>
+      <c r="V175" s="110"/>
+      <c r="W175" s="110"/>
+      <c r="X175" s="110"/>
+      <c r="Y175" s="110"/>
+      <c r="Z175" s="110"/>
+      <c r="AA175" s="110"/>
+      <c r="AB175" s="110"/>
+      <c r="AC175" s="85"/>
+      <c r="AD175" s="86"/>
+      <c r="AE175" s="110"/>
+      <c r="AF175" s="110"/>
+      <c r="AG175" s="110"/>
+      <c r="AH175" s="110"/>
+      <c r="AI175" s="47"/>
+    </row>
+    <row r="176" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B176" s="46"/>
+      <c r="C176" s="114"/>
+      <c r="D176" s="114"/>
+      <c r="E176" s="114"/>
+      <c r="F176" s="114"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="114"/>
+      <c r="I176" s="114"/>
+      <c r="J176" s="114"/>
+      <c r="K176" s="114"/>
+      <c r="L176" s="114"/>
+      <c r="M176" s="114"/>
+      <c r="N176" s="114"/>
+      <c r="O176" s="114"/>
+      <c r="P176" s="113"/>
+      <c r="Q176" s="116"/>
+      <c r="R176" s="111"/>
+      <c r="S176" s="113"/>
+      <c r="T176" s="113"/>
+      <c r="U176" s="113"/>
+      <c r="V176" s="113"/>
+      <c r="W176" s="113"/>
+      <c r="X176" s="113"/>
+      <c r="Y176" s="113"/>
+      <c r="Z176" s="111"/>
+      <c r="AA176" s="111"/>
+      <c r="AB176" s="113"/>
+      <c r="AC176" s="88"/>
+      <c r="AD176" s="89"/>
+      <c r="AE176" s="113"/>
+      <c r="AF176" s="113"/>
+      <c r="AG176" s="113"/>
+      <c r="AH176" s="113"/>
+      <c r="AI176" s="47"/>
+    </row>
+    <row r="177" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B177" s="46"/>
+      <c r="C177" s="113"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="113"/>
+      <c r="F177" s="113"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="113"/>
+      <c r="I177" s="113"/>
+      <c r="J177" s="113"/>
+      <c r="K177" s="113"/>
+      <c r="L177" s="113"/>
+      <c r="M177" s="113"/>
+      <c r="N177" s="113"/>
+      <c r="O177" s="113"/>
+      <c r="P177" s="113"/>
+      <c r="Q177" s="113"/>
+      <c r="R177" s="111"/>
+      <c r="S177" s="113"/>
+      <c r="T177" s="113"/>
+      <c r="U177" s="113"/>
+      <c r="V177" s="113"/>
+      <c r="W177" s="113"/>
+      <c r="X177" s="113"/>
+      <c r="Y177" s="111"/>
+      <c r="Z177" s="111"/>
+      <c r="AA177" s="111"/>
+      <c r="AB177" s="113"/>
+      <c r="AC177" s="118"/>
+      <c r="AD177" s="119"/>
+      <c r="AE177" s="113"/>
+      <c r="AF177" s="113"/>
+      <c r="AG177" s="113"/>
+      <c r="AH177" s="113"/>
+      <c r="AI177" s="47"/>
+    </row>
+    <row r="178" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B178" s="46"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="114"/>
+      <c r="E178" s="114"/>
+      <c r="F178" s="113"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="113"/>
+      <c r="I178" s="113"/>
+      <c r="J178" s="113"/>
+      <c r="K178" s="113"/>
+      <c r="L178" s="113"/>
+      <c r="M178" s="113"/>
+      <c r="N178" s="113"/>
+      <c r="O178" s="113"/>
+      <c r="P178" s="113"/>
+      <c r="Q178" s="113"/>
+      <c r="R178" s="111"/>
+      <c r="S178" s="113"/>
+      <c r="T178" s="113"/>
+      <c r="U178" s="113"/>
+      <c r="V178" s="113"/>
+      <c r="W178" s="113"/>
+      <c r="X178" s="113"/>
+      <c r="Y178" s="111"/>
+      <c r="Z178" s="111"/>
+      <c r="AA178" s="111"/>
+      <c r="AB178" s="111"/>
+      <c r="AC178" s="120"/>
+      <c r="AD178" s="121"/>
+      <c r="AE178" s="113"/>
+      <c r="AF178" s="113"/>
+      <c r="AG178" s="113"/>
+      <c r="AH178" s="113"/>
+      <c r="AI178" s="47"/>
+    </row>
+    <row r="179" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B179" s="46"/>
+      <c r="C179" s="113"/>
+      <c r="D179" s="114"/>
+      <c r="E179" s="114"/>
+      <c r="F179" s="113"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="113"/>
+      <c r="I179" s="113"/>
+      <c r="J179" s="113"/>
+      <c r="K179" s="113"/>
+      <c r="L179" s="113"/>
+      <c r="M179" s="113"/>
+      <c r="N179" s="113"/>
+      <c r="O179" s="113"/>
+      <c r="P179" s="113"/>
+      <c r="Q179" s="113"/>
+      <c r="R179" s="111"/>
+      <c r="S179" s="113"/>
+      <c r="T179" s="113"/>
+      <c r="U179" s="113"/>
+      <c r="V179" s="113"/>
+      <c r="W179" s="113"/>
+      <c r="X179" s="113"/>
+      <c r="Y179" s="111"/>
+      <c r="Z179" s="111"/>
+      <c r="AA179" s="111"/>
+      <c r="AB179" s="111"/>
+      <c r="AC179" s="122"/>
+      <c r="AD179" s="123"/>
+      <c r="AE179" s="113"/>
+      <c r="AF179" s="113"/>
+      <c r="AG179" s="113"/>
+      <c r="AH179" s="113"/>
+      <c r="AI179" s="47"/>
+    </row>
+    <row r="180" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B180" s="61"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="62"/>
+      <c r="G180" s="62"/>
+      <c r="H180" s="115"/>
+      <c r="I180" s="115"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="62"/>
+      <c r="M180" s="115"/>
+      <c r="N180" s="115"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="62"/>
+      <c r="R180" s="115"/>
+      <c r="S180" s="115"/>
+      <c r="T180" s="115"/>
+      <c r="U180" s="74"/>
+      <c r="V180" s="62"/>
+      <c r="W180" s="115"/>
+      <c r="X180" s="115"/>
+      <c r="Y180" s="115"/>
+      <c r="Z180" s="115"/>
+      <c r="AA180" s="62"/>
+      <c r="AB180" s="62"/>
+      <c r="AC180" s="62"/>
+      <c r="AD180" s="62"/>
+      <c r="AE180" s="62"/>
+      <c r="AF180" s="62"/>
+      <c r="AG180" s="62"/>
+      <c r="AH180" s="62"/>
+      <c r="AI180" s="63"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19325227-7CE7-4743-8F0B-68708A45BE2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE1D4C-CED3-41BE-8F12-5D70D8E239B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2211,6 +2211,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2224,48 +2266,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,114 +3386,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18082240-50CF-4B4F-8668-5C1B71EC7684}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="7985760"/>
-          <a:ext cx="7139940" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA951F-CEFB-4503-93F6-7AAB1B4FF7FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="7985760"/>
-          <a:ext cx="7139940" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5024,12 +4916,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5131,12 +5023,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5193,12 +5085,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5289,12 +5181,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5992,13 +5884,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -6019,42 +5911,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="107"/>
-      <c r="U3" s="105" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="121"/>
+      <c r="U3" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="107"/>
-      <c r="AF3" s="105" t="s">
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="121"/>
+      <c r="AF3" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="107"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="121"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6489,42 +6381,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="107"/>
-      <c r="U14" s="105" t="s">
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="121"/>
+      <c r="U14" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="107"/>
-      <c r="AF14" s="105" t="s">
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="121"/>
+      <c r="AF14" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
-      <c r="AN14" s="106"/>
-      <c r="AO14" s="107"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="121"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6816,30 +6708,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="105" t="s">
+      <c r="J25" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="107"/>
-      <c r="U25" s="105" t="s">
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="121"/>
+      <c r="U25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="107"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="121"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -7041,15 +6933,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7079,13 +6971,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7337,7 +7229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AQ173" sqref="AQ173"/>
     </sheetView>
   </sheetViews>
@@ -11820,493 +11712,493 @@
     </row>
     <row r="166" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B166" s="46"/>
-      <c r="C166" s="113"/>
+      <c r="C166" s="108"/>
       <c r="E166" s="16"/>
-      <c r="F166" s="113"/>
+      <c r="F166" s="108"/>
       <c r="G166" s="16"/>
-      <c r="H166" s="116"/>
+      <c r="H166" s="111"/>
       <c r="I166" s="16"/>
-      <c r="J166" s="113"/>
-      <c r="K166" s="113"/>
-      <c r="L166" s="113"/>
-      <c r="M166" s="113"/>
-      <c r="N166" s="113"/>
-      <c r="P166" s="113"/>
-      <c r="Q166" s="111"/>
-      <c r="R166" s="113"/>
-      <c r="T166" s="116"/>
-      <c r="U166" s="113"/>
-      <c r="V166" s="111"/>
-      <c r="W166" s="113"/>
-      <c r="Y166" s="111"/>
-      <c r="AB166" s="113"/>
-      <c r="AC166" s="111"/>
-      <c r="AD166" s="111"/>
-      <c r="AE166" s="111"/>
-      <c r="AF166" s="111"/>
-      <c r="AG166" s="111"/>
-      <c r="AH166" s="113"/>
+      <c r="J166" s="108"/>
+      <c r="K166" s="108"/>
+      <c r="L166" s="108"/>
+      <c r="M166" s="108"/>
+      <c r="N166" s="108"/>
+      <c r="P166" s="108"/>
+      <c r="Q166" s="106"/>
+      <c r="R166" s="108"/>
+      <c r="T166" s="111"/>
+      <c r="U166" s="108"/>
+      <c r="V166" s="106"/>
+      <c r="W166" s="108"/>
+      <c r="Y166" s="106"/>
+      <c r="AB166" s="108"/>
+      <c r="AC166" s="106"/>
+      <c r="AD166" s="106"/>
+      <c r="AE166" s="106"/>
+      <c r="AF166" s="106"/>
+      <c r="AG166" s="106"/>
+      <c r="AH166" s="108"/>
       <c r="AI166" s="47"/>
     </row>
     <row r="167" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B167" s="46"/>
-      <c r="C167" s="113"/>
-      <c r="D167" s="113"/>
-      <c r="E167" s="113"/>
-      <c r="F167" s="113"/>
-      <c r="G167" s="114"/>
-      <c r="H167" s="113"/>
+      <c r="C167" s="108"/>
+      <c r="D167" s="108"/>
+      <c r="E167" s="108"/>
+      <c r="F167" s="108"/>
+      <c r="G167" s="109"/>
+      <c r="H167" s="108"/>
       <c r="I167" s="16"/>
-      <c r="J167" s="113"/>
-      <c r="K167" s="113"/>
-      <c r="L167" s="113"/>
-      <c r="M167" s="113"/>
-      <c r="N167" s="113"/>
-      <c r="O167" s="113"/>
-      <c r="P167" s="113"/>
-      <c r="Q167" s="111"/>
-      <c r="R167" s="113"/>
-      <c r="S167" s="113"/>
-      <c r="T167" s="113"/>
-      <c r="U167" s="113"/>
-      <c r="V167" s="113"/>
-      <c r="W167" s="113"/>
-      <c r="X167" s="113"/>
-      <c r="Y167" s="113"/>
-      <c r="Z167" s="113"/>
-      <c r="AA167" s="113"/>
-      <c r="AB167" s="113"/>
+      <c r="J167" s="108"/>
+      <c r="K167" s="108"/>
+      <c r="L167" s="108"/>
+      <c r="M167" s="108"/>
+      <c r="N167" s="108"/>
+      <c r="O167" s="108"/>
+      <c r="P167" s="108"/>
+      <c r="Q167" s="106"/>
+      <c r="R167" s="108"/>
+      <c r="S167" s="108"/>
+      <c r="T167" s="108"/>
+      <c r="U167" s="108"/>
+      <c r="V167" s="108"/>
+      <c r="W167" s="108"/>
+      <c r="X167" s="108"/>
+      <c r="Y167" s="108"/>
+      <c r="Z167" s="108"/>
+      <c r="AA167" s="108"/>
+      <c r="AB167" s="108"/>
       <c r="AC167" s="83"/>
       <c r="AD167" s="84"/>
-      <c r="AE167" s="111"/>
-      <c r="AF167" s="111"/>
-      <c r="AG167" s="111"/>
-      <c r="AH167" s="113"/>
+      <c r="AE167" s="106"/>
+      <c r="AF167" s="106"/>
+      <c r="AG167" s="106"/>
+      <c r="AH167" s="108"/>
       <c r="AI167" s="47"/>
     </row>
     <row r="168" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B168" s="46"/>
-      <c r="C168" s="113"/>
-      <c r="D168" s="113"/>
-      <c r="E168" s="113"/>
-      <c r="F168" s="113"/>
-      <c r="G168" s="114"/>
-      <c r="H168" s="113"/>
-      <c r="I168" s="113"/>
-      <c r="J168" s="113"/>
-      <c r="K168" s="113"/>
-      <c r="L168" s="113"/>
-      <c r="M168" s="113"/>
-      <c r="N168" s="113"/>
-      <c r="O168" s="113"/>
-      <c r="P168" s="113"/>
-      <c r="Q168" s="111"/>
-      <c r="R168" s="113"/>
-      <c r="S168" s="113"/>
-      <c r="T168" s="113"/>
-      <c r="U168" s="113"/>
-      <c r="V168" s="113"/>
-      <c r="W168" s="113"/>
-      <c r="X168" s="113"/>
-      <c r="Y168" s="113"/>
-      <c r="Z168" s="113"/>
-      <c r="AA168" s="113"/>
-      <c r="AB168" s="113"/>
+      <c r="C168" s="108"/>
+      <c r="D168" s="108"/>
+      <c r="E168" s="108"/>
+      <c r="F168" s="108"/>
+      <c r="G168" s="109"/>
+      <c r="H168" s="108"/>
+      <c r="I168" s="108"/>
+      <c r="J168" s="108"/>
+      <c r="K168" s="108"/>
+      <c r="L168" s="108"/>
+      <c r="M168" s="108"/>
+      <c r="N168" s="108"/>
+      <c r="O168" s="108"/>
+      <c r="P168" s="108"/>
+      <c r="Q168" s="106"/>
+      <c r="R168" s="108"/>
+      <c r="S168" s="108"/>
+      <c r="T168" s="108"/>
+      <c r="U168" s="108"/>
+      <c r="V168" s="108"/>
+      <c r="W168" s="108"/>
+      <c r="X168" s="108"/>
+      <c r="Y168" s="108"/>
+      <c r="Z168" s="108"/>
+      <c r="AA168" s="108"/>
+      <c r="AB168" s="108"/>
       <c r="AC168" s="85"/>
       <c r="AD168" s="86"/>
-      <c r="AE168" s="111"/>
-      <c r="AF168" s="111"/>
-      <c r="AG168" s="111"/>
-      <c r="AH168" s="113"/>
+      <c r="AE168" s="106"/>
+      <c r="AF168" s="106"/>
+      <c r="AG168" s="106"/>
+      <c r="AH168" s="108"/>
       <c r="AI168" s="47"/>
     </row>
     <row r="169" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B169" s="46"/>
-      <c r="C169" s="113"/>
-      <c r="D169" s="113"/>
-      <c r="E169" s="113"/>
-      <c r="F169" s="113"/>
-      <c r="G169" s="114"/>
-      <c r="H169" s="113"/>
-      <c r="I169" s="113"/>
-      <c r="J169" s="113"/>
-      <c r="L169" s="116"/>
-      <c r="P169" s="113"/>
-      <c r="Q169" s="111"/>
-      <c r="R169" s="113"/>
-      <c r="S169" s="113"/>
-      <c r="T169" s="113"/>
-      <c r="U169" s="113"/>
-      <c r="V169" s="113"/>
-      <c r="W169" s="113"/>
-      <c r="X169" s="116"/>
-      <c r="Z169" s="113"/>
-      <c r="AA169" s="113"/>
-      <c r="AB169" s="113"/>
+      <c r="C169" s="108"/>
+      <c r="D169" s="108"/>
+      <c r="E169" s="108"/>
+      <c r="F169" s="108"/>
+      <c r="G169" s="109"/>
+      <c r="H169" s="108"/>
+      <c r="I169" s="108"/>
+      <c r="J169" s="108"/>
+      <c r="L169" s="111"/>
+      <c r="P169" s="108"/>
+      <c r="Q169" s="106"/>
+      <c r="R169" s="108"/>
+      <c r="S169" s="108"/>
+      <c r="T169" s="108"/>
+      <c r="U169" s="108"/>
+      <c r="V169" s="108"/>
+      <c r="W169" s="108"/>
+      <c r="X169" s="111"/>
+      <c r="Z169" s="108"/>
+      <c r="AA169" s="108"/>
+      <c r="AB169" s="108"/>
       <c r="AC169" s="88"/>
       <c r="AD169" s="89"/>
-      <c r="AE169" s="113"/>
-      <c r="AF169" s="113"/>
-      <c r="AG169" s="113"/>
-      <c r="AH169" s="113"/>
+      <c r="AE169" s="108"/>
+      <c r="AF169" s="108"/>
+      <c r="AG169" s="108"/>
+      <c r="AH169" s="108"/>
       <c r="AI169" s="47"/>
     </row>
     <row r="170" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B170" s="46"/>
-      <c r="C170" s="110"/>
-      <c r="D170" s="110"/>
-      <c r="E170" s="112"/>
+      <c r="C170" s="105"/>
+      <c r="D170" s="105"/>
+      <c r="E170" s="107"/>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
-      <c r="H170" s="112"/>
-      <c r="I170" s="112"/>
-      <c r="J170" s="110"/>
-      <c r="K170" s="110"/>
-      <c r="L170" s="110"/>
-      <c r="M170" s="110"/>
-      <c r="N170" s="110"/>
-      <c r="O170" s="110"/>
-      <c r="P170" s="110"/>
-      <c r="Q170" s="110"/>
-      <c r="R170" s="110"/>
-      <c r="S170" s="110"/>
-      <c r="T170" s="110"/>
-      <c r="U170" s="110"/>
-      <c r="V170" s="110"/>
-      <c r="W170" s="110"/>
-      <c r="X170" s="110"/>
-      <c r="Y170" s="110"/>
-      <c r="Z170" s="110"/>
-      <c r="AA170" s="110"/>
-      <c r="AB170" s="110"/>
+      <c r="H170" s="107"/>
+      <c r="I170" s="107"/>
+      <c r="J170" s="105"/>
+      <c r="K170" s="105"/>
+      <c r="L170" s="105"/>
+      <c r="M170" s="105"/>
+      <c r="N170" s="105"/>
+      <c r="O170" s="105"/>
+      <c r="P170" s="105"/>
+      <c r="Q170" s="105"/>
+      <c r="R170" s="105"/>
+      <c r="S170" s="105"/>
+      <c r="T170" s="105"/>
+      <c r="U170" s="105"/>
+      <c r="V170" s="105"/>
+      <c r="W170" s="105"/>
+      <c r="X170" s="105"/>
+      <c r="Y170" s="105"/>
+      <c r="Z170" s="105"/>
+      <c r="AA170" s="105"/>
+      <c r="AB170" s="105"/>
       <c r="AC170" s="83"/>
       <c r="AD170" s="84"/>
-      <c r="AE170" s="110"/>
-      <c r="AF170" s="110"/>
-      <c r="AG170" s="110"/>
-      <c r="AH170" s="110"/>
+      <c r="AE170" s="105"/>
+      <c r="AF170" s="105"/>
+      <c r="AG170" s="105"/>
+      <c r="AH170" s="105"/>
       <c r="AI170" s="47"/>
     </row>
     <row r="171" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B171" s="46"/>
-      <c r="C171" s="113"/>
-      <c r="D171" s="113"/>
-      <c r="E171" s="113"/>
-      <c r="F171" s="114"/>
-      <c r="G171" s="113"/>
-      <c r="H171" s="113"/>
-      <c r="I171" s="113"/>
-      <c r="J171" s="113"/>
-      <c r="K171" s="113"/>
-      <c r="L171" s="113"/>
-      <c r="M171" s="113"/>
-      <c r="N171" s="113"/>
-      <c r="O171" s="113"/>
-      <c r="P171" s="113"/>
-      <c r="Q171" s="111"/>
-      <c r="R171" s="111"/>
-      <c r="S171" s="113"/>
-      <c r="T171" s="113"/>
-      <c r="U171" s="113"/>
-      <c r="V171" s="113"/>
-      <c r="W171" s="113"/>
-      <c r="X171" s="113"/>
-      <c r="Y171" s="113"/>
-      <c r="Z171" s="113"/>
-      <c r="AA171" s="111"/>
-      <c r="AB171" s="111"/>
+      <c r="C171" s="108"/>
+      <c r="D171" s="108"/>
+      <c r="E171" s="108"/>
+      <c r="F171" s="109"/>
+      <c r="G171" s="108"/>
+      <c r="H171" s="108"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="108"/>
+      <c r="L171" s="108"/>
+      <c r="M171" s="108"/>
+      <c r="N171" s="108"/>
+      <c r="O171" s="108"/>
+      <c r="P171" s="108"/>
+      <c r="Q171" s="106"/>
+      <c r="R171" s="106"/>
+      <c r="S171" s="108"/>
+      <c r="T171" s="108"/>
+      <c r="U171" s="108"/>
+      <c r="V171" s="108"/>
+      <c r="W171" s="108"/>
+      <c r="X171" s="108"/>
+      <c r="Y171" s="108"/>
+      <c r="Z171" s="108"/>
+      <c r="AA171" s="106"/>
+      <c r="AB171" s="106"/>
       <c r="AC171" s="85"/>
       <c r="AD171" s="86"/>
-      <c r="AE171" s="113"/>
-      <c r="AF171" s="113"/>
-      <c r="AG171" s="113"/>
-      <c r="AH171" s="113"/>
+      <c r="AE171" s="108"/>
+      <c r="AF171" s="108"/>
+      <c r="AG171" s="108"/>
+      <c r="AH171" s="108"/>
       <c r="AI171" s="47"/>
     </row>
     <row r="172" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B172" s="46"/>
-      <c r="C172" s="114"/>
-      <c r="D172" s="114"/>
-      <c r="E172" s="114"/>
-      <c r="F172" s="114"/>
-      <c r="G172" s="113"/>
-      <c r="H172" s="114"/>
-      <c r="I172" s="114"/>
-      <c r="J172" s="114"/>
-      <c r="K172" s="114"/>
-      <c r="L172" s="114"/>
-      <c r="M172" s="114"/>
-      <c r="N172" s="114"/>
-      <c r="O172" s="113"/>
-      <c r="P172" s="113"/>
-      <c r="Q172" s="113"/>
-      <c r="R172" s="111"/>
-      <c r="S172" s="113"/>
-      <c r="T172" s="113"/>
-      <c r="U172" s="113"/>
-      <c r="V172" s="113"/>
-      <c r="W172" s="113"/>
-      <c r="X172" s="113"/>
-      <c r="Y172" s="113"/>
-      <c r="Z172" s="111"/>
-      <c r="AA172" s="111"/>
-      <c r="AB172" s="111"/>
+      <c r="C172" s="109"/>
+      <c r="D172" s="109"/>
+      <c r="E172" s="109"/>
+      <c r="F172" s="109"/>
+      <c r="G172" s="108"/>
+      <c r="H172" s="109"/>
+      <c r="I172" s="109"/>
+      <c r="J172" s="109"/>
+      <c r="K172" s="109"/>
+      <c r="L172" s="109"/>
+      <c r="M172" s="109"/>
+      <c r="N172" s="109"/>
+      <c r="O172" s="108"/>
+      <c r="P172" s="108"/>
+      <c r="Q172" s="108"/>
+      <c r="R172" s="106"/>
+      <c r="S172" s="108"/>
+      <c r="T172" s="108"/>
+      <c r="U172" s="108"/>
+      <c r="V172" s="108"/>
+      <c r="W172" s="108"/>
+      <c r="X172" s="108"/>
+      <c r="Y172" s="108"/>
+      <c r="Z172" s="106"/>
+      <c r="AA172" s="106"/>
+      <c r="AB172" s="106"/>
       <c r="AC172" s="85"/>
       <c r="AD172" s="86"/>
-      <c r="AE172" s="113"/>
+      <c r="AE172" s="108"/>
       <c r="AF172" s="52"/>
       <c r="AG172" s="53"/>
-      <c r="AH172" s="113"/>
+      <c r="AH172" s="108"/>
       <c r="AI172" s="47"/>
     </row>
     <row r="173" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B173" s="46"/>
-      <c r="C173" s="113"/>
+      <c r="C173" s="108"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="114"/>
-      <c r="G173" s="113"/>
+      <c r="F173" s="109"/>
+      <c r="G173" s="108"/>
       <c r="H173" s="16"/>
-      <c r="I173" s="113"/>
-      <c r="J173" s="113"/>
-      <c r="K173" s="113"/>
+      <c r="I173" s="108"/>
+      <c r="J173" s="108"/>
+      <c r="K173" s="108"/>
       <c r="L173" s="16"/>
-      <c r="M173" s="113"/>
-      <c r="N173" s="113"/>
-      <c r="O173" s="113"/>
-      <c r="P173" s="111"/>
-      <c r="Q173" s="111"/>
-      <c r="S173" s="113"/>
-      <c r="T173" s="113"/>
-      <c r="U173" s="113"/>
-      <c r="V173" s="113"/>
-      <c r="W173" s="113"/>
-      <c r="X173" s="113"/>
-      <c r="Y173" s="113"/>
-      <c r="Z173" s="117"/>
-      <c r="AA173" s="111"/>
-      <c r="AB173" s="111"/>
+      <c r="M173" s="108"/>
+      <c r="N173" s="108"/>
+      <c r="O173" s="108"/>
+      <c r="P173" s="106"/>
+      <c r="Q173" s="106"/>
+      <c r="S173" s="108"/>
+      <c r="T173" s="108"/>
+      <c r="U173" s="108"/>
+      <c r="V173" s="108"/>
+      <c r="W173" s="108"/>
+      <c r="X173" s="108"/>
+      <c r="Y173" s="108"/>
+      <c r="Z173" s="112"/>
+      <c r="AA173" s="106"/>
+      <c r="AB173" s="106"/>
       <c r="AC173" s="85"/>
       <c r="AD173" s="86"/>
-      <c r="AE173" s="113"/>
+      <c r="AE173" s="108"/>
       <c r="AF173" s="56"/>
       <c r="AG173" s="57"/>
-      <c r="AH173" s="113"/>
+      <c r="AH173" s="108"/>
       <c r="AI173" s="47"/>
     </row>
     <row r="174" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B174" s="46"/>
-      <c r="C174" s="113"/>
+      <c r="C174" s="108"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="114"/>
-      <c r="G174" s="114"/>
+      <c r="F174" s="109"/>
+      <c r="G174" s="109"/>
       <c r="H174" s="16"/>
-      <c r="I174" s="113"/>
+      <c r="I174" s="108"/>
       <c r="J174" s="16"/>
-      <c r="K174" s="113"/>
+      <c r="K174" s="108"/>
       <c r="L174" s="16"/>
-      <c r="M174" s="113"/>
-      <c r="N174" s="113"/>
-      <c r="O174" s="113"/>
-      <c r="P174" s="111"/>
-      <c r="Q174" s="111"/>
-      <c r="S174" s="113"/>
-      <c r="T174" s="113"/>
-      <c r="U174" s="113"/>
-      <c r="V174" s="113"/>
-      <c r="W174" s="113"/>
-      <c r="X174" s="113"/>
-      <c r="Y174" s="113"/>
-      <c r="Z174" s="117"/>
-      <c r="AA174" s="111"/>
-      <c r="AB174" s="111"/>
+      <c r="M174" s="108"/>
+      <c r="N174" s="108"/>
+      <c r="O174" s="108"/>
+      <c r="P174" s="106"/>
+      <c r="Q174" s="106"/>
+      <c r="S174" s="108"/>
+      <c r="T174" s="108"/>
+      <c r="U174" s="108"/>
+      <c r="V174" s="108"/>
+      <c r="W174" s="108"/>
+      <c r="X174" s="108"/>
+      <c r="Y174" s="108"/>
+      <c r="Z174" s="112"/>
+      <c r="AA174" s="106"/>
+      <c r="AB174" s="106"/>
       <c r="AC174" s="85"/>
       <c r="AD174" s="86"/>
-      <c r="AE174" s="113"/>
+      <c r="AE174" s="108"/>
       <c r="AF174" s="59"/>
       <c r="AG174" s="60"/>
-      <c r="AH174" s="113"/>
+      <c r="AH174" s="108"/>
       <c r="AI174" s="47"/>
     </row>
     <row r="175" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B175" s="46"/>
-      <c r="C175" s="110"/>
+      <c r="C175" s="105"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="110"/>
-      <c r="G175" s="110"/>
-      <c r="H175" s="110"/>
-      <c r="I175" s="112"/>
-      <c r="J175" s="110"/>
-      <c r="K175" s="110"/>
-      <c r="L175" s="110"/>
-      <c r="M175" s="110"/>
-      <c r="N175" s="110"/>
-      <c r="O175" s="110"/>
-      <c r="P175" s="110"/>
-      <c r="Q175" s="110"/>
-      <c r="R175" s="110"/>
-      <c r="S175" s="110"/>
-      <c r="T175" s="110"/>
-      <c r="U175" s="110"/>
-      <c r="V175" s="110"/>
-      <c r="W175" s="110"/>
-      <c r="X175" s="110"/>
-      <c r="Y175" s="110"/>
-      <c r="Z175" s="110"/>
-      <c r="AA175" s="110"/>
-      <c r="AB175" s="110"/>
+      <c r="F175" s="105"/>
+      <c r="G175" s="105"/>
+      <c r="H175" s="105"/>
+      <c r="I175" s="107"/>
+      <c r="J175" s="105"/>
+      <c r="K175" s="105"/>
+      <c r="L175" s="105"/>
+      <c r="M175" s="105"/>
+      <c r="N175" s="105"/>
+      <c r="O175" s="105"/>
+      <c r="P175" s="105"/>
+      <c r="Q175" s="105"/>
+      <c r="R175" s="105"/>
+      <c r="S175" s="105"/>
+      <c r="T175" s="105"/>
+      <c r="U175" s="105"/>
+      <c r="V175" s="105"/>
+      <c r="W175" s="105"/>
+      <c r="X175" s="105"/>
+      <c r="Y175" s="105"/>
+      <c r="Z175" s="105"/>
+      <c r="AA175" s="105"/>
+      <c r="AB175" s="105"/>
       <c r="AC175" s="85"/>
       <c r="AD175" s="86"/>
-      <c r="AE175" s="110"/>
-      <c r="AF175" s="110"/>
-      <c r="AG175" s="110"/>
-      <c r="AH175" s="110"/>
+      <c r="AE175" s="105"/>
+      <c r="AF175" s="105"/>
+      <c r="AG175" s="105"/>
+      <c r="AH175" s="105"/>
       <c r="AI175" s="47"/>
     </row>
     <row r="176" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B176" s="46"/>
-      <c r="C176" s="114"/>
-      <c r="D176" s="114"/>
-      <c r="E176" s="114"/>
-      <c r="F176" s="114"/>
+      <c r="C176" s="109"/>
+      <c r="D176" s="109"/>
+      <c r="E176" s="109"/>
+      <c r="F176" s="109"/>
       <c r="G176" s="16"/>
-      <c r="H176" s="114"/>
-      <c r="I176" s="114"/>
-      <c r="J176" s="114"/>
-      <c r="K176" s="114"/>
-      <c r="L176" s="114"/>
-      <c r="M176" s="114"/>
-      <c r="N176" s="114"/>
-      <c r="O176" s="114"/>
-      <c r="P176" s="113"/>
-      <c r="Q176" s="116"/>
-      <c r="R176" s="111"/>
-      <c r="S176" s="113"/>
-      <c r="T176" s="113"/>
-      <c r="U176" s="113"/>
-      <c r="V176" s="113"/>
-      <c r="W176" s="113"/>
-      <c r="X176" s="113"/>
-      <c r="Y176" s="113"/>
-      <c r="Z176" s="111"/>
-      <c r="AA176" s="111"/>
-      <c r="AB176" s="113"/>
+      <c r="H176" s="109"/>
+      <c r="I176" s="109"/>
+      <c r="J176" s="109"/>
+      <c r="K176" s="109"/>
+      <c r="L176" s="109"/>
+      <c r="M176" s="109"/>
+      <c r="N176" s="109"/>
+      <c r="O176" s="109"/>
+      <c r="P176" s="108"/>
+      <c r="Q176" s="111"/>
+      <c r="R176" s="106"/>
+      <c r="S176" s="108"/>
+      <c r="T176" s="108"/>
+      <c r="U176" s="108"/>
+      <c r="V176" s="108"/>
+      <c r="W176" s="108"/>
+      <c r="X176" s="108"/>
+      <c r="Y176" s="108"/>
+      <c r="Z176" s="106"/>
+      <c r="AA176" s="106"/>
+      <c r="AB176" s="108"/>
       <c r="AC176" s="88"/>
       <c r="AD176" s="89"/>
-      <c r="AE176" s="113"/>
-      <c r="AF176" s="113"/>
-      <c r="AG176" s="113"/>
-      <c r="AH176" s="113"/>
+      <c r="AE176" s="108"/>
+      <c r="AF176" s="108"/>
+      <c r="AG176" s="108"/>
+      <c r="AH176" s="108"/>
       <c r="AI176" s="47"/>
     </row>
     <row r="177" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B177" s="46"/>
-      <c r="C177" s="113"/>
-      <c r="D177" s="113"/>
-      <c r="E177" s="113"/>
-      <c r="F177" s="113"/>
+      <c r="C177" s="108"/>
+      <c r="D177" s="108"/>
+      <c r="E177" s="108"/>
+      <c r="F177" s="108"/>
       <c r="G177" s="16"/>
-      <c r="H177" s="113"/>
-      <c r="I177" s="113"/>
-      <c r="J177" s="113"/>
-      <c r="K177" s="113"/>
-      <c r="L177" s="113"/>
-      <c r="M177" s="113"/>
-      <c r="N177" s="113"/>
-      <c r="O177" s="113"/>
-      <c r="P177" s="113"/>
-      <c r="Q177" s="113"/>
-      <c r="R177" s="111"/>
-      <c r="S177" s="113"/>
-      <c r="T177" s="113"/>
-      <c r="U177" s="113"/>
-      <c r="V177" s="113"/>
-      <c r="W177" s="113"/>
-      <c r="X177" s="113"/>
-      <c r="Y177" s="111"/>
-      <c r="Z177" s="111"/>
-      <c r="AA177" s="111"/>
-      <c r="AB177" s="113"/>
-      <c r="AC177" s="118"/>
-      <c r="AD177" s="119"/>
-      <c r="AE177" s="113"/>
-      <c r="AF177" s="113"/>
-      <c r="AG177" s="113"/>
-      <c r="AH177" s="113"/>
+      <c r="H177" s="108"/>
+      <c r="I177" s="108"/>
+      <c r="J177" s="108"/>
+      <c r="K177" s="108"/>
+      <c r="L177" s="108"/>
+      <c r="M177" s="108"/>
+      <c r="N177" s="108"/>
+      <c r="O177" s="108"/>
+      <c r="P177" s="108"/>
+      <c r="Q177" s="108"/>
+      <c r="R177" s="106"/>
+      <c r="S177" s="108"/>
+      <c r="T177" s="108"/>
+      <c r="U177" s="108"/>
+      <c r="V177" s="108"/>
+      <c r="W177" s="108"/>
+      <c r="X177" s="108"/>
+      <c r="Y177" s="106"/>
+      <c r="Z177" s="106"/>
+      <c r="AA177" s="106"/>
+      <c r="AB177" s="108"/>
+      <c r="AC177" s="113"/>
+      <c r="AD177" s="114"/>
+      <c r="AE177" s="108"/>
+      <c r="AF177" s="108"/>
+      <c r="AG177" s="108"/>
+      <c r="AH177" s="108"/>
       <c r="AI177" s="47"/>
     </row>
     <row r="178" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B178" s="46"/>
-      <c r="C178" s="113"/>
-      <c r="D178" s="114"/>
-      <c r="E178" s="114"/>
-      <c r="F178" s="113"/>
+      <c r="C178" s="108"/>
+      <c r="D178" s="109"/>
+      <c r="E178" s="109"/>
+      <c r="F178" s="108"/>
       <c r="G178" s="16"/>
-      <c r="H178" s="113"/>
-      <c r="I178" s="113"/>
-      <c r="J178" s="113"/>
-      <c r="K178" s="113"/>
-      <c r="L178" s="113"/>
-      <c r="M178" s="113"/>
-      <c r="N178" s="113"/>
-      <c r="O178" s="113"/>
-      <c r="P178" s="113"/>
-      <c r="Q178" s="113"/>
-      <c r="R178" s="111"/>
-      <c r="S178" s="113"/>
-      <c r="T178" s="113"/>
-      <c r="U178" s="113"/>
-      <c r="V178" s="113"/>
-      <c r="W178" s="113"/>
-      <c r="X178" s="113"/>
-      <c r="Y178" s="111"/>
-      <c r="Z178" s="111"/>
-      <c r="AA178" s="111"/>
-      <c r="AB178" s="111"/>
-      <c r="AC178" s="120"/>
-      <c r="AD178" s="121"/>
-      <c r="AE178" s="113"/>
-      <c r="AF178" s="113"/>
-      <c r="AG178" s="113"/>
-      <c r="AH178" s="113"/>
+      <c r="H178" s="108"/>
+      <c r="I178" s="108"/>
+      <c r="J178" s="108"/>
+      <c r="K178" s="108"/>
+      <c r="L178" s="108"/>
+      <c r="M178" s="108"/>
+      <c r="N178" s="108"/>
+      <c r="O178" s="108"/>
+      <c r="P178" s="108"/>
+      <c r="Q178" s="108"/>
+      <c r="R178" s="106"/>
+      <c r="S178" s="108"/>
+      <c r="T178" s="108"/>
+      <c r="U178" s="108"/>
+      <c r="V178" s="108"/>
+      <c r="W178" s="108"/>
+      <c r="X178" s="108"/>
+      <c r="Y178" s="106"/>
+      <c r="Z178" s="106"/>
+      <c r="AA178" s="106"/>
+      <c r="AB178" s="106"/>
+      <c r="AC178" s="115"/>
+      <c r="AD178" s="116"/>
+      <c r="AE178" s="108"/>
+      <c r="AF178" s="108"/>
+      <c r="AG178" s="108"/>
+      <c r="AH178" s="108"/>
       <c r="AI178" s="47"/>
     </row>
     <row r="179" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B179" s="46"/>
-      <c r="C179" s="113"/>
-      <c r="D179" s="114"/>
-      <c r="E179" s="114"/>
-      <c r="F179" s="113"/>
+      <c r="C179" s="108"/>
+      <c r="D179" s="109"/>
+      <c r="E179" s="109"/>
+      <c r="F179" s="108"/>
       <c r="G179" s="16"/>
-      <c r="H179" s="113"/>
-      <c r="I179" s="113"/>
-      <c r="J179" s="113"/>
-      <c r="K179" s="113"/>
-      <c r="L179" s="113"/>
-      <c r="M179" s="113"/>
-      <c r="N179" s="113"/>
-      <c r="O179" s="113"/>
-      <c r="P179" s="113"/>
-      <c r="Q179" s="113"/>
-      <c r="R179" s="111"/>
-      <c r="S179" s="113"/>
-      <c r="T179" s="113"/>
-      <c r="U179" s="113"/>
-      <c r="V179" s="113"/>
-      <c r="W179" s="113"/>
-      <c r="X179" s="113"/>
-      <c r="Y179" s="111"/>
-      <c r="Z179" s="111"/>
-      <c r="AA179" s="111"/>
-      <c r="AB179" s="111"/>
-      <c r="AC179" s="122"/>
-      <c r="AD179" s="123"/>
-      <c r="AE179" s="113"/>
-      <c r="AF179" s="113"/>
-      <c r="AG179" s="113"/>
-      <c r="AH179" s="113"/>
+      <c r="H179" s="108"/>
+      <c r="I179" s="108"/>
+      <c r="J179" s="108"/>
+      <c r="K179" s="108"/>
+      <c r="L179" s="108"/>
+      <c r="M179" s="108"/>
+      <c r="N179" s="108"/>
+      <c r="O179" s="108"/>
+      <c r="P179" s="108"/>
+      <c r="Q179" s="108"/>
+      <c r="R179" s="106"/>
+      <c r="S179" s="108"/>
+      <c r="T179" s="108"/>
+      <c r="U179" s="108"/>
+      <c r="V179" s="108"/>
+      <c r="W179" s="108"/>
+      <c r="X179" s="108"/>
+      <c r="Y179" s="106"/>
+      <c r="Z179" s="106"/>
+      <c r="AA179" s="106"/>
+      <c r="AB179" s="106"/>
+      <c r="AC179" s="117"/>
+      <c r="AD179" s="118"/>
+      <c r="AE179" s="108"/>
+      <c r="AF179" s="108"/>
+      <c r="AG179" s="108"/>
+      <c r="AH179" s="108"/>
       <c r="AI179" s="47"/>
     </row>
     <row r="180" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12316,25 +12208,25 @@
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="62"/>
-      <c r="H180" s="115"/>
-      <c r="I180" s="115"/>
+      <c r="H180" s="110"/>
+      <c r="I180" s="110"/>
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="62"/>
-      <c r="M180" s="115"/>
-      <c r="N180" s="115"/>
+      <c r="M180" s="110"/>
+      <c r="N180" s="110"/>
       <c r="O180" s="19"/>
       <c r="P180" s="19"/>
       <c r="Q180" s="62"/>
-      <c r="R180" s="115"/>
-      <c r="S180" s="115"/>
-      <c r="T180" s="115"/>
+      <c r="R180" s="110"/>
+      <c r="S180" s="110"/>
+      <c r="T180" s="110"/>
       <c r="U180" s="74"/>
       <c r="V180" s="62"/>
-      <c r="W180" s="115"/>
-      <c r="X180" s="115"/>
-      <c r="Y180" s="115"/>
-      <c r="Z180" s="115"/>
+      <c r="W180" s="110"/>
+      <c r="X180" s="110"/>
+      <c r="Y180" s="110"/>
+      <c r="Z180" s="110"/>
       <c r="AA180" s="62"/>
       <c r="AB180" s="62"/>
       <c r="AC180" s="62"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE1D4C-CED3-41BE-8F12-5D70D8E239B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855B03D-F58A-4DCB-9D14-C3EF07A9E51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6933,6 +6933,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -6940,8 +6942,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7229,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ173" sqref="AQ173"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855B03D-F58A-4DCB-9D14-C3EF07A9E51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D3D62-2811-4176-A92E-01164A75D3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4202,7 +4202,7 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -4221,7 +4221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2118360" y="6819900"/>
-          <a:ext cx="1463040" cy="0"/>
+          <a:ext cx="2834640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6933,15 +6933,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7229,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D3D62-2811-4176-A92E-01164A75D3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15E8B11-E0D8-4CEC-8A95-A61A576F2629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4113,7 +4113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="739140" y="9151620"/>
-          <a:ext cx="5349240" cy="0"/>
+          <a:ext cx="5410200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6933,15 +6933,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7229,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:P27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8702,6 +8702,9 @@
       <c r="AG47" s="64"/>
       <c r="AH47" s="64"/>
       <c r="AI47" s="47"/>
+      <c r="AS47">
+        <v>6</v>
+      </c>
       <c r="BA47"/>
       <c r="BB47"/>
       <c r="BC47"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15E8B11-E0D8-4CEC-8A95-A61A576F2629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A90D6D-88DD-4CA6-A0EF-A7963CB95DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14832" yWindow="4020" windowWidth="23040" windowHeight="12324" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -721,9 +721,6 @@
     <t>Title・StageSelect</t>
   </si>
   <si>
-    <t>Title_BGM</t>
-  </si>
-  <si>
     <t>BGM</t>
   </si>
   <si>
@@ -1292,6 +1289,31 @@
   </si>
   <si>
     <t>●ダブルロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title_BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は採用アイコン。</t>
+    <rPh sb="1" eb="3">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は「仮」採用アイコン。</t>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1299,7 +1321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1357,6 +1379,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1895,7 +1925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2019,9 +2049,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2253,6 +2280,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2266,6 +2299,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4916,12 +4961,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="122"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5023,12 +5068,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5085,12 +5130,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5181,12 +5226,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5884,13 +5929,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5911,42 +5956,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="121"/>
-      <c r="U3" s="119" t="s">
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122"/>
+      <c r="U3" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="121"/>
-      <c r="AF3" s="119" t="s">
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="122"/>
+      <c r="AF3" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="120"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="122"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6381,42 +6426,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="121"/>
-      <c r="U14" s="119" t="s">
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="122"/>
+      <c r="U14" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="121"/>
-      <c r="AF14" s="119" t="s">
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="122"/>
+      <c r="AF14" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="120"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="121"/>
+      <c r="AJ14" s="121"/>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="121"/>
+      <c r="AM14" s="121"/>
+      <c r="AN14" s="121"/>
+      <c r="AO14" s="122"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6708,30 +6753,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="119" t="s">
+      <c r="J25" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="121"/>
-      <c r="U25" s="119" t="s">
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="122"/>
+      <c r="U25" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="122"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6933,15 +6978,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6952,10 +6997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6970,16 +7015,16 @@
     <col min="8" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="123" t="s">
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-    </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+    </row>
+    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
@@ -6995,11 +7040,18 @@
       <c r="F3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="118"/>
+      <c r="J3" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="39">
         <v>1</v>
       </c>
@@ -7007,17 +7059,24 @@
         <v>80</v>
       </c>
       <c r="D4" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="G4" s="125"/>
+      <c r="H4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="119"/>
+      <c r="J4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -7031,11 +7090,12 @@
         <v>76</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="G5" s="126"/>
+      <c r="I5" s="127"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -7049,11 +7109,11 @@
         <v>76</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="G6" s="126"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -7061,159 +7121,159 @@
         <v>78</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="G7" s="126"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G8" s="126"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="28">
         <v>7</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="G10" s="126"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
         <v>8</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="28">
         <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+      <c r="G12" s="126"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
         <v>10</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="G13" s="126"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
         <v>11</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+      <c r="G14" s="126"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="30">
         <v>12</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="G15" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7229,7 +7289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
@@ -7298,40 +7358,40 @@
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A3"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
       <c r="AJ3" t="s">
         <v>70</v>
       </c>
@@ -7348,7 +7408,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4"/>
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -7362,8 +7422,8 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="R4" s="76"/>
-      <c r="AI4" s="47"/>
+      <c r="R4" s="75"/>
+      <c r="AI4" s="46"/>
       <c r="AJ4" t="s">
         <v>67</v>
       </c>
@@ -7380,7 +7440,7 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5"/>
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -7394,8 +7454,8 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="R5" s="76"/>
-      <c r="AI5" s="47"/>
+      <c r="R5" s="75"/>
+      <c r="AI5" s="46"/>
       <c r="AJ5" t="s">
         <v>69</v>
       </c>
@@ -7412,7 +7472,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -7426,8 +7486,8 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="R6" s="76"/>
-      <c r="AI6" s="47"/>
+      <c r="R6" s="75"/>
+      <c r="AI6" s="46"/>
       <c r="AJ6" t="s">
         <v>68</v>
       </c>
@@ -7444,7 +7504,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="45"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -7458,8 +7518,8 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="R7" s="76"/>
-      <c r="AI7" s="47"/>
+      <c r="R7" s="75"/>
+      <c r="AI7" s="46"/>
       <c r="AJ7" t="s">
         <v>71</v>
       </c>
@@ -7476,7 +7536,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -7490,8 +7550,8 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="R8" s="76"/>
-      <c r="AI8" s="47"/>
+      <c r="R8" s="75"/>
+      <c r="AI8" s="46"/>
       <c r="AJ8" t="s">
         <v>72</v>
       </c>
@@ -7508,7 +7568,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -7522,10 +7582,10 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="R9" s="76"/>
-      <c r="AI9" s="47"/>
+      <c r="R9" s="75"/>
+      <c r="AI9" s="46"/>
       <c r="AJ9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BA9"/>
       <c r="BB9"/>
@@ -7540,42 +7600,42 @@
     </row>
     <row r="10" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="80"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="79"/>
       <c r="AJ10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA10"/>
       <c r="BB10"/>
@@ -7590,7 +7650,7 @@
     </row>
     <row r="11" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="45"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -7604,11 +7664,11 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="R11" s="76"/>
-      <c r="AI11" s="47"/>
-      <c r="AK11" s="48"/>
+      <c r="R11" s="75"/>
+      <c r="AI11" s="46"/>
+      <c r="AK11" s="47"/>
       <c r="AL11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BA11"/>
       <c r="BB11"/>
@@ -7623,7 +7683,7 @@
     </row>
     <row r="12" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12"/>
-      <c r="B12" s="46"/>
+      <c r="B12" s="45"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -7637,11 +7697,11 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="R12" s="76"/>
-      <c r="AI12" s="47"/>
-      <c r="AK12" s="49"/>
+      <c r="R12" s="75"/>
+      <c r="AI12" s="46"/>
+      <c r="AK12" s="48"/>
       <c r="AL12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA12"/>
       <c r="BB12"/>
@@ -7656,7 +7716,7 @@
     </row>
     <row r="13" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13"/>
-      <c r="B13" s="46"/>
+      <c r="B13" s="45"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -7670,11 +7730,11 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="R13" s="76"/>
-      <c r="AI13" s="47"/>
-      <c r="AK13" s="50"/>
+      <c r="R13" s="75"/>
+      <c r="AI13" s="46"/>
+      <c r="AK13" s="49"/>
       <c r="AL13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BA13"/>
       <c r="BB13"/>
@@ -7689,7 +7749,7 @@
     </row>
     <row r="14" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="45"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -7703,11 +7763,11 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="R14" s="76"/>
-      <c r="AI14" s="47"/>
-      <c r="AK14" s="51"/>
+      <c r="R14" s="75"/>
+      <c r="AI14" s="46"/>
+      <c r="AK14" s="50"/>
       <c r="AL14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BA14"/>
       <c r="BB14"/>
@@ -7722,7 +7782,7 @@
     </row>
     <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="45"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -7736,13 +7796,13 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="R15" s="76"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="53"/>
-      <c r="AI15" s="47"/>
-      <c r="AK15" s="54"/>
+      <c r="R15" s="75"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="52"/>
+      <c r="AI15" s="46"/>
+      <c r="AK15" s="53"/>
       <c r="AL15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BA15"/>
       <c r="BB15"/>
@@ -7757,10 +7817,10 @@
     </row>
     <row r="16" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16"/>
-      <c r="B16" s="46"/>
+      <c r="B16" s="45"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="55"/>
+      <c r="E16" s="54"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -7771,13 +7831,13 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="R16" s="76"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="57"/>
-      <c r="AI16" s="47"/>
-      <c r="AK16" s="58"/>
+      <c r="R16" s="75"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="56"/>
+      <c r="AI16" s="46"/>
+      <c r="AK16" s="57"/>
       <c r="AL16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BA16"/>
       <c r="BB16"/>
@@ -7792,10 +7852,10 @@
     </row>
     <row r="17" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="45"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="55"/>
+      <c r="E17" s="54"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -7806,10 +7866,10 @@
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="R17" s="76"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
-      <c r="AI17" s="47"/>
+      <c r="R17" s="75"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="59"/>
+      <c r="AI17" s="46"/>
       <c r="BA17"/>
       <c r="BB17"/>
       <c r="BC17"/>
@@ -7823,40 +7883,40 @@
     </row>
     <row r="18" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="62"/>
       <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>
@@ -7898,7 +7958,7 @@
     <row r="20" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -7926,42 +7986,42 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A21"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="44"/>
       <c r="AJ21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BA21"/>
       <c r="BB21"/>
@@ -7976,13 +8036,13 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A22"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="45"/>
       <c r="M22"/>
-      <c r="P22" s="64"/>
-      <c r="Z22" s="68"/>
-      <c r="AI22" s="47"/>
+      <c r="P22" s="63"/>
+      <c r="Z22" s="67"/>
+      <c r="AI22" s="46"/>
       <c r="AJ22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BA22"/>
       <c r="BB22"/>
@@ -7997,13 +8057,13 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A23"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="45"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="M23"/>
-      <c r="P23" s="64"/>
-      <c r="AI23" s="47"/>
+      <c r="P23" s="63"/>
+      <c r="AI23" s="46"/>
       <c r="BM23"/>
       <c r="BN23"/>
       <c r="BO23"/>
@@ -8011,13 +8071,13 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A24"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="45"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="M24"/>
-      <c r="P24" s="64"/>
-      <c r="AI24" s="47"/>
+      <c r="P24" s="63"/>
+      <c r="AI24" s="46"/>
       <c r="AK24" s="11"/>
       <c r="BA24"/>
       <c r="BB24"/>
@@ -8032,18 +8092,18 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A25"/>
-      <c r="B25" s="46"/>
+      <c r="B25" s="45"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="64"/>
+      <c r="I25" s="63"/>
       <c r="K25"/>
       <c r="M25"/>
-      <c r="P25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="AD25" s="64"/>
-      <c r="AI25" s="47"/>
+      <c r="P25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AI25" s="46"/>
       <c r="BA25"/>
       <c r="BB25"/>
       <c r="BC25"/>
@@ -8057,16 +8117,16 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A26"/>
-      <c r="B26" s="46"/>
+      <c r="B26" s="45"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="F26"/>
-      <c r="I26" s="64"/>
+      <c r="I26" s="63"/>
       <c r="M26"/>
-      <c r="P26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AI26" s="47"/>
+      <c r="P26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AI26" s="46"/>
       <c r="BA26"/>
       <c r="BB26"/>
       <c r="BC26"/>
@@ -8080,16 +8140,16 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A27"/>
-      <c r="B27" s="46"/>
+      <c r="B27" s="45"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="F27"/>
-      <c r="I27" s="65"/>
+      <c r="I27" s="64"/>
       <c r="M27"/>
-      <c r="P27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AI27" s="47"/>
+      <c r="P27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AI27" s="46"/>
       <c r="BA27"/>
       <c r="BB27"/>
       <c r="BC27"/>
@@ -8103,18 +8163,18 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A28"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="45"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="64"/>
+      <c r="I28" s="63"/>
       <c r="J28"/>
       <c r="M28"/>
       <c r="O28"/>
-      <c r="W28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AI28" s="47"/>
+      <c r="W28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AI28" s="46"/>
       <c r="BA28"/>
       <c r="BB28"/>
       <c r="BC28"/>
@@ -8128,20 +8188,20 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A29"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="45"/>
       <c r="C29"/>
-      <c r="D29" s="55"/>
+      <c r="D29" s="54"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="64"/>
+      <c r="I29" s="63"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
       <c r="O29"/>
-      <c r="W29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AI29" s="47"/>
+      <c r="W29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AI29" s="46"/>
       <c r="BA29"/>
       <c r="BB29"/>
       <c r="BC29"/>
@@ -8155,20 +8215,20 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A30"/>
-      <c r="B30" s="46"/>
+      <c r="B30" s="45"/>
       <c r="C30"/>
-      <c r="D30" s="55"/>
+      <c r="D30" s="54"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="64"/>
+      <c r="I30" s="63"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" s="82"/>
+      <c r="L30" s="81"/>
       <c r="M30"/>
       <c r="O30"/>
-      <c r="W30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AI30" s="47"/>
+      <c r="W30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AI30" s="46"/>
       <c r="BA30"/>
       <c r="BB30"/>
       <c r="BC30"/>
@@ -8182,36 +8242,36 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A31"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AI31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AI31" s="46"/>
       <c r="BA31"/>
       <c r="BB31"/>
       <c r="BC31"/>
@@ -8225,12 +8285,12 @@
     </row>
     <row r="32" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32"/>
-      <c r="B32" s="46"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="AI32" s="47"/>
+      <c r="B32" s="45"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="AI32" s="46"/>
       <c r="BA32"/>
       <c r="BB32"/>
       <c r="BC32"/>
@@ -8244,14 +8304,14 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A33"/>
-      <c r="B33" s="46"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AI33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="52"/>
+      <c r="AI33" s="46"/>
       <c r="BA33"/>
       <c r="BB33"/>
       <c r="BC33"/>
@@ -8265,15 +8325,15 @@
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A34"/>
-      <c r="B34" s="46"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="57"/>
-      <c r="AI34" s="47"/>
+      <c r="B34" s="45"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="56"/>
+      <c r="AI34" s="46"/>
       <c r="BA34"/>
       <c r="BB34"/>
       <c r="BC34"/>
@@ -8287,38 +8347,38 @@
     </row>
     <row r="35" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="60"/>
-      <c r="AI35" s="47"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="59"/>
+      <c r="AI35" s="46"/>
       <c r="BA35"/>
       <c r="BB35"/>
       <c r="BC35"/>
@@ -8332,40 +8392,40 @@
     </row>
     <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="63"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="62"/>
       <c r="BA36"/>
       <c r="BB36"/>
       <c r="BC36"/>
@@ -8407,7 +8467,7 @@
     <row r="38" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -8435,42 +8495,42 @@
     </row>
     <row r="39" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="45"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="44"/>
       <c r="AJ39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BA39"/>
       <c r="BB39"/>
@@ -8485,7 +8545,7 @@
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A40"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="45"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
@@ -8494,13 +8554,13 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="O40" s="73"/>
-      <c r="AB40" s="64"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="53"/>
-      <c r="AI40" s="47"/>
+      <c r="O40" s="72"/>
+      <c r="AB40" s="63"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="52"/>
+      <c r="AI40" s="46"/>
       <c r="AJ40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BA40"/>
       <c r="BB40"/>
@@ -8515,7 +8575,7 @@
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A41"/>
-      <c r="B41" s="46"/>
+      <c r="B41" s="45"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -8529,10 +8589,10 @@
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
-      <c r="AB41" s="64"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="57"/>
-      <c r="AI41" s="47"/>
+      <c r="AB41" s="63"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="56"/>
+      <c r="AI41" s="46"/>
       <c r="BA41"/>
       <c r="BB41"/>
       <c r="BC41"/>
@@ -8546,14 +8606,14 @@
     </row>
     <row r="42" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42"/>
-      <c r="B42" s="46"/>
+      <c r="B42" s="45"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="O42"/>
-      <c r="AB42" s="64"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="60"/>
-      <c r="AI42" s="47"/>
+      <c r="AB42" s="63"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="59"/>
+      <c r="AI42" s="46"/>
       <c r="BA42"/>
       <c r="BB42"/>
       <c r="BC42"/>
@@ -8567,34 +8627,34 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A43"/>
-      <c r="B43" s="46"/>
+      <c r="B43" s="45"/>
       <c r="D43"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
       <c r="O43"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="64"/>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="64"/>
-      <c r="AD43" s="64"/>
-      <c r="AE43" s="64"/>
-      <c r="AF43" s="64"/>
-      <c r="AI43" s="47"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AI43" s="46"/>
       <c r="BA43"/>
       <c r="BB43"/>
       <c r="BC43"/>
@@ -8608,15 +8668,15 @@
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A44"/>
-      <c r="B44" s="46"/>
+      <c r="B44" s="45"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="I44" s="73"/>
-      <c r="N44" s="66"/>
+      <c r="I44" s="72"/>
+      <c r="N44" s="65"/>
       <c r="O44"/>
-      <c r="T44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="AI44" s="47"/>
+      <c r="T44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="AI44" s="46"/>
       <c r="BA44"/>
       <c r="BB44"/>
       <c r="BC44"/>
@@ -8630,14 +8690,14 @@
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="67"/>
       <c r="D45"/>
-      <c r="N45" s="64"/>
+      <c r="N45" s="63"/>
       <c r="O45"/>
-      <c r="T45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="AI45" s="47"/>
+      <c r="T45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="AI45" s="46"/>
       <c r="BA45"/>
       <c r="BB45"/>
       <c r="BC45"/>
@@ -8651,17 +8711,17 @@
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A46"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="45"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="W46" s="64"/>
-      <c r="X46" s="68"/>
-      <c r="AD46" s="68"/>
-      <c r="AI46" s="47"/>
+      <c r="N46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AI46" s="46"/>
       <c r="BA46"/>
       <c r="BB46"/>
       <c r="BC46"/>
@@ -8675,33 +8735,33 @@
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A47"/>
-      <c r="B47" s="46"/>
+      <c r="B47" s="45"/>
       <c r="C47"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="Z47" s="64"/>
-      <c r="AA47" s="64"/>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="64"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="64"/>
-      <c r="AF47" s="64"/>
-      <c r="AG47" s="64"/>
-      <c r="AH47" s="64"/>
-      <c r="AI47" s="47"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="63"/>
+      <c r="AB47" s="63"/>
+      <c r="AC47" s="63"/>
+      <c r="AD47" s="63"/>
+      <c r="AE47" s="63"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="46"/>
       <c r="AS47">
         <v>6</v>
       </c>
@@ -8718,17 +8778,17 @@
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48"/>
-      <c r="B48" s="46"/>
-      <c r="E48" s="66"/>
+      <c r="B48" s="45"/>
+      <c r="E48" s="65"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48" s="66"/>
-      <c r="N48" s="64"/>
+      <c r="K48" s="65"/>
+      <c r="N48" s="63"/>
       <c r="O48"/>
-      <c r="T48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="Z48" s="64"/>
-      <c r="AI48" s="47"/>
+      <c r="T48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AI48" s="46"/>
       <c r="BA48"/>
       <c r="BB48"/>
       <c r="BC48"/>
@@ -8742,24 +8802,24 @@
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A49"/>
-      <c r="B49" s="46"/>
+      <c r="B49" s="45"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="64"/>
+      <c r="E49" s="63"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" s="64"/>
+      <c r="K49" s="63"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="64"/>
+      <c r="N49" s="63"/>
       <c r="O49"/>
-      <c r="T49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="Z49" s="64"/>
-      <c r="AC49" s="55"/>
-      <c r="AI49" s="47"/>
+      <c r="T49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AC49" s="54"/>
+      <c r="AI49" s="46"/>
       <c r="BA49"/>
       <c r="BB49"/>
       <c r="BC49"/>
@@ -8773,22 +8833,22 @@
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A50"/>
-      <c r="B50" s="46"/>
+      <c r="B50" s="45"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" s="64"/>
+      <c r="E50" s="63"/>
       <c r="F50"/>
       <c r="G50"/>
-      <c r="K50" s="64"/>
+      <c r="K50" s="63"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="64"/>
+      <c r="N50" s="63"/>
       <c r="O50"/>
-      <c r="T50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AC50" s="55"/>
-      <c r="AI50" s="47"/>
+      <c r="T50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AC50" s="54"/>
+      <c r="AI50" s="46"/>
       <c r="BA50"/>
       <c r="BB50"/>
       <c r="BC50"/>
@@ -8802,36 +8862,36 @@
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A51"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="45"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51" s="64"/>
+      <c r="E51" s="63"/>
       <c r="F51"/>
       <c r="G51"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AI51" s="47"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="63"/>
+      <c r="AB51" s="63"/>
+      <c r="AC51" s="63"/>
+      <c r="AD51" s="63"/>
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="63"/>
+      <c r="AI51" s="46"/>
       <c r="BA51"/>
       <c r="BB51"/>
       <c r="BC51"/>
@@ -8845,10 +8905,10 @@
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A52"/>
-      <c r="B52" s="46"/>
+      <c r="B52" s="45"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="66"/>
+      <c r="E52" s="65"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="I52"/>
@@ -8858,7 +8918,7 @@
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
-      <c r="AI52" s="47"/>
+      <c r="AI52" s="46"/>
       <c r="BA52"/>
       <c r="BB52"/>
       <c r="BC52"/>
@@ -8872,9 +8932,9 @@
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A53"/>
-      <c r="B53" s="46"/>
+      <c r="B53" s="45"/>
       <c r="C53"/>
-      <c r="E53" s="66"/>
+      <c r="E53" s="65"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="I53"/>
@@ -8884,8 +8944,8 @@
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
-      <c r="U53" s="68"/>
-      <c r="AI53" s="47"/>
+      <c r="U53" s="67"/>
+      <c r="AI53" s="46"/>
       <c r="BA53"/>
       <c r="BB53"/>
       <c r="BC53"/>
@@ -8899,40 +8959,40 @@
     </row>
     <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62"/>
-      <c r="AB54" s="62"/>
-      <c r="AC54" s="62"/>
-      <c r="AD54" s="62"/>
-      <c r="AE54" s="62"/>
-      <c r="AF54" s="62"/>
-      <c r="AG54" s="62"/>
-      <c r="AH54" s="62"/>
-      <c r="AI54" s="63"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="62"/>
       <c r="BA54"/>
       <c r="BB54"/>
       <c r="BC54"/>
@@ -8974,7 +9034,7 @@
     <row r="56" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -9002,42 +9062,42 @@
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A57"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="44"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="44"/>
-      <c r="AI57" s="45"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="43"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="43"/>
+      <c r="AH57" s="43"/>
+      <c r="AI57" s="44"/>
       <c r="AJ57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA57"/>
       <c r="BB57"/>
@@ -9052,20 +9112,20 @@
     </row>
     <row r="58" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58"/>
-      <c r="B58" s="46"/>
+      <c r="B58" s="45"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="G58" s="64"/>
+      <c r="G58" s="63"/>
       <c r="I58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="64"/>
+      <c r="N58" s="63"/>
       <c r="O58"/>
-      <c r="U58" s="64"/>
-      <c r="AB58" s="64"/>
-      <c r="AI58" s="47"/>
+      <c r="U58" s="63"/>
+      <c r="AB58" s="63"/>
+      <c r="AI58" s="46"/>
       <c r="AJ58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA58"/>
       <c r="BB58"/>
@@ -9080,22 +9140,22 @@
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A59"/>
-      <c r="B59" s="46"/>
+      <c r="B59" s="45"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="G59" s="64"/>
+      <c r="G59" s="63"/>
       <c r="I59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" s="64"/>
+      <c r="N59" s="63"/>
       <c r="O59"/>
-      <c r="U59" s="64"/>
-      <c r="AB59" s="64"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="53"/>
-      <c r="AI59" s="47"/>
+      <c r="U59" s="63"/>
+      <c r="AB59" s="63"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="52"/>
+      <c r="AI59" s="46"/>
       <c r="AJ59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BA59"/>
       <c r="BB59"/>
@@ -9110,22 +9170,22 @@
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A60"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="45"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="G60" s="67"/>
+      <c r="G60" s="66"/>
       <c r="I60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="64"/>
+      <c r="N60" s="63"/>
       <c r="O60"/>
-      <c r="U60" s="67"/>
-      <c r="AB60" s="64"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="57"/>
-      <c r="AI60" s="47"/>
+      <c r="U60" s="66"/>
+      <c r="AB60" s="63"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="56"/>
+      <c r="AI60" s="46"/>
       <c r="AJ60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA60"/>
       <c r="BB60"/>
@@ -9140,20 +9200,20 @@
     </row>
     <row r="61" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="45"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="G61" s="67"/>
+      <c r="G61" s="66"/>
       <c r="I61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="64"/>
+      <c r="N61" s="63"/>
       <c r="O61"/>
-      <c r="U61" s="67"/>
-      <c r="AB61" s="64"/>
-      <c r="AD61" s="59"/>
-      <c r="AE61" s="60"/>
-      <c r="AI61" s="47"/>
+      <c r="U61" s="66"/>
+      <c r="AB61" s="63"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="59"/>
+      <c r="AI61" s="46"/>
       <c r="BA61"/>
       <c r="BB61"/>
       <c r="BC61"/>
@@ -9167,35 +9227,35 @@
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A62"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="66"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="65"/>
       <c r="E62"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="64"/>
-      <c r="V62" s="64"/>
-      <c r="W62" s="64"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="64"/>
-      <c r="Z62" s="64"/>
-      <c r="AA62" s="64"/>
-      <c r="AB62" s="64"/>
-      <c r="AC62" s="64"/>
-      <c r="AD62" s="64"/>
-      <c r="AE62" s="64"/>
-      <c r="AF62" s="64"/>
-      <c r="AI62" s="47"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="63"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="63"/>
+      <c r="AB62" s="63"/>
+      <c r="AC62" s="63"/>
+      <c r="AD62" s="63"/>
+      <c r="AE62" s="63"/>
+      <c r="AF62" s="63"/>
+      <c r="AI62" s="46"/>
       <c r="BA62"/>
       <c r="BB62"/>
       <c r="BC62"/>
@@ -9209,18 +9269,18 @@
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A63"/>
-      <c r="B63" s="46"/>
+      <c r="B63" s="45"/>
       <c r="C63"/>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63" s="64"/>
+      <c r="I63" s="63"/>
       <c r="M63"/>
       <c r="O63"/>
-      <c r="P63" s="64"/>
-      <c r="W63" s="64"/>
-      <c r="AD63" s="64"/>
-      <c r="AI63" s="47"/>
+      <c r="P63" s="63"/>
+      <c r="W63" s="63"/>
+      <c r="AD63" s="63"/>
+      <c r="AI63" s="46"/>
       <c r="BA63"/>
       <c r="BB63"/>
       <c r="BC63"/>
@@ -9234,17 +9294,17 @@
     </row>
     <row r="64" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A64"/>
-      <c r="B64" s="46"/>
+      <c r="B64" s="45"/>
       <c r="C64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64" s="64"/>
+      <c r="I64" s="63"/>
       <c r="M64"/>
       <c r="O64"/>
-      <c r="P64" s="64"/>
-      <c r="W64" s="64"/>
-      <c r="AD64" s="64"/>
-      <c r="AI64" s="47"/>
+      <c r="P64" s="63"/>
+      <c r="W64" s="63"/>
+      <c r="AD64" s="63"/>
+      <c r="AI64" s="46"/>
       <c r="BA64"/>
       <c r="BB64"/>
       <c r="BC64"/>
@@ -9258,16 +9318,16 @@
     </row>
     <row r="65" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A65"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="45"/>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65" s="64"/>
+      <c r="I65" s="63"/>
       <c r="M65"/>
       <c r="O65"/>
-      <c r="P65" s="64"/>
-      <c r="W65" s="67"/>
-      <c r="AD65" s="67"/>
-      <c r="AI65" s="47"/>
+      <c r="P65" s="63"/>
+      <c r="W65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AI65" s="46"/>
       <c r="BA65"/>
       <c r="BB65"/>
       <c r="BC65"/>
@@ -9281,18 +9341,18 @@
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A66"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="45"/>
       <c r="C66"/>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66" s="64"/>
+      <c r="I66" s="63"/>
       <c r="M66"/>
       <c r="O66"/>
-      <c r="P66" s="64"/>
-      <c r="W66" s="67"/>
-      <c r="AD66" s="67"/>
-      <c r="AI66" s="47"/>
+      <c r="P66" s="63"/>
+      <c r="W66" s="66"/>
+      <c r="AD66" s="66"/>
+      <c r="AI66" s="46"/>
       <c r="BA66"/>
       <c r="BB66"/>
       <c r="BC66"/>
@@ -9306,34 +9366,34 @@
     </row>
     <row r="67" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A67"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="64"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="63"/>
       <c r="D67"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
       <c r="L67"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="T67" s="64"/>
-      <c r="U67" s="64"/>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-      <c r="AA67" s="64"/>
-      <c r="AB67" s="64"/>
-      <c r="AC67" s="64"/>
-      <c r="AD67" s="64"/>
-      <c r="AE67" s="64"/>
-      <c r="AF67" s="64"/>
-      <c r="AG67" s="64"/>
-      <c r="AH67" s="64"/>
-      <c r="AI67" s="47"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="T67" s="63"/>
+      <c r="U67" s="63"/>
+      <c r="V67" s="63"/>
+      <c r="W67" s="63"/>
+      <c r="X67" s="63"/>
+      <c r="AA67" s="63"/>
+      <c r="AB67" s="63"/>
+      <c r="AC67" s="63"/>
+      <c r="AD67" s="63"/>
+      <c r="AE67" s="63"/>
+      <c r="AF67" s="63"/>
+      <c r="AG67" s="63"/>
+      <c r="AH67" s="63"/>
+      <c r="AI67" s="46"/>
       <c r="BA67"/>
       <c r="BB67"/>
       <c r="BC67"/>
@@ -9347,18 +9407,18 @@
     </row>
     <row r="68" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A68"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="45"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="G68" s="64"/>
+      <c r="G68" s="63"/>
       <c r="J68"/>
       <c r="M68"/>
-      <c r="N68" s="64"/>
+      <c r="N68" s="63"/>
       <c r="O68"/>
-      <c r="U68" s="64"/>
-      <c r="Y68" s="69"/>
-      <c r="AB68" s="64"/>
-      <c r="AI68" s="47"/>
+      <c r="U68" s="63"/>
+      <c r="Y68" s="68"/>
+      <c r="AB68" s="63"/>
+      <c r="AI68" s="46"/>
       <c r="BA68"/>
       <c r="BB68"/>
       <c r="BC68"/>
@@ -9372,17 +9432,17 @@
     </row>
     <row r="69" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A69"/>
-      <c r="B69" s="46"/>
+      <c r="B69" s="45"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="G69" s="64"/>
+      <c r="G69" s="63"/>
       <c r="J69"/>
       <c r="M69"/>
-      <c r="N69" s="64"/>
+      <c r="N69" s="63"/>
       <c r="O69"/>
-      <c r="U69" s="64"/>
-      <c r="AB69" s="64"/>
-      <c r="AI69" s="47"/>
+      <c r="U69" s="63"/>
+      <c r="AB69" s="63"/>
+      <c r="AI69" s="46"/>
       <c r="BA69"/>
       <c r="BB69"/>
       <c r="BC69"/>
@@ -9396,16 +9456,16 @@
     </row>
     <row r="70" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A70"/>
-      <c r="B70" s="46"/>
-      <c r="D70" s="55"/>
-      <c r="G70" s="67"/>
+      <c r="B70" s="45"/>
+      <c r="D70" s="54"/>
+      <c r="G70" s="66"/>
       <c r="J70"/>
       <c r="M70"/>
-      <c r="N70" s="67"/>
+      <c r="N70" s="66"/>
       <c r="O70"/>
-      <c r="U70" s="64"/>
-      <c r="AB70" s="67"/>
-      <c r="AI70" s="47"/>
+      <c r="U70" s="63"/>
+      <c r="AB70" s="66"/>
+      <c r="AI70" s="46"/>
       <c r="BA70"/>
       <c r="BB70"/>
       <c r="BC70"/>
@@ -9419,16 +9479,16 @@
     </row>
     <row r="71" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A71"/>
-      <c r="B71" s="46"/>
-      <c r="D71" s="55"/>
-      <c r="G71" s="67"/>
+      <c r="B71" s="45"/>
+      <c r="D71" s="54"/>
+      <c r="G71" s="66"/>
       <c r="J71"/>
       <c r="M71"/>
-      <c r="N71" s="67"/>
+      <c r="N71" s="66"/>
       <c r="O71"/>
-      <c r="U71" s="64"/>
-      <c r="AB71" s="67"/>
-      <c r="AI71" s="47"/>
+      <c r="U71" s="63"/>
+      <c r="AB71" s="66"/>
+      <c r="AI71" s="46"/>
       <c r="BA71"/>
       <c r="BB71"/>
       <c r="BC71"/>
@@ -9442,40 +9502,40 @@
     </row>
     <row r="72" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="62"/>
-      <c r="V72" s="62"/>
-      <c r="W72" s="62"/>
-      <c r="X72" s="62"/>
-      <c r="Y72" s="62"/>
-      <c r="Z72" s="62"/>
-      <c r="AA72" s="62"/>
-      <c r="AB72" s="62"/>
-      <c r="AC72" s="62"/>
-      <c r="AD72" s="62"/>
-      <c r="AE72" s="62"/>
-      <c r="AF72" s="62"/>
-      <c r="AG72" s="62"/>
-      <c r="AH72" s="62"/>
-      <c r="AI72" s="63"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="61"/>
+      <c r="AI72" s="62"/>
       <c r="BA72"/>
       <c r="BB72"/>
       <c r="BC72"/>
@@ -9517,7 +9577,7 @@
     <row r="74" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -9545,42 +9605,42 @@
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A75"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="70"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="44"/>
-      <c r="Y75" s="44"/>
-      <c r="Z75" s="44"/>
-      <c r="AA75" s="44"/>
-      <c r="AB75" s="44"/>
-      <c r="AC75" s="44"/>
-      <c r="AD75" s="44"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
-      <c r="AH75" s="44"/>
-      <c r="AI75" s="45"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="69"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="44"/>
       <c r="AJ75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BA75"/>
       <c r="BB75"/>
@@ -9595,7 +9655,7 @@
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A76"/>
-      <c r="B76" s="56"/>
+      <c r="B76" s="55"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
@@ -9609,10 +9669,10 @@
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
-      <c r="AC76" s="64"/>
-      <c r="AI76" s="47"/>
+      <c r="AC76" s="63"/>
+      <c r="AI76" s="46"/>
       <c r="AJ76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA76"/>
       <c r="BB76"/>
@@ -9627,10 +9687,10 @@
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A77"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -9641,10 +9701,10 @@
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
-      <c r="AC77" s="64"/>
-      <c r="AI77" s="47"/>
+      <c r="AC77" s="63"/>
+      <c r="AI77" s="46"/>
       <c r="AJ77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BA77"/>
       <c r="BB77"/>
@@ -9659,10 +9719,10 @@
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A78"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
@@ -9673,8 +9733,8 @@
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="AC78" s="64"/>
-      <c r="AI78" s="47"/>
+      <c r="AC78" s="63"/>
+      <c r="AI78" s="46"/>
       <c r="BA78"/>
       <c r="BB78"/>
       <c r="BC78"/>
@@ -9688,10 +9748,10 @@
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A79"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
@@ -9702,8 +9762,8 @@
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
-      <c r="AC79" s="64"/>
-      <c r="AI79" s="47"/>
+      <c r="AC79" s="63"/>
+      <c r="AI79" s="46"/>
       <c r="BA79"/>
       <c r="BB79"/>
       <c r="BC79"/>
@@ -9717,10 +9777,10 @@
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A80"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
@@ -9731,8 +9791,8 @@
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="AC80" s="64"/>
-      <c r="AI80" s="47"/>
+      <c r="AC80" s="63"/>
+      <c r="AI80" s="46"/>
       <c r="BA80"/>
       <c r="BB80"/>
       <c r="BC80"/>
@@ -9746,10 +9806,10 @@
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A81"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
@@ -9760,8 +9820,8 @@
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
-      <c r="AC81" s="64"/>
-      <c r="AI81" s="47"/>
+      <c r="AC81" s="63"/>
+      <c r="AI81" s="46"/>
       <c r="BA81"/>
       <c r="BB81"/>
       <c r="BC81"/>
@@ -9775,10 +9835,10 @@
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A82"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
@@ -9789,8 +9849,8 @@
       <c r="M82"/>
       <c r="N82"/>
       <c r="O82"/>
-      <c r="AC82" s="64"/>
-      <c r="AI82" s="47"/>
+      <c r="AC82" s="63"/>
+      <c r="AI82" s="46"/>
       <c r="BA82"/>
       <c r="BB82"/>
       <c r="BC82"/>
@@ -9804,10 +9864,10 @@
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A83"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
@@ -9818,8 +9878,8 @@
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
-      <c r="AC83" s="64"/>
-      <c r="AI83" s="47"/>
+      <c r="AC83" s="63"/>
+      <c r="AI83" s="46"/>
       <c r="BA83"/>
       <c r="BB83"/>
       <c r="BC83"/>
@@ -9833,10 +9893,10 @@
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A84"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
@@ -9847,8 +9907,8 @@
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
-      <c r="AC84" s="64"/>
-      <c r="AI84" s="47"/>
+      <c r="AC84" s="63"/>
+      <c r="AI84" s="46"/>
       <c r="BA84"/>
       <c r="BB84"/>
       <c r="BC84"/>
@@ -9862,10 +9922,10 @@
     </row>
     <row r="85" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A85"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
@@ -9876,8 +9936,8 @@
       <c r="M85"/>
       <c r="N85"/>
       <c r="O85"/>
-      <c r="AC85" s="64"/>
-      <c r="AI85" s="47"/>
+      <c r="AC85" s="63"/>
+      <c r="AI85" s="46"/>
       <c r="BA85"/>
       <c r="BB85"/>
       <c r="BC85"/>
@@ -9891,10 +9951,10 @@
     </row>
     <row r="86" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
@@ -9905,8 +9965,8 @@
       <c r="M86"/>
       <c r="N86"/>
       <c r="O86"/>
-      <c r="AC86" s="64"/>
-      <c r="AI86" s="47"/>
+      <c r="AC86" s="63"/>
+      <c r="AI86" s="46"/>
       <c r="BA86"/>
       <c r="BB86"/>
       <c r="BC86"/>
@@ -9920,10 +9980,10 @@
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A87"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
@@ -9934,12 +9994,12 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="64"/>
-      <c r="AC87" s="72"/>
-      <c r="AF87" s="52"/>
-      <c r="AG87" s="53"/>
-      <c r="AI87" s="47"/>
+      <c r="P87" s="63"/>
+      <c r="Q87" s="63"/>
+      <c r="AC87" s="71"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="52"/>
+      <c r="AI87" s="46"/>
       <c r="BA87"/>
       <c r="BB87"/>
       <c r="BC87"/>
@@ -9953,23 +10013,23 @@
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A88"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="73"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="72"/>
       <c r="F88"/>
-      <c r="H88" s="55"/>
+      <c r="H88" s="54"/>
       <c r="I88"/>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88" s="64"/>
-      <c r="O88" s="64"/>
-      <c r="P88" s="64"/>
-      <c r="Q88" s="64"/>
-      <c r="AC88" s="72"/>
-      <c r="AF88" s="56"/>
-      <c r="AG88" s="57"/>
-      <c r="AI88" s="47"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="63"/>
+      <c r="Q88" s="63"/>
+      <c r="AC88" s="71"/>
+      <c r="AF88" s="55"/>
+      <c r="AG88" s="56"/>
+      <c r="AI88" s="46"/>
       <c r="BA88"/>
       <c r="BB88"/>
       <c r="BC88"/>
@@ -9983,23 +10043,23 @@
     </row>
     <row r="89" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="73"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="72"/>
       <c r="F89"/>
-      <c r="H89" s="55"/>
+      <c r="H89" s="54"/>
       <c r="I89"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
-      <c r="P89" s="64"/>
-      <c r="Q89" s="64"/>
-      <c r="AC89" s="72"/>
-      <c r="AF89" s="59"/>
-      <c r="AG89" s="60"/>
-      <c r="AI89" s="47"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="AC89" s="71"/>
+      <c r="AF89" s="58"/>
+      <c r="AG89" s="59"/>
+      <c r="AI89" s="46"/>
       <c r="BA89"/>
       <c r="BB89"/>
       <c r="BC89"/>
@@ -10013,40 +10073,40 @@
     </row>
     <row r="90" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
-      <c r="N90" s="62"/>
-      <c r="O90" s="62"/>
-      <c r="P90" s="62"/>
-      <c r="Q90" s="62"/>
-      <c r="R90" s="62"/>
-      <c r="S90" s="62"/>
-      <c r="T90" s="62"/>
-      <c r="U90" s="62"/>
-      <c r="V90" s="62"/>
-      <c r="W90" s="62"/>
-      <c r="X90" s="74"/>
-      <c r="Y90" s="74"/>
-      <c r="Z90" s="74"/>
-      <c r="AA90" s="62"/>
-      <c r="AB90" s="62"/>
-      <c r="AC90" s="62"/>
-      <c r="AD90" s="62"/>
-      <c r="AE90" s="62"/>
-      <c r="AF90" s="62"/>
-      <c r="AG90" s="62"/>
-      <c r="AH90" s="62"/>
-      <c r="AI90" s="63"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="73"/>
+      <c r="Y90" s="73"/>
+      <c r="Z90" s="73"/>
+      <c r="AA90" s="61"/>
+      <c r="AB90" s="61"/>
+      <c r="AC90" s="61"/>
+      <c r="AD90" s="61"/>
+      <c r="AE90" s="61"/>
+      <c r="AF90" s="61"/>
+      <c r="AG90" s="61"/>
+      <c r="AH90" s="61"/>
+      <c r="AI90" s="62"/>
       <c r="BA90"/>
       <c r="BB90"/>
       <c r="BC90"/>
@@ -10060,7 +10120,7 @@
     </row>
     <row r="92" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -10077,43 +10137,43 @@
       <c r="O92"/>
     </row>
     <row r="93" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="44"/>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="44"/>
-      <c r="AD93" s="44"/>
-      <c r="AE93" s="44"/>
-      <c r="AF93" s="44"/>
-      <c r="AG93" s="44"/>
-      <c r="AH93" s="44"/>
-      <c r="AI93" s="45"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="43"/>
+      <c r="AH93" s="43"/>
+      <c r="AI93" s="44"/>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="B94" s="46"/>
+      <c r="B94" s="45"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
@@ -10125,10 +10185,10 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
-      <c r="AI94" s="47"/>
+      <c r="AI94" s="46"/>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="B95" s="46"/>
+      <c r="B95" s="45"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
@@ -10140,10 +10200,10 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
-      <c r="AI95" s="47"/>
+      <c r="AI95" s="46"/>
     </row>
     <row r="96" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="46"/>
+      <c r="B96" s="45"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
@@ -10155,10 +10215,10 @@
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
-      <c r="AI96" s="47"/>
+      <c r="AI96" s="46"/>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B97" s="46"/>
+      <c r="B97" s="45"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
@@ -10167,17 +10227,17 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="83"/>
-      <c r="O97" s="84"/>
-      <c r="X97" s="64"/>
-      <c r="Y97" s="64"/>
-      <c r="AI97" s="47"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="82"/>
+      <c r="O97" s="83"/>
+      <c r="X97" s="63"/>
+      <c r="Y97" s="63"/>
+      <c r="AI97" s="46"/>
     </row>
     <row r="98" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B98" s="46"/>
+      <c r="B98" s="45"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
@@ -10186,17 +10246,17 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="64"/>
-      <c r="N98" s="85"/>
-      <c r="O98" s="86"/>
-      <c r="X98" s="64"/>
-      <c r="Y98" s="64"/>
-      <c r="AI98" s="47"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="63"/>
+      <c r="N98" s="84"/>
+      <c r="O98" s="85"/>
+      <c r="X98" s="63"/>
+      <c r="Y98" s="63"/>
+      <c r="AI98" s="46"/>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B99" s="46"/>
+      <c r="B99" s="45"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
@@ -10205,17 +10265,17 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="85"/>
-      <c r="O99" s="86"/>
-      <c r="X99" s="64"/>
-      <c r="Y99" s="64"/>
-      <c r="AI99" s="47"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="63"/>
+      <c r="N99" s="84"/>
+      <c r="O99" s="85"/>
+      <c r="X99" s="63"/>
+      <c r="Y99" s="63"/>
+      <c r="AI99" s="46"/>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B100" s="46"/>
+      <c r="B100" s="45"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
@@ -10224,25 +10284,25 @@
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
-      <c r="K100" s="64"/>
-      <c r="L100" s="64"/>
-      <c r="M100" s="64"/>
-      <c r="N100" s="85"/>
-      <c r="O100" s="86"/>
-      <c r="P100" s="64"/>
-      <c r="Q100" s="64"/>
-      <c r="R100" s="64"/>
-      <c r="S100" s="64"/>
-      <c r="T100" s="64"/>
-      <c r="U100" s="64"/>
-      <c r="V100" s="87"/>
-      <c r="W100" s="87"/>
-      <c r="X100" s="64"/>
-      <c r="Y100" s="64"/>
-      <c r="AI100" s="47"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="63"/>
+      <c r="M100" s="63"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="85"/>
+      <c r="P100" s="63"/>
+      <c r="Q100" s="63"/>
+      <c r="R100" s="63"/>
+      <c r="S100" s="63"/>
+      <c r="T100" s="63"/>
+      <c r="U100" s="63"/>
+      <c r="V100" s="86"/>
+      <c r="W100" s="86"/>
+      <c r="X100" s="63"/>
+      <c r="Y100" s="63"/>
+      <c r="AI100" s="46"/>
     </row>
     <row r="101" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B101" s="46"/>
+      <c r="B101" s="45"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
@@ -10251,25 +10311,25 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="85"/>
-      <c r="O101" s="86"/>
-      <c r="P101" s="64"/>
-      <c r="Q101" s="64"/>
-      <c r="R101" s="64"/>
-      <c r="S101" s="64"/>
-      <c r="T101" s="64"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="87"/>
-      <c r="W101" s="87"/>
-      <c r="X101" s="64"/>
-      <c r="Y101" s="64"/>
-      <c r="AI101" s="47"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="85"/>
+      <c r="P101" s="63"/>
+      <c r="Q101" s="63"/>
+      <c r="R101" s="63"/>
+      <c r="S101" s="63"/>
+      <c r="T101" s="63"/>
+      <c r="U101" s="63"/>
+      <c r="V101" s="86"/>
+      <c r="W101" s="86"/>
+      <c r="X101" s="63"/>
+      <c r="Y101" s="63"/>
+      <c r="AI101" s="46"/>
     </row>
     <row r="102" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B102" s="46"/>
+      <c r="B102" s="45"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
@@ -10278,19 +10338,19 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102"/>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="85"/>
-      <c r="O102" s="86"/>
-      <c r="V102" s="87"/>
-      <c r="W102" s="87"/>
-      <c r="X102" s="64"/>
-      <c r="Y102" s="64"/>
-      <c r="AI102" s="47"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="84"/>
+      <c r="O102" s="85"/>
+      <c r="V102" s="86"/>
+      <c r="W102" s="86"/>
+      <c r="X102" s="63"/>
+      <c r="Y102" s="63"/>
+      <c r="AI102" s="46"/>
     </row>
     <row r="103" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B103" s="46"/>
+      <c r="B103" s="45"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
@@ -10299,19 +10359,19 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="85"/>
-      <c r="O103" s="86"/>
-      <c r="V103" s="87"/>
-      <c r="W103" s="87"/>
-      <c r="X103" s="64"/>
-      <c r="Y103" s="64"/>
-      <c r="AI103" s="47"/>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="84"/>
+      <c r="O103" s="85"/>
+      <c r="V103" s="86"/>
+      <c r="W103" s="86"/>
+      <c r="X103" s="63"/>
+      <c r="Y103" s="63"/>
+      <c r="AI103" s="46"/>
     </row>
     <row r="104" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B104" s="46"/>
+      <c r="B104" s="45"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
@@ -10320,19 +10380,19 @@
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104"/>
-      <c r="K104" s="64"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="88"/>
-      <c r="O104" s="89"/>
-      <c r="V104" s="87"/>
-      <c r="W104" s="87"/>
-      <c r="X104" s="64"/>
-      <c r="Y104" s="64"/>
-      <c r="AI104" s="47"/>
+      <c r="K104" s="63"/>
+      <c r="L104" s="63"/>
+      <c r="M104" s="63"/>
+      <c r="N104" s="87"/>
+      <c r="O104" s="88"/>
+      <c r="V104" s="86"/>
+      <c r="W104" s="86"/>
+      <c r="X104" s="63"/>
+      <c r="Y104" s="63"/>
+      <c r="AI104" s="46"/>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B105" s="46"/>
+      <c r="B105" s="45"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
@@ -10342,42 +10402,42 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-      <c r="N105" s="90"/>
-      <c r="O105" s="91"/>
-      <c r="V105" s="87"/>
-      <c r="W105" s="87"/>
-      <c r="X105" s="65"/>
-      <c r="Y105" s="65"/>
-      <c r="AE105" s="52"/>
-      <c r="AF105" s="53"/>
-      <c r="AI105" s="47"/>
+      <c r="N105" s="89"/>
+      <c r="O105" s="90"/>
+      <c r="V105" s="86"/>
+      <c r="W105" s="86"/>
+      <c r="X105" s="64"/>
+      <c r="Y105" s="64"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="52"/>
+      <c r="AI105" s="46"/>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B106" s="46"/>
+      <c r="B106" s="45"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" s="92"/>
+      <c r="E106" s="91"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
-      <c r="N106" s="93"/>
-      <c r="O106" s="94"/>
-      <c r="V106" s="87"/>
-      <c r="W106" s="87"/>
-      <c r="X106" s="65"/>
-      <c r="Y106" s="65"/>
-      <c r="AE106" s="56"/>
-      <c r="AF106" s="57"/>
-      <c r="AI106" s="47"/>
+      <c r="N106" s="92"/>
+      <c r="O106" s="93"/>
+      <c r="V106" s="86"/>
+      <c r="W106" s="86"/>
+      <c r="X106" s="64"/>
+      <c r="Y106" s="64"/>
+      <c r="AE106" s="55"/>
+      <c r="AF106" s="56"/>
+      <c r="AI106" s="46"/>
     </row>
     <row r="107" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B107" s="46"/>
+      <c r="B107" s="45"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="92"/>
+      <c r="E107" s="91"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
@@ -10385,55 +10445,55 @@
       <c r="J107"/>
       <c r="K107"/>
       <c r="M107"/>
-      <c r="N107" s="95"/>
-      <c r="O107" s="96"/>
-      <c r="V107" s="87"/>
-      <c r="W107" s="87"/>
-      <c r="X107" s="65"/>
-      <c r="Y107" s="65"/>
-      <c r="AE107" s="59"/>
-      <c r="AF107" s="60"/>
-      <c r="AI107" s="47"/>
+      <c r="N107" s="94"/>
+      <c r="O107" s="95"/>
+      <c r="V107" s="86"/>
+      <c r="W107" s="86"/>
+      <c r="X107" s="64"/>
+      <c r="Y107" s="64"/>
+      <c r="AE107" s="58"/>
+      <c r="AF107" s="59"/>
+      <c r="AI107" s="46"/>
     </row>
     <row r="108" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="62"/>
-      <c r="I108" s="62"/>
-      <c r="J108" s="62"/>
-      <c r="K108" s="62"/>
-      <c r="L108" s="62"/>
-      <c r="M108" s="62"/>
-      <c r="N108" s="62"/>
-      <c r="O108" s="62"/>
-      <c r="P108" s="62"/>
-      <c r="Q108" s="62"/>
-      <c r="R108" s="62"/>
-      <c r="S108" s="62"/>
-      <c r="T108" s="62"/>
-      <c r="U108" s="62"/>
-      <c r="V108" s="62"/>
-      <c r="W108" s="62"/>
-      <c r="X108" s="62"/>
-      <c r="Y108" s="62"/>
-      <c r="Z108" s="62"/>
-      <c r="AA108" s="62"/>
-      <c r="AB108" s="62"/>
-      <c r="AC108" s="62"/>
-      <c r="AD108" s="62"/>
-      <c r="AE108" s="62"/>
-      <c r="AF108" s="62"/>
-      <c r="AG108" s="62"/>
-      <c r="AH108" s="62"/>
-      <c r="AI108" s="63"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="61"/>
+      <c r="S108" s="61"/>
+      <c r="T108" s="61"/>
+      <c r="U108" s="61"/>
+      <c r="V108" s="61"/>
+      <c r="W108" s="61"/>
+      <c r="X108" s="61"/>
+      <c r="Y108" s="61"/>
+      <c r="Z108" s="61"/>
+      <c r="AA108" s="61"/>
+      <c r="AB108" s="61"/>
+      <c r="AC108" s="61"/>
+      <c r="AD108" s="61"/>
+      <c r="AE108" s="61"/>
+      <c r="AF108" s="61"/>
+      <c r="AG108" s="61"/>
+      <c r="AH108" s="61"/>
+      <c r="AI108" s="62"/>
     </row>
     <row r="110" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -10450,58 +10510,58 @@
       <c r="O110"/>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B111" s="43"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="44"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="44"/>
-      <c r="S111" s="44"/>
-      <c r="T111" s="44"/>
-      <c r="U111" s="44"/>
-      <c r="V111" s="44"/>
-      <c r="W111" s="44"/>
-      <c r="X111" s="44"/>
-      <c r="Y111" s="44"/>
-      <c r="Z111" s="44"/>
-      <c r="AA111" s="70"/>
-      <c r="AB111" s="70"/>
-      <c r="AC111" s="70"/>
-      <c r="AD111" s="70"/>
-      <c r="AE111" s="70"/>
-      <c r="AF111" s="70"/>
-      <c r="AG111" s="70"/>
-      <c r="AH111" s="70"/>
-      <c r="AI111" s="45"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
+      <c r="O111" s="43"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="43"/>
+      <c r="R111" s="43"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="43"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="43"/>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="69"/>
+      <c r="AB111" s="69"/>
+      <c r="AC111" s="69"/>
+      <c r="AD111" s="69"/>
+      <c r="AE111" s="69"/>
+      <c r="AF111" s="69"/>
+      <c r="AG111" s="69"/>
+      <c r="AH111" s="69"/>
+      <c r="AI111" s="44"/>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B112" s="46"/>
+      <c r="B112" s="45"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="G112" s="64"/>
+      <c r="G112" s="63"/>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
-      <c r="Z112" s="64"/>
-      <c r="AI112" s="47"/>
+      <c r="Z112" s="63"/>
+      <c r="AI112" s="46"/>
     </row>
     <row r="113" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B113" s="46"/>
+      <c r="B113" s="45"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
@@ -10515,11 +10575,11 @@
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
-      <c r="Z113" s="64"/>
-      <c r="AI113" s="47"/>
+      <c r="Z113" s="63"/>
+      <c r="AI113" s="46"/>
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B114" s="46"/>
+      <c r="B114" s="45"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
@@ -10532,15 +10592,15 @@
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
-      <c r="S114" s="67"/>
-      <c r="T114" s="67"/>
-      <c r="U114" s="67"/>
-      <c r="V114" s="67"/>
-      <c r="Z114" s="64"/>
-      <c r="AI114" s="47"/>
+      <c r="S114" s="66"/>
+      <c r="T114" s="66"/>
+      <c r="U114" s="66"/>
+      <c r="V114" s="66"/>
+      <c r="Z114" s="63"/>
+      <c r="AI114" s="46"/>
     </row>
     <row r="115" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B115" s="46"/>
+      <c r="B115" s="45"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
@@ -10552,60 +10612,60 @@
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
-      <c r="N115" s="64"/>
-      <c r="S115" s="67"/>
-      <c r="T115" s="67"/>
-      <c r="U115" s="67"/>
-      <c r="V115" s="67"/>
-      <c r="Z115" s="64"/>
-      <c r="AI115" s="47"/>
+      <c r="N115" s="63"/>
+      <c r="S115" s="66"/>
+      <c r="T115" s="66"/>
+      <c r="U115" s="66"/>
+      <c r="V115" s="66"/>
+      <c r="Z115" s="63"/>
+      <c r="AI115" s="46"/>
     </row>
     <row r="116" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B116" s="46"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
       <c r="E116"/>
       <c r="F116"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
-      <c r="L116" s="66"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="64"/>
-      <c r="O116" s="64"/>
-      <c r="P116" s="64"/>
-      <c r="Q116" s="64"/>
-      <c r="R116" s="64"/>
-      <c r="S116" s="64"/>
-      <c r="V116" s="64"/>
-      <c r="W116" s="64"/>
-      <c r="Z116" s="64"/>
-      <c r="AI116" s="47"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="65"/>
+      <c r="M116" s="63"/>
+      <c r="N116" s="63"/>
+      <c r="O116" s="63"/>
+      <c r="P116" s="63"/>
+      <c r="Q116" s="63"/>
+      <c r="R116" s="63"/>
+      <c r="S116" s="63"/>
+      <c r="V116" s="63"/>
+      <c r="W116" s="63"/>
+      <c r="Z116" s="63"/>
+      <c r="AI116" s="46"/>
     </row>
     <row r="117" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B117" s="46"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
       <c r="E117"/>
       <c r="F117"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-      <c r="L117" s="66"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
-      <c r="O117" s="64"/>
-      <c r="P117" s="64"/>
-      <c r="Q117" s="64"/>
-      <c r="R117" s="64"/>
-      <c r="S117" s="64"/>
-      <c r="V117" s="64"/>
-      <c r="W117" s="64"/>
-      <c r="Z117" s="64"/>
-      <c r="AI117" s="47"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="65"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="63"/>
+      <c r="N117" s="63"/>
+      <c r="O117" s="63"/>
+      <c r="P117" s="63"/>
+      <c r="Q117" s="63"/>
+      <c r="R117" s="63"/>
+      <c r="S117" s="63"/>
+      <c r="V117" s="63"/>
+      <c r="W117" s="63"/>
+      <c r="Z117" s="63"/>
+      <c r="AI117" s="46"/>
     </row>
     <row r="118" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B118" s="46"/>
+      <c r="B118" s="45"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
@@ -10619,14 +10679,14 @@
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
-      <c r="S118" s="64"/>
-      <c r="V118" s="64"/>
-      <c r="W118" s="64"/>
-      <c r="Z118" s="64"/>
-      <c r="AI118" s="47"/>
+      <c r="S118" s="63"/>
+      <c r="V118" s="63"/>
+      <c r="W118" s="63"/>
+      <c r="Z118" s="63"/>
+      <c r="AI118" s="46"/>
     </row>
     <row r="119" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B119" s="46"/>
+      <c r="B119" s="45"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
@@ -10640,14 +10700,14 @@
       <c r="M119"/>
       <c r="N119"/>
       <c r="O119"/>
-      <c r="S119" s="64"/>
-      <c r="V119" s="64"/>
-      <c r="W119" s="64"/>
-      <c r="Z119" s="64"/>
-      <c r="AI119" s="47"/>
+      <c r="S119" s="63"/>
+      <c r="V119" s="63"/>
+      <c r="W119" s="63"/>
+      <c r="Z119" s="63"/>
+      <c r="AI119" s="46"/>
     </row>
     <row r="120" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B120" s="46"/>
+      <c r="B120" s="45"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
@@ -10655,64 +10715,64 @@
       <c r="G120"/>
       <c r="N120"/>
       <c r="O120"/>
-      <c r="S120" s="64"/>
-      <c r="V120" s="64"/>
-      <c r="W120" s="64"/>
-      <c r="Z120" s="64"/>
-      <c r="AF120" s="52"/>
-      <c r="AG120" s="53"/>
-      <c r="AI120" s="47"/>
+      <c r="S120" s="63"/>
+      <c r="V120" s="63"/>
+      <c r="W120" s="63"/>
+      <c r="Z120" s="63"/>
+      <c r="AF120" s="51"/>
+      <c r="AG120" s="52"/>
+      <c r="AI120" s="46"/>
     </row>
     <row r="121" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B121" s="46"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="64"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
-      <c r="I121" s="64"/>
-      <c r="J121" s="64"/>
-      <c r="K121" s="64"/>
-      <c r="L121" s="66"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="63"/>
+      <c r="K121" s="63"/>
+      <c r="L121" s="65"/>
       <c r="O121"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="64"/>
-      <c r="R121" s="64"/>
-      <c r="S121" s="64"/>
-      <c r="V121" s="64"/>
-      <c r="W121" s="64"/>
-      <c r="Z121" s="64"/>
-      <c r="AF121" s="56"/>
-      <c r="AG121" s="57"/>
-      <c r="AI121" s="47"/>
+      <c r="Q121" s="63"/>
+      <c r="R121" s="63"/>
+      <c r="S121" s="63"/>
+      <c r="V121" s="63"/>
+      <c r="W121" s="63"/>
+      <c r="Z121" s="63"/>
+      <c r="AF121" s="55"/>
+      <c r="AG121" s="56"/>
+      <c r="AI121" s="46"/>
     </row>
     <row r="122" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="46"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="66"/>
-      <c r="L122" s="66"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="65"/>
+      <c r="L122" s="65"/>
       <c r="O122"/>
       <c r="P122" s="11"/>
-      <c r="Q122" s="64"/>
-      <c r="R122" s="64"/>
-      <c r="S122" s="64"/>
-      <c r="V122" s="64"/>
-      <c r="W122" s="64"/>
-      <c r="Z122" s="64"/>
-      <c r="AF122" s="59"/>
-      <c r="AG122" s="60"/>
-      <c r="AI122" s="47"/>
+      <c r="Q122" s="63"/>
+      <c r="R122" s="63"/>
+      <c r="S122" s="63"/>
+      <c r="V122" s="63"/>
+      <c r="W122" s="63"/>
+      <c r="Z122" s="63"/>
+      <c r="AF122" s="58"/>
+      <c r="AG122" s="59"/>
+      <c r="AI122" s="46"/>
     </row>
     <row r="123" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B123" s="46"/>
+      <c r="B123" s="45"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
@@ -10722,96 +10782,96 @@
       <c r="M123"/>
       <c r="N123"/>
       <c r="O123"/>
-      <c r="S123" s="64"/>
-      <c r="AE123" s="64"/>
-      <c r="AF123" s="64"/>
-      <c r="AG123" s="64"/>
-      <c r="AH123" s="64"/>
-      <c r="AI123" s="47"/>
+      <c r="S123" s="63"/>
+      <c r="AE123" s="63"/>
+      <c r="AF123" s="63"/>
+      <c r="AG123" s="63"/>
+      <c r="AH123" s="63"/>
+      <c r="AI123" s="46"/>
     </row>
     <row r="124" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B124" s="46"/>
+      <c r="B124" s="45"/>
       <c r="C124"/>
       <c r="D124"/>
-      <c r="E124" s="55"/>
+      <c r="E124" s="54"/>
       <c r="F124"/>
-      <c r="G124" s="87"/>
-      <c r="H124" s="87"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86"/>
       <c r="J124"/>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
-      <c r="S124" s="64"/>
-      <c r="T124" s="64"/>
-      <c r="U124" s="64"/>
-      <c r="AE124" s="64"/>
-      <c r="AF124" s="64"/>
-      <c r="AG124" s="64"/>
-      <c r="AH124" s="64"/>
-      <c r="AI124" s="47"/>
+      <c r="S124" s="63"/>
+      <c r="T124" s="63"/>
+      <c r="U124" s="63"/>
+      <c r="AE124" s="63"/>
+      <c r="AF124" s="63"/>
+      <c r="AG124" s="63"/>
+      <c r="AH124" s="63"/>
+      <c r="AI124" s="46"/>
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B125" s="46"/>
+      <c r="B125" s="45"/>
       <c r="C125"/>
       <c r="D125"/>
-      <c r="E125" s="55"/>
+      <c r="E125" s="54"/>
       <c r="F125"/>
-      <c r="G125" s="87"/>
-      <c r="H125" s="87"/>
+      <c r="G125" s="86"/>
+      <c r="H125" s="86"/>
       <c r="J125"/>
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
       <c r="O125"/>
-      <c r="S125" s="64"/>
-      <c r="T125" s="64"/>
-      <c r="U125" s="64"/>
-      <c r="AE125" s="64"/>
-      <c r="AF125" s="64"/>
-      <c r="AG125" s="64"/>
-      <c r="AH125" s="64"/>
-      <c r="AI125" s="47"/>
+      <c r="S125" s="63"/>
+      <c r="T125" s="63"/>
+      <c r="U125" s="63"/>
+      <c r="AE125" s="63"/>
+      <c r="AF125" s="63"/>
+      <c r="AG125" s="63"/>
+      <c r="AH125" s="63"/>
+      <c r="AI125" s="46"/>
     </row>
     <row r="126" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B126" s="61"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
-      <c r="N126" s="62"/>
-      <c r="O126" s="62"/>
-      <c r="P126" s="62"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="62"/>
-      <c r="S126" s="62"/>
-      <c r="T126" s="62"/>
-      <c r="U126" s="62"/>
-      <c r="V126" s="62"/>
-      <c r="W126" s="62"/>
-      <c r="X126" s="62"/>
-      <c r="Y126" s="62"/>
-      <c r="Z126" s="62"/>
-      <c r="AA126" s="62"/>
-      <c r="AB126" s="62"/>
-      <c r="AC126" s="62"/>
-      <c r="AD126" s="62"/>
-      <c r="AE126" s="62"/>
-      <c r="AF126" s="62"/>
-      <c r="AG126" s="62"/>
-      <c r="AH126" s="62"/>
-      <c r="AI126" s="63"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="61"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
+      <c r="N126" s="61"/>
+      <c r="O126" s="61"/>
+      <c r="P126" s="61"/>
+      <c r="Q126" s="61"/>
+      <c r="R126" s="61"/>
+      <c r="S126" s="61"/>
+      <c r="T126" s="61"/>
+      <c r="U126" s="61"/>
+      <c r="V126" s="61"/>
+      <c r="W126" s="61"/>
+      <c r="X126" s="61"/>
+      <c r="Y126" s="61"/>
+      <c r="Z126" s="61"/>
+      <c r="AA126" s="61"/>
+      <c r="AB126" s="61"/>
+      <c r="AC126" s="61"/>
+      <c r="AD126" s="61"/>
+      <c r="AE126" s="61"/>
+      <c r="AF126" s="61"/>
+      <c r="AG126" s="61"/>
+      <c r="AH126" s="61"/>
+      <c r="AI126" s="62"/>
     </row>
     <row r="128" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -10828,43 +10888,43 @@
       <c r="O128"/>
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B129" s="43"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="44"/>
-      <c r="K129" s="44"/>
-      <c r="L129" s="44"/>
-      <c r="M129" s="44"/>
-      <c r="N129" s="44"/>
-      <c r="O129" s="44"/>
-      <c r="P129" s="44"/>
-      <c r="Q129" s="44"/>
-      <c r="R129" s="44"/>
-      <c r="S129" s="44"/>
-      <c r="T129" s="44"/>
-      <c r="U129" s="44"/>
-      <c r="V129" s="44"/>
-      <c r="W129" s="44"/>
-      <c r="X129" s="44"/>
-      <c r="Y129" s="44"/>
-      <c r="Z129" s="44"/>
-      <c r="AA129" s="44"/>
-      <c r="AB129" s="44"/>
-      <c r="AC129" s="44"/>
-      <c r="AD129" s="44"/>
-      <c r="AE129" s="44"/>
-      <c r="AF129" s="44"/>
-      <c r="AG129" s="44"/>
-      <c r="AH129" s="44"/>
-      <c r="AI129" s="45"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="43"/>
+      <c r="O129" s="43"/>
+      <c r="P129" s="43"/>
+      <c r="Q129" s="43"/>
+      <c r="R129" s="43"/>
+      <c r="S129" s="43"/>
+      <c r="T129" s="43"/>
+      <c r="U129" s="43"/>
+      <c r="V129" s="43"/>
+      <c r="W129" s="43"/>
+      <c r="X129" s="43"/>
+      <c r="Y129" s="43"/>
+      <c r="Z129" s="43"/>
+      <c r="AA129" s="43"/>
+      <c r="AB129" s="43"/>
+      <c r="AC129" s="43"/>
+      <c r="AD129" s="43"/>
+      <c r="AE129" s="43"/>
+      <c r="AF129" s="43"/>
+      <c r="AG129" s="43"/>
+      <c r="AH129" s="43"/>
+      <c r="AI129" s="44"/>
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B130" s="46"/>
+      <c r="B130" s="45"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
@@ -10873,11 +10933,11 @@
       <c r="M130"/>
       <c r="N130"/>
       <c r="O130"/>
-      <c r="AI130" s="47"/>
+      <c r="AI130" s="46"/>
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B131" s="46"/>
-      <c r="C131" s="64"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="63"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131"/>
@@ -10885,13 +10945,13 @@
       <c r="M131"/>
       <c r="N131"/>
       <c r="O131"/>
-      <c r="AH131" s="64"/>
-      <c r="AI131" s="47"/>
+      <c r="AH131" s="63"/>
+      <c r="AI131" s="46"/>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B132" s="46"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132"/>
@@ -10901,21 +10961,21 @@
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
-      <c r="P132" s="64"/>
-      <c r="Q132" s="64"/>
-      <c r="R132" s="64"/>
-      <c r="S132" s="64"/>
-      <c r="T132" s="64"/>
-      <c r="U132" s="64"/>
-      <c r="AG132" s="64"/>
-      <c r="AH132" s="64"/>
-      <c r="AI132" s="47"/>
+      <c r="P132" s="63"/>
+      <c r="Q132" s="63"/>
+      <c r="R132" s="63"/>
+      <c r="S132" s="63"/>
+      <c r="T132" s="63"/>
+      <c r="U132" s="63"/>
+      <c r="AG132" s="63"/>
+      <c r="AH132" s="63"/>
+      <c r="AI132" s="46"/>
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B133" s="46"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
@@ -10923,335 +10983,335 @@
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
-      <c r="O133" s="64"/>
-      <c r="P133" s="64"/>
-      <c r="Q133" s="64"/>
-      <c r="R133" s="64"/>
-      <c r="S133" s="64"/>
-      <c r="T133" s="64"/>
-      <c r="U133" s="64"/>
-      <c r="V133" s="64"/>
-      <c r="AF133" s="64"/>
-      <c r="AG133" s="64"/>
-      <c r="AH133" s="64"/>
-      <c r="AI133" s="47"/>
+      <c r="O133" s="63"/>
+      <c r="P133" s="63"/>
+      <c r="Q133" s="63"/>
+      <c r="R133" s="63"/>
+      <c r="S133" s="63"/>
+      <c r="T133" s="63"/>
+      <c r="U133" s="63"/>
+      <c r="V133" s="63"/>
+      <c r="AF133" s="63"/>
+      <c r="AG133" s="63"/>
+      <c r="AH133" s="63"/>
+      <c r="AI133" s="46"/>
     </row>
     <row r="134" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B134" s="46"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
       <c r="G134"/>
-      <c r="H134" s="67"/>
-      <c r="I134" s="67"/>
-      <c r="J134" s="67"/>
-      <c r="K134" s="67"/>
+      <c r="H134" s="66"/>
+      <c r="I134" s="66"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="66"/>
       <c r="L134"/>
       <c r="M134"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="64"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="64"/>
-      <c r="S134" s="64"/>
-      <c r="T134" s="64"/>
-      <c r="U134" s="64"/>
-      <c r="V134" s="64"/>
-      <c r="W134" s="64"/>
-      <c r="AE134" s="64"/>
-      <c r="AF134" s="64"/>
-      <c r="AG134" s="64"/>
-      <c r="AH134" s="64"/>
-      <c r="AI134" s="47"/>
+      <c r="N134" s="63"/>
+      <c r="O134" s="63"/>
+      <c r="P134" s="63"/>
+      <c r="Q134" s="63"/>
+      <c r="R134" s="63"/>
+      <c r="S134" s="63"/>
+      <c r="T134" s="63"/>
+      <c r="U134" s="63"/>
+      <c r="V134" s="63"/>
+      <c r="W134" s="63"/>
+      <c r="AE134" s="63"/>
+      <c r="AF134" s="63"/>
+      <c r="AG134" s="63"/>
+      <c r="AH134" s="63"/>
+      <c r="AI134" s="46"/>
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B135" s="46"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="64"/>
-      <c r="H135" s="67"/>
-      <c r="I135" s="67"/>
-      <c r="J135" s="67"/>
-      <c r="K135" s="67"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="63"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="66"/>
+      <c r="J135" s="66"/>
+      <c r="K135" s="66"/>
       <c r="L135"/>
-      <c r="M135" s="64"/>
-      <c r="N135" s="64"/>
-      <c r="O135" s="64"/>
-      <c r="P135" s="64"/>
-      <c r="Q135" s="64"/>
-      <c r="R135" s="64"/>
-      <c r="S135" s="64"/>
-      <c r="T135" s="64"/>
-      <c r="U135" s="64"/>
-      <c r="V135" s="64"/>
-      <c r="W135" s="64"/>
-      <c r="X135" s="64"/>
-      <c r="Z135" s="97"/>
-      <c r="AA135" s="98"/>
-      <c r="AB135" s="99"/>
-      <c r="AD135" s="64"/>
-      <c r="AE135" s="64"/>
-      <c r="AF135" s="64"/>
-      <c r="AG135" s="64"/>
-      <c r="AH135" s="64"/>
-      <c r="AI135" s="47"/>
+      <c r="M135" s="63"/>
+      <c r="N135" s="63"/>
+      <c r="O135" s="63"/>
+      <c r="P135" s="63"/>
+      <c r="Q135" s="63"/>
+      <c r="R135" s="63"/>
+      <c r="S135" s="63"/>
+      <c r="T135" s="63"/>
+      <c r="U135" s="63"/>
+      <c r="V135" s="63"/>
+      <c r="W135" s="63"/>
+      <c r="X135" s="63"/>
+      <c r="Z135" s="96"/>
+      <c r="AA135" s="97"/>
+      <c r="AB135" s="98"/>
+      <c r="AD135" s="63"/>
+      <c r="AE135" s="63"/>
+      <c r="AF135" s="63"/>
+      <c r="AG135" s="63"/>
+      <c r="AH135" s="63"/>
+      <c r="AI135" s="46"/>
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B136" s="46"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
-      <c r="L136" s="64"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="64"/>
-      <c r="O136" s="64"/>
-      <c r="P136" s="64"/>
-      <c r="Q136" s="64"/>
-      <c r="R136" s="64"/>
-      <c r="S136" s="64"/>
-      <c r="T136" s="64"/>
-      <c r="U136" s="64"/>
-      <c r="V136" s="64"/>
-      <c r="W136" s="64"/>
-      <c r="X136" s="64"/>
-      <c r="Y136" s="64"/>
-      <c r="Z136" s="100"/>
-      <c r="AA136" s="101"/>
-      <c r="AB136" s="102"/>
-      <c r="AC136" s="64"/>
-      <c r="AD136" s="64"/>
-      <c r="AE136" s="64"/>
-      <c r="AF136" s="64"/>
-      <c r="AG136" s="64"/>
-      <c r="AH136" s="64"/>
-      <c r="AI136" s="47"/>
+      <c r="L136" s="63"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="63"/>
+      <c r="O136" s="63"/>
+      <c r="P136" s="63"/>
+      <c r="Q136" s="63"/>
+      <c r="R136" s="63"/>
+      <c r="S136" s="63"/>
+      <c r="T136" s="63"/>
+      <c r="U136" s="63"/>
+      <c r="V136" s="63"/>
+      <c r="W136" s="63"/>
+      <c r="X136" s="63"/>
+      <c r="Y136" s="63"/>
+      <c r="Z136" s="99"/>
+      <c r="AA136" s="100"/>
+      <c r="AB136" s="101"/>
+      <c r="AC136" s="63"/>
+      <c r="AD136" s="63"/>
+      <c r="AE136" s="63"/>
+      <c r="AF136" s="63"/>
+      <c r="AG136" s="63"/>
+      <c r="AH136" s="63"/>
+      <c r="AI136" s="46"/>
     </row>
     <row r="137" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B137" s="46"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="64"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
+      <c r="H137" s="63"/>
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
-      <c r="L137" s="64"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="64"/>
-      <c r="O137" s="64"/>
-      <c r="P137" s="64"/>
-      <c r="Q137" s="64"/>
-      <c r="R137" s="64"/>
-      <c r="S137" s="64"/>
-      <c r="T137" s="64"/>
-      <c r="U137" s="64"/>
-      <c r="V137" s="64"/>
-      <c r="W137" s="64"/>
-      <c r="X137" s="64"/>
-      <c r="Y137" s="64"/>
-      <c r="Z137" s="88"/>
-      <c r="AA137" s="103"/>
-      <c r="AB137" s="89"/>
-      <c r="AC137" s="64"/>
-      <c r="AD137" s="64"/>
-      <c r="AE137" s="64"/>
-      <c r="AF137" s="64"/>
-      <c r="AG137" s="64"/>
-      <c r="AH137" s="64"/>
-      <c r="AI137" s="47"/>
+      <c r="L137" s="63"/>
+      <c r="M137" s="63"/>
+      <c r="N137" s="63"/>
+      <c r="O137" s="63"/>
+      <c r="P137" s="63"/>
+      <c r="Q137" s="63"/>
+      <c r="R137" s="63"/>
+      <c r="S137" s="63"/>
+      <c r="T137" s="63"/>
+      <c r="U137" s="63"/>
+      <c r="V137" s="63"/>
+      <c r="W137" s="63"/>
+      <c r="X137" s="63"/>
+      <c r="Y137" s="63"/>
+      <c r="Z137" s="87"/>
+      <c r="AA137" s="102"/>
+      <c r="AB137" s="88"/>
+      <c r="AC137" s="63"/>
+      <c r="AD137" s="63"/>
+      <c r="AE137" s="63"/>
+      <c r="AF137" s="63"/>
+      <c r="AG137" s="63"/>
+      <c r="AH137" s="63"/>
+      <c r="AI137" s="46"/>
     </row>
     <row r="138" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B138" s="46"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="64"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="64"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="63"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="63"/>
       <c r="J138"/>
-      <c r="M138" s="64"/>
-      <c r="N138" s="64"/>
-      <c r="O138" s="64"/>
-      <c r="P138" s="64"/>
-      <c r="Q138" s="64"/>
-      <c r="R138" s="64"/>
-      <c r="S138" s="64"/>
-      <c r="T138" s="64"/>
-      <c r="U138" s="64"/>
-      <c r="V138" s="64"/>
-      <c r="W138" s="64"/>
-      <c r="X138" s="64"/>
-      <c r="Z138" s="83"/>
-      <c r="AA138" s="104"/>
-      <c r="AB138" s="84"/>
-      <c r="AD138" s="64"/>
-      <c r="AE138" s="64"/>
-      <c r="AF138" s="64"/>
-      <c r="AG138" s="64"/>
-      <c r="AH138" s="64"/>
-      <c r="AI138" s="47"/>
+      <c r="M138" s="63"/>
+      <c r="N138" s="63"/>
+      <c r="O138" s="63"/>
+      <c r="P138" s="63"/>
+      <c r="Q138" s="63"/>
+      <c r="R138" s="63"/>
+      <c r="S138" s="63"/>
+      <c r="T138" s="63"/>
+      <c r="U138" s="63"/>
+      <c r="V138" s="63"/>
+      <c r="W138" s="63"/>
+      <c r="X138" s="63"/>
+      <c r="Z138" s="82"/>
+      <c r="AA138" s="103"/>
+      <c r="AB138" s="83"/>
+      <c r="AD138" s="63"/>
+      <c r="AE138" s="63"/>
+      <c r="AF138" s="63"/>
+      <c r="AG138" s="63"/>
+      <c r="AH138" s="63"/>
+      <c r="AI138" s="46"/>
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B139" s="46"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63"/>
       <c r="G139"/>
       <c r="J139"/>
       <c r="M139"/>
-      <c r="N139" s="64"/>
-      <c r="O139" s="64"/>
-      <c r="P139" s="64"/>
-      <c r="Q139" s="64"/>
-      <c r="R139" s="64"/>
-      <c r="S139" s="64"/>
-      <c r="T139" s="64"/>
-      <c r="U139" s="64"/>
-      <c r="V139" s="64"/>
-      <c r="W139" s="64"/>
-      <c r="Z139" s="85"/>
-      <c r="AA139" s="87"/>
-      <c r="AB139" s="86"/>
-      <c r="AE139" s="64"/>
-      <c r="AF139" s="64"/>
-      <c r="AG139" s="64"/>
-      <c r="AH139" s="64"/>
-      <c r="AI139" s="47"/>
+      <c r="N139" s="63"/>
+      <c r="O139" s="63"/>
+      <c r="P139" s="63"/>
+      <c r="Q139" s="63"/>
+      <c r="R139" s="63"/>
+      <c r="S139" s="63"/>
+      <c r="T139" s="63"/>
+      <c r="U139" s="63"/>
+      <c r="V139" s="63"/>
+      <c r="W139" s="63"/>
+      <c r="Z139" s="84"/>
+      <c r="AA139" s="86"/>
+      <c r="AB139" s="85"/>
+      <c r="AE139" s="63"/>
+      <c r="AF139" s="63"/>
+      <c r="AG139" s="63"/>
+      <c r="AH139" s="63"/>
+      <c r="AI139" s="46"/>
     </row>
     <row r="140" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B140" s="46"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="64"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
       <c r="F140"/>
       <c r="G140"/>
       <c r="M140"/>
       <c r="N140"/>
-      <c r="O140" s="64"/>
-      <c r="P140" s="64"/>
-      <c r="Q140" s="64"/>
-      <c r="R140" s="64"/>
-      <c r="S140" s="64"/>
-      <c r="T140" s="64"/>
-      <c r="U140" s="64"/>
-      <c r="V140" s="64"/>
-      <c r="Z140" s="88"/>
-      <c r="AA140" s="103"/>
-      <c r="AB140" s="89"/>
-      <c r="AF140" s="64"/>
-      <c r="AG140" s="64"/>
-      <c r="AH140" s="64"/>
-      <c r="AI140" s="47"/>
+      <c r="O140" s="63"/>
+      <c r="P140" s="63"/>
+      <c r="Q140" s="63"/>
+      <c r="R140" s="63"/>
+      <c r="S140" s="63"/>
+      <c r="T140" s="63"/>
+      <c r="U140" s="63"/>
+      <c r="V140" s="63"/>
+      <c r="Z140" s="87"/>
+      <c r="AA140" s="102"/>
+      <c r="AB140" s="88"/>
+      <c r="AF140" s="63"/>
+      <c r="AG140" s="63"/>
+      <c r="AH140" s="63"/>
+      <c r="AI140" s="46"/>
     </row>
     <row r="141" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="46"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="63"/>
+      <c r="D141" s="63"/>
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141"/>
       <c r="N141"/>
       <c r="O141"/>
-      <c r="P141" s="64"/>
-      <c r="Q141" s="64"/>
-      <c r="R141" s="64"/>
-      <c r="S141" s="64"/>
-      <c r="T141" s="64"/>
-      <c r="U141" s="64"/>
-      <c r="Z141" s="83"/>
-      <c r="AA141" s="104"/>
-      <c r="AB141" s="84"/>
-      <c r="AD141" s="52"/>
-      <c r="AE141" s="53"/>
-      <c r="AG141" s="64"/>
-      <c r="AH141" s="64"/>
-      <c r="AI141" s="47"/>
+      <c r="P141" s="63"/>
+      <c r="Q141" s="63"/>
+      <c r="R141" s="63"/>
+      <c r="S141" s="63"/>
+      <c r="T141" s="63"/>
+      <c r="U141" s="63"/>
+      <c r="Z141" s="82"/>
+      <c r="AA141" s="103"/>
+      <c r="AB141" s="83"/>
+      <c r="AD141" s="51"/>
+      <c r="AE141" s="52"/>
+      <c r="AG141" s="63"/>
+      <c r="AH141" s="63"/>
+      <c r="AI141" s="46"/>
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B142" s="46"/>
-      <c r="C142" s="64"/>
-      <c r="E142" s="55"/>
-      <c r="H142" s="83"/>
-      <c r="I142" s="84"/>
-      <c r="K142" s="90"/>
-      <c r="L142" s="91"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="63"/>
+      <c r="E142" s="54"/>
+      <c r="H142" s="82"/>
+      <c r="I142" s="83"/>
+      <c r="K142" s="89"/>
+      <c r="L142" s="90"/>
       <c r="O142"/>
-      <c r="Q142" s="64"/>
-      <c r="R142" s="64"/>
-      <c r="S142" s="64"/>
-      <c r="T142" s="64"/>
-      <c r="Z142" s="85"/>
-      <c r="AA142" s="87"/>
-      <c r="AB142" s="86"/>
-      <c r="AD142" s="56"/>
-      <c r="AE142" s="57"/>
-      <c r="AH142" s="64"/>
-      <c r="AI142" s="47"/>
+      <c r="Q142" s="63"/>
+      <c r="R142" s="63"/>
+      <c r="S142" s="63"/>
+      <c r="T142" s="63"/>
+      <c r="Z142" s="84"/>
+      <c r="AA142" s="86"/>
+      <c r="AB142" s="85"/>
+      <c r="AD142" s="55"/>
+      <c r="AE142" s="56"/>
+      <c r="AH142" s="63"/>
+      <c r="AI142" s="46"/>
     </row>
     <row r="143" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B143" s="46"/>
+      <c r="B143" s="45"/>
       <c r="C143"/>
-      <c r="E143" s="55"/>
-      <c r="H143" s="88"/>
-      <c r="I143" s="89"/>
-      <c r="K143" s="88"/>
-      <c r="L143" s="89"/>
+      <c r="E143" s="54"/>
+      <c r="H143" s="87"/>
+      <c r="I143" s="88"/>
+      <c r="K143" s="87"/>
+      <c r="L143" s="88"/>
       <c r="O143"/>
-      <c r="R143" s="64"/>
-      <c r="S143" s="64"/>
-      <c r="Z143" s="88"/>
-      <c r="AA143" s="103"/>
-      <c r="AB143" s="89"/>
-      <c r="AD143" s="59"/>
-      <c r="AE143" s="60"/>
-      <c r="AI143" s="47"/>
+      <c r="R143" s="63"/>
+      <c r="S143" s="63"/>
+      <c r="Z143" s="87"/>
+      <c r="AA143" s="102"/>
+      <c r="AB143" s="88"/>
+      <c r="AD143" s="58"/>
+      <c r="AE143" s="59"/>
+      <c r="AI143" s="46"/>
     </row>
     <row r="144" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B144" s="61"/>
-      <c r="C144" s="62"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="62"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="62"/>
-      <c r="J144" s="62"/>
-      <c r="K144" s="62"/>
-      <c r="L144" s="62"/>
-      <c r="M144" s="62"/>
-      <c r="N144" s="62"/>
-      <c r="O144" s="62"/>
-      <c r="P144" s="62"/>
-      <c r="Q144" s="62"/>
-      <c r="R144" s="62"/>
-      <c r="S144" s="62"/>
-      <c r="T144" s="62"/>
-      <c r="U144" s="62"/>
-      <c r="V144" s="62"/>
-      <c r="W144" s="62"/>
-      <c r="X144" s="62"/>
-      <c r="Y144" s="62"/>
-      <c r="Z144" s="62"/>
-      <c r="AA144" s="62"/>
-      <c r="AB144" s="62"/>
-      <c r="AC144" s="62"/>
-      <c r="AD144" s="62"/>
-      <c r="AE144" s="62"/>
-      <c r="AF144" s="62"/>
-      <c r="AG144" s="62"/>
-      <c r="AH144" s="62"/>
-      <c r="AI144" s="63"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="61"/>
+      <c r="L144" s="61"/>
+      <c r="M144" s="61"/>
+      <c r="N144" s="61"/>
+      <c r="O144" s="61"/>
+      <c r="P144" s="61"/>
+      <c r="Q144" s="61"/>
+      <c r="R144" s="61"/>
+      <c r="S144" s="61"/>
+      <c r="T144" s="61"/>
+      <c r="U144" s="61"/>
+      <c r="V144" s="61"/>
+      <c r="W144" s="61"/>
+      <c r="X144" s="61"/>
+      <c r="Y144" s="61"/>
+      <c r="Z144" s="61"/>
+      <c r="AA144" s="61"/>
+      <c r="AB144" s="61"/>
+      <c r="AC144" s="61"/>
+      <c r="AD144" s="61"/>
+      <c r="AE144" s="61"/>
+      <c r="AF144" s="61"/>
+      <c r="AG144" s="61"/>
+      <c r="AH144" s="61"/>
+      <c r="AI144" s="62"/>
     </row>
     <row r="145" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B145"/>
@@ -11271,7 +11331,7 @@
     </row>
     <row r="146" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B146" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
@@ -11288,43 +11348,43 @@
       <c r="O146"/>
     </row>
     <row r="147" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B147" s="43"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="70"/>
-      <c r="J147" s="70"/>
-      <c r="K147" s="70"/>
-      <c r="L147" s="70"/>
-      <c r="M147" s="70"/>
-      <c r="N147" s="70"/>
-      <c r="O147" s="70"/>
-      <c r="P147" s="44"/>
-      <c r="Q147" s="44"/>
-      <c r="R147" s="70"/>
-      <c r="S147" s="70"/>
-      <c r="T147" s="70"/>
-      <c r="U147" s="70"/>
-      <c r="V147" s="70"/>
-      <c r="W147" s="70"/>
-      <c r="X147" s="70"/>
-      <c r="Y147" s="70"/>
-      <c r="Z147" s="70"/>
-      <c r="AA147" s="70"/>
-      <c r="AB147" s="70"/>
-      <c r="AC147" s="70"/>
-      <c r="AD147" s="70"/>
-      <c r="AE147" s="70"/>
-      <c r="AF147" s="70"/>
-      <c r="AG147" s="70"/>
-      <c r="AH147" s="70"/>
-      <c r="AI147" s="45"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="69"/>
+      <c r="J147" s="69"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="69"/>
+      <c r="M147" s="69"/>
+      <c r="N147" s="69"/>
+      <c r="O147" s="69"/>
+      <c r="P147" s="43"/>
+      <c r="Q147" s="43"/>
+      <c r="R147" s="69"/>
+      <c r="S147" s="69"/>
+      <c r="T147" s="69"/>
+      <c r="U147" s="69"/>
+      <c r="V147" s="69"/>
+      <c r="W147" s="69"/>
+      <c r="X147" s="69"/>
+      <c r="Y147" s="69"/>
+      <c r="Z147" s="69"/>
+      <c r="AA147" s="69"/>
+      <c r="AB147" s="69"/>
+      <c r="AC147" s="69"/>
+      <c r="AD147" s="69"/>
+      <c r="AE147" s="69"/>
+      <c r="AF147" s="69"/>
+      <c r="AG147" s="69"/>
+      <c r="AH147" s="69"/>
+      <c r="AI147" s="44"/>
     </row>
     <row r="148" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B148" s="46"/>
+      <c r="B148" s="45"/>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
@@ -11334,334 +11394,334 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
-      <c r="P148" s="64"/>
-      <c r="Q148" s="64"/>
-      <c r="AI148" s="47"/>
+      <c r="P148" s="63"/>
+      <c r="Q148" s="63"/>
+      <c r="AI148" s="46"/>
     </row>
     <row r="149" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B149" s="46"/>
+      <c r="B149" s="45"/>
       <c r="C149"/>
-      <c r="F149" s="64"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="64"/>
-      <c r="K149" s="64"/>
-      <c r="L149" s="64"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="63"/>
+      <c r="K149" s="63"/>
+      <c r="L149" s="63"/>
       <c r="M149"/>
       <c r="N149"/>
       <c r="O149"/>
-      <c r="P149" s="64"/>
-      <c r="Q149" s="64"/>
-      <c r="T149" s="64"/>
-      <c r="U149" s="64"/>
-      <c r="V149" s="64"/>
-      <c r="W149" s="64"/>
-      <c r="X149" s="64"/>
-      <c r="Y149" s="64"/>
-      <c r="Z149" s="64"/>
-      <c r="AD149" s="64"/>
-      <c r="AE149" s="64"/>
-      <c r="AI149" s="47"/>
+      <c r="P149" s="63"/>
+      <c r="Q149" s="63"/>
+      <c r="T149" s="63"/>
+      <c r="U149" s="63"/>
+      <c r="V149" s="63"/>
+      <c r="W149" s="63"/>
+      <c r="X149" s="63"/>
+      <c r="Y149" s="63"/>
+      <c r="Z149" s="63"/>
+      <c r="AD149" s="63"/>
+      <c r="AE149" s="63"/>
+      <c r="AI149" s="46"/>
     </row>
     <row r="150" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B150" s="46"/>
+      <c r="B150" s="45"/>
       <c r="C150"/>
-      <c r="F150" s="64"/>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="64"/>
-      <c r="J150" s="64"/>
-      <c r="K150" s="64"/>
-      <c r="L150" s="64"/>
+      <c r="F150" s="63"/>
+      <c r="G150" s="63"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="63"/>
+      <c r="J150" s="63"/>
+      <c r="K150" s="63"/>
+      <c r="L150" s="63"/>
       <c r="M150"/>
       <c r="N150"/>
       <c r="O150"/>
-      <c r="P150" s="64"/>
-      <c r="Q150" s="64"/>
-      <c r="T150" s="64"/>
-      <c r="U150" s="64"/>
-      <c r="V150" s="64"/>
-      <c r="W150" s="64"/>
-      <c r="X150" s="64"/>
-      <c r="Y150" s="64"/>
-      <c r="Z150" s="64"/>
-      <c r="AD150" s="64"/>
-      <c r="AE150" s="64"/>
-      <c r="AI150" s="47"/>
+      <c r="P150" s="63"/>
+      <c r="Q150" s="63"/>
+      <c r="T150" s="63"/>
+      <c r="U150" s="63"/>
+      <c r="V150" s="63"/>
+      <c r="W150" s="63"/>
+      <c r="X150" s="63"/>
+      <c r="Y150" s="63"/>
+      <c r="Z150" s="63"/>
+      <c r="AD150" s="63"/>
+      <c r="AE150" s="63"/>
+      <c r="AI150" s="46"/>
     </row>
     <row r="151" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B151" s="46"/>
+      <c r="B151" s="45"/>
       <c r="C151"/>
       <c r="F151"/>
       <c r="G151"/>
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151"/>
-      <c r="K151" s="64"/>
-      <c r="L151" s="64"/>
+      <c r="K151" s="63"/>
+      <c r="L151" s="63"/>
       <c r="M151"/>
       <c r="N151"/>
       <c r="O151"/>
-      <c r="P151" s="64"/>
-      <c r="Q151" s="64"/>
-      <c r="Y151" s="64"/>
-      <c r="Z151" s="64"/>
-      <c r="AD151" s="64"/>
-      <c r="AE151" s="64"/>
-      <c r="AI151" s="47"/>
+      <c r="P151" s="63"/>
+      <c r="Q151" s="63"/>
+      <c r="Y151" s="63"/>
+      <c r="Z151" s="63"/>
+      <c r="AD151" s="63"/>
+      <c r="AE151" s="63"/>
+      <c r="AI151" s="46"/>
     </row>
     <row r="152" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B152" s="46"/>
+      <c r="B152" s="45"/>
       <c r="C152"/>
       <c r="F152"/>
       <c r="G152"/>
-      <c r="H152" s="55"/>
+      <c r="H152" s="54"/>
       <c r="J152"/>
-      <c r="K152" s="64"/>
-      <c r="L152" s="64"/>
+      <c r="K152" s="63"/>
+      <c r="L152" s="63"/>
       <c r="M152"/>
       <c r="N152"/>
       <c r="O152"/>
-      <c r="P152" s="64"/>
-      <c r="Q152" s="64"/>
-      <c r="Y152" s="64"/>
-      <c r="Z152" s="64"/>
-      <c r="AD152" s="64"/>
-      <c r="AE152" s="64"/>
-      <c r="AI152" s="47"/>
+      <c r="P152" s="63"/>
+      <c r="Q152" s="63"/>
+      <c r="Y152" s="63"/>
+      <c r="Z152" s="63"/>
+      <c r="AD152" s="63"/>
+      <c r="AE152" s="63"/>
+      <c r="AI152" s="46"/>
     </row>
     <row r="153" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B153" s="46"/>
+      <c r="B153" s="45"/>
       <c r="C153"/>
       <c r="F153"/>
       <c r="G153"/>
-      <c r="H153" s="55"/>
+      <c r="H153" s="54"/>
       <c r="J153"/>
-      <c r="K153" s="64"/>
-      <c r="L153" s="64"/>
+      <c r="K153" s="63"/>
+      <c r="L153" s="63"/>
       <c r="M153"/>
       <c r="N153"/>
       <c r="O153"/>
-      <c r="P153" s="64"/>
-      <c r="Q153" s="64"/>
-      <c r="Y153" s="64"/>
-      <c r="Z153" s="64"/>
-      <c r="AD153" s="64"/>
-      <c r="AE153" s="64"/>
-      <c r="AI153" s="47"/>
+      <c r="P153" s="63"/>
+      <c r="Q153" s="63"/>
+      <c r="Y153" s="63"/>
+      <c r="Z153" s="63"/>
+      <c r="AD153" s="63"/>
+      <c r="AE153" s="63"/>
+      <c r="AI153" s="46"/>
     </row>
     <row r="154" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B154" s="46"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="64"/>
-      <c r="L154" s="64"/>
-      <c r="M154" s="64"/>
-      <c r="N154" s="64"/>
-      <c r="O154" s="64"/>
-      <c r="P154" s="64"/>
-      <c r="Q154" s="64"/>
-      <c r="T154" s="64"/>
-      <c r="U154" s="64"/>
-      <c r="V154" s="64"/>
-      <c r="W154" s="64"/>
-      <c r="X154" s="64"/>
-      <c r="Y154" s="64"/>
-      <c r="Z154" s="64"/>
-      <c r="AA154" s="64"/>
-      <c r="AB154" s="64"/>
-      <c r="AC154" s="64"/>
-      <c r="AD154" s="64"/>
-      <c r="AE154" s="64"/>
-      <c r="AI154" s="47"/>
+      <c r="B154" s="45"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="63"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="63"/>
+      <c r="K154" s="63"/>
+      <c r="L154" s="63"/>
+      <c r="M154" s="63"/>
+      <c r="N154" s="63"/>
+      <c r="O154" s="63"/>
+      <c r="P154" s="63"/>
+      <c r="Q154" s="63"/>
+      <c r="T154" s="63"/>
+      <c r="U154" s="63"/>
+      <c r="V154" s="63"/>
+      <c r="W154" s="63"/>
+      <c r="X154" s="63"/>
+      <c r="Y154" s="63"/>
+      <c r="Z154" s="63"/>
+      <c r="AA154" s="63"/>
+      <c r="AB154" s="63"/>
+      <c r="AC154" s="63"/>
+      <c r="AD154" s="63"/>
+      <c r="AE154" s="63"/>
+      <c r="AI154" s="46"/>
     </row>
     <row r="155" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B155" s="46"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="64"/>
-      <c r="J155" s="64"/>
-      <c r="K155" s="64"/>
-      <c r="L155" s="64"/>
-      <c r="M155" s="64"/>
-      <c r="N155" s="64"/>
-      <c r="O155" s="64"/>
-      <c r="P155" s="64"/>
-      <c r="Q155" s="64"/>
-      <c r="T155" s="64"/>
-      <c r="U155" s="64"/>
-      <c r="V155" s="64"/>
-      <c r="W155" s="64"/>
-      <c r="X155" s="64"/>
-      <c r="Y155" s="64"/>
-      <c r="Z155" s="64"/>
-      <c r="AA155" s="64"/>
-      <c r="AB155" s="64"/>
-      <c r="AC155" s="64"/>
-      <c r="AD155" s="64"/>
-      <c r="AE155" s="64"/>
-      <c r="AI155" s="47"/>
+      <c r="B155" s="45"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+      <c r="M155" s="63"/>
+      <c r="N155" s="63"/>
+      <c r="O155" s="63"/>
+      <c r="P155" s="63"/>
+      <c r="Q155" s="63"/>
+      <c r="T155" s="63"/>
+      <c r="U155" s="63"/>
+      <c r="V155" s="63"/>
+      <c r="W155" s="63"/>
+      <c r="X155" s="63"/>
+      <c r="Y155" s="63"/>
+      <c r="Z155" s="63"/>
+      <c r="AA155" s="63"/>
+      <c r="AB155" s="63"/>
+      <c r="AC155" s="63"/>
+      <c r="AD155" s="63"/>
+      <c r="AE155" s="63"/>
+      <c r="AI155" s="46"/>
     </row>
     <row r="156" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B156" s="46"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="64"/>
+      <c r="B156" s="45"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="63"/>
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156"/>
-      <c r="K156" s="64"/>
-      <c r="L156" s="64"/>
+      <c r="K156" s="63"/>
+      <c r="L156" s="63"/>
       <c r="M156"/>
-      <c r="N156" s="52"/>
-      <c r="O156" s="53"/>
-      <c r="T156" s="64"/>
-      <c r="U156" s="64"/>
-      <c r="Y156" s="64"/>
-      <c r="Z156" s="64"/>
-      <c r="AI156" s="47"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="52"/>
+      <c r="T156" s="63"/>
+      <c r="U156" s="63"/>
+      <c r="Y156" s="63"/>
+      <c r="Z156" s="63"/>
+      <c r="AI156" s="46"/>
     </row>
     <row r="157" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B157" s="46"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
+      <c r="B157" s="45"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="63"/>
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157"/>
-      <c r="K157" s="64"/>
-      <c r="L157" s="64"/>
+      <c r="K157" s="63"/>
+      <c r="L157" s="63"/>
       <c r="M157"/>
-      <c r="N157" s="56"/>
-      <c r="O157" s="57"/>
-      <c r="T157" s="64"/>
-      <c r="U157" s="64"/>
-      <c r="Y157" s="64"/>
-      <c r="Z157" s="64"/>
-      <c r="AI157" s="47"/>
+      <c r="N157" s="55"/>
+      <c r="O157" s="56"/>
+      <c r="T157" s="63"/>
+      <c r="U157" s="63"/>
+      <c r="Y157" s="63"/>
+      <c r="Z157" s="63"/>
+      <c r="AI157" s="46"/>
     </row>
     <row r="158" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B158" s="46"/>
-      <c r="F158" s="64"/>
-      <c r="G158" s="64"/>
+      <c r="B158" s="45"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="63"/>
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158"/>
-      <c r="K158" s="64"/>
-      <c r="L158" s="64"/>
+      <c r="K158" s="63"/>
+      <c r="L158" s="63"/>
       <c r="M158"/>
-      <c r="N158" s="59"/>
-      <c r="O158" s="60"/>
-      <c r="T158" s="64"/>
-      <c r="U158" s="64"/>
-      <c r="Y158" s="64"/>
-      <c r="Z158" s="64"/>
-      <c r="AI158" s="47"/>
+      <c r="N158" s="58"/>
+      <c r="O158" s="59"/>
+      <c r="T158" s="63"/>
+      <c r="U158" s="63"/>
+      <c r="Y158" s="63"/>
+      <c r="Z158" s="63"/>
+      <c r="AI158" s="46"/>
     </row>
     <row r="159" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B159" s="46"/>
+      <c r="B159" s="45"/>
       <c r="C159"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="63"/>
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159"/>
-      <c r="K159" s="64"/>
-      <c r="L159" s="64"/>
-      <c r="M159" s="64"/>
-      <c r="N159" s="64"/>
-      <c r="O159" s="64"/>
-      <c r="P159" s="64"/>
-      <c r="Q159" s="64"/>
-      <c r="R159" s="64"/>
-      <c r="S159" s="64"/>
-      <c r="T159" s="64"/>
-      <c r="U159" s="64"/>
-      <c r="Y159" s="64"/>
-      <c r="Z159" s="64"/>
-      <c r="AA159" s="64"/>
-      <c r="AB159" s="64"/>
-      <c r="AC159" s="64"/>
-      <c r="AD159" s="64"/>
-      <c r="AE159" s="64"/>
-      <c r="AI159" s="47"/>
+      <c r="K159" s="63"/>
+      <c r="L159" s="63"/>
+      <c r="M159" s="63"/>
+      <c r="N159" s="63"/>
+      <c r="O159" s="63"/>
+      <c r="P159" s="63"/>
+      <c r="Q159" s="63"/>
+      <c r="R159" s="63"/>
+      <c r="S159" s="63"/>
+      <c r="T159" s="63"/>
+      <c r="U159" s="63"/>
+      <c r="Y159" s="63"/>
+      <c r="Z159" s="63"/>
+      <c r="AA159" s="63"/>
+      <c r="AB159" s="63"/>
+      <c r="AC159" s="63"/>
+      <c r="AD159" s="63"/>
+      <c r="AE159" s="63"/>
+      <c r="AI159" s="46"/>
     </row>
     <row r="160" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B160" s="46"/>
+      <c r="B160" s="45"/>
       <c r="C160"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="63"/>
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160"/>
-      <c r="K160" s="64"/>
-      <c r="L160" s="64"/>
-      <c r="M160" s="64"/>
-      <c r="N160" s="64"/>
-      <c r="O160" s="64"/>
-      <c r="P160" s="64"/>
-      <c r="Q160" s="64"/>
-      <c r="R160" s="64"/>
-      <c r="S160" s="64"/>
-      <c r="T160" s="64"/>
-      <c r="U160" s="64"/>
-      <c r="Y160" s="64"/>
-      <c r="Z160" s="64"/>
-      <c r="AA160" s="64"/>
-      <c r="AB160" s="64"/>
-      <c r="AC160" s="64"/>
-      <c r="AD160" s="64"/>
-      <c r="AE160" s="64"/>
-      <c r="AI160" s="47"/>
+      <c r="K160" s="63"/>
+      <c r="L160" s="63"/>
+      <c r="M160" s="63"/>
+      <c r="N160" s="63"/>
+      <c r="O160" s="63"/>
+      <c r="P160" s="63"/>
+      <c r="Q160" s="63"/>
+      <c r="R160" s="63"/>
+      <c r="S160" s="63"/>
+      <c r="T160" s="63"/>
+      <c r="U160" s="63"/>
+      <c r="Y160" s="63"/>
+      <c r="Z160" s="63"/>
+      <c r="AA160" s="63"/>
+      <c r="AB160" s="63"/>
+      <c r="AC160" s="63"/>
+      <c r="AD160" s="63"/>
+      <c r="AE160" s="63"/>
+      <c r="AI160" s="46"/>
     </row>
     <row r="161" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B161" s="46"/>
+      <c r="B161" s="45"/>
       <c r="C161"/>
       <c r="D161"/>
-      <c r="AI161" s="47"/>
+      <c r="AI161" s="46"/>
     </row>
     <row r="162" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B162" s="61"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="74"/>
-      <c r="K162" s="74"/>
-      <c r="L162" s="74"/>
-      <c r="M162" s="74"/>
-      <c r="N162" s="74"/>
-      <c r="O162" s="74"/>
-      <c r="P162" s="74"/>
-      <c r="Q162" s="74"/>
-      <c r="R162" s="74"/>
-      <c r="S162" s="74"/>
-      <c r="T162" s="74"/>
-      <c r="U162" s="74"/>
-      <c r="V162" s="74"/>
-      <c r="W162" s="74"/>
-      <c r="X162" s="74"/>
-      <c r="Y162" s="74"/>
-      <c r="Z162" s="74"/>
-      <c r="AA162" s="74"/>
-      <c r="AB162" s="74"/>
-      <c r="AC162" s="74"/>
-      <c r="AD162" s="74"/>
-      <c r="AE162" s="74"/>
-      <c r="AF162" s="74"/>
-      <c r="AG162" s="74"/>
-      <c r="AH162" s="74"/>
-      <c r="AI162" s="63"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="73"/>
+      <c r="D162" s="73"/>
+      <c r="E162" s="73"/>
+      <c r="F162" s="73"/>
+      <c r="G162" s="73"/>
+      <c r="H162" s="73"/>
+      <c r="I162" s="73"/>
+      <c r="J162" s="73"/>
+      <c r="K162" s="73"/>
+      <c r="L162" s="73"/>
+      <c r="M162" s="73"/>
+      <c r="N162" s="73"/>
+      <c r="O162" s="73"/>
+      <c r="P162" s="73"/>
+      <c r="Q162" s="73"/>
+      <c r="R162" s="73"/>
+      <c r="S162" s="73"/>
+      <c r="T162" s="73"/>
+      <c r="U162" s="73"/>
+      <c r="V162" s="73"/>
+      <c r="W162" s="73"/>
+      <c r="X162" s="73"/>
+      <c r="Y162" s="73"/>
+      <c r="Z162" s="73"/>
+      <c r="AA162" s="73"/>
+      <c r="AB162" s="73"/>
+      <c r="AC162" s="73"/>
+      <c r="AD162" s="73"/>
+      <c r="AE162" s="73"/>
+      <c r="AF162" s="73"/>
+      <c r="AG162" s="73"/>
+      <c r="AH162" s="73"/>
+      <c r="AI162" s="62"/>
     </row>
     <row r="164" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -11678,567 +11738,567 @@
       <c r="O164"/>
     </row>
     <row r="165" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B165" s="43"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="44"/>
-      <c r="L165" s="44"/>
-      <c r="M165" s="44"/>
-      <c r="N165" s="44"/>
-      <c r="O165" s="44"/>
-      <c r="P165" s="44"/>
-      <c r="Q165" s="44"/>
-      <c r="R165" s="44"/>
-      <c r="S165" s="44"/>
-      <c r="T165" s="44"/>
-      <c r="U165" s="44"/>
-      <c r="V165" s="44"/>
-      <c r="W165" s="44"/>
-      <c r="X165" s="44"/>
-      <c r="Y165" s="44"/>
-      <c r="Z165" s="44"/>
-      <c r="AA165" s="44"/>
-      <c r="AB165" s="44"/>
-      <c r="AC165" s="44"/>
-      <c r="AD165" s="44"/>
-      <c r="AE165" s="44"/>
-      <c r="AF165" s="44"/>
-      <c r="AG165" s="44"/>
-      <c r="AH165" s="44"/>
-      <c r="AI165" s="45"/>
+      <c r="B165" s="42"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
+      <c r="J165" s="43"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="43"/>
+      <c r="M165" s="43"/>
+      <c r="N165" s="43"/>
+      <c r="O165" s="43"/>
+      <c r="P165" s="43"/>
+      <c r="Q165" s="43"/>
+      <c r="R165" s="43"/>
+      <c r="S165" s="43"/>
+      <c r="T165" s="43"/>
+      <c r="U165" s="43"/>
+      <c r="V165" s="43"/>
+      <c r="W165" s="43"/>
+      <c r="X165" s="43"/>
+      <c r="Y165" s="43"/>
+      <c r="Z165" s="43"/>
+      <c r="AA165" s="43"/>
+      <c r="AB165" s="43"/>
+      <c r="AC165" s="43"/>
+      <c r="AD165" s="43"/>
+      <c r="AE165" s="43"/>
+      <c r="AF165" s="43"/>
+      <c r="AG165" s="43"/>
+      <c r="AH165" s="43"/>
+      <c r="AI165" s="44"/>
     </row>
     <row r="166" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B166" s="46"/>
-      <c r="C166" s="108"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="107"/>
       <c r="E166" s="16"/>
-      <c r="F166" s="108"/>
+      <c r="F166" s="107"/>
       <c r="G166" s="16"/>
-      <c r="H166" s="111"/>
+      <c r="H166" s="110"/>
       <c r="I166" s="16"/>
-      <c r="J166" s="108"/>
-      <c r="K166" s="108"/>
-      <c r="L166" s="108"/>
-      <c r="M166" s="108"/>
-      <c r="N166" s="108"/>
-      <c r="P166" s="108"/>
-      <c r="Q166" s="106"/>
-      <c r="R166" s="108"/>
-      <c r="T166" s="111"/>
-      <c r="U166" s="108"/>
-      <c r="V166" s="106"/>
-      <c r="W166" s="108"/>
-      <c r="Y166" s="106"/>
-      <c r="AB166" s="108"/>
-      <c r="AC166" s="106"/>
-      <c r="AD166" s="106"/>
-      <c r="AE166" s="106"/>
-      <c r="AF166" s="106"/>
-      <c r="AG166" s="106"/>
-      <c r="AH166" s="108"/>
-      <c r="AI166" s="47"/>
+      <c r="J166" s="107"/>
+      <c r="K166" s="107"/>
+      <c r="L166" s="107"/>
+      <c r="M166" s="107"/>
+      <c r="N166" s="107"/>
+      <c r="P166" s="107"/>
+      <c r="Q166" s="105"/>
+      <c r="R166" s="107"/>
+      <c r="T166" s="110"/>
+      <c r="U166" s="107"/>
+      <c r="V166" s="105"/>
+      <c r="W166" s="107"/>
+      <c r="Y166" s="105"/>
+      <c r="AB166" s="107"/>
+      <c r="AC166" s="105"/>
+      <c r="AD166" s="105"/>
+      <c r="AE166" s="105"/>
+      <c r="AF166" s="105"/>
+      <c r="AG166" s="105"/>
+      <c r="AH166" s="107"/>
+      <c r="AI166" s="46"/>
     </row>
     <row r="167" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B167" s="46"/>
-      <c r="C167" s="108"/>
-      <c r="D167" s="108"/>
-      <c r="E167" s="108"/>
-      <c r="F167" s="108"/>
-      <c r="G167" s="109"/>
-      <c r="H167" s="108"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="107"/>
+      <c r="D167" s="107"/>
+      <c r="E167" s="107"/>
+      <c r="F167" s="107"/>
+      <c r="G167" s="108"/>
+      <c r="H167" s="107"/>
       <c r="I167" s="16"/>
-      <c r="J167" s="108"/>
-      <c r="K167" s="108"/>
-      <c r="L167" s="108"/>
-      <c r="M167" s="108"/>
-      <c r="N167" s="108"/>
-      <c r="O167" s="108"/>
-      <c r="P167" s="108"/>
-      <c r="Q167" s="106"/>
-      <c r="R167" s="108"/>
-      <c r="S167" s="108"/>
-      <c r="T167" s="108"/>
-      <c r="U167" s="108"/>
-      <c r="V167" s="108"/>
-      <c r="W167" s="108"/>
-      <c r="X167" s="108"/>
-      <c r="Y167" s="108"/>
-      <c r="Z167" s="108"/>
-      <c r="AA167" s="108"/>
-      <c r="AB167" s="108"/>
-      <c r="AC167" s="83"/>
-      <c r="AD167" s="84"/>
-      <c r="AE167" s="106"/>
-      <c r="AF167" s="106"/>
-      <c r="AG167" s="106"/>
-      <c r="AH167" s="108"/>
-      <c r="AI167" s="47"/>
+      <c r="J167" s="107"/>
+      <c r="K167" s="107"/>
+      <c r="L167" s="107"/>
+      <c r="M167" s="107"/>
+      <c r="N167" s="107"/>
+      <c r="O167" s="107"/>
+      <c r="P167" s="107"/>
+      <c r="Q167" s="105"/>
+      <c r="R167" s="107"/>
+      <c r="S167" s="107"/>
+      <c r="T167" s="107"/>
+      <c r="U167" s="107"/>
+      <c r="V167" s="107"/>
+      <c r="W167" s="107"/>
+      <c r="X167" s="107"/>
+      <c r="Y167" s="107"/>
+      <c r="Z167" s="107"/>
+      <c r="AA167" s="107"/>
+      <c r="AB167" s="107"/>
+      <c r="AC167" s="82"/>
+      <c r="AD167" s="83"/>
+      <c r="AE167" s="105"/>
+      <c r="AF167" s="105"/>
+      <c r="AG167" s="105"/>
+      <c r="AH167" s="107"/>
+      <c r="AI167" s="46"/>
     </row>
     <row r="168" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B168" s="46"/>
-      <c r="C168" s="108"/>
-      <c r="D168" s="108"/>
-      <c r="E168" s="108"/>
-      <c r="F168" s="108"/>
-      <c r="G168" s="109"/>
-      <c r="H168" s="108"/>
-      <c r="I168" s="108"/>
-      <c r="J168" s="108"/>
-      <c r="K168" s="108"/>
-      <c r="L168" s="108"/>
-      <c r="M168" s="108"/>
-      <c r="N168" s="108"/>
-      <c r="O168" s="108"/>
-      <c r="P168" s="108"/>
-      <c r="Q168" s="106"/>
-      <c r="R168" s="108"/>
-      <c r="S168" s="108"/>
-      <c r="T168" s="108"/>
-      <c r="U168" s="108"/>
-      <c r="V168" s="108"/>
-      <c r="W168" s="108"/>
-      <c r="X168" s="108"/>
-      <c r="Y168" s="108"/>
-      <c r="Z168" s="108"/>
-      <c r="AA168" s="108"/>
-      <c r="AB168" s="108"/>
-      <c r="AC168" s="85"/>
-      <c r="AD168" s="86"/>
-      <c r="AE168" s="106"/>
-      <c r="AF168" s="106"/>
-      <c r="AG168" s="106"/>
-      <c r="AH168" s="108"/>
-      <c r="AI168" s="47"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="107"/>
+      <c r="D168" s="107"/>
+      <c r="E168" s="107"/>
+      <c r="F168" s="107"/>
+      <c r="G168" s="108"/>
+      <c r="H168" s="107"/>
+      <c r="I168" s="107"/>
+      <c r="J168" s="107"/>
+      <c r="K168" s="107"/>
+      <c r="L168" s="107"/>
+      <c r="M168" s="107"/>
+      <c r="N168" s="107"/>
+      <c r="O168" s="107"/>
+      <c r="P168" s="107"/>
+      <c r="Q168" s="105"/>
+      <c r="R168" s="107"/>
+      <c r="S168" s="107"/>
+      <c r="T168" s="107"/>
+      <c r="U168" s="107"/>
+      <c r="V168" s="107"/>
+      <c r="W168" s="107"/>
+      <c r="X168" s="107"/>
+      <c r="Y168" s="107"/>
+      <c r="Z168" s="107"/>
+      <c r="AA168" s="107"/>
+      <c r="AB168" s="107"/>
+      <c r="AC168" s="84"/>
+      <c r="AD168" s="85"/>
+      <c r="AE168" s="105"/>
+      <c r="AF168" s="105"/>
+      <c r="AG168" s="105"/>
+      <c r="AH168" s="107"/>
+      <c r="AI168" s="46"/>
     </row>
     <row r="169" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="46"/>
-      <c r="C169" s="108"/>
-      <c r="D169" s="108"/>
-      <c r="E169" s="108"/>
-      <c r="F169" s="108"/>
-      <c r="G169" s="109"/>
-      <c r="H169" s="108"/>
-      <c r="I169" s="108"/>
-      <c r="J169" s="108"/>
-      <c r="L169" s="111"/>
-      <c r="P169" s="108"/>
-      <c r="Q169" s="106"/>
-      <c r="R169" s="108"/>
-      <c r="S169" s="108"/>
-      <c r="T169" s="108"/>
-      <c r="U169" s="108"/>
-      <c r="V169" s="108"/>
-      <c r="W169" s="108"/>
-      <c r="X169" s="111"/>
-      <c r="Z169" s="108"/>
-      <c r="AA169" s="108"/>
-      <c r="AB169" s="108"/>
-      <c r="AC169" s="88"/>
-      <c r="AD169" s="89"/>
-      <c r="AE169" s="108"/>
-      <c r="AF169" s="108"/>
-      <c r="AG169" s="108"/>
-      <c r="AH169" s="108"/>
-      <c r="AI169" s="47"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="107"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="107"/>
+      <c r="G169" s="108"/>
+      <c r="H169" s="107"/>
+      <c r="I169" s="107"/>
+      <c r="J169" s="107"/>
+      <c r="L169" s="110"/>
+      <c r="P169" s="107"/>
+      <c r="Q169" s="105"/>
+      <c r="R169" s="107"/>
+      <c r="S169" s="107"/>
+      <c r="T169" s="107"/>
+      <c r="U169" s="107"/>
+      <c r="V169" s="107"/>
+      <c r="W169" s="107"/>
+      <c r="X169" s="110"/>
+      <c r="Z169" s="107"/>
+      <c r="AA169" s="107"/>
+      <c r="AB169" s="107"/>
+      <c r="AC169" s="87"/>
+      <c r="AD169" s="88"/>
+      <c r="AE169" s="107"/>
+      <c r="AF169" s="107"/>
+      <c r="AG169" s="107"/>
+      <c r="AH169" s="107"/>
+      <c r="AI169" s="46"/>
     </row>
     <row r="170" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B170" s="46"/>
-      <c r="C170" s="105"/>
-      <c r="D170" s="105"/>
-      <c r="E170" s="107"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="104"/>
+      <c r="D170" s="104"/>
+      <c r="E170" s="106"/>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
-      <c r="H170" s="107"/>
-      <c r="I170" s="107"/>
-      <c r="J170" s="105"/>
-      <c r="K170" s="105"/>
-      <c r="L170" s="105"/>
-      <c r="M170" s="105"/>
-      <c r="N170" s="105"/>
-      <c r="O170" s="105"/>
-      <c r="P170" s="105"/>
-      <c r="Q170" s="105"/>
-      <c r="R170" s="105"/>
-      <c r="S170" s="105"/>
-      <c r="T170" s="105"/>
-      <c r="U170" s="105"/>
-      <c r="V170" s="105"/>
-      <c r="W170" s="105"/>
-      <c r="X170" s="105"/>
-      <c r="Y170" s="105"/>
-      <c r="Z170" s="105"/>
-      <c r="AA170" s="105"/>
-      <c r="AB170" s="105"/>
-      <c r="AC170" s="83"/>
-      <c r="AD170" s="84"/>
-      <c r="AE170" s="105"/>
-      <c r="AF170" s="105"/>
-      <c r="AG170" s="105"/>
-      <c r="AH170" s="105"/>
-      <c r="AI170" s="47"/>
+      <c r="H170" s="106"/>
+      <c r="I170" s="106"/>
+      <c r="J170" s="104"/>
+      <c r="K170" s="104"/>
+      <c r="L170" s="104"/>
+      <c r="M170" s="104"/>
+      <c r="N170" s="104"/>
+      <c r="O170" s="104"/>
+      <c r="P170" s="104"/>
+      <c r="Q170" s="104"/>
+      <c r="R170" s="104"/>
+      <c r="S170" s="104"/>
+      <c r="T170" s="104"/>
+      <c r="U170" s="104"/>
+      <c r="V170" s="104"/>
+      <c r="W170" s="104"/>
+      <c r="X170" s="104"/>
+      <c r="Y170" s="104"/>
+      <c r="Z170" s="104"/>
+      <c r="AA170" s="104"/>
+      <c r="AB170" s="104"/>
+      <c r="AC170" s="82"/>
+      <c r="AD170" s="83"/>
+      <c r="AE170" s="104"/>
+      <c r="AF170" s="104"/>
+      <c r="AG170" s="104"/>
+      <c r="AH170" s="104"/>
+      <c r="AI170" s="46"/>
     </row>
     <row r="171" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B171" s="46"/>
-      <c r="C171" s="108"/>
-      <c r="D171" s="108"/>
-      <c r="E171" s="108"/>
-      <c r="F171" s="109"/>
-      <c r="G171" s="108"/>
-      <c r="H171" s="108"/>
-      <c r="I171" s="108"/>
-      <c r="J171" s="108"/>
-      <c r="K171" s="108"/>
-      <c r="L171" s="108"/>
-      <c r="M171" s="108"/>
-      <c r="N171" s="108"/>
-      <c r="O171" s="108"/>
-      <c r="P171" s="108"/>
-      <c r="Q171" s="106"/>
-      <c r="R171" s="106"/>
-      <c r="S171" s="108"/>
-      <c r="T171" s="108"/>
-      <c r="U171" s="108"/>
-      <c r="V171" s="108"/>
-      <c r="W171" s="108"/>
-      <c r="X171" s="108"/>
-      <c r="Y171" s="108"/>
-      <c r="Z171" s="108"/>
-      <c r="AA171" s="106"/>
-      <c r="AB171" s="106"/>
-      <c r="AC171" s="85"/>
-      <c r="AD171" s="86"/>
-      <c r="AE171" s="108"/>
-      <c r="AF171" s="108"/>
-      <c r="AG171" s="108"/>
-      <c r="AH171" s="108"/>
-      <c r="AI171" s="47"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="107"/>
+      <c r="D171" s="107"/>
+      <c r="E171" s="107"/>
+      <c r="F171" s="108"/>
+      <c r="G171" s="107"/>
+      <c r="H171" s="107"/>
+      <c r="I171" s="107"/>
+      <c r="J171" s="107"/>
+      <c r="K171" s="107"/>
+      <c r="L171" s="107"/>
+      <c r="M171" s="107"/>
+      <c r="N171" s="107"/>
+      <c r="O171" s="107"/>
+      <c r="P171" s="107"/>
+      <c r="Q171" s="105"/>
+      <c r="R171" s="105"/>
+      <c r="S171" s="107"/>
+      <c r="T171" s="107"/>
+      <c r="U171" s="107"/>
+      <c r="V171" s="107"/>
+      <c r="W171" s="107"/>
+      <c r="X171" s="107"/>
+      <c r="Y171" s="107"/>
+      <c r="Z171" s="107"/>
+      <c r="AA171" s="105"/>
+      <c r="AB171" s="105"/>
+      <c r="AC171" s="84"/>
+      <c r="AD171" s="85"/>
+      <c r="AE171" s="107"/>
+      <c r="AF171" s="107"/>
+      <c r="AG171" s="107"/>
+      <c r="AH171" s="107"/>
+      <c r="AI171" s="46"/>
     </row>
     <row r="172" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B172" s="46"/>
-      <c r="C172" s="109"/>
-      <c r="D172" s="109"/>
-      <c r="E172" s="109"/>
-      <c r="F172" s="109"/>
-      <c r="G172" s="108"/>
-      <c r="H172" s="109"/>
-      <c r="I172" s="109"/>
-      <c r="J172" s="109"/>
-      <c r="K172" s="109"/>
-      <c r="L172" s="109"/>
-      <c r="M172" s="109"/>
-      <c r="N172" s="109"/>
-      <c r="O172" s="108"/>
-      <c r="P172" s="108"/>
-      <c r="Q172" s="108"/>
-      <c r="R172" s="106"/>
-      <c r="S172" s="108"/>
-      <c r="T172" s="108"/>
-      <c r="U172" s="108"/>
-      <c r="V172" s="108"/>
-      <c r="W172" s="108"/>
-      <c r="X172" s="108"/>
-      <c r="Y172" s="108"/>
-      <c r="Z172" s="106"/>
-      <c r="AA172" s="106"/>
-      <c r="AB172" s="106"/>
-      <c r="AC172" s="85"/>
-      <c r="AD172" s="86"/>
-      <c r="AE172" s="108"/>
-      <c r="AF172" s="52"/>
-      <c r="AG172" s="53"/>
-      <c r="AH172" s="108"/>
-      <c r="AI172" s="47"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="108"/>
+      <c r="D172" s="108"/>
+      <c r="E172" s="108"/>
+      <c r="F172" s="108"/>
+      <c r="G172" s="107"/>
+      <c r="H172" s="108"/>
+      <c r="I172" s="108"/>
+      <c r="J172" s="108"/>
+      <c r="K172" s="108"/>
+      <c r="L172" s="108"/>
+      <c r="M172" s="108"/>
+      <c r="N172" s="108"/>
+      <c r="O172" s="107"/>
+      <c r="P172" s="107"/>
+      <c r="Q172" s="107"/>
+      <c r="R172" s="105"/>
+      <c r="S172" s="107"/>
+      <c r="T172" s="107"/>
+      <c r="U172" s="107"/>
+      <c r="V172" s="107"/>
+      <c r="W172" s="107"/>
+      <c r="X172" s="107"/>
+      <c r="Y172" s="107"/>
+      <c r="Z172" s="105"/>
+      <c r="AA172" s="105"/>
+      <c r="AB172" s="105"/>
+      <c r="AC172" s="84"/>
+      <c r="AD172" s="85"/>
+      <c r="AE172" s="107"/>
+      <c r="AF172" s="51"/>
+      <c r="AG172" s="52"/>
+      <c r="AH172" s="107"/>
+      <c r="AI172" s="46"/>
     </row>
     <row r="173" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B173" s="46"/>
-      <c r="C173" s="108"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="107"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="109"/>
-      <c r="G173" s="108"/>
+      <c r="F173" s="108"/>
+      <c r="G173" s="107"/>
       <c r="H173" s="16"/>
-      <c r="I173" s="108"/>
-      <c r="J173" s="108"/>
-      <c r="K173" s="108"/>
+      <c r="I173" s="107"/>
+      <c r="J173" s="107"/>
+      <c r="K173" s="107"/>
       <c r="L173" s="16"/>
-      <c r="M173" s="108"/>
-      <c r="N173" s="108"/>
-      <c r="O173" s="108"/>
-      <c r="P173" s="106"/>
-      <c r="Q173" s="106"/>
-      <c r="S173" s="108"/>
-      <c r="T173" s="108"/>
-      <c r="U173" s="108"/>
-      <c r="V173" s="108"/>
-      <c r="W173" s="108"/>
-      <c r="X173" s="108"/>
-      <c r="Y173" s="108"/>
-      <c r="Z173" s="112"/>
-      <c r="AA173" s="106"/>
-      <c r="AB173" s="106"/>
-      <c r="AC173" s="85"/>
-      <c r="AD173" s="86"/>
-      <c r="AE173" s="108"/>
-      <c r="AF173" s="56"/>
-      <c r="AG173" s="57"/>
-      <c r="AH173" s="108"/>
-      <c r="AI173" s="47"/>
+      <c r="M173" s="107"/>
+      <c r="N173" s="107"/>
+      <c r="O173" s="107"/>
+      <c r="P173" s="105"/>
+      <c r="Q173" s="105"/>
+      <c r="S173" s="107"/>
+      <c r="T173" s="107"/>
+      <c r="U173" s="107"/>
+      <c r="V173" s="107"/>
+      <c r="W173" s="107"/>
+      <c r="X173" s="107"/>
+      <c r="Y173" s="107"/>
+      <c r="Z173" s="111"/>
+      <c r="AA173" s="105"/>
+      <c r="AB173" s="105"/>
+      <c r="AC173" s="84"/>
+      <c r="AD173" s="85"/>
+      <c r="AE173" s="107"/>
+      <c r="AF173" s="55"/>
+      <c r="AG173" s="56"/>
+      <c r="AH173" s="107"/>
+      <c r="AI173" s="46"/>
     </row>
     <row r="174" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B174" s="46"/>
-      <c r="C174" s="108"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="107"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="109"/>
-      <c r="G174" s="109"/>
+      <c r="F174" s="108"/>
+      <c r="G174" s="108"/>
       <c r="H174" s="16"/>
-      <c r="I174" s="108"/>
+      <c r="I174" s="107"/>
       <c r="J174" s="16"/>
-      <c r="K174" s="108"/>
+      <c r="K174" s="107"/>
       <c r="L174" s="16"/>
-      <c r="M174" s="108"/>
-      <c r="N174" s="108"/>
-      <c r="O174" s="108"/>
-      <c r="P174" s="106"/>
-      <c r="Q174" s="106"/>
-      <c r="S174" s="108"/>
-      <c r="T174" s="108"/>
-      <c r="U174" s="108"/>
-      <c r="V174" s="108"/>
-      <c r="W174" s="108"/>
-      <c r="X174" s="108"/>
-      <c r="Y174" s="108"/>
-      <c r="Z174" s="112"/>
-      <c r="AA174" s="106"/>
-      <c r="AB174" s="106"/>
-      <c r="AC174" s="85"/>
-      <c r="AD174" s="86"/>
-      <c r="AE174" s="108"/>
-      <c r="AF174" s="59"/>
-      <c r="AG174" s="60"/>
-      <c r="AH174" s="108"/>
-      <c r="AI174" s="47"/>
+      <c r="M174" s="107"/>
+      <c r="N174" s="107"/>
+      <c r="O174" s="107"/>
+      <c r="P174" s="105"/>
+      <c r="Q174" s="105"/>
+      <c r="S174" s="107"/>
+      <c r="T174" s="107"/>
+      <c r="U174" s="107"/>
+      <c r="V174" s="107"/>
+      <c r="W174" s="107"/>
+      <c r="X174" s="107"/>
+      <c r="Y174" s="107"/>
+      <c r="Z174" s="111"/>
+      <c r="AA174" s="105"/>
+      <c r="AB174" s="105"/>
+      <c r="AC174" s="84"/>
+      <c r="AD174" s="85"/>
+      <c r="AE174" s="107"/>
+      <c r="AF174" s="58"/>
+      <c r="AG174" s="59"/>
+      <c r="AH174" s="107"/>
+      <c r="AI174" s="46"/>
     </row>
     <row r="175" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B175" s="46"/>
-      <c r="C175" s="105"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="104"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="105"/>
-      <c r="G175" s="105"/>
-      <c r="H175" s="105"/>
-      <c r="I175" s="107"/>
-      <c r="J175" s="105"/>
-      <c r="K175" s="105"/>
-      <c r="L175" s="105"/>
-      <c r="M175" s="105"/>
-      <c r="N175" s="105"/>
-      <c r="O175" s="105"/>
-      <c r="P175" s="105"/>
-      <c r="Q175" s="105"/>
-      <c r="R175" s="105"/>
-      <c r="S175" s="105"/>
-      <c r="T175" s="105"/>
-      <c r="U175" s="105"/>
-      <c r="V175" s="105"/>
-      <c r="W175" s="105"/>
-      <c r="X175" s="105"/>
-      <c r="Y175" s="105"/>
-      <c r="Z175" s="105"/>
-      <c r="AA175" s="105"/>
-      <c r="AB175" s="105"/>
-      <c r="AC175" s="85"/>
-      <c r="AD175" s="86"/>
-      <c r="AE175" s="105"/>
-      <c r="AF175" s="105"/>
-      <c r="AG175" s="105"/>
-      <c r="AH175" s="105"/>
-      <c r="AI175" s="47"/>
+      <c r="F175" s="104"/>
+      <c r="G175" s="104"/>
+      <c r="H175" s="104"/>
+      <c r="I175" s="106"/>
+      <c r="J175" s="104"/>
+      <c r="K175" s="104"/>
+      <c r="L175" s="104"/>
+      <c r="M175" s="104"/>
+      <c r="N175" s="104"/>
+      <c r="O175" s="104"/>
+      <c r="P175" s="104"/>
+      <c r="Q175" s="104"/>
+      <c r="R175" s="104"/>
+      <c r="S175" s="104"/>
+      <c r="T175" s="104"/>
+      <c r="U175" s="104"/>
+      <c r="V175" s="104"/>
+      <c r="W175" s="104"/>
+      <c r="X175" s="104"/>
+      <c r="Y175" s="104"/>
+      <c r="Z175" s="104"/>
+      <c r="AA175" s="104"/>
+      <c r="AB175" s="104"/>
+      <c r="AC175" s="84"/>
+      <c r="AD175" s="85"/>
+      <c r="AE175" s="104"/>
+      <c r="AF175" s="104"/>
+      <c r="AG175" s="104"/>
+      <c r="AH175" s="104"/>
+      <c r="AI175" s="46"/>
     </row>
     <row r="176" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B176" s="46"/>
-      <c r="C176" s="109"/>
-      <c r="D176" s="109"/>
-      <c r="E176" s="109"/>
-      <c r="F176" s="109"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="108"/>
+      <c r="D176" s="108"/>
+      <c r="E176" s="108"/>
+      <c r="F176" s="108"/>
       <c r="G176" s="16"/>
-      <c r="H176" s="109"/>
-      <c r="I176" s="109"/>
-      <c r="J176" s="109"/>
-      <c r="K176" s="109"/>
-      <c r="L176" s="109"/>
-      <c r="M176" s="109"/>
-      <c r="N176" s="109"/>
-      <c r="O176" s="109"/>
-      <c r="P176" s="108"/>
-      <c r="Q176" s="111"/>
-      <c r="R176" s="106"/>
-      <c r="S176" s="108"/>
-      <c r="T176" s="108"/>
-      <c r="U176" s="108"/>
-      <c r="V176" s="108"/>
-      <c r="W176" s="108"/>
-      <c r="X176" s="108"/>
-      <c r="Y176" s="108"/>
-      <c r="Z176" s="106"/>
-      <c r="AA176" s="106"/>
-      <c r="AB176" s="108"/>
-      <c r="AC176" s="88"/>
-      <c r="AD176" s="89"/>
-      <c r="AE176" s="108"/>
-      <c r="AF176" s="108"/>
-      <c r="AG176" s="108"/>
-      <c r="AH176" s="108"/>
-      <c r="AI176" s="47"/>
+      <c r="H176" s="108"/>
+      <c r="I176" s="108"/>
+      <c r="J176" s="108"/>
+      <c r="K176" s="108"/>
+      <c r="L176" s="108"/>
+      <c r="M176" s="108"/>
+      <c r="N176" s="108"/>
+      <c r="O176" s="108"/>
+      <c r="P176" s="107"/>
+      <c r="Q176" s="110"/>
+      <c r="R176" s="105"/>
+      <c r="S176" s="107"/>
+      <c r="T176" s="107"/>
+      <c r="U176" s="107"/>
+      <c r="V176" s="107"/>
+      <c r="W176" s="107"/>
+      <c r="X176" s="107"/>
+      <c r="Y176" s="107"/>
+      <c r="Z176" s="105"/>
+      <c r="AA176" s="105"/>
+      <c r="AB176" s="107"/>
+      <c r="AC176" s="87"/>
+      <c r="AD176" s="88"/>
+      <c r="AE176" s="107"/>
+      <c r="AF176" s="107"/>
+      <c r="AG176" s="107"/>
+      <c r="AH176" s="107"/>
+      <c r="AI176" s="46"/>
     </row>
     <row r="177" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B177" s="46"/>
-      <c r="C177" s="108"/>
-      <c r="D177" s="108"/>
-      <c r="E177" s="108"/>
-      <c r="F177" s="108"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="107"/>
+      <c r="D177" s="107"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="107"/>
       <c r="G177" s="16"/>
-      <c r="H177" s="108"/>
-      <c r="I177" s="108"/>
-      <c r="J177" s="108"/>
-      <c r="K177" s="108"/>
-      <c r="L177" s="108"/>
-      <c r="M177" s="108"/>
-      <c r="N177" s="108"/>
-      <c r="O177" s="108"/>
-      <c r="P177" s="108"/>
-      <c r="Q177" s="108"/>
-      <c r="R177" s="106"/>
-      <c r="S177" s="108"/>
-      <c r="T177" s="108"/>
-      <c r="U177" s="108"/>
-      <c r="V177" s="108"/>
-      <c r="W177" s="108"/>
-      <c r="X177" s="108"/>
-      <c r="Y177" s="106"/>
-      <c r="Z177" s="106"/>
-      <c r="AA177" s="106"/>
-      <c r="AB177" s="108"/>
-      <c r="AC177" s="113"/>
-      <c r="AD177" s="114"/>
-      <c r="AE177" s="108"/>
-      <c r="AF177" s="108"/>
-      <c r="AG177" s="108"/>
-      <c r="AH177" s="108"/>
-      <c r="AI177" s="47"/>
+      <c r="H177" s="107"/>
+      <c r="I177" s="107"/>
+      <c r="J177" s="107"/>
+      <c r="K177" s="107"/>
+      <c r="L177" s="107"/>
+      <c r="M177" s="107"/>
+      <c r="N177" s="107"/>
+      <c r="O177" s="107"/>
+      <c r="P177" s="107"/>
+      <c r="Q177" s="107"/>
+      <c r="R177" s="105"/>
+      <c r="S177" s="107"/>
+      <c r="T177" s="107"/>
+      <c r="U177" s="107"/>
+      <c r="V177" s="107"/>
+      <c r="W177" s="107"/>
+      <c r="X177" s="107"/>
+      <c r="Y177" s="105"/>
+      <c r="Z177" s="105"/>
+      <c r="AA177" s="105"/>
+      <c r="AB177" s="107"/>
+      <c r="AC177" s="112"/>
+      <c r="AD177" s="113"/>
+      <c r="AE177" s="107"/>
+      <c r="AF177" s="107"/>
+      <c r="AG177" s="107"/>
+      <c r="AH177" s="107"/>
+      <c r="AI177" s="46"/>
     </row>
     <row r="178" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B178" s="46"/>
-      <c r="C178" s="108"/>
-      <c r="D178" s="109"/>
-      <c r="E178" s="109"/>
-      <c r="F178" s="108"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="107"/>
+      <c r="D178" s="108"/>
+      <c r="E178" s="108"/>
+      <c r="F178" s="107"/>
       <c r="G178" s="16"/>
-      <c r="H178" s="108"/>
-      <c r="I178" s="108"/>
-      <c r="J178" s="108"/>
-      <c r="K178" s="108"/>
-      <c r="L178" s="108"/>
-      <c r="M178" s="108"/>
-      <c r="N178" s="108"/>
-      <c r="O178" s="108"/>
-      <c r="P178" s="108"/>
-      <c r="Q178" s="108"/>
-      <c r="R178" s="106"/>
-      <c r="S178" s="108"/>
-      <c r="T178" s="108"/>
-      <c r="U178" s="108"/>
-      <c r="V178" s="108"/>
-      <c r="W178" s="108"/>
-      <c r="X178" s="108"/>
-      <c r="Y178" s="106"/>
-      <c r="Z178" s="106"/>
-      <c r="AA178" s="106"/>
-      <c r="AB178" s="106"/>
-      <c r="AC178" s="115"/>
-      <c r="AD178" s="116"/>
-      <c r="AE178" s="108"/>
-      <c r="AF178" s="108"/>
-      <c r="AG178" s="108"/>
-      <c r="AH178" s="108"/>
-      <c r="AI178" s="47"/>
+      <c r="H178" s="107"/>
+      <c r="I178" s="107"/>
+      <c r="J178" s="107"/>
+      <c r="K178" s="107"/>
+      <c r="L178" s="107"/>
+      <c r="M178" s="107"/>
+      <c r="N178" s="107"/>
+      <c r="O178" s="107"/>
+      <c r="P178" s="107"/>
+      <c r="Q178" s="107"/>
+      <c r="R178" s="105"/>
+      <c r="S178" s="107"/>
+      <c r="T178" s="107"/>
+      <c r="U178" s="107"/>
+      <c r="V178" s="107"/>
+      <c r="W178" s="107"/>
+      <c r="X178" s="107"/>
+      <c r="Y178" s="105"/>
+      <c r="Z178" s="105"/>
+      <c r="AA178" s="105"/>
+      <c r="AB178" s="105"/>
+      <c r="AC178" s="114"/>
+      <c r="AD178" s="115"/>
+      <c r="AE178" s="107"/>
+      <c r="AF178" s="107"/>
+      <c r="AG178" s="107"/>
+      <c r="AH178" s="107"/>
+      <c r="AI178" s="46"/>
     </row>
     <row r="179" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B179" s="46"/>
-      <c r="C179" s="108"/>
-      <c r="D179" s="109"/>
-      <c r="E179" s="109"/>
-      <c r="F179" s="108"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="107"/>
+      <c r="D179" s="108"/>
+      <c r="E179" s="108"/>
+      <c r="F179" s="107"/>
       <c r="G179" s="16"/>
-      <c r="H179" s="108"/>
-      <c r="I179" s="108"/>
-      <c r="J179" s="108"/>
-      <c r="K179" s="108"/>
-      <c r="L179" s="108"/>
-      <c r="M179" s="108"/>
-      <c r="N179" s="108"/>
-      <c r="O179" s="108"/>
-      <c r="P179" s="108"/>
-      <c r="Q179" s="108"/>
-      <c r="R179" s="106"/>
-      <c r="S179" s="108"/>
-      <c r="T179" s="108"/>
-      <c r="U179" s="108"/>
-      <c r="V179" s="108"/>
-      <c r="W179" s="108"/>
-      <c r="X179" s="108"/>
-      <c r="Y179" s="106"/>
-      <c r="Z179" s="106"/>
-      <c r="AA179" s="106"/>
-      <c r="AB179" s="106"/>
-      <c r="AC179" s="117"/>
-      <c r="AD179" s="118"/>
-      <c r="AE179" s="108"/>
-      <c r="AF179" s="108"/>
-      <c r="AG179" s="108"/>
-      <c r="AH179" s="108"/>
-      <c r="AI179" s="47"/>
+      <c r="H179" s="107"/>
+      <c r="I179" s="107"/>
+      <c r="J179" s="107"/>
+      <c r="K179" s="107"/>
+      <c r="L179" s="107"/>
+      <c r="M179" s="107"/>
+      <c r="N179" s="107"/>
+      <c r="O179" s="107"/>
+      <c r="P179" s="107"/>
+      <c r="Q179" s="107"/>
+      <c r="R179" s="105"/>
+      <c r="S179" s="107"/>
+      <c r="T179" s="107"/>
+      <c r="U179" s="107"/>
+      <c r="V179" s="107"/>
+      <c r="W179" s="107"/>
+      <c r="X179" s="107"/>
+      <c r="Y179" s="105"/>
+      <c r="Z179" s="105"/>
+      <c r="AA179" s="105"/>
+      <c r="AB179" s="105"/>
+      <c r="AC179" s="116"/>
+      <c r="AD179" s="117"/>
+      <c r="AE179" s="107"/>
+      <c r="AF179" s="107"/>
+      <c r="AG179" s="107"/>
+      <c r="AH179" s="107"/>
+      <c r="AI179" s="46"/>
     </row>
     <row r="180" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B180" s="61"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-      <c r="F180" s="62"/>
-      <c r="G180" s="62"/>
-      <c r="H180" s="110"/>
-      <c r="I180" s="110"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="61"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="61"/>
+      <c r="F180" s="61"/>
+      <c r="G180" s="61"/>
+      <c r="H180" s="109"/>
+      <c r="I180" s="109"/>
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
-      <c r="L180" s="62"/>
-      <c r="M180" s="110"/>
-      <c r="N180" s="110"/>
+      <c r="L180" s="61"/>
+      <c r="M180" s="109"/>
+      <c r="N180" s="109"/>
       <c r="O180" s="19"/>
       <c r="P180" s="19"/>
-      <c r="Q180" s="62"/>
-      <c r="R180" s="110"/>
-      <c r="S180" s="110"/>
-      <c r="T180" s="110"/>
-      <c r="U180" s="74"/>
-      <c r="V180" s="62"/>
-      <c r="W180" s="110"/>
-      <c r="X180" s="110"/>
-      <c r="Y180" s="110"/>
-      <c r="Z180" s="110"/>
-      <c r="AA180" s="62"/>
-      <c r="AB180" s="62"/>
-      <c r="AC180" s="62"/>
-      <c r="AD180" s="62"/>
-      <c r="AE180" s="62"/>
-      <c r="AF180" s="62"/>
-      <c r="AG180" s="62"/>
-      <c r="AH180" s="62"/>
-      <c r="AI180" s="63"/>
+      <c r="Q180" s="61"/>
+      <c r="R180" s="109"/>
+      <c r="S180" s="109"/>
+      <c r="T180" s="109"/>
+      <c r="U180" s="73"/>
+      <c r="V180" s="61"/>
+      <c r="W180" s="109"/>
+      <c r="X180" s="109"/>
+      <c r="Y180" s="109"/>
+      <c r="Z180" s="109"/>
+      <c r="AA180" s="61"/>
+      <c r="AB180" s="61"/>
+      <c r="AC180" s="61"/>
+      <c r="AD180" s="61"/>
+      <c r="AE180" s="61"/>
+      <c r="AF180" s="61"/>
+      <c r="AG180" s="61"/>
+      <c r="AH180" s="61"/>
+      <c r="AI180" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A90D6D-88DD-4CA6-A0EF-A7963CB95DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5951B9-22F8-48F6-AB72-EE6B777A3917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14832" yWindow="4020" windowWidth="23040" windowHeight="12324" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1313,6 +1313,41 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Enemy_MoveのMove_Modeは下記の一覧で記述すること</t>
+    <rPh sb="22" eb="24">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床：Floor　天井：Ceiling　右壁：Right　左壁：Left</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2286,6 +2321,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2299,18 +2346,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4961,12 +4996,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="122"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5068,12 +5103,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5130,12 +5165,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5226,12 +5261,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="120" t="s">
+      <c r="I10" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5929,13 +5964,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5956,42 +5991,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122"/>
-      <c r="U3" s="120" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="126"/>
+      <c r="U3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121"/>
-      <c r="AO3" s="122"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="126"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6426,42 +6461,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="122"/>
-      <c r="U14" s="120" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="126"/>
+      <c r="U14" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="122"/>
-      <c r="AF14" s="120" t="s">
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="126"/>
+      <c r="AF14" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="121"/>
-      <c r="AK14" s="121"/>
-      <c r="AL14" s="121"/>
-      <c r="AM14" s="121"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="122"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="125"/>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="125"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="126"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6753,30 +6788,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="120" t="s">
+      <c r="J25" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="122"/>
-      <c r="U25" s="120" t="s">
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="126"/>
+      <c r="U25" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="122"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="126"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6978,15 +7013,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6999,7 +7034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7016,13 +7051,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7067,7 +7102,7 @@
       <c r="F4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="125"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="2" t="s">
         <v>135</v>
       </c>
@@ -7092,8 +7127,8 @@
       <c r="F5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="I5" s="127"/>
+      <c r="G5" s="121"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="28">
@@ -7111,7 +7146,7 @@
       <c r="F6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="126"/>
+      <c r="G6" s="121"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
@@ -7129,7 +7164,7 @@
       <c r="F7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="126"/>
+      <c r="G7" s="121"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
@@ -7147,7 +7182,7 @@
       <c r="F8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="126"/>
+      <c r="G8" s="121"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
@@ -7183,7 +7218,7 @@
       <c r="F10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="126"/>
+      <c r="G10" s="121"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
@@ -7219,7 +7254,7 @@
       <c r="F12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="126"/>
+      <c r="G12" s="121"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
@@ -7237,7 +7272,7 @@
       <c r="F13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="126"/>
+      <c r="G13" s="121"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
@@ -7255,7 +7290,7 @@
       <c r="F14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="121"/>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="30">
@@ -7273,7 +7308,7 @@
       <c r="F15" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="128"/>
+      <c r="G15" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7289,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7598,7 +7633,7 @@
       <c r="BI9"/>
       <c r="BJ9"/>
     </row>
-    <row r="10" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -7635,7 +7670,7 @@
       <c r="AH10" s="77"/>
       <c r="AI10" s="79"/>
       <c r="AJ10" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="BA10"/>
       <c r="BB10"/>
@@ -7648,7 +7683,7 @@
       <c r="BI10"/>
       <c r="BJ10"/>
     </row>
-    <row r="11" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11"/>
       <c r="B11" s="45"/>
       <c r="C11"/>
@@ -7666,9 +7701,8 @@
       <c r="O11"/>
       <c r="R11" s="75"/>
       <c r="AI11" s="46"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" t="s">
-        <v>108</v>
+      <c r="AK11" t="s">
+        <v>139</v>
       </c>
       <c r="BA11"/>
       <c r="BB11"/>
@@ -7699,9 +7733,8 @@
       <c r="O12"/>
       <c r="R12" s="75"/>
       <c r="AI12" s="46"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" t="s">
-        <v>109</v>
+      <c r="AJ12" t="s">
+        <v>107</v>
       </c>
       <c r="BA12"/>
       <c r="BB12"/>
@@ -7732,9 +7765,9 @@
       <c r="O13"/>
       <c r="R13" s="75"/>
       <c r="AI13" s="46"/>
-      <c r="AK13" s="49"/>
+      <c r="AK13" s="47"/>
       <c r="AL13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA13"/>
       <c r="BB13"/>
@@ -7765,9 +7798,9 @@
       <c r="O14"/>
       <c r="R14" s="75"/>
       <c r="AI14" s="46"/>
-      <c r="AK14" s="50"/>
+      <c r="AK14" s="48"/>
       <c r="AL14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BA14"/>
       <c r="BB14"/>
@@ -7800,9 +7833,9 @@
       <c r="AE15" s="51"/>
       <c r="AF15" s="52"/>
       <c r="AI15" s="46"/>
-      <c r="AK15" s="53"/>
+      <c r="AK15" s="49"/>
       <c r="AL15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BA15"/>
       <c r="BB15"/>
@@ -7835,9 +7868,9 @@
       <c r="AE16" s="55"/>
       <c r="AF16" s="56"/>
       <c r="AI16" s="46"/>
-      <c r="AK16" s="57"/>
+      <c r="AK16" s="50"/>
       <c r="AL16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BA16"/>
       <c r="BB16"/>
@@ -7870,6 +7903,10 @@
       <c r="AE17" s="58"/>
       <c r="AF17" s="59"/>
       <c r="AI17" s="46"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" t="s">
+        <v>112</v>
+      </c>
       <c r="BA17"/>
       <c r="BB17"/>
       <c r="BC17"/>
@@ -7917,6 +7954,10 @@
       <c r="AG18" s="61"/>
       <c r="AH18" s="61"/>
       <c r="AI18" s="62"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" t="s">
+        <v>113</v>
+      </c>
       <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5951B9-22F8-48F6-AB72-EE6B777A3917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21777FAB-CC28-4F26-9A70-BAC58359D46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,23 +1330,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>床：Floor　天井：Ceiling　右壁：Right　左壁：Left</t>
+    <t>床(Floor)：F　天井(Ceiling)：C　左壁(Left)：L　右壁(Right)：R</t>
     <rPh sb="0" eb="1">
       <t>ユカ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="11" eb="13">
       <t>テンジョウ</t>
     </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="24" eb="25">
       <t>ヒダリ</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="25" eb="26">
       <t>カベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2321,9 +2315,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2346,6 +2337,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4996,12 +4990,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5103,12 +5097,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5165,12 +5159,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5261,12 +5255,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5964,13 +5958,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5991,42 +5985,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="126"/>
-      <c r="U3" s="124" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="125"/>
+      <c r="U3" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AF3" s="124" t="s">
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="125"/>
+      <c r="AF3" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125"/>
-      <c r="AO3" s="126"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="125"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6461,42 +6455,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="126"/>
-      <c r="U14" s="124" t="s">
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="125"/>
+      <c r="U14" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="126"/>
-      <c r="AF14" s="124" t="s">
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="125"/>
+      <c r="AF14" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="125"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="126"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="125"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6788,30 +6782,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="124" t="s">
+      <c r="J25" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="126"/>
-      <c r="U25" s="124" t="s">
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="125"/>
+      <c r="U25" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="126"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="125"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -7013,15 +7007,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7034,8 +7028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7051,13 +7045,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7102,7 +7096,7 @@
       <c r="F4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="120"/>
+      <c r="G4" s="128"/>
       <c r="H4" s="2" t="s">
         <v>135</v>
       </c>
@@ -7127,8 +7121,8 @@
       <c r="F5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="I5" s="122"/>
+      <c r="G5" s="120"/>
+      <c r="I5" s="121"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="28">
@@ -7146,7 +7140,7 @@
       <c r="F6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="121"/>
+      <c r="G6" s="120"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
@@ -7164,7 +7158,7 @@
       <c r="F7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="121"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
@@ -7182,7 +7176,7 @@
       <c r="F8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="121"/>
+      <c r="G8" s="120"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
@@ -7218,7 +7212,7 @@
       <c r="F10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="121"/>
+      <c r="G10" s="120"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
@@ -7254,7 +7248,7 @@
       <c r="F12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="121"/>
+      <c r="G12" s="120"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
@@ -7272,7 +7266,7 @@
       <c r="F13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="121"/>
+      <c r="G13" s="120"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
@@ -7290,7 +7284,7 @@
       <c r="F14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="121"/>
+      <c r="G14" s="120"/>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="30">
@@ -7308,7 +7302,7 @@
       <c r="F15" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="123"/>
+      <c r="G15" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7325,7 +7319,7 @@
   <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10296,7 +10290,7 @@
       <c r="Y98" s="63"/>
       <c r="AI98" s="46"/>
     </row>
-    <row r="99" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B99" s="45"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -10336,8 +10330,8 @@
       <c r="S100" s="63"/>
       <c r="T100" s="63"/>
       <c r="U100" s="63"/>
-      <c r="V100" s="86"/>
-      <c r="W100" s="86"/>
+      <c r="V100" s="82"/>
+      <c r="W100" s="83"/>
       <c r="X100" s="63"/>
       <c r="Y100" s="63"/>
       <c r="AI100" s="46"/>
@@ -10363,8 +10357,8 @@
       <c r="S101" s="63"/>
       <c r="T101" s="63"/>
       <c r="U101" s="63"/>
-      <c r="V101" s="86"/>
-      <c r="W101" s="86"/>
+      <c r="V101" s="84"/>
+      <c r="W101" s="85"/>
       <c r="X101" s="63"/>
       <c r="Y101" s="63"/>
       <c r="AI101" s="46"/>
@@ -10384,8 +10378,8 @@
       <c r="M102" s="63"/>
       <c r="N102" s="84"/>
       <c r="O102" s="85"/>
-      <c r="V102" s="86"/>
-      <c r="W102" s="86"/>
+      <c r="V102" s="84"/>
+      <c r="W102" s="85"/>
       <c r="X102" s="63"/>
       <c r="Y102" s="63"/>
       <c r="AI102" s="46"/>
@@ -10405,8 +10399,8 @@
       <c r="M103" s="63"/>
       <c r="N103" s="84"/>
       <c r="O103" s="85"/>
-      <c r="V103" s="86"/>
-      <c r="W103" s="86"/>
+      <c r="V103" s="84"/>
+      <c r="W103" s="85"/>
       <c r="X103" s="63"/>
       <c r="Y103" s="63"/>
       <c r="AI103" s="46"/>
@@ -10426,8 +10420,8 @@
       <c r="M104" s="63"/>
       <c r="N104" s="87"/>
       <c r="O104" s="88"/>
-      <c r="V104" s="86"/>
-      <c r="W104" s="86"/>
+      <c r="V104" s="84"/>
+      <c r="W104" s="85"/>
       <c r="X104" s="63"/>
       <c r="Y104" s="63"/>
       <c r="AI104" s="46"/>
@@ -10445,8 +10439,8 @@
       <c r="K105"/>
       <c r="N105" s="89"/>
       <c r="O105" s="90"/>
-      <c r="V105" s="86"/>
-      <c r="W105" s="86"/>
+      <c r="V105" s="84"/>
+      <c r="W105" s="85"/>
       <c r="X105" s="64"/>
       <c r="Y105" s="64"/>
       <c r="AE105" s="51"/>
@@ -10466,8 +10460,8 @@
       <c r="K106"/>
       <c r="N106" s="92"/>
       <c r="O106" s="93"/>
-      <c r="V106" s="86"/>
-      <c r="W106" s="86"/>
+      <c r="V106" s="84"/>
+      <c r="W106" s="85"/>
       <c r="X106" s="64"/>
       <c r="Y106" s="64"/>
       <c r="AE106" s="55"/>
@@ -10488,8 +10482,8 @@
       <c r="M107"/>
       <c r="N107" s="94"/>
       <c r="O107" s="95"/>
-      <c r="V107" s="86"/>
-      <c r="W107" s="86"/>
+      <c r="V107" s="87"/>
+      <c r="W107" s="88"/>
       <c r="X107" s="64"/>
       <c r="Y107" s="64"/>
       <c r="AE107" s="58"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21777FAB-CC28-4F26-9A70-BAC58359D46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA47092-D0FC-442F-ABF4-9787BB1DA9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2324,6 +2324,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2337,9 +2340,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4990,12 +4990,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="123" t="s">
+      <c r="I3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5097,12 +5097,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5159,12 +5159,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5255,12 +5255,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5958,13 +5958,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5985,42 +5985,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="123" t="s">
+      <c r="J3" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="125"/>
-      <c r="U3" s="123" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="126"/>
+      <c r="U3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="125"/>
-      <c r="AF3" s="123" t="s">
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="126"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6455,42 +6455,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="125"/>
-      <c r="U14" s="123" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="126"/>
+      <c r="U14" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="125"/>
-      <c r="AF14" s="123" t="s">
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="126"/>
+      <c r="AF14" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="125"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="125"/>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="125"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="126"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6782,30 +6782,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="123" t="s">
+      <c r="J25" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="125"/>
-      <c r="U25" s="123" t="s">
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="126"/>
+      <c r="U25" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="126"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -7007,15 +7007,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7045,13 +7045,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7096,7 +7096,7 @@
       <c r="F4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="128"/>
+      <c r="G4" s="123"/>
       <c r="H4" s="2" t="s">
         <v>135</v>
       </c>
@@ -7318,8 +7318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS47" sqref="AS47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8797,9 +8797,6 @@
       <c r="AG47" s="63"/>
       <c r="AH47" s="63"/>
       <c r="AI47" s="46"/>
-      <c r="AS47">
-        <v>6</v>
-      </c>
       <c r="BA47"/>
       <c r="BB47"/>
       <c r="BC47"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA47092-D0FC-442F-ABF4-9787BB1DA9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDAF3A-C1F2-4A41-AE95-812469428ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -5942,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
   <dimension ref="B2:AO34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7007,6 +7007,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -7014,8 +7016,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7318,7 +7318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AS47" sqref="AS47"/>
     </sheetView>
   </sheetViews>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDAF3A-C1F2-4A41-AE95-812469428ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8DE828-2FF2-4437-BF48-3C641F82AFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -1954,7 +1954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2340,6 +2340,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3569,60 +3572,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FEFD8A-58A0-40B6-B627-3E695D77C6E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5379720" y="9837420"/>
-          <a:ext cx="0" cy="1638300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -3677,60 +3626,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B3F4A5-0100-4A9B-941B-D4B66303053D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="975360" y="10081260"/>
-          <a:ext cx="1927860" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -3757,60 +3652,6 @@
         <a:xfrm>
           <a:off x="739140" y="9151620"/>
           <a:ext cx="5349240" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D294C3-8B32-444B-97DE-F0C46F4B42D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5768340" y="10538460"/>
-          <a:ext cx="1920240" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4002,8 +3843,8 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -4024,8 +3865,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5379720" y="9837420"/>
-          <a:ext cx="0" cy="1638300"/>
+          <a:off x="5379720" y="10043160"/>
+          <a:ext cx="0" cy="1417320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4109,15 +3950,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4132,7 +3973,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="975360" y="10081260"/>
+          <a:off x="967740" y="9829800"/>
           <a:ext cx="1927860" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4188,60 +4029,6 @@
         <a:xfrm>
           <a:off x="739140" y="9151620"/>
           <a:ext cx="5410200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1008723E-A931-48A8-ADB5-F7C4D2C3B893}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5768340" y="10538460"/>
-          <a:ext cx="1920240" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4646,6 +4433,60 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2138ED-00F9-4D13-AB3C-9C162CB4D3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718560" y="9822180"/>
+          <a:ext cx="1501140" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5942,7 +5783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
   <dimension ref="B2:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7007,15 +6848,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7318,8 +7159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS47" sqref="AS47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8644,6 +8485,16 @@
       <c r="B42" s="45"/>
       <c r="C42"/>
       <c r="D42"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
       <c r="O42"/>
       <c r="AB42" s="63"/>
       <c r="AD42" s="58"/>
@@ -8664,24 +8515,10 @@
       <c r="A43"/>
       <c r="B43" s="45"/>
       <c r="D43"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
+      <c r="I43" s="72"/>
+      <c r="N43" s="65"/>
       <c r="O43"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
+      <c r="T43" s="67"/>
       <c r="Z43" s="63"/>
       <c r="AA43" s="63"/>
       <c r="AB43" s="63"/>
@@ -8706,10 +8543,14 @@
       <c r="B44" s="45"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="I44" s="72"/>
       <c r="N44" s="65"/>
       <c r="O44"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
       <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
       <c r="W44" s="63"/>
       <c r="AI44" s="46"/>
       <c r="BA44"/>
@@ -8755,7 +8596,7 @@
       <c r="T46" s="63"/>
       <c r="W46" s="63"/>
       <c r="X46" s="67"/>
-      <c r="AD46" s="67"/>
+      <c r="AD46" s="129"/>
       <c r="AI46" s="46"/>
       <c r="BA46"/>
       <c r="BB46"/>
@@ -8772,13 +8613,6 @@
       <c r="A47"/>
       <c r="B47" s="45"/>
       <c r="C47"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" s="63"/>
@@ -8811,10 +8645,13 @@
     <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48"/>
       <c r="B48" s="45"/>
-      <c r="E48" s="65"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48" s="65"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
       <c r="N48" s="63"/>
       <c r="O48"/>
       <c r="T48" s="63"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8DE828-2FF2-4437-BF48-3C641F82AFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774BA14-0561-45F4-978E-0943010ABAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="23040" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1342,6 +1342,19 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実装時、Player内部のカメラを外すこと</t>
+    <rPh sb="1" eb="4">
+      <t>ジッソウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2327,6 +2340,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2340,9 +2356,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4831,12 +4844,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="127"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4938,12 +4951,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5000,12 +5013,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5096,12 +5109,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5799,13 +5812,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5826,42 +5839,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="126"/>
-      <c r="U3" s="124" t="s">
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="127"/>
+      <c r="U3" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AF3" s="124" t="s">
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="127"/>
+      <c r="AF3" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125"/>
-      <c r="AO3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="127"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6296,42 +6309,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="126"/>
-      <c r="U14" s="124" t="s">
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="127"/>
+      <c r="U14" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="126"/>
-      <c r="AF14" s="124" t="s">
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="127"/>
+      <c r="AF14" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="125"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="126"/>
+      <c r="AO14" s="127"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6623,30 +6636,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="124" t="s">
+      <c r="J25" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="126"/>
-      <c r="U25" s="124" t="s">
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="127"/>
+      <c r="U25" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="127"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6848,15 +6861,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6886,13 +6899,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7159,8 +7172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7604,6 +7617,10 @@
       <c r="AL13" t="s">
         <v>108</v>
       </c>
+      <c r="AX13" s="50"/>
+      <c r="AY13" t="s">
+        <v>111</v>
+      </c>
       <c r="BA13"/>
       <c r="BB13"/>
       <c r="BC13"/>
@@ -7636,6 +7653,10 @@
       <c r="AK14" s="48"/>
       <c r="AL14" t="s">
         <v>109</v>
+      </c>
+      <c r="AX14" s="53"/>
+      <c r="AY14" t="s">
+        <v>112</v>
       </c>
       <c r="BA14"/>
       <c r="BB14"/>
@@ -7672,6 +7693,10 @@
       <c r="AL15" t="s">
         <v>110</v>
       </c>
+      <c r="AX15" s="57"/>
+      <c r="AY15" t="s">
+        <v>113</v>
+      </c>
       <c r="BA15"/>
       <c r="BB15"/>
       <c r="BC15"/>
@@ -7683,7 +7708,7 @@
       <c r="BI15"/>
       <c r="BJ15"/>
     </row>
-    <row r="16" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="B16" s="45"/>
       <c r="C16"/>
@@ -7703,11 +7728,9 @@
       <c r="AE16" s="55"/>
       <c r="AF16" s="56"/>
       <c r="AI16" s="46"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA16"/>
+      <c r="AJ16" t="s">
+        <v>140</v>
+      </c>
       <c r="BB16"/>
       <c r="BC16"/>
       <c r="BD16"/>
@@ -7738,11 +7761,6 @@
       <c r="AE17" s="58"/>
       <c r="AF17" s="59"/>
       <c r="AI17" s="46"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA17"/>
       <c r="BB17"/>
       <c r="BC17"/>
       <c r="BD17"/>
@@ -7789,11 +7807,6 @@
       <c r="AG18" s="61"/>
       <c r="AH18" s="61"/>
       <c r="AI18" s="62"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>
       <c r="BD18"/>
@@ -8596,7 +8609,7 @@
       <c r="T46" s="63"/>
       <c r="W46" s="63"/>
       <c r="X46" s="67"/>
-      <c r="AD46" s="129"/>
+      <c r="AD46" s="124"/>
       <c r="AI46" s="46"/>
       <c r="BA46"/>
       <c r="BB46"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774BA14-0561-45F4-978E-0943010ABAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB6F014-5F1A-418F-81AB-448669D24B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="23040" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -836,10 +836,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Revolution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>塔を回転させたときの音。グルンッ！って感じ。</t>
     <rPh sb="0" eb="1">
       <t>トウ</t>
@@ -1356,6 +1352,10 @@
     <rPh sb="18" eb="19">
       <t>ハズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6861,6 +6861,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -6868,8 +6870,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6882,8 +6882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6924,14 +6924,14 @@
         <v>24</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" s="118"/>
       <c r="J3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -6942,7 +6942,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>81</v>
@@ -6952,11 +6952,11 @@
       </c>
       <c r="G4" s="123"/>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="119"/>
       <c r="J4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -7046,7 +7046,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="40"/>
     </row>
@@ -7058,13 +7058,13 @@
         <v>86</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="120"/>
     </row>
@@ -7076,13 +7076,13 @@
         <v>86</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="40"/>
     </row>
@@ -7094,13 +7094,13 @@
         <v>86</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="120"/>
     </row>
@@ -7112,13 +7112,13 @@
         <v>86</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="120"/>
     </row>
@@ -7130,13 +7130,13 @@
         <v>86</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="120"/>
     </row>
@@ -7148,13 +7148,13 @@
         <v>86</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="122"/>
     </row>
@@ -7172,7 +7172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
@@ -7468,7 +7468,7 @@
       <c r="R9" s="75"/>
       <c r="AI9" s="46"/>
       <c r="AJ9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BA9"/>
       <c r="BB9"/>
@@ -7518,7 +7518,7 @@
       <c r="AH10" s="77"/>
       <c r="AI10" s="79"/>
       <c r="AJ10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BA10"/>
       <c r="BB10"/>
@@ -7550,7 +7550,7 @@
       <c r="R11" s="75"/>
       <c r="AI11" s="46"/>
       <c r="AK11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BA11"/>
       <c r="BB11"/>
@@ -7582,7 +7582,7 @@
       <c r="R12" s="75"/>
       <c r="AI12" s="46"/>
       <c r="AJ12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BA12"/>
       <c r="BB12"/>
@@ -7615,11 +7615,11 @@
       <c r="AI13" s="46"/>
       <c r="AK13" s="47"/>
       <c r="AL13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX13" s="50"/>
       <c r="AY13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BA13"/>
       <c r="BB13"/>
@@ -7652,11 +7652,11 @@
       <c r="AI14" s="46"/>
       <c r="AK14" s="48"/>
       <c r="AL14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AX14" s="53"/>
       <c r="AY14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BA14"/>
       <c r="BB14"/>
@@ -7691,11 +7691,11 @@
       <c r="AI15" s="46"/>
       <c r="AK15" s="49"/>
       <c r="AL15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AX15" s="57"/>
       <c r="AY15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BA15"/>
       <c r="BB15"/>
@@ -7729,7 +7729,7 @@
       <c r="AF16" s="56"/>
       <c r="AI16" s="46"/>
       <c r="AJ16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BB16"/>
       <c r="BC16"/>
@@ -7847,7 +7847,7 @@
     <row r="20" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -7910,7 +7910,7 @@
       <c r="AH21" s="43"/>
       <c r="AI21" s="44"/>
       <c r="AJ21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BA21"/>
       <c r="BB21"/>
@@ -7931,7 +7931,7 @@
       <c r="Z22" s="67"/>
       <c r="AI22" s="46"/>
       <c r="AJ22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BA22"/>
       <c r="BB22"/>
@@ -8356,7 +8356,7 @@
     <row r="38" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -8419,7 +8419,7 @@
       <c r="AH39" s="43"/>
       <c r="AI39" s="44"/>
       <c r="AJ39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BA39"/>
       <c r="BB39"/>
@@ -8449,7 +8449,7 @@
       <c r="AE40" s="52"/>
       <c r="AI40" s="46"/>
       <c r="AJ40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BA40"/>
       <c r="BB40"/>
@@ -8916,7 +8916,7 @@
     <row r="56" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -8979,7 +8979,7 @@
       <c r="AH57" s="43"/>
       <c r="AI57" s="44"/>
       <c r="AJ57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BA57"/>
       <c r="BB57"/>
@@ -9007,7 +9007,7 @@
       <c r="AB58" s="63"/>
       <c r="AI58" s="46"/>
       <c r="AJ58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA58"/>
       <c r="BB58"/>
@@ -9037,7 +9037,7 @@
       <c r="AE59" s="52"/>
       <c r="AI59" s="46"/>
       <c r="AJ59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA59"/>
       <c r="BB59"/>
@@ -9067,7 +9067,7 @@
       <c r="AE60" s="56"/>
       <c r="AI60" s="46"/>
       <c r="AJ60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BA60"/>
       <c r="BB60"/>
@@ -9459,7 +9459,7 @@
     <row r="74" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -9522,7 +9522,7 @@
       <c r="AH75" s="43"/>
       <c r="AI75" s="44"/>
       <c r="AJ75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BA75"/>
       <c r="BB75"/>
@@ -9554,7 +9554,7 @@
       <c r="AC76" s="63"/>
       <c r="AI76" s="46"/>
       <c r="AJ76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BA76"/>
       <c r="BB76"/>
@@ -9586,7 +9586,7 @@
       <c r="AC77" s="63"/>
       <c r="AI77" s="46"/>
       <c r="AJ77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA77"/>
       <c r="BB77"/>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="92" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="110" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="128" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="146" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="164" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB6F014-5F1A-418F-81AB-448669D24B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62972B-B248-4473-8F0B-2B5E634C3376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1967,7 +1967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2328,15 +2328,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2356,6 +2350,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4844,12 +4841,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="127"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4951,12 +4948,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5013,12 +5010,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5109,12 +5106,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="125" t="s">
+      <c r="I10" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5812,13 +5809,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5839,42 +5836,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="127"/>
-      <c r="U3" s="125" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="125"/>
+      <c r="U3" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="127"/>
-      <c r="AF3" s="125" t="s">
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="125"/>
+      <c r="AF3" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="127"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="125"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6309,42 +6306,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="125" t="s">
+      <c r="J14" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="127"/>
-      <c r="U14" s="125" t="s">
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="125"/>
+      <c r="U14" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="127"/>
-      <c r="AF14" s="125" t="s">
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="125"/>
+      <c r="AF14" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="126"/>
-      <c r="AO14" s="127"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="125"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6636,30 +6633,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="125" t="s">
+      <c r="J25" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="127"/>
-      <c r="U25" s="125" t="s">
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="125"/>
+      <c r="U25" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="127"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="125"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6861,15 +6858,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6883,7 +6880,7 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6899,13 +6896,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -6950,7 +6947,7 @@
       <c r="F4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="123"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="2" t="s">
         <v>134</v>
       </c>
@@ -6975,8 +6972,8 @@
       <c r="F5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="I5" s="121"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="120"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="28">
@@ -6994,7 +6991,7 @@
       <c r="F6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="120"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
@@ -7012,7 +7009,7 @@
       <c r="F7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="120"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
@@ -7030,7 +7027,7 @@
       <c r="F8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="120"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
@@ -7066,7 +7063,7 @@
       <c r="F10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="120"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
@@ -7102,7 +7099,7 @@
       <c r="F12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
@@ -7120,7 +7117,7 @@
       <c r="F13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="120"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
@@ -7138,7 +7135,7 @@
       <c r="F14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="120"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="30">
@@ -7156,7 +7153,7 @@
       <c r="F15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="122"/>
+      <c r="G15" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8609,7 +8606,7 @@
       <c r="T46" s="63"/>
       <c r="W46" s="63"/>
       <c r="X46" s="67"/>
-      <c r="AD46" s="124"/>
+      <c r="AD46" s="122"/>
       <c r="AI46" s="46"/>
       <c r="BA46"/>
       <c r="BB46"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62972B-B248-4473-8F0B-2B5E634C3376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC6DAED-9368-4E9E-9200-D77D1FFD122F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
     <sheet name="オブジェクト一覧" sheetId="5" r:id="rId2"/>
     <sheet name="オーディオ一覧 " sheetId="7" r:id="rId3"/>
     <sheet name="ステージ一覧" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1356,6 +1357,10 @@
   </si>
   <si>
     <t>Rotation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1967,7 +1972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2337,6 +2342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2352,7 +2360,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4841,12 +4858,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="123" t="s">
+      <c r="I3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4948,12 +4965,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5010,12 +5027,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5106,12 +5123,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5809,13 +5826,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5836,42 +5853,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="123" t="s">
+      <c r="J3" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="125"/>
-      <c r="U3" s="123" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="126"/>
+      <c r="U3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="125"/>
-      <c r="AF3" s="123" t="s">
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="126"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6306,42 +6323,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="125"/>
-      <c r="U14" s="123" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="126"/>
+      <c r="U14" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="125"/>
-      <c r="AF14" s="123" t="s">
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="126"/>
+      <c r="AF14" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="125"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="125"/>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="125"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="126"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6633,30 +6650,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="123" t="s">
+      <c r="J25" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="125"/>
-      <c r="U25" s="123" t="s">
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="126"/>
+      <c r="U25" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="126"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6858,15 +6875,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6879,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -6896,13 +6913,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7153,7 +7170,7 @@
       <c r="F15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="128"/>
+      <c r="G15" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7169,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR88" sqref="AR88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12185,4 +12202,1192 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EA6AD2-7FEB-4F70-843E-9A262B6F37DC}">
+  <dimension ref="A2:AO36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A3" s="105"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="107"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AO14" s="105"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="122"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="E16" s="132"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="107"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="E17" s="132"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="122"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="122"/>
+    </row>
+    <row r="18" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="105"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+    </row>
+    <row r="20" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="63"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="107"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="63"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="107"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="63"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="107"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="63"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="107"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="63"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="122"/>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="122"/>
+      <c r="AI26" s="107"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="63"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="122"/>
+      <c r="AH27" s="122"/>
+      <c r="AI27" s="107"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="63"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="107"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="63"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="122"/>
+      <c r="AI29" s="107"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="107"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="107"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="122"/>
+      <c r="AI32" s="107"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="63"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="122"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="122"/>
+      <c r="AI33" s="107"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="E34" s="132"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="104"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="122"/>
+      <c r="AI34" s="107"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="E35" s="132"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="104"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="122"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="122"/>
+      <c r="AI35" s="107"/>
+    </row>
+    <row r="36" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC6DAED-9368-4E9E-9200-D77D1FFD122F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177339A-0E59-4EE6-A44A-25F219F94B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="オブジェクト一覧" sheetId="5" r:id="rId2"/>
     <sheet name="オーディオ一覧 " sheetId="7" r:id="rId3"/>
     <sheet name="ステージ一覧" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="最終面" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1361,6 +1361,10 @@
   </si>
   <si>
     <t>●1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1972,7 +1976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2360,16 +2364,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6875,6 +6882,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
@@ -6882,8 +6891,6 @@
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="U25:AD25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12206,10 +12213,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EA6AD2-7FEB-4F70-843E-9A262B6F37DC}">
-  <dimension ref="A2:AO36"/>
+  <dimension ref="A2:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AE50" sqref="AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12221,7 +12228,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="105"/>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -12254,540 +12261,544 @@
       <c r="AF3" s="43"/>
       <c r="AG3" s="43"/>
       <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B4" s="110"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="110"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="129"/>
       <c r="AJ4" s="122"/>
       <c r="AK4" s="122"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B5" s="110"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="110"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="129"/>
       <c r="AJ5" s="122"/>
       <c r="AK5" s="122"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B6" s="110"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="110"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="129"/>
       <c r="AJ6" s="122"/>
       <c r="AK6" s="122"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B7" s="110"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="110"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="129"/>
       <c r="AJ7" s="122"/>
       <c r="AK7" s="122"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B8" s="110"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="110"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="129"/>
       <c r="AJ8" s="122"/>
       <c r="AK8" s="122"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B9" s="110"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="110"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="129"/>
       <c r="AJ9" s="122"/>
       <c r="AK9" s="122"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B10" s="110"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="110"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="129"/>
       <c r="AJ10" s="122"/>
       <c r="AK10" s="122"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B11" s="110"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="110"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="129"/>
       <c r="AJ11" s="122"/>
       <c r="AK11" s="122"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B12" s="110"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="110"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="129"/>
       <c r="AJ12" s="122"/>
       <c r="AK12" s="122"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B13" s="110"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="110"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="129"/>
       <c r="AJ13" s="122"/>
       <c r="AK13" s="122"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B14" s="110"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="110"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="129"/>
       <c r="AJ14" s="122"/>
       <c r="AK14" s="122"/>
       <c r="AO14" s="105"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B15" s="110"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="110"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="122"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="122"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="129"/>
       <c r="AJ15" s="122"/>
       <c r="AK15" s="122"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B16" s="110"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="110"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="132"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
       <c r="N16" s="107"/>
       <c r="O16" s="107"/>
       <c r="P16" s="107"/>
       <c r="Q16" s="107"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="122"/>
-      <c r="AE16" s="122"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
       <c r="AF16" s="107"/>
       <c r="AG16" s="107"/>
-      <c r="AH16" s="122"/>
-      <c r="AI16" s="107"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="129"/>
       <c r="AJ16" s="122"/>
       <c r="AK16" s="122"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B17" s="110"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="110"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="132"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="107"/>
       <c r="M17" s="107"/>
       <c r="N17" s="107"/>
       <c r="O17" s="107"/>
       <c r="P17" s="107"/>
       <c r="Q17" s="107"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="122"/>
-      <c r="AE17" s="122"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
       <c r="AF17" s="107"/>
       <c r="AG17" s="107"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="107"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="129"/>
       <c r="AJ17" s="122"/>
       <c r="AK17" s="122"/>
     </row>
     <row r="18" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="105"/>
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -12820,7 +12831,7 @@
       <c r="AF18" s="61"/>
       <c r="AG18" s="61"/>
       <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
+      <c r="AI18" s="62"/>
     </row>
     <row r="20" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
@@ -12828,7 +12839,7 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B21" s="43"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -12861,496 +12872,514 @@
       <c r="AF21" s="43"/>
       <c r="AG21" s="43"/>
       <c r="AH21" s="43"/>
-      <c r="AI21" s="43"/>
+      <c r="AI21" s="44"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B22" s="110"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="110"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="63"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="129"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B23" s="110"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="110"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="63"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="129"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B24" s="110"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="110"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="63"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
-      <c r="AI24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="129"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B25" s="110"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="110"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="63"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="129"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B26" s="110"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="110"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="63"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="129"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B27" s="110"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="110"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="63"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="129"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B28" s="110"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="110"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="63"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="129"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B29" s="110"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="110"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="63"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="129"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B30" s="110"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="110"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="63"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="129"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B31" s="110"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="110"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="107"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="104"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="129"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B32" s="110"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="110"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="104"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="107"/>
+      <c r="AI32" s="129"/>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B33" s="110"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="110"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="63"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="63"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="131"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="104"/>
       <c r="AF33" s="107"/>
       <c r="AG33" s="107"/>
-      <c r="AH33" s="122"/>
-      <c r="AI33" s="107"/>
+      <c r="AH33" s="107"/>
+      <c r="AI33" s="129"/>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B34" s="110"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="110"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="132"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
       <c r="K34" s="107"/>
       <c r="L34" s="104"/>
       <c r="M34" s="107"/>
       <c r="N34" s="107"/>
       <c r="O34" s="107"/>
       <c r="P34" s="104"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="63"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="131"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="104"/>
       <c r="AF34" s="107"/>
       <c r="AG34" s="107"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="107"/>
+      <c r="AH34" s="107"/>
+      <c r="AI34" s="129"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B35" s="110"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="110"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="132"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
       <c r="K35" s="107"/>
       <c r="L35" s="104"/>
       <c r="M35" s="107"/>
       <c r="N35" s="107"/>
       <c r="O35" s="107"/>
       <c r="P35" s="104"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="63"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="131"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="104"/>
       <c r="AF35" s="107"/>
       <c r="AG35" s="107"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="107"/>
+      <c r="AH35" s="107"/>
+      <c r="AI35" s="129"/>
     </row>
     <row r="36" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="61"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
@@ -13365,12 +13394,12 @@
       <c r="N36" s="61"/>
       <c r="O36" s="61"/>
       <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
       <c r="W36" s="61"/>
       <c r="X36" s="61"/>
       <c r="Y36" s="61"/>
@@ -13383,7 +13412,588 @@
       <c r="AF36" s="61"/>
       <c r="AG36" s="61"/>
       <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
+      <c r="AI36" s="62"/>
+    </row>
+    <row r="38" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="44"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B40" s="70"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="129"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B41" s="70"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="129"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B42" s="70"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="129"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B43" s="70"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="129"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B44" s="70"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="107"/>
+      <c r="AI44" s="129"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B45" s="70"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="107"/>
+      <c r="W45" s="107"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
+      <c r="AD45" s="107"/>
+      <c r="AE45" s="107"/>
+      <c r="AF45" s="107"/>
+      <c r="AG45" s="107"/>
+      <c r="AH45" s="107"/>
+      <c r="AI45" s="129"/>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B46" s="70"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="107"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="107"/>
+      <c r="Z46" s="107"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="107"/>
+      <c r="AE46" s="107"/>
+      <c r="AF46" s="107"/>
+      <c r="AG46" s="107"/>
+      <c r="AH46" s="107"/>
+      <c r="AI46" s="129"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B47" s="70"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="107"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
+      <c r="X47" s="107"/>
+      <c r="Y47" s="107"/>
+      <c r="Z47" s="107"/>
+      <c r="AA47" s="107"/>
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="107"/>
+      <c r="AD47" s="107"/>
+      <c r="AE47" s="107"/>
+      <c r="AF47" s="107"/>
+      <c r="AG47" s="107"/>
+      <c r="AH47" s="107"/>
+      <c r="AI47" s="129"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B48" s="70"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="107"/>
+      <c r="T48" s="107"/>
+      <c r="U48" s="107"/>
+      <c r="V48" s="107"/>
+      <c r="W48" s="107"/>
+      <c r="X48" s="107"/>
+      <c r="Y48" s="107"/>
+      <c r="Z48" s="107"/>
+      <c r="AA48" s="107"/>
+      <c r="AB48" s="107"/>
+      <c r="AC48" s="107"/>
+      <c r="AD48" s="107"/>
+      <c r="AE48" s="107"/>
+      <c r="AF48" s="107"/>
+      <c r="AG48" s="107"/>
+      <c r="AH48" s="107"/>
+      <c r="AI48" s="129"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B49" s="70"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="107"/>
+      <c r="P49" s="107"/>
+      <c r="Q49" s="107"/>
+      <c r="R49" s="107"/>
+      <c r="S49" s="107"/>
+      <c r="T49" s="107"/>
+      <c r="U49" s="107"/>
+      <c r="V49" s="107"/>
+      <c r="W49" s="107"/>
+      <c r="X49" s="107"/>
+      <c r="Y49" s="107"/>
+      <c r="Z49" s="107"/>
+      <c r="AA49" s="107"/>
+      <c r="AB49" s="107"/>
+      <c r="AC49" s="107"/>
+      <c r="AD49" s="107"/>
+      <c r="AE49" s="107"/>
+      <c r="AF49" s="107"/>
+      <c r="AG49" s="107"/>
+      <c r="AH49" s="107"/>
+      <c r="AI49" s="129"/>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B50" s="70"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="107"/>
+      <c r="O50" s="107"/>
+      <c r="P50" s="107"/>
+      <c r="Q50" s="107"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="107"/>
+      <c r="T50" s="107"/>
+      <c r="U50" s="107"/>
+      <c r="V50" s="107"/>
+      <c r="W50" s="107"/>
+      <c r="X50" s="107"/>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="107"/>
+      <c r="AA50" s="107"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="107"/>
+      <c r="AD50" s="107"/>
+      <c r="AE50" s="107"/>
+      <c r="AF50" s="107"/>
+      <c r="AG50" s="107"/>
+      <c r="AH50" s="107"/>
+      <c r="AI50" s="129"/>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B51" s="70"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="107"/>
+      <c r="P51" s="107"/>
+      <c r="Q51" s="107"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="107"/>
+      <c r="T51" s="107"/>
+      <c r="U51" s="107"/>
+      <c r="V51" s="107"/>
+      <c r="W51" s="107"/>
+      <c r="X51" s="107"/>
+      <c r="Y51" s="107"/>
+      <c r="Z51" s="107"/>
+      <c r="AA51" s="107"/>
+      <c r="AB51" s="107"/>
+      <c r="AC51" s="131"/>
+      <c r="AD51" s="107"/>
+      <c r="AE51" s="107"/>
+      <c r="AF51" s="107"/>
+      <c r="AG51" s="107"/>
+      <c r="AH51" s="107"/>
+      <c r="AI51" s="129"/>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B52" s="70"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
+      <c r="V52" s="107"/>
+      <c r="W52" s="107"/>
+      <c r="X52" s="107"/>
+      <c r="Y52" s="107"/>
+      <c r="Z52" s="107"/>
+      <c r="AA52" s="107"/>
+      <c r="AB52" s="107"/>
+      <c r="AC52" s="131"/>
+      <c r="AD52" s="107"/>
+      <c r="AE52" s="107"/>
+      <c r="AF52" s="107"/>
+      <c r="AG52" s="107"/>
+      <c r="AH52" s="107"/>
+      <c r="AI52" s="129"/>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B53" s="70"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="107"/>
+      <c r="T53" s="107"/>
+      <c r="U53" s="107"/>
+      <c r="V53" s="107"/>
+      <c r="W53" s="107"/>
+      <c r="X53" s="107"/>
+      <c r="Y53" s="107"/>
+      <c r="Z53" s="107"/>
+      <c r="AA53" s="107"/>
+      <c r="AB53" s="107"/>
+      <c r="AC53" s="131"/>
+      <c r="AD53" s="107"/>
+      <c r="AE53" s="107"/>
+      <c r="AF53" s="107"/>
+      <c r="AG53" s="107"/>
+      <c r="AH53" s="107"/>
+      <c r="AI53" s="129"/>
+    </row>
+    <row r="54" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177339A-0E59-4EE6-A44A-25F219F94B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57769269-1D84-4D62-BCDA-BCAE7A134FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1365,6 +1365,10 @@
   </si>
   <si>
     <t>●2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1976,7 +1980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2349,6 +2353,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2364,19 +2383,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4865,12 +4875,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4972,12 +4982,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5034,12 +5044,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5130,12 +5140,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5833,13 +5843,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5860,42 +5870,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="126"/>
-      <c r="U3" s="124" t="s">
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="131"/>
+      <c r="U3" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AF3" s="124" t="s">
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="131"/>
+      <c r="AF3" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125"/>
-      <c r="AO3" s="126"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="131"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6330,42 +6340,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="126"/>
-      <c r="U14" s="124" t="s">
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="131"/>
+      <c r="U14" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="126"/>
-      <c r="AF14" s="124" t="s">
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="131"/>
+      <c r="AF14" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="125"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="126"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
+      <c r="AJ14" s="130"/>
+      <c r="AK14" s="130"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="130"/>
+      <c r="AN14" s="130"/>
+      <c r="AO14" s="131"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6657,30 +6667,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="124" t="s">
+      <c r="J25" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="126"/>
-      <c r="U25" s="124" t="s">
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="131"/>
+      <c r="U25" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="126"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="130"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="131"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6882,15 +6892,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6904,7 +6914,7 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6920,13 +6930,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7193,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR88" sqref="AR88"/>
     </sheetView>
   </sheetViews>
@@ -12213,10 +12223,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EA6AD2-7FEB-4F70-843E-9A262B6F37DC}">
-  <dimension ref="A2:AO54"/>
+  <dimension ref="A2:AO72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AE50" sqref="AE50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12297,7 +12307,7 @@
       <c r="AF4" s="107"/>
       <c r="AG4" s="107"/>
       <c r="AH4" s="107"/>
-      <c r="AI4" s="129"/>
+      <c r="AI4" s="124"/>
       <c r="AJ4" s="122"/>
       <c r="AK4" s="122"/>
     </row>
@@ -12335,7 +12345,7 @@
       <c r="AF5" s="107"/>
       <c r="AG5" s="107"/>
       <c r="AH5" s="107"/>
-      <c r="AI5" s="129"/>
+      <c r="AI5" s="124"/>
       <c r="AJ5" s="122"/>
       <c r="AK5" s="122"/>
     </row>
@@ -12373,7 +12383,7 @@
       <c r="AF6" s="107"/>
       <c r="AG6" s="107"/>
       <c r="AH6" s="107"/>
-      <c r="AI6" s="129"/>
+      <c r="AI6" s="124"/>
       <c r="AJ6" s="122"/>
       <c r="AK6" s="122"/>
     </row>
@@ -12411,7 +12421,7 @@
       <c r="AF7" s="107"/>
       <c r="AG7" s="107"/>
       <c r="AH7" s="107"/>
-      <c r="AI7" s="129"/>
+      <c r="AI7" s="124"/>
       <c r="AJ7" s="122"/>
       <c r="AK7" s="122"/>
     </row>
@@ -12449,7 +12459,7 @@
       <c r="AF8" s="107"/>
       <c r="AG8" s="107"/>
       <c r="AH8" s="107"/>
-      <c r="AI8" s="129"/>
+      <c r="AI8" s="124"/>
       <c r="AJ8" s="122"/>
       <c r="AK8" s="122"/>
     </row>
@@ -12465,7 +12475,7 @@
       <c r="J9" s="107"/>
       <c r="K9" s="107"/>
       <c r="L9" s="107"/>
-      <c r="M9" s="130"/>
+      <c r="M9" s="125"/>
       <c r="N9" s="107"/>
       <c r="O9" s="107"/>
       <c r="P9" s="107"/>
@@ -12487,7 +12497,7 @@
       <c r="AF9" s="107"/>
       <c r="AG9" s="107"/>
       <c r="AH9" s="107"/>
-      <c r="AI9" s="129"/>
+      <c r="AI9" s="124"/>
       <c r="AJ9" s="122"/>
       <c r="AK9" s="122"/>
     </row>
@@ -12525,7 +12535,7 @@
       <c r="AF10" s="107"/>
       <c r="AG10" s="107"/>
       <c r="AH10" s="107"/>
-      <c r="AI10" s="129"/>
+      <c r="AI10" s="124"/>
       <c r="AJ10" s="122"/>
       <c r="AK10" s="122"/>
     </row>
@@ -12563,7 +12573,7 @@
       <c r="AF11" s="107"/>
       <c r="AG11" s="107"/>
       <c r="AH11" s="107"/>
-      <c r="AI11" s="129"/>
+      <c r="AI11" s="124"/>
       <c r="AJ11" s="122"/>
       <c r="AK11" s="122"/>
     </row>
@@ -12601,7 +12611,7 @@
       <c r="AF12" s="107"/>
       <c r="AG12" s="107"/>
       <c r="AH12" s="107"/>
-      <c r="AI12" s="129"/>
+      <c r="AI12" s="124"/>
       <c r="AJ12" s="122"/>
       <c r="AK12" s="122"/>
     </row>
@@ -12639,7 +12649,7 @@
       <c r="AF13" s="107"/>
       <c r="AG13" s="107"/>
       <c r="AH13" s="107"/>
-      <c r="AI13" s="129"/>
+      <c r="AI13" s="124"/>
       <c r="AJ13" s="122"/>
       <c r="AK13" s="122"/>
     </row>
@@ -12677,7 +12687,7 @@
       <c r="AF14" s="107"/>
       <c r="AG14" s="107"/>
       <c r="AH14" s="107"/>
-      <c r="AI14" s="129"/>
+      <c r="AI14" s="124"/>
       <c r="AJ14" s="122"/>
       <c r="AK14" s="122"/>
       <c r="AO14" s="105"/>
@@ -12710,13 +12720,13 @@
       <c r="Z15" s="107"/>
       <c r="AA15" s="107"/>
       <c r="AB15" s="107"/>
-      <c r="AC15" s="131"/>
+      <c r="AC15" s="126"/>
       <c r="AD15" s="107"/>
       <c r="AE15" s="107"/>
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
       <c r="AH15" s="107"/>
-      <c r="AI15" s="129"/>
+      <c r="AI15" s="124"/>
       <c r="AJ15" s="122"/>
       <c r="AK15" s="122"/>
     </row>
@@ -12724,7 +12734,7 @@
       <c r="B16" s="70"/>
       <c r="C16" s="110"/>
       <c r="D16" s="105"/>
-      <c r="E16" s="132"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="105"/>
       <c r="G16" s="108"/>
       <c r="H16" s="107"/>
@@ -12748,13 +12758,13 @@
       <c r="Z16" s="107"/>
       <c r="AA16" s="107"/>
       <c r="AB16" s="107"/>
-      <c r="AC16" s="131"/>
+      <c r="AC16" s="126"/>
       <c r="AD16" s="107"/>
       <c r="AE16" s="107"/>
       <c r="AF16" s="107"/>
       <c r="AG16" s="107"/>
       <c r="AH16" s="107"/>
-      <c r="AI16" s="129"/>
+      <c r="AI16" s="124"/>
       <c r="AJ16" s="122"/>
       <c r="AK16" s="122"/>
     </row>
@@ -12762,7 +12772,7 @@
       <c r="B17" s="70"/>
       <c r="C17" s="110"/>
       <c r="D17" s="105"/>
-      <c r="E17" s="132"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="105"/>
       <c r="G17" s="108"/>
       <c r="H17" s="107"/>
@@ -12786,13 +12796,13 @@
       <c r="Z17" s="107"/>
       <c r="AA17" s="107"/>
       <c r="AB17" s="107"/>
-      <c r="AC17" s="131"/>
+      <c r="AC17" s="126"/>
       <c r="AD17" s="107"/>
       <c r="AE17" s="107"/>
       <c r="AF17" s="107"/>
       <c r="AG17" s="107"/>
       <c r="AH17" s="107"/>
-      <c r="AI17" s="129"/>
+      <c r="AI17" s="124"/>
       <c r="AJ17" s="122"/>
       <c r="AK17" s="122"/>
     </row>
@@ -12908,7 +12918,7 @@
       <c r="AF22" s="107"/>
       <c r="AG22" s="107"/>
       <c r="AH22" s="107"/>
-      <c r="AI22" s="129"/>
+      <c r="AI22" s="124"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B23" s="70"/>
@@ -12944,7 +12954,7 @@
       <c r="AF23" s="107"/>
       <c r="AG23" s="107"/>
       <c r="AH23" s="107"/>
-      <c r="AI23" s="129"/>
+      <c r="AI23" s="124"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B24" s="70"/>
@@ -12980,7 +12990,7 @@
       <c r="AF24" s="107"/>
       <c r="AG24" s="107"/>
       <c r="AH24" s="107"/>
-      <c r="AI24" s="129"/>
+      <c r="AI24" s="124"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B25" s="70"/>
@@ -13016,7 +13026,7 @@
       <c r="AF25" s="107"/>
       <c r="AG25" s="107"/>
       <c r="AH25" s="107"/>
-      <c r="AI25" s="129"/>
+      <c r="AI25" s="124"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B26" s="70"/>
@@ -13052,7 +13062,7 @@
       <c r="AF26" s="107"/>
       <c r="AG26" s="107"/>
       <c r="AH26" s="107"/>
-      <c r="AI26" s="129"/>
+      <c r="AI26" s="124"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B27" s="70"/>
@@ -13065,7 +13075,7 @@
       <c r="I27" s="107"/>
       <c r="J27" s="107"/>
       <c r="K27" s="107"/>
-      <c r="L27" s="133"/>
+      <c r="L27" s="128"/>
       <c r="M27" s="107"/>
       <c r="N27" s="107"/>
       <c r="O27" s="107"/>
@@ -13088,7 +13098,7 @@
       <c r="AF27" s="107"/>
       <c r="AG27" s="107"/>
       <c r="AH27" s="107"/>
-      <c r="AI27" s="129"/>
+      <c r="AI27" s="124"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B28" s="70"/>
@@ -13124,7 +13134,7 @@
       <c r="AF28" s="107"/>
       <c r="AG28" s="107"/>
       <c r="AH28" s="107"/>
-      <c r="AI28" s="129"/>
+      <c r="AI28" s="124"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B29" s="70"/>
@@ -13160,7 +13170,7 @@
       <c r="AF29" s="107"/>
       <c r="AG29" s="107"/>
       <c r="AH29" s="107"/>
-      <c r="AI29" s="129"/>
+      <c r="AI29" s="124"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B30" s="70"/>
@@ -13196,7 +13206,7 @@
       <c r="AF30" s="107"/>
       <c r="AG30" s="107"/>
       <c r="AH30" s="107"/>
-      <c r="AI30" s="129"/>
+      <c r="AI30" s="124"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B31" s="70"/>
@@ -13232,7 +13242,7 @@
       <c r="AF31" s="107"/>
       <c r="AG31" s="107"/>
       <c r="AH31" s="107"/>
-      <c r="AI31" s="129"/>
+      <c r="AI31" s="124"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B32" s="70"/>
@@ -13268,7 +13278,7 @@
       <c r="AF32" s="107"/>
       <c r="AG32" s="107"/>
       <c r="AH32" s="107"/>
-      <c r="AI32" s="129"/>
+      <c r="AI32" s="124"/>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B33" s="70"/>
@@ -13298,19 +13308,19 @@
       <c r="Z33" s="107"/>
       <c r="AA33" s="104"/>
       <c r="AB33" s="107"/>
-      <c r="AC33" s="131"/>
+      <c r="AC33" s="126"/>
       <c r="AD33" s="107"/>
       <c r="AE33" s="104"/>
       <c r="AF33" s="107"/>
       <c r="AG33" s="107"/>
       <c r="AH33" s="107"/>
-      <c r="AI33" s="129"/>
+      <c r="AI33" s="124"/>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B34" s="70"/>
       <c r="C34" s="110"/>
       <c r="D34" s="105"/>
-      <c r="E34" s="132"/>
+      <c r="E34" s="127"/>
       <c r="F34" s="105"/>
       <c r="G34" s="108"/>
       <c r="H34" s="107"/>
@@ -13334,19 +13344,19 @@
       <c r="Z34" s="107"/>
       <c r="AA34" s="104"/>
       <c r="AB34" s="107"/>
-      <c r="AC34" s="131"/>
+      <c r="AC34" s="126"/>
       <c r="AD34" s="107"/>
       <c r="AE34" s="104"/>
       <c r="AF34" s="107"/>
       <c r="AG34" s="107"/>
       <c r="AH34" s="107"/>
-      <c r="AI34" s="129"/>
+      <c r="AI34" s="124"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B35" s="70"/>
       <c r="C35" s="110"/>
       <c r="D35" s="105"/>
-      <c r="E35" s="132"/>
+      <c r="E35" s="127"/>
       <c r="F35" s="105"/>
       <c r="G35" s="108"/>
       <c r="H35" s="104"/>
@@ -13370,13 +13380,13 @@
       <c r="Z35" s="107"/>
       <c r="AA35" s="104"/>
       <c r="AB35" s="107"/>
-      <c r="AC35" s="131"/>
+      <c r="AC35" s="126"/>
       <c r="AD35" s="107"/>
       <c r="AE35" s="104"/>
       <c r="AF35" s="107"/>
       <c r="AG35" s="107"/>
       <c r="AH35" s="107"/>
-      <c r="AI35" s="129"/>
+      <c r="AI35" s="124"/>
     </row>
     <row r="36" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="60"/>
@@ -13426,34 +13436,34 @@
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="134"/>
+      <c r="Y39" s="134"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
       <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="44"/>
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="134"/>
+      <c r="AF39" s="134"/>
+      <c r="AG39" s="134"/>
+      <c r="AH39" s="134"/>
+      <c r="AI39" s="135"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B40" s="70"/>
@@ -13489,7 +13499,7 @@
       <c r="AF40" s="107"/>
       <c r="AG40" s="107"/>
       <c r="AH40" s="107"/>
-      <c r="AI40" s="129"/>
+      <c r="AI40" s="124"/>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B41" s="70"/>
@@ -13525,7 +13535,7 @@
       <c r="AF41" s="107"/>
       <c r="AG41" s="107"/>
       <c r="AH41" s="107"/>
-      <c r="AI41" s="129"/>
+      <c r="AI41" s="124"/>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B42" s="70"/>
@@ -13561,7 +13571,7 @@
       <c r="AF42" s="107"/>
       <c r="AG42" s="107"/>
       <c r="AH42" s="107"/>
-      <c r="AI42" s="129"/>
+      <c r="AI42" s="124"/>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B43" s="70"/>
@@ -13597,7 +13607,7 @@
       <c r="AF43" s="107"/>
       <c r="AG43" s="107"/>
       <c r="AH43" s="107"/>
-      <c r="AI43" s="129"/>
+      <c r="AI43" s="124"/>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B44" s="70"/>
@@ -13633,7 +13643,7 @@
       <c r="AF44" s="107"/>
       <c r="AG44" s="107"/>
       <c r="AH44" s="107"/>
-      <c r="AI44" s="129"/>
+      <c r="AI44" s="124"/>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B45" s="70"/>
@@ -13647,7 +13657,7 @@
       <c r="J45" s="107"/>
       <c r="K45" s="107"/>
       <c r="L45" s="107"/>
-      <c r="M45" s="130"/>
+      <c r="M45" s="125"/>
       <c r="N45" s="107"/>
       <c r="O45" s="107"/>
       <c r="P45" s="107"/>
@@ -13669,7 +13679,7 @@
       <c r="AF45" s="107"/>
       <c r="AG45" s="107"/>
       <c r="AH45" s="107"/>
-      <c r="AI45" s="129"/>
+      <c r="AI45" s="124"/>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B46" s="70"/>
@@ -13705,7 +13715,7 @@
       <c r="AF46" s="107"/>
       <c r="AG46" s="107"/>
       <c r="AH46" s="107"/>
-      <c r="AI46" s="129"/>
+      <c r="AI46" s="124"/>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B47" s="70"/>
@@ -13741,7 +13751,7 @@
       <c r="AF47" s="107"/>
       <c r="AG47" s="107"/>
       <c r="AH47" s="107"/>
-      <c r="AI47" s="129"/>
+      <c r="AI47" s="124"/>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B48" s="70"/>
@@ -13777,7 +13787,7 @@
       <c r="AF48" s="107"/>
       <c r="AG48" s="107"/>
       <c r="AH48" s="107"/>
-      <c r="AI48" s="129"/>
+      <c r="AI48" s="124"/>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B49" s="70"/>
@@ -13813,7 +13823,7 @@
       <c r="AF49" s="107"/>
       <c r="AG49" s="107"/>
       <c r="AH49" s="107"/>
-      <c r="AI49" s="129"/>
+      <c r="AI49" s="124"/>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B50" s="70"/>
@@ -13849,7 +13859,7 @@
       <c r="AF50" s="107"/>
       <c r="AG50" s="107"/>
       <c r="AH50" s="107"/>
-      <c r="AI50" s="129"/>
+      <c r="AI50" s="124"/>
     </row>
     <row r="51" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B51" s="70"/>
@@ -13879,19 +13889,19 @@
       <c r="Z51" s="107"/>
       <c r="AA51" s="107"/>
       <c r="AB51" s="107"/>
-      <c r="AC51" s="131"/>
+      <c r="AC51" s="126"/>
       <c r="AD51" s="107"/>
       <c r="AE51" s="107"/>
       <c r="AF51" s="107"/>
       <c r="AG51" s="107"/>
       <c r="AH51" s="107"/>
-      <c r="AI51" s="129"/>
+      <c r="AI51" s="124"/>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B52" s="70"/>
       <c r="C52" s="110"/>
       <c r="D52" s="105"/>
-      <c r="E52" s="132"/>
+      <c r="E52" s="127"/>
       <c r="F52" s="105"/>
       <c r="G52" s="108"/>
       <c r="H52" s="107"/>
@@ -13915,19 +13925,19 @@
       <c r="Z52" s="107"/>
       <c r="AA52" s="107"/>
       <c r="AB52" s="107"/>
-      <c r="AC52" s="131"/>
+      <c r="AC52" s="126"/>
       <c r="AD52" s="107"/>
       <c r="AE52" s="107"/>
       <c r="AF52" s="107"/>
       <c r="AG52" s="107"/>
       <c r="AH52" s="107"/>
-      <c r="AI52" s="129"/>
+      <c r="AI52" s="124"/>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B53" s="70"/>
       <c r="C53" s="110"/>
       <c r="D53" s="105"/>
-      <c r="E53" s="132"/>
+      <c r="E53" s="127"/>
       <c r="F53" s="105"/>
       <c r="G53" s="108"/>
       <c r="H53" s="107"/>
@@ -13951,13 +13961,13 @@
       <c r="Z53" s="107"/>
       <c r="AA53" s="107"/>
       <c r="AB53" s="107"/>
-      <c r="AC53" s="131"/>
+      <c r="AC53" s="126"/>
       <c r="AD53" s="107"/>
       <c r="AE53" s="107"/>
       <c r="AF53" s="107"/>
       <c r="AG53" s="107"/>
       <c r="AH53" s="107"/>
-      <c r="AI53" s="129"/>
+      <c r="AI53" s="124"/>
     </row>
     <row r="54" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="60"/>
@@ -13966,34 +13976,615 @@
       <c r="E54" s="61"/>
       <c r="F54" s="61"/>
       <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="109"/>
       <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="61"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="109"/>
+      <c r="S54" s="109"/>
+      <c r="T54" s="109"/>
       <c r="U54" s="61"/>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="61"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
-      <c r="AB54" s="61"/>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="61"/>
+      <c r="V54" s="109"/>
+      <c r="W54" s="109"/>
+      <c r="X54" s="109"/>
+      <c r="Y54" s="109"/>
+      <c r="Z54" s="109"/>
+      <c r="AA54" s="109"/>
+      <c r="AB54" s="109"/>
+      <c r="AC54" s="109"/>
+      <c r="AD54" s="109"/>
+      <c r="AE54" s="109"/>
+      <c r="AF54" s="109"/>
+      <c r="AG54" s="109"/>
       <c r="AH54" s="61"/>
       <c r="AI54" s="62"/>
+    </row>
+    <row r="56" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="134"/>
+      <c r="P57" s="134"/>
+      <c r="Q57" s="134"/>
+      <c r="R57" s="134"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="134"/>
+      <c r="U57" s="134"/>
+      <c r="V57" s="134"/>
+      <c r="W57" s="134"/>
+      <c r="X57" s="134"/>
+      <c r="Y57" s="134"/>
+      <c r="Z57" s="134"/>
+      <c r="AA57" s="134"/>
+      <c r="AB57" s="43"/>
+      <c r="AC57" s="134"/>
+      <c r="AD57" s="134"/>
+      <c r="AE57" s="134"/>
+      <c r="AF57" s="134"/>
+      <c r="AG57" s="134"/>
+      <c r="AH57" s="134"/>
+      <c r="AI57" s="135"/>
+    </row>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B58" s="70"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="107"/>
+      <c r="O58" s="107"/>
+      <c r="P58" s="107"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
+      <c r="S58" s="107"/>
+      <c r="T58" s="107"/>
+      <c r="U58" s="107"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
+      <c r="X58" s="107"/>
+      <c r="Y58" s="107"/>
+      <c r="Z58" s="107"/>
+      <c r="AA58" s="107"/>
+      <c r="AB58" s="107"/>
+      <c r="AC58" s="107"/>
+      <c r="AD58" s="107"/>
+      <c r="AE58" s="107"/>
+      <c r="AF58" s="107"/>
+      <c r="AG58" s="107"/>
+      <c r="AH58" s="107"/>
+      <c r="AI58" s="124"/>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B59" s="70"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="107"/>
+      <c r="R59" s="107"/>
+      <c r="S59" s="107"/>
+      <c r="T59" s="107"/>
+      <c r="U59" s="107"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
+      <c r="X59" s="107"/>
+      <c r="Y59" s="107"/>
+      <c r="Z59" s="107"/>
+      <c r="AA59" s="107"/>
+      <c r="AB59" s="107"/>
+      <c r="AC59" s="107"/>
+      <c r="AD59" s="107"/>
+      <c r="AE59" s="107"/>
+      <c r="AF59" s="107"/>
+      <c r="AG59" s="107"/>
+      <c r="AH59" s="107"/>
+      <c r="AI59" s="124"/>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B60" s="70"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="107"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="107"/>
+      <c r="T60" s="107"/>
+      <c r="U60" s="107"/>
+      <c r="V60" s="107"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="107"/>
+      <c r="Y60" s="107"/>
+      <c r="Z60" s="107"/>
+      <c r="AA60" s="107"/>
+      <c r="AB60" s="107"/>
+      <c r="AC60" s="107"/>
+      <c r="AD60" s="107"/>
+      <c r="AE60" s="107"/>
+      <c r="AF60" s="107"/>
+      <c r="AG60" s="107"/>
+      <c r="AH60" s="107"/>
+      <c r="AI60" s="124"/>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B61" s="70"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="107"/>
+      <c r="T61" s="107"/>
+      <c r="U61" s="107"/>
+      <c r="V61" s="107"/>
+      <c r="W61" s="107"/>
+      <c r="X61" s="107"/>
+      <c r="Y61" s="107"/>
+      <c r="Z61" s="107"/>
+      <c r="AA61" s="107"/>
+      <c r="AB61" s="107"/>
+      <c r="AC61" s="107"/>
+      <c r="AD61" s="107"/>
+      <c r="AE61" s="107"/>
+      <c r="AF61" s="107"/>
+      <c r="AG61" s="107"/>
+      <c r="AH61" s="107"/>
+      <c r="AI61" s="124"/>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B62" s="70"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107"/>
+      <c r="O62" s="107"/>
+      <c r="P62" s="107"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="107"/>
+      <c r="T62" s="107"/>
+      <c r="U62" s="107"/>
+      <c r="V62" s="107"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
+      <c r="Y62" s="107"/>
+      <c r="Z62" s="107"/>
+      <c r="AA62" s="107"/>
+      <c r="AB62" s="107"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="107"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="107"/>
+      <c r="AG62" s="107"/>
+      <c r="AH62" s="107"/>
+      <c r="AI62" s="124"/>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B63" s="70"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="125"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="107"/>
+      <c r="AD63" s="107"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
+      <c r="AG63" s="107"/>
+      <c r="AH63" s="107"/>
+      <c r="AI63" s="124"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B64" s="70"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="107"/>
+      <c r="U64" s="107"/>
+      <c r="V64" s="107"/>
+      <c r="W64" s="107"/>
+      <c r="X64" s="107"/>
+      <c r="Y64" s="107"/>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="107"/>
+      <c r="AB64" s="107"/>
+      <c r="AC64" s="107"/>
+      <c r="AD64" s="107"/>
+      <c r="AE64" s="107"/>
+      <c r="AF64" s="107"/>
+      <c r="AG64" s="107"/>
+      <c r="AH64" s="107"/>
+      <c r="AI64" s="124"/>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B65" s="70"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="107"/>
+      <c r="T65" s="107"/>
+      <c r="U65" s="107"/>
+      <c r="V65" s="107"/>
+      <c r="W65" s="107"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="107"/>
+      <c r="AA65" s="107"/>
+      <c r="AB65" s="107"/>
+      <c r="AC65" s="107"/>
+      <c r="AD65" s="107"/>
+      <c r="AE65" s="107"/>
+      <c r="AF65" s="107"/>
+      <c r="AG65" s="107"/>
+      <c r="AH65" s="107"/>
+      <c r="AI65" s="124"/>
+    </row>
+    <row r="66" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B66" s="70"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="107"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="107"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
+      <c r="T66" s="107"/>
+      <c r="U66" s="107"/>
+      <c r="V66" s="107"/>
+      <c r="W66" s="107"/>
+      <c r="X66" s="107"/>
+      <c r="Y66" s="107"/>
+      <c r="Z66" s="107"/>
+      <c r="AA66" s="107"/>
+      <c r="AB66" s="107"/>
+      <c r="AC66" s="107"/>
+      <c r="AD66" s="107"/>
+      <c r="AE66" s="107"/>
+      <c r="AF66" s="107"/>
+      <c r="AG66" s="107"/>
+      <c r="AH66" s="107"/>
+      <c r="AI66" s="124"/>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B67" s="70"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="107"/>
+      <c r="W67" s="107"/>
+      <c r="X67" s="107"/>
+      <c r="Y67" s="107"/>
+      <c r="Z67" s="107"/>
+      <c r="AA67" s="107"/>
+      <c r="AB67" s="107"/>
+      <c r="AC67" s="107"/>
+      <c r="AD67" s="107"/>
+      <c r="AE67" s="107"/>
+      <c r="AF67" s="107"/>
+      <c r="AG67" s="107"/>
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="124"/>
+    </row>
+    <row r="68" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B68" s="70"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
+      <c r="T68" s="107"/>
+      <c r="U68" s="107"/>
+      <c r="V68" s="107"/>
+      <c r="W68" s="107"/>
+      <c r="X68" s="107"/>
+      <c r="Y68" s="107"/>
+      <c r="Z68" s="107"/>
+      <c r="AA68" s="107"/>
+      <c r="AB68" s="107"/>
+      <c r="AC68" s="107"/>
+      <c r="AD68" s="107"/>
+      <c r="AE68" s="107"/>
+      <c r="AF68" s="107"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="107"/>
+      <c r="AI68" s="124"/>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B69" s="70"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
+      <c r="T69" s="107"/>
+      <c r="U69" s="107"/>
+      <c r="V69" s="107"/>
+      <c r="W69" s="107"/>
+      <c r="X69" s="107"/>
+      <c r="Y69" s="107"/>
+      <c r="Z69" s="107"/>
+      <c r="AA69" s="107"/>
+      <c r="AB69" s="107"/>
+      <c r="AC69" s="126"/>
+      <c r="AD69" s="107"/>
+      <c r="AE69" s="107"/>
+      <c r="AF69" s="107"/>
+      <c r="AG69" s="107"/>
+      <c r="AH69" s="107"/>
+      <c r="AI69" s="124"/>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B70" s="70"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="107"/>
+      <c r="T70" s="107"/>
+      <c r="U70" s="107"/>
+      <c r="V70" s="107"/>
+      <c r="W70" s="107"/>
+      <c r="X70" s="107"/>
+      <c r="Y70" s="107"/>
+      <c r="Z70" s="107"/>
+      <c r="AA70" s="107"/>
+      <c r="AB70" s="107"/>
+      <c r="AC70" s="126"/>
+      <c r="AD70" s="107"/>
+      <c r="AE70" s="107"/>
+      <c r="AF70" s="107"/>
+      <c r="AG70" s="107"/>
+      <c r="AH70" s="107"/>
+      <c r="AI70" s="124"/>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B71" s="70"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="107"/>
+      <c r="T71" s="107"/>
+      <c r="U71" s="107"/>
+      <c r="V71" s="107"/>
+      <c r="W71" s="107"/>
+      <c r="X71" s="107"/>
+      <c r="Y71" s="107"/>
+      <c r="Z71" s="107"/>
+      <c r="AA71" s="107"/>
+      <c r="AB71" s="107"/>
+      <c r="AC71" s="126"/>
+      <c r="AD71" s="107"/>
+      <c r="AE71" s="107"/>
+      <c r="AF71" s="107"/>
+      <c r="AG71" s="107"/>
+      <c r="AH71" s="107"/>
+      <c r="AI71" s="124"/>
+    </row>
+    <row r="72" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="109"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="109"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="109"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="109"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="109"/>
+      <c r="Y72" s="109"/>
+      <c r="Z72" s="109"/>
+      <c r="AA72" s="109"/>
+      <c r="AB72" s="109"/>
+      <c r="AC72" s="109"/>
+      <c r="AD72" s="109"/>
+      <c r="AE72" s="109"/>
+      <c r="AF72" s="109"/>
+      <c r="AG72" s="109"/>
+      <c r="AH72" s="61"/>
+      <c r="AI72" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57769269-1D84-4D62-BCDA-BCAE7A134FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10368CF3-6E5D-4005-B65B-1727B32C024E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1371,12 +1371,20 @@
     <t>●3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>●4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●5</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,6 +1450,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1980,7 +1996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2368,6 +2384,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2383,10 +2405,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4534,6 +4559,281 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC5CEE2-CF55-403D-83F4-5557A1E5446D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4404360" y="18478500"/>
+          <a:ext cx="3108960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD42F9-EAC6-453D-B57E-3AB6037EECF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="20292060"/>
+          <a:ext cx="2827020" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DF6CC2-E102-479E-8028-6F611CD12F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922520" y="18006060"/>
+          <a:ext cx="2590800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0DD5DE-8EB9-4CAC-9ABF-5F38454E2C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455420" y="17358360"/>
+          <a:ext cx="2834640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045B214A-B72A-471F-BD08-F156DBB19208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="19164300"/>
+          <a:ext cx="3108960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4875,12 +5175,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="129" t="s">
+      <c r="I3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="133"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4982,12 +5282,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5044,12 +5344,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5140,12 +5440,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="133"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5843,13 +6143,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5870,42 +6170,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="131"/>
-      <c r="U3" s="129" t="s">
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="133"/>
+      <c r="U3" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="131"/>
-      <c r="AF3" s="129" t="s">
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="133"/>
+      <c r="AF3" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="131"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="132"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="132"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="132"/>
+      <c r="AO3" s="133"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6340,42 +6640,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="129" t="s">
+      <c r="J14" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="131"/>
-      <c r="U14" s="129" t="s">
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="133"/>
+      <c r="U14" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="131"/>
-      <c r="AF14" s="129" t="s">
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="133"/>
+      <c r="AF14" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="130"/>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="130"/>
-      <c r="AJ14" s="130"/>
-      <c r="AK14" s="130"/>
-      <c r="AL14" s="130"/>
-      <c r="AM14" s="130"/>
-      <c r="AN14" s="130"/>
-      <c r="AO14" s="131"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="132"/>
+      <c r="AJ14" s="132"/>
+      <c r="AK14" s="132"/>
+      <c r="AL14" s="132"/>
+      <c r="AM14" s="132"/>
+      <c r="AN14" s="132"/>
+      <c r="AO14" s="133"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6667,30 +6967,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="129" t="s">
+      <c r="J25" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="131"/>
-      <c r="U25" s="129" t="s">
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="133"/>
+      <c r="U25" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="131"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="133"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -6892,15 +7192,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6930,13 +7230,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7203,7 +7503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
   <dimension ref="A1:BP180"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR88" sqref="AR88"/>
     </sheetView>
   </sheetViews>
@@ -12223,10 +12523,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EA6AD2-7FEB-4F70-843E-9A262B6F37DC}">
-  <dimension ref="A2:AO72"/>
+  <dimension ref="A2:AO108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13436,34 +13736,34 @@
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
+      <c r="U39" s="129"/>
+      <c r="V39" s="129"/>
+      <c r="W39" s="129"/>
+      <c r="X39" s="129"/>
+      <c r="Y39" s="129"/>
+      <c r="Z39" s="129"/>
+      <c r="AA39" s="129"/>
       <c r="AB39" s="43"/>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="134"/>
-      <c r="AE39" s="134"/>
-      <c r="AF39" s="134"/>
-      <c r="AG39" s="134"/>
-      <c r="AH39" s="134"/>
-      <c r="AI39" s="135"/>
+      <c r="AC39" s="129"/>
+      <c r="AD39" s="129"/>
+      <c r="AE39" s="129"/>
+      <c r="AF39" s="129"/>
+      <c r="AG39" s="129"/>
+      <c r="AH39" s="129"/>
+      <c r="AI39" s="130"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B40" s="70"/>
@@ -14017,48 +14317,47 @@
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="134"/>
-      <c r="P57" s="134"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="134"/>
-      <c r="V57" s="134"/>
-      <c r="W57" s="134"/>
-      <c r="X57" s="134"/>
-      <c r="Y57" s="134"/>
-      <c r="Z57" s="134"/>
-      <c r="AA57" s="134"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
       <c r="AB57" s="43"/>
-      <c r="AC57" s="134"/>
-      <c r="AD57" s="134"/>
-      <c r="AE57" s="134"/>
-      <c r="AF57" s="134"/>
-      <c r="AG57" s="134"/>
-      <c r="AH57" s="134"/>
-      <c r="AI57" s="135"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="43"/>
+      <c r="AH57" s="43"/>
+      <c r="AI57" s="44"/>
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B58" s="70"/>
       <c r="C58" s="110"/>
       <c r="D58" s="107"/>
       <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
+      <c r="F58" s="104"/>
       <c r="G58" s="107"/>
       <c r="H58" s="107"/>
       <c r="I58" s="107"/>
       <c r="J58" s="107"/>
       <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="107"/>
+      <c r="M58" s="110"/>
       <c r="N58" s="107"/>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -14087,7 +14386,7 @@
       <c r="C59" s="110"/>
       <c r="D59" s="107"/>
       <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
+      <c r="F59" s="104"/>
       <c r="G59" s="107"/>
       <c r="H59" s="107"/>
       <c r="I59" s="107"/>
@@ -14123,7 +14422,7 @@
       <c r="C60" s="110"/>
       <c r="D60" s="107"/>
       <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="107"/>
       <c r="H60" s="107"/>
       <c r="I60" s="107"/>
@@ -14159,7 +14458,7 @@
       <c r="C61" s="110"/>
       <c r="D61" s="107"/>
       <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
+      <c r="F61" s="104"/>
       <c r="G61" s="107"/>
       <c r="H61" s="107"/>
       <c r="I61" s="107"/>
@@ -14177,11 +14476,10 @@
       <c r="U61" s="107"/>
       <c r="V61" s="107"/>
       <c r="W61" s="107"/>
-      <c r="X61" s="107"/>
       <c r="Y61" s="107"/>
       <c r="Z61" s="107"/>
       <c r="AA61" s="107"/>
-      <c r="AB61" s="107"/>
+      <c r="AB61" s="110"/>
       <c r="AC61" s="107"/>
       <c r="AD61" s="107"/>
       <c r="AE61" s="107"/>
@@ -14195,35 +14493,35 @@
       <c r="C62" s="110"/>
       <c r="D62" s="107"/>
       <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
       <c r="H62" s="107"/>
       <c r="I62" s="107"/>
       <c r="J62" s="107"/>
       <c r="K62" s="107"/>
       <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107"/>
-      <c r="O62" s="107"/>
-      <c r="P62" s="107"/>
-      <c r="Q62" s="107"/>
-      <c r="R62" s="107"/>
-      <c r="S62" s="107"/>
-      <c r="T62" s="107"/>
-      <c r="U62" s="107"/>
-      <c r="V62" s="107"/>
-      <c r="W62" s="107"/>
-      <c r="X62" s="107"/>
-      <c r="Y62" s="107"/>
-      <c r="Z62" s="107"/>
-      <c r="AA62" s="107"/>
-      <c r="AB62" s="107"/>
-      <c r="AC62" s="107"/>
-      <c r="AD62" s="107"/>
-      <c r="AE62" s="107"/>
-      <c r="AF62" s="107"/>
-      <c r="AG62" s="107"/>
-      <c r="AH62" s="107"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
+      <c r="S62" s="104"/>
+      <c r="T62" s="104"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="104"/>
+      <c r="W62" s="104"/>
+      <c r="X62" s="104"/>
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="104"/>
+      <c r="AB62" s="104"/>
+      <c r="AC62" s="104"/>
+      <c r="AD62" s="104"/>
+      <c r="AE62" s="104"/>
+      <c r="AF62" s="104"/>
+      <c r="AG62" s="104"/>
+      <c r="AH62" s="104"/>
       <c r="AI62" s="124"/>
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.45">
@@ -14231,35 +14529,33 @@
       <c r="C63" s="110"/>
       <c r="D63" s="107"/>
       <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="125"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="107"/>
-      <c r="U63" s="107"/>
-      <c r="V63" s="107"/>
-      <c r="W63" s="107"/>
-      <c r="X63" s="107"/>
-      <c r="Y63" s="107"/>
-      <c r="Z63" s="107"/>
-      <c r="AA63" s="107"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="107"/>
-      <c r="AD63" s="107"/>
-      <c r="AE63" s="107"/>
-      <c r="AF63" s="107"/>
-      <c r="AG63" s="107"/>
-      <c r="AH63" s="107"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+      <c r="M63" s="122"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="122"/>
+      <c r="P63" s="122"/>
+      <c r="Q63" s="122"/>
+      <c r="R63" s="122"/>
+      <c r="S63" s="122"/>
+      <c r="U63" s="122"/>
+      <c r="V63" s="122"/>
+      <c r="X63" s="122"/>
+      <c r="Y63" s="122"/>
+      <c r="Z63" s="122"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="122"/>
+      <c r="AC63" s="122"/>
+      <c r="AD63" s="122"/>
+      <c r="AE63" s="122"/>
+      <c r="AF63" s="122"/>
+      <c r="AG63" s="122"/>
+      <c r="AH63" s="63"/>
       <c r="AI63" s="124"/>
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.45">
@@ -14267,7 +14563,7 @@
       <c r="C64" s="110"/>
       <c r="D64" s="107"/>
       <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
+      <c r="F64" s="104"/>
       <c r="G64" s="107"/>
       <c r="H64" s="107"/>
       <c r="I64" s="107"/>
@@ -14295,7 +14591,7 @@
       <c r="AE64" s="107"/>
       <c r="AF64" s="107"/>
       <c r="AG64" s="107"/>
-      <c r="AH64" s="107"/>
+      <c r="AH64" s="104"/>
       <c r="AI64" s="124"/>
     </row>
     <row r="65" spans="2:35" x14ac:dyDescent="0.45">
@@ -14303,7 +14599,7 @@
       <c r="C65" s="110"/>
       <c r="D65" s="107"/>
       <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
+      <c r="F65" s="104"/>
       <c r="G65" s="107"/>
       <c r="H65" s="107"/>
       <c r="I65" s="107"/>
@@ -14331,7 +14627,7 @@
       <c r="AE65" s="107"/>
       <c r="AF65" s="107"/>
       <c r="AG65" s="107"/>
-      <c r="AH65" s="107"/>
+      <c r="AH65" s="104"/>
       <c r="AI65" s="124"/>
     </row>
     <row r="66" spans="2:35" x14ac:dyDescent="0.45">
@@ -14339,14 +14635,14 @@
       <c r="C66" s="110"/>
       <c r="D66" s="107"/>
       <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
+      <c r="F66" s="104"/>
       <c r="G66" s="107"/>
       <c r="H66" s="107"/>
       <c r="I66" s="107"/>
       <c r="J66" s="107"/>
       <c r="K66" s="107"/>
       <c r="L66" s="107"/>
-      <c r="M66" s="107"/>
+      <c r="M66" s="110"/>
       <c r="N66" s="107"/>
       <c r="O66" s="107"/>
       <c r="P66" s="107"/>
@@ -14367,7 +14663,7 @@
       <c r="AE66" s="107"/>
       <c r="AF66" s="107"/>
       <c r="AG66" s="107"/>
-      <c r="AH66" s="107"/>
+      <c r="AH66" s="104"/>
       <c r="AI66" s="124"/>
     </row>
     <row r="67" spans="2:35" x14ac:dyDescent="0.45">
@@ -14375,35 +14671,35 @@
       <c r="C67" s="110"/>
       <c r="D67" s="107"/>
       <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107"/>
-      <c r="L67" s="107"/>
-      <c r="M67" s="107"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="107"/>
-      <c r="P67" s="107"/>
-      <c r="Q67" s="107"/>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
-      <c r="T67" s="107"/>
-      <c r="U67" s="107"/>
-      <c r="V67" s="107"/>
-      <c r="W67" s="107"/>
-      <c r="X67" s="107"/>
-      <c r="Y67" s="107"/>
-      <c r="Z67" s="107"/>
-      <c r="AA67" s="107"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104"/>
       <c r="AB67" s="107"/>
       <c r="AC67" s="107"/>
       <c r="AD67" s="107"/>
       <c r="AE67" s="107"/>
       <c r="AF67" s="107"/>
-      <c r="AG67" s="107"/>
-      <c r="AH67" s="107"/>
+      <c r="AG67" s="104"/>
+      <c r="AH67" s="104"/>
       <c r="AI67" s="124"/>
     </row>
     <row r="68" spans="2:35" x14ac:dyDescent="0.45">
@@ -14439,7 +14735,7 @@
       <c r="AE68" s="107"/>
       <c r="AF68" s="107"/>
       <c r="AG68" s="107"/>
-      <c r="AH68" s="107"/>
+      <c r="AH68" s="104"/>
       <c r="AI68" s="124"/>
     </row>
     <row r="69" spans="2:35" x14ac:dyDescent="0.45">
@@ -14475,7 +14771,7 @@
       <c r="AE69" s="107"/>
       <c r="AF69" s="107"/>
       <c r="AG69" s="107"/>
-      <c r="AH69" s="107"/>
+      <c r="AH69" s="104"/>
       <c r="AI69" s="124"/>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.45">
@@ -14511,7 +14807,7 @@
       <c r="AE70" s="107"/>
       <c r="AF70" s="107"/>
       <c r="AG70" s="107"/>
-      <c r="AH70" s="107"/>
+      <c r="AH70" s="104"/>
       <c r="AI70" s="124"/>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.45">
@@ -14537,17 +14833,16 @@
       <c r="U71" s="107"/>
       <c r="V71" s="107"/>
       <c r="W71" s="107"/>
-      <c r="X71" s="107"/>
       <c r="Y71" s="107"/>
       <c r="Z71" s="107"/>
-      <c r="AA71" s="107"/>
+      <c r="AA71" s="110"/>
       <c r="AB71" s="107"/>
       <c r="AC71" s="126"/>
       <c r="AD71" s="107"/>
       <c r="AE71" s="107"/>
       <c r="AF71" s="107"/>
       <c r="AG71" s="107"/>
-      <c r="AH71" s="107"/>
+      <c r="AH71" s="104"/>
       <c r="AI71" s="124"/>
     </row>
     <row r="72" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14557,38 +14852,1163 @@
       <c r="E72" s="61"/>
       <c r="F72" s="61"/>
       <c r="G72" s="61"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="109"/>
-      <c r="L72" s="109"/>
-      <c r="M72" s="109"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
       <c r="N72" s="61"/>
-      <c r="O72" s="109"/>
-      <c r="P72" s="109"/>
-      <c r="Q72" s="109"/>
-      <c r="R72" s="109"/>
-      <c r="S72" s="109"/>
-      <c r="T72" s="109"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
       <c r="U72" s="61"/>
-      <c r="V72" s="109"/>
-      <c r="W72" s="109"/>
-      <c r="X72" s="109"/>
-      <c r="Y72" s="109"/>
-      <c r="Z72" s="109"/>
-      <c r="AA72" s="109"/>
-      <c r="AB72" s="109"/>
-      <c r="AC72" s="109"/>
-      <c r="AD72" s="109"/>
-      <c r="AE72" s="109"/>
-      <c r="AF72" s="109"/>
-      <c r="AG72" s="109"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
       <c r="AH72" s="61"/>
       <c r="AI72" s="62"/>
+    </row>
+    <row r="74" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="129"/>
+      <c r="V75" s="129"/>
+      <c r="W75" s="129"/>
+      <c r="X75" s="129"/>
+      <c r="Y75" s="129"/>
+      <c r="Z75" s="129"/>
+      <c r="AA75" s="129"/>
+      <c r="AB75" s="129"/>
+      <c r="AC75" s="129"/>
+      <c r="AD75" s="129"/>
+      <c r="AE75" s="129"/>
+      <c r="AF75" s="129"/>
+      <c r="AG75" s="129"/>
+      <c r="AH75" s="129"/>
+      <c r="AI75" s="138"/>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B76" s="70"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="122"/>
+      <c r="O76" s="107"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="107"/>
+      <c r="U76" s="107"/>
+      <c r="V76" s="107"/>
+      <c r="W76" s="107"/>
+      <c r="X76" s="107"/>
+      <c r="Y76" s="107"/>
+      <c r="Z76" s="107"/>
+      <c r="AA76" s="107"/>
+      <c r="AB76" s="107"/>
+      <c r="AC76" s="107"/>
+      <c r="AD76" s="107"/>
+      <c r="AE76" s="107"/>
+      <c r="AF76" s="107"/>
+      <c r="AG76" s="107"/>
+      <c r="AH76" s="107"/>
+      <c r="AI76" s="124"/>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B77" s="70"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="107"/>
+      <c r="K77" s="107"/>
+      <c r="L77" s="136"/>
+      <c r="M77" s="136"/>
+      <c r="N77" s="107"/>
+      <c r="O77" s="107"/>
+      <c r="P77" s="107"/>
+      <c r="Q77" s="107"/>
+      <c r="R77" s="107"/>
+      <c r="S77" s="107"/>
+      <c r="T77" s="107"/>
+      <c r="U77" s="107"/>
+      <c r="V77" s="107"/>
+      <c r="W77" s="107"/>
+      <c r="X77" s="107"/>
+      <c r="Y77" s="107"/>
+      <c r="Z77" s="107"/>
+      <c r="AA77" s="107"/>
+      <c r="AB77" s="107"/>
+      <c r="AC77" s="107"/>
+      <c r="AD77" s="107"/>
+      <c r="AE77" s="107"/>
+      <c r="AF77" s="107"/>
+      <c r="AG77" s="107"/>
+      <c r="AH77" s="107"/>
+      <c r="AI77" s="124"/>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B78" s="70"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="107"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="107"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="136"/>
+      <c r="M78" s="136"/>
+      <c r="N78" s="107"/>
+      <c r="O78" s="107"/>
+      <c r="P78" s="107"/>
+      <c r="Q78" s="107"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="107"/>
+      <c r="T78" s="107"/>
+      <c r="U78" s="107"/>
+      <c r="V78" s="107"/>
+      <c r="W78" s="107"/>
+      <c r="X78" s="107"/>
+      <c r="Y78" s="107"/>
+      <c r="Z78" s="107"/>
+      <c r="AA78" s="107"/>
+      <c r="AB78" s="107"/>
+      <c r="AC78" s="107"/>
+      <c r="AD78" s="107"/>
+      <c r="AE78" s="107"/>
+      <c r="AF78" s="107"/>
+      <c r="AG78" s="107"/>
+      <c r="AH78" s="107"/>
+      <c r="AI78" s="124"/>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B79" s="70"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="104"/>
+      <c r="M79" s="104"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="107"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="107"/>
+      <c r="R79" s="107"/>
+      <c r="S79" s="107"/>
+      <c r="T79" s="107"/>
+      <c r="U79" s="107"/>
+      <c r="V79" s="107"/>
+      <c r="W79" s="107"/>
+      <c r="X79" s="107"/>
+      <c r="Y79" s="107"/>
+      <c r="Z79" s="107"/>
+      <c r="AA79" s="107"/>
+      <c r="AB79" s="107"/>
+      <c r="AC79" s="107"/>
+      <c r="AD79" s="107"/>
+      <c r="AE79" s="107"/>
+      <c r="AF79" s="107"/>
+      <c r="AG79" s="107"/>
+      <c r="AH79" s="107"/>
+      <c r="AI79" s="124"/>
+    </row>
+    <row r="80" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B80" s="70"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="107"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="107"/>
+      <c r="O80" s="107"/>
+      <c r="P80" s="107"/>
+      <c r="Q80" s="107"/>
+      <c r="R80" s="107"/>
+      <c r="S80" s="107"/>
+      <c r="U80" s="107"/>
+      <c r="V80" s="107"/>
+      <c r="W80" s="107"/>
+      <c r="X80" s="107"/>
+      <c r="Y80" s="107"/>
+      <c r="Z80" s="107"/>
+      <c r="AA80" s="107"/>
+      <c r="AB80" s="107"/>
+      <c r="AC80" s="107"/>
+      <c r="AD80" s="107"/>
+      <c r="AE80" s="107"/>
+      <c r="AF80" s="107"/>
+      <c r="AG80" s="107"/>
+      <c r="AH80" s="107"/>
+      <c r="AI80" s="124"/>
+    </row>
+    <row r="81" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B81" s="70"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="P81" s="107"/>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="107"/>
+      <c r="T81" s="104"/>
+      <c r="U81" s="107"/>
+      <c r="V81" s="107"/>
+      <c r="W81" s="107"/>
+      <c r="X81" s="107"/>
+      <c r="Y81" s="107"/>
+      <c r="Z81" s="107"/>
+      <c r="AA81" s="107"/>
+      <c r="AB81" s="107"/>
+      <c r="AC81" s="107"/>
+      <c r="AD81" s="107"/>
+      <c r="AE81" s="107"/>
+      <c r="AF81" s="107"/>
+      <c r="AG81" s="107"/>
+      <c r="AH81" s="107"/>
+      <c r="AI81" s="124"/>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B82" s="70"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="107"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="107"/>
+      <c r="M82" s="107"/>
+      <c r="P82" s="137"/>
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137"/>
+      <c r="S82" s="137"/>
+      <c r="T82" s="104"/>
+      <c r="U82" s="107"/>
+      <c r="V82" s="107"/>
+      <c r="W82" s="107"/>
+      <c r="X82" s="107"/>
+      <c r="Y82" s="107"/>
+      <c r="Z82" s="107"/>
+      <c r="AA82" s="107"/>
+      <c r="AB82" s="107"/>
+      <c r="AC82" s="107"/>
+      <c r="AD82" s="107"/>
+      <c r="AE82" s="107"/>
+      <c r="AF82" s="107"/>
+      <c r="AG82" s="107"/>
+      <c r="AH82" s="107"/>
+      <c r="AI82" s="124"/>
+    </row>
+    <row r="83" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B83" s="70"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="O83" s="107"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="107"/>
+      <c r="T83" s="107"/>
+      <c r="U83" s="107"/>
+      <c r="V83" s="107"/>
+      <c r="W83" s="107"/>
+      <c r="X83" s="107"/>
+      <c r="Y83" s="107"/>
+      <c r="Z83" s="107"/>
+      <c r="AA83" s="107"/>
+      <c r="AB83" s="107"/>
+      <c r="AC83" s="107"/>
+      <c r="AD83" s="107"/>
+      <c r="AE83" s="107"/>
+      <c r="AF83" s="107"/>
+      <c r="AG83" s="107"/>
+      <c r="AH83" s="107"/>
+      <c r="AI83" s="124"/>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B84" s="70"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="107"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="107"/>
+      <c r="L84" s="107"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="107"/>
+      <c r="O84" s="107"/>
+      <c r="P84" s="107"/>
+      <c r="Q84" s="107"/>
+      <c r="R84" s="107"/>
+      <c r="S84" s="107"/>
+      <c r="T84" s="107"/>
+      <c r="U84" s="107"/>
+      <c r="V84" s="107"/>
+      <c r="W84" s="107"/>
+      <c r="X84" s="107"/>
+      <c r="Y84" s="107"/>
+      <c r="Z84" s="107"/>
+      <c r="AA84" s="107"/>
+      <c r="AB84" s="107"/>
+      <c r="AC84" s="107"/>
+      <c r="AD84" s="107"/>
+      <c r="AE84" s="107"/>
+      <c r="AF84" s="107"/>
+      <c r="AG84" s="107"/>
+      <c r="AH84" s="107"/>
+      <c r="AI84" s="124"/>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B85" s="70"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="107"/>
+      <c r="P85" s="107"/>
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
+      <c r="S85" s="107"/>
+      <c r="T85" s="107"/>
+      <c r="U85" s="107"/>
+      <c r="V85" s="107"/>
+      <c r="W85" s="107"/>
+      <c r="X85" s="107"/>
+      <c r="Y85" s="107"/>
+      <c r="Z85" s="107"/>
+      <c r="AA85" s="107"/>
+      <c r="AB85" s="107"/>
+      <c r="AC85" s="107"/>
+      <c r="AD85" s="107"/>
+      <c r="AE85" s="107"/>
+      <c r="AF85" s="107"/>
+      <c r="AG85" s="107"/>
+      <c r="AH85" s="107"/>
+      <c r="AI85" s="124"/>
+    </row>
+    <row r="86" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B86" s="70"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="U86" s="107"/>
+      <c r="V86" s="107"/>
+      <c r="W86" s="107"/>
+      <c r="X86" s="107"/>
+      <c r="Y86" s="107"/>
+      <c r="Z86" s="107"/>
+      <c r="AA86" s="107"/>
+      <c r="AB86" s="107"/>
+      <c r="AC86" s="107"/>
+      <c r="AD86" s="107"/>
+      <c r="AE86" s="107"/>
+      <c r="AF86" s="107"/>
+      <c r="AG86" s="107"/>
+      <c r="AH86" s="107"/>
+      <c r="AI86" s="124"/>
+    </row>
+    <row r="87" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B87" s="70"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="107"/>
+      <c r="L87" s="107"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="107"/>
+      <c r="O87" s="107"/>
+      <c r="P87" s="107"/>
+      <c r="Q87" s="107"/>
+      <c r="R87" s="107"/>
+      <c r="S87" s="107"/>
+      <c r="T87" s="107"/>
+      <c r="U87" s="107"/>
+      <c r="V87" s="107"/>
+      <c r="W87" s="107"/>
+      <c r="X87" s="107"/>
+      <c r="Y87" s="107"/>
+      <c r="Z87" s="107"/>
+      <c r="AA87" s="107"/>
+      <c r="AB87" s="107"/>
+      <c r="AC87" s="126"/>
+      <c r="AD87" s="107"/>
+      <c r="AE87" s="104"/>
+      <c r="AF87" s="104"/>
+      <c r="AG87" s="104"/>
+      <c r="AH87" s="104"/>
+      <c r="AI87" s="46"/>
+    </row>
+    <row r="88" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B88" s="70"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="108"/>
+      <c r="L88" s="107"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="107"/>
+      <c r="O88" s="107"/>
+      <c r="P88" s="107"/>
+      <c r="Q88" s="107"/>
+      <c r="R88" s="107"/>
+      <c r="S88" s="107"/>
+      <c r="T88" s="107"/>
+      <c r="U88" s="107"/>
+      <c r="V88" s="107"/>
+      <c r="W88" s="107"/>
+      <c r="X88" s="107"/>
+      <c r="Y88" s="107"/>
+      <c r="Z88" s="107"/>
+      <c r="AA88" s="107"/>
+      <c r="AB88" s="107"/>
+      <c r="AC88" s="126"/>
+      <c r="AD88" s="107"/>
+      <c r="AE88" s="104"/>
+      <c r="AF88" s="104"/>
+      <c r="AG88" s="104"/>
+      <c r="AH88" s="104"/>
+      <c r="AI88" s="46"/>
+    </row>
+    <row r="89" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B89" s="70"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="107"/>
+      <c r="I89" s="107"/>
+      <c r="J89" s="108"/>
+      <c r="K89" s="108"/>
+      <c r="L89" s="107"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="107"/>
+      <c r="O89" s="107"/>
+      <c r="P89" s="107"/>
+      <c r="Q89" s="107"/>
+      <c r="R89" s="107"/>
+      <c r="S89" s="107"/>
+      <c r="T89" s="107"/>
+      <c r="U89" s="107"/>
+      <c r="V89" s="107"/>
+      <c r="W89" s="107"/>
+      <c r="X89" s="107"/>
+      <c r="Y89" s="107"/>
+      <c r="Z89" s="107"/>
+      <c r="AA89" s="107"/>
+      <c r="AB89" s="107"/>
+      <c r="AC89" s="126"/>
+      <c r="AD89" s="107"/>
+      <c r="AE89" s="104"/>
+      <c r="AF89" s="104"/>
+      <c r="AG89" s="104"/>
+      <c r="AH89" s="104"/>
+      <c r="AI89" s="46"/>
+    </row>
+    <row r="90" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B90" s="60"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="61"/>
+      <c r="Y90" s="61"/>
+      <c r="Z90" s="61"/>
+      <c r="AA90" s="61"/>
+      <c r="AB90" s="61"/>
+      <c r="AC90" s="61"/>
+      <c r="AD90" s="61"/>
+      <c r="AE90" s="61"/>
+      <c r="AF90" s="61"/>
+      <c r="AG90" s="61"/>
+      <c r="AH90" s="61"/>
+      <c r="AI90" s="62"/>
+    </row>
+    <row r="92" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="43"/>
+      <c r="AH93" s="43"/>
+      <c r="AI93" s="44"/>
+    </row>
+    <row r="94" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B94" s="70"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="104"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="107"/>
+      <c r="O94" s="107"/>
+      <c r="P94" s="104"/>
+      <c r="Q94" s="104"/>
+      <c r="R94" s="105"/>
+      <c r="S94" s="105"/>
+      <c r="T94" s="105"/>
+      <c r="U94" s="107"/>
+      <c r="V94" s="107"/>
+      <c r="W94" s="107"/>
+      <c r="X94" s="104"/>
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="107"/>
+      <c r="AA94" s="105"/>
+      <c r="AB94" s="105"/>
+      <c r="AC94" s="107"/>
+      <c r="AD94" s="107"/>
+      <c r="AE94" s="107"/>
+      <c r="AF94" s="105"/>
+      <c r="AG94" s="105"/>
+      <c r="AH94" s="107"/>
+      <c r="AI94" s="124"/>
+    </row>
+    <row r="95" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B95" s="70"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="104"/>
+      <c r="I95" s="104"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="105"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="107"/>
+      <c r="O95" s="107"/>
+      <c r="P95" s="105"/>
+      <c r="Q95" s="105"/>
+      <c r="R95" s="105"/>
+      <c r="S95" s="105"/>
+      <c r="T95" s="105"/>
+      <c r="U95" s="107"/>
+      <c r="V95" s="107"/>
+      <c r="W95" s="107"/>
+      <c r="X95" s="104"/>
+      <c r="Y95" s="104"/>
+      <c r="Z95" s="105"/>
+      <c r="AA95" s="105"/>
+      <c r="AB95" s="105"/>
+      <c r="AC95" s="107"/>
+      <c r="AD95" s="107"/>
+      <c r="AE95" s="107"/>
+      <c r="AF95" s="104"/>
+      <c r="AG95" s="104"/>
+      <c r="AH95" s="107"/>
+      <c r="AI95" s="124"/>
+    </row>
+    <row r="96" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B96" s="70"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="107"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="105"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
+      <c r="M96" s="105"/>
+      <c r="N96" s="105"/>
+      <c r="O96" s="107"/>
+      <c r="P96" s="105"/>
+      <c r="Q96" s="105"/>
+      <c r="R96" s="105"/>
+      <c r="S96" s="107"/>
+      <c r="T96" s="107"/>
+      <c r="U96" s="107"/>
+      <c r="V96" s="107"/>
+      <c r="W96" s="107"/>
+      <c r="X96" s="105"/>
+      <c r="Y96" s="105"/>
+      <c r="Z96" s="105"/>
+      <c r="AA96" s="105"/>
+      <c r="AB96" s="105"/>
+      <c r="AC96" s="107"/>
+      <c r="AD96" s="107"/>
+      <c r="AE96" s="107"/>
+      <c r="AF96" s="104"/>
+      <c r="AG96" s="104"/>
+      <c r="AH96" s="107"/>
+      <c r="AI96" s="124"/>
+    </row>
+    <row r="97" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B97" s="70"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="104"/>
+      <c r="J97" s="107"/>
+      <c r="K97" s="107"/>
+      <c r="L97" s="107"/>
+      <c r="M97" s="107"/>
+      <c r="N97" s="105"/>
+      <c r="O97" s="107"/>
+      <c r="P97" s="105"/>
+      <c r="Q97" s="105"/>
+      <c r="R97" s="105"/>
+      <c r="S97" s="105"/>
+      <c r="T97" s="105"/>
+      <c r="U97" s="105"/>
+      <c r="V97" s="107"/>
+      <c r="W97" s="107"/>
+      <c r="X97" s="107"/>
+      <c r="Y97" s="107"/>
+      <c r="Z97" s="105"/>
+      <c r="AA97" s="105"/>
+      <c r="AB97" s="105"/>
+      <c r="AC97" s="107"/>
+      <c r="AD97" s="107"/>
+      <c r="AE97" s="107"/>
+      <c r="AF97" s="105"/>
+      <c r="AG97" s="105"/>
+      <c r="AH97" s="107"/>
+      <c r="AI97" s="124"/>
+    </row>
+    <row r="98" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B98" s="70"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="107"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="104"/>
+      <c r="I98" s="104"/>
+      <c r="J98" s="107"/>
+      <c r="K98" s="107"/>
+      <c r="L98" s="107"/>
+      <c r="M98" s="107"/>
+      <c r="N98" s="105"/>
+      <c r="O98" s="107"/>
+      <c r="P98" s="104"/>
+      <c r="Q98" s="104"/>
+      <c r="R98" s="105"/>
+      <c r="S98" s="105"/>
+      <c r="T98" s="105"/>
+      <c r="U98" s="105"/>
+      <c r="V98" s="107"/>
+      <c r="W98" s="107"/>
+      <c r="X98" s="104"/>
+      <c r="Y98" s="104"/>
+      <c r="Z98" s="105"/>
+      <c r="AA98" s="105"/>
+      <c r="AB98" s="105"/>
+      <c r="AC98" s="107"/>
+      <c r="AD98" s="105"/>
+      <c r="AE98" s="105"/>
+      <c r="AF98" s="104"/>
+      <c r="AG98" s="104"/>
+      <c r="AH98" s="107"/>
+      <c r="AI98" s="124"/>
+    </row>
+    <row r="99" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B99" s="70"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="107"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="105"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="105"/>
+      <c r="K99" s="105"/>
+      <c r="L99" s="107"/>
+      <c r="M99" s="107"/>
+      <c r="N99" s="105"/>
+      <c r="O99" s="107"/>
+      <c r="P99" s="104"/>
+      <c r="Q99" s="104"/>
+      <c r="R99" s="105"/>
+      <c r="S99" s="105"/>
+      <c r="T99" s="105"/>
+      <c r="U99" s="105"/>
+      <c r="V99" s="107"/>
+      <c r="W99" s="107"/>
+      <c r="X99" s="104"/>
+      <c r="Y99" s="104"/>
+      <c r="Z99" s="105"/>
+      <c r="AA99" s="105"/>
+      <c r="AB99" s="105"/>
+      <c r="AC99" s="107"/>
+      <c r="AD99" s="105"/>
+      <c r="AE99" s="105"/>
+      <c r="AF99" s="104"/>
+      <c r="AG99" s="104"/>
+      <c r="AH99" s="107"/>
+      <c r="AI99" s="124"/>
+    </row>
+    <row r="100" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B100" s="70"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="105"/>
+      <c r="K100" s="105"/>
+      <c r="L100" s="107"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="105"/>
+      <c r="O100" s="105"/>
+      <c r="P100" s="105"/>
+      <c r="Q100" s="105"/>
+      <c r="R100" s="105"/>
+      <c r="S100" s="105"/>
+      <c r="T100" s="105"/>
+      <c r="U100" s="105"/>
+      <c r="V100" s="107"/>
+      <c r="W100" s="107"/>
+      <c r="X100" s="107"/>
+      <c r="Y100" s="107"/>
+      <c r="Z100" s="105"/>
+      <c r="AA100" s="105"/>
+      <c r="AB100" s="105"/>
+      <c r="AC100" s="107"/>
+      <c r="AD100" s="107"/>
+      <c r="AE100" s="107"/>
+      <c r="AF100" s="105"/>
+      <c r="AG100" s="105"/>
+      <c r="AH100" s="107"/>
+      <c r="AI100" s="124"/>
+    </row>
+    <row r="101" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B101" s="70"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="107"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="107"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="107"/>
+      <c r="K101" s="107"/>
+      <c r="L101" s="107"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="105"/>
+      <c r="O101" s="105"/>
+      <c r="P101" s="105"/>
+      <c r="Q101" s="105"/>
+      <c r="R101" s="105"/>
+      <c r="S101" s="105"/>
+      <c r="T101" s="105"/>
+      <c r="U101" s="105"/>
+      <c r="V101" s="107"/>
+      <c r="W101" s="107"/>
+      <c r="X101" s="104"/>
+      <c r="Y101" s="104"/>
+      <c r="Z101" s="105"/>
+      <c r="AA101" s="105"/>
+      <c r="AB101" s="105"/>
+      <c r="AC101" s="107"/>
+      <c r="AD101" s="107"/>
+      <c r="AE101" s="107"/>
+      <c r="AF101" s="105"/>
+      <c r="AG101" s="105"/>
+      <c r="AH101" s="107"/>
+      <c r="AI101" s="124"/>
+    </row>
+    <row r="102" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B102" s="70"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="107"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="104"/>
+      <c r="I102" s="104"/>
+      <c r="J102" s="107"/>
+      <c r="K102" s="107"/>
+      <c r="L102" s="107"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="105"/>
+      <c r="O102" s="105"/>
+      <c r="P102" s="104"/>
+      <c r="Q102" s="104"/>
+      <c r="R102" s="105"/>
+      <c r="S102" s="105"/>
+      <c r="T102" s="105"/>
+      <c r="U102" s="107"/>
+      <c r="V102" s="107"/>
+      <c r="W102" s="107"/>
+      <c r="X102" s="104"/>
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="105"/>
+      <c r="AA102" s="105"/>
+      <c r="AB102" s="105"/>
+      <c r="AC102" s="105"/>
+      <c r="AD102" s="107"/>
+      <c r="AE102" s="107"/>
+      <c r="AF102" s="105"/>
+      <c r="AG102" s="105"/>
+      <c r="AH102" s="107"/>
+      <c r="AI102" s="124"/>
+    </row>
+    <row r="103" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B103" s="70"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="104"/>
+      <c r="I103" s="104"/>
+      <c r="J103" s="107"/>
+      <c r="K103" s="107"/>
+      <c r="L103" s="107"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="105"/>
+      <c r="O103" s="105"/>
+      <c r="P103" s="104"/>
+      <c r="Q103" s="104"/>
+      <c r="R103" s="105"/>
+      <c r="S103" s="105"/>
+      <c r="T103" s="105"/>
+      <c r="U103" s="107"/>
+      <c r="V103" s="107"/>
+      <c r="W103" s="107"/>
+      <c r="X103" s="105"/>
+      <c r="Y103" s="105"/>
+      <c r="Z103" s="105"/>
+      <c r="AA103" s="105"/>
+      <c r="AB103" s="105"/>
+      <c r="AC103" s="105"/>
+      <c r="AD103" s="107"/>
+      <c r="AE103" s="107"/>
+      <c r="AF103" s="104"/>
+      <c r="AG103" s="104"/>
+      <c r="AH103" s="107"/>
+      <c r="AI103" s="124"/>
+    </row>
+    <row r="104" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B104" s="70"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="105"/>
+      <c r="O104" s="107"/>
+      <c r="P104" s="107"/>
+      <c r="Q104" s="107"/>
+      <c r="R104" s="105"/>
+      <c r="S104" s="105"/>
+      <c r="T104" s="105"/>
+      <c r="U104" s="107"/>
+      <c r="V104" s="107"/>
+      <c r="W104" s="107"/>
+      <c r="X104" s="107"/>
+      <c r="Y104" s="107"/>
+      <c r="Z104" s="105"/>
+      <c r="AA104" s="105"/>
+      <c r="AB104" s="105"/>
+      <c r="AC104" s="107"/>
+      <c r="AD104" s="107"/>
+      <c r="AE104" s="107"/>
+      <c r="AF104" s="104"/>
+      <c r="AG104" s="104"/>
+      <c r="AH104" s="107"/>
+      <c r="AI104" s="124"/>
+    </row>
+    <row r="105" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B105" s="70"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="107"/>
+      <c r="K105" s="107"/>
+      <c r="L105" s="107"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="105"/>
+      <c r="O105" s="107"/>
+      <c r="P105" s="104"/>
+      <c r="Q105" s="104"/>
+      <c r="R105" s="105"/>
+      <c r="S105" s="105"/>
+      <c r="T105" s="105"/>
+      <c r="U105" s="107"/>
+      <c r="V105" s="107"/>
+      <c r="W105" s="107"/>
+      <c r="X105" s="105"/>
+      <c r="Y105" s="105"/>
+      <c r="Z105" s="105"/>
+      <c r="AA105" s="105"/>
+      <c r="AB105" s="105"/>
+      <c r="AC105" s="107"/>
+      <c r="AD105" s="126"/>
+      <c r="AE105" s="107"/>
+      <c r="AF105" s="105"/>
+      <c r="AG105" s="105"/>
+      <c r="AH105" s="107"/>
+      <c r="AI105" s="124"/>
+    </row>
+    <row r="106" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B106" s="70"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="108"/>
+      <c r="M106" s="108"/>
+      <c r="N106" s="105"/>
+      <c r="O106" s="107"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="104"/>
+      <c r="R106" s="105"/>
+      <c r="S106" s="105"/>
+      <c r="T106" s="105"/>
+      <c r="U106" s="107"/>
+      <c r="V106" s="107"/>
+      <c r="W106" s="107"/>
+      <c r="X106" s="104"/>
+      <c r="Y106" s="104"/>
+      <c r="Z106" s="107"/>
+      <c r="AA106" s="105"/>
+      <c r="AB106" s="105"/>
+      <c r="AC106" s="107"/>
+      <c r="AD106" s="126"/>
+      <c r="AE106" s="107"/>
+      <c r="AF106" s="104"/>
+      <c r="AG106" s="104"/>
+      <c r="AH106" s="107"/>
+      <c r="AI106" s="124"/>
+    </row>
+    <row r="107" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B107" s="70"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="105"/>
+      <c r="G107" s="105"/>
+      <c r="H107" s="104"/>
+      <c r="I107" s="104"/>
+      <c r="J107" s="107"/>
+      <c r="K107" s="105"/>
+      <c r="L107" s="108"/>
+      <c r="M107" s="108"/>
+      <c r="N107" s="107"/>
+      <c r="O107" s="107"/>
+      <c r="P107" s="105"/>
+      <c r="Q107" s="105"/>
+      <c r="R107" s="105"/>
+      <c r="S107" s="105"/>
+      <c r="T107" s="105"/>
+      <c r="U107" s="107"/>
+      <c r="V107" s="107"/>
+      <c r="W107" s="107"/>
+      <c r="X107" s="104"/>
+      <c r="Y107" s="104"/>
+      <c r="Z107" s="107"/>
+      <c r="AA107" s="105"/>
+      <c r="AB107" s="105"/>
+      <c r="AC107" s="107"/>
+      <c r="AD107" s="126"/>
+      <c r="AE107" s="107"/>
+      <c r="AF107" s="104"/>
+      <c r="AG107" s="104"/>
+      <c r="AH107" s="107"/>
+      <c r="AI107" s="124"/>
+    </row>
+    <row r="108" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="60"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="61"/>
+      <c r="S108" s="61"/>
+      <c r="T108" s="61"/>
+      <c r="U108" s="61"/>
+      <c r="V108" s="61"/>
+      <c r="W108" s="61"/>
+      <c r="X108" s="61"/>
+      <c r="Y108" s="61"/>
+      <c r="Z108" s="61"/>
+      <c r="AA108" s="61"/>
+      <c r="AB108" s="61"/>
+      <c r="AC108" s="61"/>
+      <c r="AD108" s="61"/>
+      <c r="AE108" s="61"/>
+      <c r="AF108" s="61"/>
+      <c r="AG108" s="61"/>
+      <c r="AH108" s="61"/>
+      <c r="AI108" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10368CF3-6E5D-4005-B65B-1727B32C024E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2D74C-66F1-46AA-BC72-FAAF9D55AFB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1377,6 +1377,10 @@
   </si>
   <si>
     <t>●5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1996,7 +2000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2390,6 +2394,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2403,15 +2431,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4563,15 +4582,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4587,8 +4606,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4404360" y="18478500"/>
-          <a:ext cx="3108960" cy="0"/>
+          <a:off x="2842260" y="22639020"/>
+          <a:ext cx="4671060" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4617,15 +4636,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4641,8 +4660,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655820" y="20292060"/>
-          <a:ext cx="2827020" cy="0"/>
+          <a:off x="1219200" y="24452580"/>
+          <a:ext cx="6263640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4671,15 +4690,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4695,8 +4714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4922520" y="18006060"/>
-          <a:ext cx="2590800" cy="0"/>
+          <a:off x="2819400" y="22166580"/>
+          <a:ext cx="4853940" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4727,13 +4746,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4749,8 +4768,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1455420" y="17358360"/>
-          <a:ext cx="2834640" cy="0"/>
+          <a:off x="1455420" y="21518880"/>
+          <a:ext cx="6195060" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4781,13 +4800,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4803,8 +4822,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1432560" y="19164300"/>
-          <a:ext cx="3108960" cy="0"/>
+          <a:off x="1432560" y="23324820"/>
+          <a:ext cx="4655820" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5175,12 +5194,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="133"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5282,12 +5301,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="133"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5344,12 +5363,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5440,12 +5459,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="133"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="141"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -6143,13 +6162,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -6170,42 +6189,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="133"/>
-      <c r="U3" s="131" t="s">
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="141"/>
+      <c r="U3" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="133"/>
-      <c r="AF3" s="131" t="s">
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141"/>
+      <c r="AF3" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="133"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="141"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6640,42 +6659,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="131" t="s">
+      <c r="J14" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="133"/>
-      <c r="U14" s="131" t="s">
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="141"/>
+      <c r="U14" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="133"/>
-      <c r="AF14" s="131" t="s">
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="141"/>
+      <c r="AF14" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="132"/>
-      <c r="AJ14" s="132"/>
-      <c r="AK14" s="132"/>
-      <c r="AL14" s="132"/>
-      <c r="AM14" s="132"/>
-      <c r="AN14" s="132"/>
-      <c r="AO14" s="133"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="140"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="140"/>
+      <c r="AL14" s="140"/>
+      <c r="AM14" s="140"/>
+      <c r="AN14" s="140"/>
+      <c r="AO14" s="141"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -6967,30 +6986,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="131" t="s">
+      <c r="J25" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="133"/>
-      <c r="U25" s="131" t="s">
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="140"/>
+      <c r="S25" s="141"/>
+      <c r="U25" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="133"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="140"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="141"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -7230,13 +7249,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -12523,10 +12542,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EA6AD2-7FEB-4F70-843E-9A262B6F37DC}">
-  <dimension ref="A2:AO108"/>
+  <dimension ref="A2:AO126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU38" sqref="AU38"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO98" sqref="AO98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13179,10 +13198,10 @@
       <c r="AC21" s="43"/>
       <c r="AD21" s="43"/>
       <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="44"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B22" s="70"/>
@@ -13730,25 +13749,25 @@
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="129"/>
-      <c r="T39" s="129"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
       <c r="U39" s="129"/>
       <c r="V39" s="129"/>
       <c r="W39" s="129"/>
@@ -13756,14 +13775,14 @@
       <c r="Y39" s="129"/>
       <c r="Z39" s="129"/>
       <c r="AA39" s="129"/>
-      <c r="AB39" s="43"/>
+      <c r="AB39" s="129"/>
       <c r="AC39" s="129"/>
       <c r="AD39" s="129"/>
       <c r="AE39" s="129"/>
       <c r="AF39" s="129"/>
       <c r="AG39" s="129"/>
       <c r="AH39" s="129"/>
-      <c r="AI39" s="130"/>
+      <c r="AI39" s="133"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B40" s="70"/>
@@ -13773,12 +13792,7 @@
       <c r="F40" s="107"/>
       <c r="G40" s="107"/>
       <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
+      <c r="I40" s="122"/>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
       <c r="Q40" s="107"/>
@@ -13812,8 +13826,8 @@
       <c r="I41" s="107"/>
       <c r="J41" s="107"/>
       <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
       <c r="N41" s="107"/>
       <c r="O41" s="107"/>
       <c r="P41" s="107"/>
@@ -13846,10 +13860,10 @@
       <c r="G42" s="107"/>
       <c r="H42" s="107"/>
       <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
+      <c r="J42" s="104"/>
       <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
       <c r="N42" s="107"/>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -13882,11 +13896,11 @@
       <c r="G43" s="107"/>
       <c r="H43" s="107"/>
       <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
       <c r="O43" s="107"/>
       <c r="P43" s="107"/>
       <c r="Q43" s="107"/>
@@ -13918,17 +13932,11 @@
       <c r="G44" s="107"/>
       <c r="H44" s="107"/>
       <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="107"/>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
       <c r="Q44" s="107"/>
       <c r="R44" s="107"/>
       <c r="S44" s="107"/>
-      <c r="T44" s="107"/>
       <c r="U44" s="107"/>
       <c r="V44" s="107"/>
       <c r="W44" s="107"/>
@@ -13954,17 +13962,11 @@
       <c r="G45" s="107"/>
       <c r="H45" s="107"/>
       <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="107"/>
       <c r="P45" s="107"/>
       <c r="Q45" s="107"/>
       <c r="R45" s="107"/>
       <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
+      <c r="T45" s="104"/>
       <c r="U45" s="107"/>
       <c r="V45" s="107"/>
       <c r="W45" s="107"/>
@@ -13994,13 +13996,11 @@
       <c r="K46" s="107"/>
       <c r="L46" s="107"/>
       <c r="M46" s="107"/>
-      <c r="N46" s="107"/>
-      <c r="O46" s="107"/>
-      <c r="P46" s="107"/>
-      <c r="Q46" s="107"/>
-      <c r="R46" s="107"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="107"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="104"/>
       <c r="U46" s="107"/>
       <c r="V46" s="107"/>
       <c r="W46" s="107"/>
@@ -14026,11 +14026,6 @@
       <c r="G47" s="107"/>
       <c r="H47" s="107"/>
       <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
       <c r="O47" s="107"/>
       <c r="P47" s="107"/>
       <c r="Q47" s="107"/>
@@ -14061,8 +14056,7 @@
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
+      <c r="J48" s="104"/>
       <c r="K48" s="107"/>
       <c r="L48" s="107"/>
       <c r="M48" s="107"/>
@@ -14097,12 +14091,11 @@
       <c r="F49" s="107"/>
       <c r="G49" s="107"/>
       <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="107"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
       <c r="O49" s="107"/>
       <c r="P49" s="107"/>
       <c r="Q49" s="107"/>
@@ -14133,18 +14126,6 @@
       <c r="F50" s="107"/>
       <c r="G50" s="107"/>
       <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="107"/>
-      <c r="N50" s="107"/>
-      <c r="O50" s="107"/>
-      <c r="P50" s="107"/>
-      <c r="Q50" s="107"/>
-      <c r="R50" s="107"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="107"/>
       <c r="U50" s="107"/>
       <c r="V50" s="107"/>
       <c r="W50" s="107"/>
@@ -14191,11 +14172,11 @@
       <c r="AB51" s="107"/>
       <c r="AC51" s="126"/>
       <c r="AD51" s="107"/>
-      <c r="AE51" s="107"/>
-      <c r="AF51" s="107"/>
-      <c r="AG51" s="107"/>
-      <c r="AH51" s="107"/>
-      <c r="AI51" s="124"/>
+      <c r="AE51" s="104"/>
+      <c r="AF51" s="104"/>
+      <c r="AG51" s="104"/>
+      <c r="AH51" s="104"/>
+      <c r="AI51" s="46"/>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B52" s="70"/>
@@ -14227,11 +14208,11 @@
       <c r="AB52" s="107"/>
       <c r="AC52" s="126"/>
       <c r="AD52" s="107"/>
-      <c r="AE52" s="107"/>
-      <c r="AF52" s="107"/>
-      <c r="AG52" s="107"/>
-      <c r="AH52" s="107"/>
-      <c r="AI52" s="124"/>
+      <c r="AE52" s="104"/>
+      <c r="AF52" s="104"/>
+      <c r="AG52" s="104"/>
+      <c r="AH52" s="104"/>
+      <c r="AI52" s="46"/>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B53" s="70"/>
@@ -14263,11 +14244,11 @@
       <c r="AB53" s="107"/>
       <c r="AC53" s="126"/>
       <c r="AD53" s="107"/>
-      <c r="AE53" s="107"/>
-      <c r="AF53" s="107"/>
-      <c r="AG53" s="107"/>
-      <c r="AH53" s="107"/>
-      <c r="AI53" s="124"/>
+      <c r="AE53" s="104"/>
+      <c r="AF53" s="104"/>
+      <c r="AG53" s="104"/>
+      <c r="AH53" s="104"/>
+      <c r="AI53" s="46"/>
     </row>
     <row r="54" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="60"/>
@@ -14276,32 +14257,32 @@
       <c r="E54" s="61"/>
       <c r="F54" s="61"/>
       <c r="G54" s="61"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
       <c r="N54" s="61"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
       <c r="U54" s="61"/>
-      <c r="V54" s="109"/>
-      <c r="W54" s="109"/>
-      <c r="X54" s="109"/>
-      <c r="Y54" s="109"/>
-      <c r="Z54" s="109"/>
-      <c r="AA54" s="109"/>
-      <c r="AB54" s="109"/>
-      <c r="AC54" s="109"/>
-      <c r="AD54" s="109"/>
-      <c r="AE54" s="109"/>
-      <c r="AF54" s="109"/>
-      <c r="AG54" s="109"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
       <c r="AH54" s="61"/>
       <c r="AI54" s="62"/>
     </row>
@@ -14317,47 +14298,48 @@
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43"/>
-      <c r="AA57" s="43"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="129"/>
+      <c r="V57" s="129"/>
+      <c r="W57" s="129"/>
+      <c r="X57" s="129"/>
+      <c r="Y57" s="129"/>
+      <c r="Z57" s="129"/>
+      <c r="AA57" s="129"/>
       <c r="AB57" s="43"/>
-      <c r="AC57" s="43"/>
-      <c r="AD57" s="43"/>
-      <c r="AE57" s="43"/>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="43"/>
-      <c r="AH57" s="43"/>
-      <c r="AI57" s="44"/>
+      <c r="AC57" s="129"/>
+      <c r="AD57" s="129"/>
+      <c r="AE57" s="129"/>
+      <c r="AF57" s="129"/>
+      <c r="AG57" s="129"/>
+      <c r="AH57" s="129"/>
+      <c r="AI57" s="130"/>
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B58" s="70"/>
       <c r="C58" s="110"/>
       <c r="D58" s="107"/>
       <c r="E58" s="107"/>
-      <c r="F58" s="104"/>
+      <c r="F58" s="107"/>
       <c r="G58" s="107"/>
       <c r="H58" s="107"/>
       <c r="I58" s="107"/>
       <c r="J58" s="107"/>
       <c r="K58" s="107"/>
-      <c r="M58" s="110"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
       <c r="N58" s="107"/>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -14386,7 +14368,7 @@
       <c r="C59" s="110"/>
       <c r="D59" s="107"/>
       <c r="E59" s="107"/>
-      <c r="F59" s="104"/>
+      <c r="F59" s="107"/>
       <c r="G59" s="107"/>
       <c r="H59" s="107"/>
       <c r="I59" s="107"/>
@@ -14422,7 +14404,7 @@
       <c r="C60" s="110"/>
       <c r="D60" s="107"/>
       <c r="E60" s="107"/>
-      <c r="F60" s="104"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="107"/>
       <c r="H60" s="107"/>
       <c r="I60" s="107"/>
@@ -14458,7 +14440,7 @@
       <c r="C61" s="110"/>
       <c r="D61" s="107"/>
       <c r="E61" s="107"/>
-      <c r="F61" s="104"/>
+      <c r="F61" s="107"/>
       <c r="G61" s="107"/>
       <c r="H61" s="107"/>
       <c r="I61" s="107"/>
@@ -14476,10 +14458,11 @@
       <c r="U61" s="107"/>
       <c r="V61" s="107"/>
       <c r="W61" s="107"/>
+      <c r="X61" s="107"/>
       <c r="Y61" s="107"/>
       <c r="Z61" s="107"/>
       <c r="AA61" s="107"/>
-      <c r="AB61" s="110"/>
+      <c r="AB61" s="107"/>
       <c r="AC61" s="107"/>
       <c r="AD61" s="107"/>
       <c r="AE61" s="107"/>
@@ -14493,35 +14476,35 @@
       <c r="C62" s="110"/>
       <c r="D62" s="107"/>
       <c r="E62" s="107"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
       <c r="H62" s="107"/>
       <c r="I62" s="107"/>
       <c r="J62" s="107"/>
       <c r="K62" s="107"/>
       <c r="L62" s="107"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="104"/>
-      <c r="P62" s="104"/>
-      <c r="Q62" s="104"/>
-      <c r="R62" s="104"/>
-      <c r="S62" s="104"/>
-      <c r="T62" s="104"/>
-      <c r="U62" s="104"/>
-      <c r="V62" s="104"/>
-      <c r="W62" s="104"/>
-      <c r="X62" s="104"/>
-      <c r="Y62" s="104"/>
-      <c r="Z62" s="104"/>
-      <c r="AA62" s="104"/>
-      <c r="AB62" s="104"/>
-      <c r="AC62" s="104"/>
-      <c r="AD62" s="104"/>
-      <c r="AE62" s="104"/>
-      <c r="AF62" s="104"/>
-      <c r="AG62" s="104"/>
-      <c r="AH62" s="104"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107"/>
+      <c r="O62" s="107"/>
+      <c r="P62" s="107"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="107"/>
+      <c r="T62" s="107"/>
+      <c r="U62" s="107"/>
+      <c r="V62" s="107"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
+      <c r="Y62" s="107"/>
+      <c r="Z62" s="107"/>
+      <c r="AA62" s="107"/>
+      <c r="AB62" s="107"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="107"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="107"/>
+      <c r="AG62" s="107"/>
+      <c r="AH62" s="107"/>
       <c r="AI62" s="124"/>
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.45">
@@ -14529,33 +14512,35 @@
       <c r="C63" s="110"/>
       <c r="D63" s="107"/>
       <c r="E63" s="107"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="122"/>
-      <c r="M63" s="122"/>
-      <c r="N63" s="122"/>
-      <c r="O63" s="122"/>
-      <c r="P63" s="122"/>
-      <c r="Q63" s="122"/>
-      <c r="R63" s="122"/>
-      <c r="S63" s="122"/>
-      <c r="U63" s="122"/>
-      <c r="V63" s="122"/>
-      <c r="X63" s="122"/>
-      <c r="Y63" s="122"/>
-      <c r="Z63" s="122"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="122"/>
-      <c r="AC63" s="122"/>
-      <c r="AD63" s="122"/>
-      <c r="AE63" s="122"/>
-      <c r="AF63" s="122"/>
-      <c r="AG63" s="122"/>
-      <c r="AH63" s="63"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="125"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="107"/>
+      <c r="AD63" s="107"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
+      <c r="AG63" s="107"/>
+      <c r="AH63" s="107"/>
       <c r="AI63" s="124"/>
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.45">
@@ -14563,7 +14548,7 @@
       <c r="C64" s="110"/>
       <c r="D64" s="107"/>
       <c r="E64" s="107"/>
-      <c r="F64" s="104"/>
+      <c r="F64" s="107"/>
       <c r="G64" s="107"/>
       <c r="H64" s="107"/>
       <c r="I64" s="107"/>
@@ -14591,7 +14576,7 @@
       <c r="AE64" s="107"/>
       <c r="AF64" s="107"/>
       <c r="AG64" s="107"/>
-      <c r="AH64" s="104"/>
+      <c r="AH64" s="107"/>
       <c r="AI64" s="124"/>
     </row>
     <row r="65" spans="2:35" x14ac:dyDescent="0.45">
@@ -14599,7 +14584,7 @@
       <c r="C65" s="110"/>
       <c r="D65" s="107"/>
       <c r="E65" s="107"/>
-      <c r="F65" s="104"/>
+      <c r="F65" s="107"/>
       <c r="G65" s="107"/>
       <c r="H65" s="107"/>
       <c r="I65" s="107"/>
@@ -14627,7 +14612,7 @@
       <c r="AE65" s="107"/>
       <c r="AF65" s="107"/>
       <c r="AG65" s="107"/>
-      <c r="AH65" s="104"/>
+      <c r="AH65" s="107"/>
       <c r="AI65" s="124"/>
     </row>
     <row r="66" spans="2:35" x14ac:dyDescent="0.45">
@@ -14635,14 +14620,14 @@
       <c r="C66" s="110"/>
       <c r="D66" s="107"/>
       <c r="E66" s="107"/>
-      <c r="F66" s="104"/>
+      <c r="F66" s="107"/>
       <c r="G66" s="107"/>
       <c r="H66" s="107"/>
       <c r="I66" s="107"/>
       <c r="J66" s="107"/>
       <c r="K66" s="107"/>
       <c r="L66" s="107"/>
-      <c r="M66" s="110"/>
+      <c r="M66" s="107"/>
       <c r="N66" s="107"/>
       <c r="O66" s="107"/>
       <c r="P66" s="107"/>
@@ -14663,7 +14648,7 @@
       <c r="AE66" s="107"/>
       <c r="AF66" s="107"/>
       <c r="AG66" s="107"/>
-      <c r="AH66" s="104"/>
+      <c r="AH66" s="107"/>
       <c r="AI66" s="124"/>
     </row>
     <row r="67" spans="2:35" x14ac:dyDescent="0.45">
@@ -14671,35 +14656,35 @@
       <c r="C67" s="110"/>
       <c r="D67" s="107"/>
       <c r="E67" s="107"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104"/>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="104"/>
-      <c r="S67" s="104"/>
-      <c r="T67" s="104"/>
-      <c r="U67" s="104"/>
-      <c r="V67" s="104"/>
-      <c r="W67" s="104"/>
-      <c r="X67" s="104"/>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="104"/>
-      <c r="AA67" s="104"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="107"/>
+      <c r="W67" s="107"/>
+      <c r="X67" s="107"/>
+      <c r="Y67" s="107"/>
+      <c r="Z67" s="107"/>
+      <c r="AA67" s="107"/>
       <c r="AB67" s="107"/>
       <c r="AC67" s="107"/>
       <c r="AD67" s="107"/>
       <c r="AE67" s="107"/>
       <c r="AF67" s="107"/>
-      <c r="AG67" s="104"/>
-      <c r="AH67" s="104"/>
+      <c r="AG67" s="107"/>
+      <c r="AH67" s="107"/>
       <c r="AI67" s="124"/>
     </row>
     <row r="68" spans="2:35" x14ac:dyDescent="0.45">
@@ -14735,7 +14720,7 @@
       <c r="AE68" s="107"/>
       <c r="AF68" s="107"/>
       <c r="AG68" s="107"/>
-      <c r="AH68" s="104"/>
+      <c r="AH68" s="107"/>
       <c r="AI68" s="124"/>
     </row>
     <row r="69" spans="2:35" x14ac:dyDescent="0.45">
@@ -14771,7 +14756,7 @@
       <c r="AE69" s="107"/>
       <c r="AF69" s="107"/>
       <c r="AG69" s="107"/>
-      <c r="AH69" s="104"/>
+      <c r="AH69" s="107"/>
       <c r="AI69" s="124"/>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.45">
@@ -14807,7 +14792,7 @@
       <c r="AE70" s="107"/>
       <c r="AF70" s="107"/>
       <c r="AG70" s="107"/>
-      <c r="AH70" s="104"/>
+      <c r="AH70" s="107"/>
       <c r="AI70" s="124"/>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.45">
@@ -14833,16 +14818,17 @@
       <c r="U71" s="107"/>
       <c r="V71" s="107"/>
       <c r="W71" s="107"/>
+      <c r="X71" s="107"/>
       <c r="Y71" s="107"/>
       <c r="Z71" s="107"/>
-      <c r="AA71" s="110"/>
+      <c r="AA71" s="107"/>
       <c r="AB71" s="107"/>
       <c r="AC71" s="126"/>
       <c r="AD71" s="107"/>
       <c r="AE71" s="107"/>
       <c r="AF71" s="107"/>
       <c r="AG71" s="107"/>
-      <c r="AH71" s="104"/>
+      <c r="AH71" s="107"/>
       <c r="AI71" s="124"/>
     </row>
     <row r="72" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14852,32 +14838,32 @@
       <c r="E72" s="61"/>
       <c r="F72" s="61"/>
       <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
       <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
+      <c r="O72" s="109"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="109"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="109"/>
       <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="61"/>
-      <c r="AC72" s="61"/>
-      <c r="AD72" s="61"/>
-      <c r="AE72" s="61"/>
-      <c r="AF72" s="61"/>
-      <c r="AG72" s="61"/>
+      <c r="V72" s="109"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="109"/>
+      <c r="Y72" s="109"/>
+      <c r="Z72" s="109"/>
+      <c r="AA72" s="109"/>
+      <c r="AB72" s="109"/>
+      <c r="AC72" s="109"/>
+      <c r="AD72" s="109"/>
+      <c r="AE72" s="109"/>
+      <c r="AF72" s="109"/>
+      <c r="AG72" s="109"/>
       <c r="AH72" s="61"/>
       <c r="AI72" s="62"/>
     </row>
@@ -14886,11 +14872,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B75" s="42"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
+    <row r="75" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="134"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
       <c r="F75" s="43"/>
       <c r="G75" s="43"/>
       <c r="H75" s="43"/>
@@ -14906,21 +14892,21 @@
       <c r="R75" s="43"/>
       <c r="S75" s="43"/>
       <c r="T75" s="43"/>
-      <c r="U75" s="129"/>
-      <c r="V75" s="129"/>
-      <c r="W75" s="129"/>
-      <c r="X75" s="129"/>
-      <c r="Y75" s="129"/>
-      <c r="Z75" s="129"/>
-      <c r="AA75" s="129"/>
-      <c r="AB75" s="129"/>
-      <c r="AC75" s="129"/>
-      <c r="AD75" s="129"/>
-      <c r="AE75" s="129"/>
-      <c r="AF75" s="129"/>
-      <c r="AG75" s="129"/>
-      <c r="AH75" s="129"/>
-      <c r="AI75" s="138"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="44"/>
     </row>
     <row r="76" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B76" s="70"/>
@@ -14930,23 +14916,22 @@
       <c r="F76" s="107"/>
       <c r="G76" s="107"/>
       <c r="H76" s="107"/>
-      <c r="I76" s="122"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="107"/>
+      <c r="K76" s="107"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="107"/>
       <c r="O76" s="107"/>
-      <c r="P76" s="107"/>
-      <c r="Q76" s="107"/>
-      <c r="R76" s="107"/>
-      <c r="S76" s="107"/>
-      <c r="T76" s="107"/>
+      <c r="P76" s="104"/>
       <c r="U76" s="107"/>
       <c r="V76" s="107"/>
       <c r="W76" s="107"/>
       <c r="X76" s="107"/>
-      <c r="Y76" s="107"/>
-      <c r="Z76" s="107"/>
+      <c r="Y76" s="138"/>
+      <c r="Z76" s="138"/>
       <c r="AA76" s="107"/>
       <c r="AB76" s="107"/>
-      <c r="AC76" s="107"/>
-      <c r="AD76" s="107"/>
       <c r="AE76" s="107"/>
       <c r="AF76" s="107"/>
       <c r="AG76" s="107"/>
@@ -14964,32 +14949,26 @@
       <c r="I77" s="107"/>
       <c r="J77" s="107"/>
       <c r="K77" s="107"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="136"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="85"/>
       <c r="N77" s="107"/>
       <c r="O77" s="107"/>
-      <c r="P77" s="107"/>
-      <c r="Q77" s="107"/>
-      <c r="R77" s="107"/>
-      <c r="S77" s="107"/>
-      <c r="T77" s="107"/>
+      <c r="P77" s="104"/>
       <c r="U77" s="107"/>
       <c r="V77" s="107"/>
       <c r="W77" s="107"/>
       <c r="X77" s="107"/>
-      <c r="Y77" s="107"/>
-      <c r="Z77" s="107"/>
+      <c r="Y77" s="138"/>
+      <c r="Z77" s="138"/>
       <c r="AA77" s="107"/>
       <c r="AB77" s="107"/>
-      <c r="AC77" s="107"/>
-      <c r="AD77" s="107"/>
       <c r="AE77" s="107"/>
       <c r="AF77" s="107"/>
       <c r="AG77" s="107"/>
       <c r="AH77" s="107"/>
       <c r="AI77" s="124"/>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="70"/>
       <c r="C78" s="110"/>
       <c r="D78" s="107"/>
@@ -14998,27 +14977,21 @@
       <c r="G78" s="107"/>
       <c r="H78" s="107"/>
       <c r="I78" s="107"/>
-      <c r="J78" s="104"/>
+      <c r="J78" s="107"/>
       <c r="K78" s="107"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
+      <c r="L78" s="87"/>
+      <c r="M78" s="88"/>
       <c r="N78" s="107"/>
       <c r="O78" s="107"/>
-      <c r="P78" s="107"/>
-      <c r="Q78" s="107"/>
-      <c r="R78" s="107"/>
-      <c r="S78" s="107"/>
-      <c r="T78" s="107"/>
+      <c r="P78" s="104"/>
       <c r="U78" s="107"/>
       <c r="V78" s="107"/>
       <c r="W78" s="107"/>
       <c r="X78" s="107"/>
-      <c r="Y78" s="107"/>
-      <c r="Z78" s="107"/>
+      <c r="Y78" s="138"/>
+      <c r="Z78" s="138"/>
       <c r="AA78" s="107"/>
       <c r="AB78" s="107"/>
-      <c r="AC78" s="107"/>
-      <c r="AD78" s="107"/>
       <c r="AE78" s="107"/>
       <c r="AF78" s="107"/>
       <c r="AG78" s="107"/>
@@ -15033,30 +15006,24 @@
       <c r="F79" s="107"/>
       <c r="G79" s="107"/>
       <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
+      <c r="I79" s="104"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
-      <c r="L79" s="104"/>
-      <c r="M79" s="104"/>
+      <c r="L79" s="138"/>
+      <c r="M79" s="138"/>
       <c r="N79" s="104"/>
-      <c r="O79" s="107"/>
-      <c r="P79" s="107"/>
-      <c r="Q79" s="107"/>
-      <c r="R79" s="107"/>
-      <c r="S79" s="107"/>
-      <c r="T79" s="107"/>
+      <c r="O79" s="104"/>
+      <c r="P79" s="104"/>
       <c r="U79" s="107"/>
-      <c r="V79" s="107"/>
-      <c r="W79" s="107"/>
-      <c r="X79" s="107"/>
-      <c r="Y79" s="107"/>
-      <c r="Z79" s="107"/>
-      <c r="AA79" s="107"/>
-      <c r="AB79" s="107"/>
-      <c r="AC79" s="107"/>
+      <c r="V79" s="104"/>
+      <c r="W79" s="104"/>
+      <c r="X79" s="104"/>
+      <c r="Y79" s="138"/>
+      <c r="Z79" s="138"/>
+      <c r="AA79" s="104"/>
+      <c r="AB79" s="104"/>
+      <c r="AC79" s="104"/>
       <c r="AD79" s="107"/>
-      <c r="AE79" s="107"/>
-      <c r="AF79" s="107"/>
       <c r="AG79" s="107"/>
       <c r="AH79" s="107"/>
       <c r="AI79" s="124"/>
@@ -15069,24 +15036,24 @@
       <c r="F80" s="107"/>
       <c r="G80" s="107"/>
       <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="O80" s="107"/>
-      <c r="P80" s="107"/>
-      <c r="Q80" s="107"/>
-      <c r="R80" s="107"/>
-      <c r="S80" s="107"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="104"/>
+      <c r="L80" s="138"/>
+      <c r="M80" s="138"/>
+      <c r="N80" s="104"/>
+      <c r="O80" s="104"/>
+      <c r="P80" s="104"/>
       <c r="U80" s="107"/>
-      <c r="V80" s="107"/>
-      <c r="W80" s="107"/>
-      <c r="X80" s="107"/>
-      <c r="Y80" s="107"/>
-      <c r="Z80" s="107"/>
-      <c r="AA80" s="107"/>
-      <c r="AB80" s="107"/>
-      <c r="AC80" s="107"/>
+      <c r="V80" s="104"/>
+      <c r="W80" s="104"/>
+      <c r="X80" s="104"/>
+      <c r="Y80" s="138"/>
+      <c r="Z80" s="138"/>
+      <c r="AA80" s="104"/>
+      <c r="AB80" s="104"/>
+      <c r="AC80" s="104"/>
       <c r="AD80" s="107"/>
-      <c r="AE80" s="107"/>
-      <c r="AF80" s="107"/>
       <c r="AG80" s="107"/>
       <c r="AH80" s="107"/>
       <c r="AI80" s="124"/>
@@ -15099,24 +15066,24 @@
       <c r="F81" s="107"/>
       <c r="G81" s="107"/>
       <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="P81" s="107"/>
-      <c r="Q81" s="107"/>
-      <c r="R81" s="107"/>
-      <c r="S81" s="107"/>
-      <c r="T81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="138"/>
+      <c r="M81" s="138"/>
+      <c r="N81" s="104"/>
+      <c r="O81" s="104"/>
+      <c r="P81" s="104"/>
       <c r="U81" s="107"/>
-      <c r="V81" s="107"/>
-      <c r="W81" s="107"/>
-      <c r="X81" s="107"/>
-      <c r="Y81" s="107"/>
-      <c r="Z81" s="107"/>
-      <c r="AA81" s="107"/>
-      <c r="AB81" s="107"/>
-      <c r="AC81" s="107"/>
+      <c r="V81" s="104"/>
+      <c r="W81" s="104"/>
+      <c r="X81" s="104"/>
+      <c r="Y81" s="138"/>
+      <c r="Z81" s="138"/>
+      <c r="AA81" s="104"/>
+      <c r="AB81" s="104"/>
+      <c r="AC81" s="104"/>
       <c r="AD81" s="107"/>
-      <c r="AE81" s="107"/>
-      <c r="AF81" s="107"/>
       <c r="AG81" s="107"/>
       <c r="AH81" s="107"/>
       <c r="AI81" s="124"/>
@@ -15129,28 +15096,24 @@
       <c r="F82" s="107"/>
       <c r="G82" s="107"/>
       <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-      <c r="P82" s="137"/>
-      <c r="Q82" s="137"/>
-      <c r="R82" s="137"/>
-      <c r="S82" s="137"/>
-      <c r="T82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="138"/>
+      <c r="M82" s="138"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
       <c r="U82" s="107"/>
-      <c r="V82" s="107"/>
-      <c r="W82" s="107"/>
-      <c r="X82" s="107"/>
-      <c r="Y82" s="107"/>
-      <c r="Z82" s="107"/>
-      <c r="AA82" s="107"/>
-      <c r="AB82" s="107"/>
-      <c r="AC82" s="107"/>
+      <c r="V82" s="104"/>
+      <c r="W82" s="104"/>
+      <c r="X82" s="104"/>
+      <c r="Y82" s="138"/>
+      <c r="Z82" s="138"/>
+      <c r="AA82" s="104"/>
+      <c r="AB82" s="104"/>
+      <c r="AC82" s="104"/>
       <c r="AD82" s="107"/>
-      <c r="AE82" s="107"/>
-      <c r="AF82" s="107"/>
       <c r="AG82" s="107"/>
       <c r="AH82" s="107"/>
       <c r="AI82" s="124"/>
@@ -15163,25 +15126,24 @@
       <c r="F83" s="107"/>
       <c r="G83" s="107"/>
       <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
-      <c r="Q83" s="107"/>
-      <c r="R83" s="107"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="107"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104"/>
+      <c r="L83" s="138"/>
+      <c r="M83" s="138"/>
+      <c r="N83" s="104"/>
+      <c r="O83" s="104"/>
+      <c r="P83" s="104"/>
       <c r="U83" s="107"/>
-      <c r="V83" s="107"/>
-      <c r="W83" s="107"/>
-      <c r="X83" s="107"/>
-      <c r="Y83" s="107"/>
-      <c r="Z83" s="107"/>
-      <c r="AA83" s="107"/>
-      <c r="AB83" s="107"/>
-      <c r="AC83" s="107"/>
+      <c r="V83" s="104"/>
+      <c r="W83" s="104"/>
+      <c r="X83" s="104"/>
+      <c r="Y83" s="138"/>
+      <c r="Z83" s="138"/>
+      <c r="AA83" s="104"/>
+      <c r="AB83" s="104"/>
+      <c r="AC83" s="104"/>
       <c r="AD83" s="107"/>
-      <c r="AE83" s="107"/>
-      <c r="AF83" s="107"/>
       <c r="AG83" s="107"/>
       <c r="AH83" s="107"/>
       <c r="AI83" s="124"/>
@@ -15194,29 +15156,24 @@
       <c r="F84" s="107"/>
       <c r="G84" s="107"/>
       <c r="H84" s="107"/>
+      <c r="I84" s="104"/>
       <c r="J84" s="104"/>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
-      <c r="O84" s="107"/>
-      <c r="P84" s="107"/>
-      <c r="Q84" s="107"/>
-      <c r="R84" s="107"/>
-      <c r="S84" s="107"/>
-      <c r="T84" s="107"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="138"/>
+      <c r="M84" s="138"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="104"/>
+      <c r="P84" s="104"/>
       <c r="U84" s="107"/>
-      <c r="V84" s="107"/>
-      <c r="W84" s="107"/>
-      <c r="X84" s="107"/>
-      <c r="Y84" s="107"/>
-      <c r="Z84" s="107"/>
-      <c r="AA84" s="107"/>
-      <c r="AB84" s="107"/>
-      <c r="AC84" s="107"/>
+      <c r="V84" s="104"/>
+      <c r="W84" s="104"/>
+      <c r="X84" s="104"/>
+      <c r="Y84" s="138"/>
+      <c r="Z84" s="138"/>
+      <c r="AA84" s="104"/>
+      <c r="AB84" s="104"/>
+      <c r="AC84" s="104"/>
       <c r="AD84" s="107"/>
-      <c r="AE84" s="107"/>
-      <c r="AF84" s="107"/>
       <c r="AG84" s="107"/>
       <c r="AH84" s="107"/>
       <c r="AI84" s="124"/>
@@ -15229,34 +15186,29 @@
       <c r="F85" s="107"/>
       <c r="G85" s="107"/>
       <c r="H85" s="107"/>
+      <c r="I85" s="104"/>
       <c r="J85" s="104"/>
       <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
+      <c r="L85" s="138"/>
+      <c r="M85" s="138"/>
       <c r="N85" s="104"/>
-      <c r="O85" s="107"/>
-      <c r="P85" s="107"/>
-      <c r="Q85" s="107"/>
-      <c r="R85" s="107"/>
-      <c r="S85" s="107"/>
-      <c r="T85" s="107"/>
+      <c r="O85" s="104"/>
+      <c r="P85" s="104"/>
       <c r="U85" s="107"/>
-      <c r="V85" s="107"/>
-      <c r="W85" s="107"/>
-      <c r="X85" s="107"/>
-      <c r="Y85" s="107"/>
-      <c r="Z85" s="107"/>
-      <c r="AA85" s="107"/>
-      <c r="AB85" s="107"/>
-      <c r="AC85" s="107"/>
+      <c r="V85" s="104"/>
+      <c r="W85" s="104"/>
+      <c r="X85" s="104"/>
+      <c r="Y85" s="138"/>
+      <c r="Z85" s="138"/>
+      <c r="AA85" s="104"/>
+      <c r="AB85" s="104"/>
+      <c r="AC85" s="104"/>
       <c r="AD85" s="107"/>
-      <c r="AE85" s="107"/>
-      <c r="AF85" s="107"/>
       <c r="AG85" s="107"/>
       <c r="AH85" s="107"/>
       <c r="AI85" s="124"/>
     </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="70"/>
       <c r="C86" s="110"/>
       <c r="D86" s="107"/>
@@ -15264,18 +15216,24 @@
       <c r="F86" s="107"/>
       <c r="G86" s="107"/>
       <c r="H86" s="107"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="104"/>
+      <c r="L86" s="138"/>
+      <c r="M86" s="138"/>
+      <c r="N86" s="104"/>
+      <c r="O86" s="104"/>
+      <c r="P86" s="104"/>
       <c r="U86" s="107"/>
-      <c r="V86" s="107"/>
-      <c r="W86" s="107"/>
-      <c r="X86" s="107"/>
-      <c r="Y86" s="107"/>
-      <c r="Z86" s="107"/>
-      <c r="AA86" s="107"/>
-      <c r="AB86" s="107"/>
-      <c r="AC86" s="107"/>
+      <c r="V86" s="104"/>
+      <c r="W86" s="104"/>
+      <c r="X86" s="104"/>
+      <c r="Y86" s="138"/>
+      <c r="Z86" s="138"/>
+      <c r="AA86" s="104"/>
+      <c r="AB86" s="104"/>
+      <c r="AC86" s="104"/>
       <c r="AD86" s="107"/>
-      <c r="AE86" s="107"/>
-      <c r="AF86" s="107"/>
       <c r="AG86" s="107"/>
       <c r="AH86" s="107"/>
       <c r="AI86" s="124"/>
@@ -15291,30 +15249,21 @@
       <c r="I87" s="107"/>
       <c r="J87" s="107"/>
       <c r="K87" s="107"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="107"/>
-      <c r="N87" s="107"/>
+      <c r="L87" s="138"/>
+      <c r="M87" s="138"/>
+      <c r="N87" s="126"/>
       <c r="O87" s="107"/>
-      <c r="P87" s="107"/>
-      <c r="Q87" s="107"/>
-      <c r="R87" s="107"/>
-      <c r="S87" s="107"/>
-      <c r="T87" s="107"/>
       <c r="U87" s="107"/>
       <c r="V87" s="107"/>
       <c r="W87" s="107"/>
       <c r="X87" s="107"/>
-      <c r="Y87" s="107"/>
-      <c r="Z87" s="107"/>
-      <c r="AA87" s="107"/>
+      <c r="Y87" s="82"/>
+      <c r="Z87" s="83"/>
+      <c r="AA87" s="126"/>
       <c r="AB87" s="107"/>
-      <c r="AC87" s="126"/>
+      <c r="AC87" s="104"/>
       <c r="AD87" s="107"/>
-      <c r="AE87" s="104"/>
-      <c r="AF87" s="104"/>
-      <c r="AG87" s="104"/>
-      <c r="AH87" s="104"/>
-      <c r="AI87" s="46"/>
+      <c r="AI87" s="124"/>
     </row>
     <row r="88" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B88" s="70"/>
@@ -15325,34 +15274,25 @@
       <c r="G88" s="108"/>
       <c r="H88" s="107"/>
       <c r="I88" s="107"/>
-      <c r="J88" s="108"/>
-      <c r="K88" s="108"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="107"/>
-      <c r="N88" s="107"/>
+      <c r="J88" s="107"/>
+      <c r="K88" s="107"/>
+      <c r="L88" s="138"/>
+      <c r="M88" s="138"/>
+      <c r="N88" s="126"/>
       <c r="O88" s="107"/>
-      <c r="P88" s="107"/>
-      <c r="Q88" s="107"/>
-      <c r="R88" s="107"/>
-      <c r="S88" s="107"/>
-      <c r="T88" s="107"/>
       <c r="U88" s="107"/>
       <c r="V88" s="107"/>
       <c r="W88" s="107"/>
       <c r="X88" s="107"/>
-      <c r="Y88" s="107"/>
-      <c r="Z88" s="107"/>
-      <c r="AA88" s="107"/>
+      <c r="Y88" s="84"/>
+      <c r="Z88" s="85"/>
+      <c r="AA88" s="126"/>
       <c r="AB88" s="107"/>
-      <c r="AC88" s="126"/>
+      <c r="AC88" s="104"/>
       <c r="AD88" s="107"/>
-      <c r="AE88" s="104"/>
-      <c r="AF88" s="104"/>
-      <c r="AG88" s="104"/>
-      <c r="AH88" s="104"/>
-      <c r="AI88" s="46"/>
-    </row>
-    <row r="89" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="AI88" s="124"/>
+    </row>
+    <row r="89" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B89" s="70"/>
       <c r="C89" s="110"/>
       <c r="D89" s="105"/>
@@ -15361,32 +15301,23 @@
       <c r="G89" s="108"/>
       <c r="H89" s="107"/>
       <c r="I89" s="107"/>
-      <c r="J89" s="108"/>
-      <c r="K89" s="108"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="107"/>
-      <c r="N89" s="107"/>
+      <c r="J89" s="107"/>
+      <c r="K89" s="107"/>
+      <c r="L89" s="138"/>
+      <c r="M89" s="138"/>
+      <c r="N89" s="126"/>
       <c r="O89" s="107"/>
-      <c r="P89" s="107"/>
-      <c r="Q89" s="107"/>
-      <c r="R89" s="107"/>
-      <c r="S89" s="107"/>
-      <c r="T89" s="107"/>
       <c r="U89" s="107"/>
       <c r="V89" s="107"/>
       <c r="W89" s="107"/>
       <c r="X89" s="107"/>
-      <c r="Y89" s="107"/>
-      <c r="Z89" s="107"/>
-      <c r="AA89" s="107"/>
+      <c r="Y89" s="87"/>
+      <c r="Z89" s="88"/>
+      <c r="AA89" s="126"/>
       <c r="AB89" s="107"/>
-      <c r="AC89" s="126"/>
+      <c r="AC89" s="104"/>
       <c r="AD89" s="107"/>
-      <c r="AE89" s="104"/>
-      <c r="AF89" s="104"/>
-      <c r="AG89" s="104"/>
-      <c r="AH89" s="104"/>
-      <c r="AI89" s="46"/>
+      <c r="AI89" s="124"/>
     </row>
     <row r="90" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B90" s="60"/>
@@ -15470,34 +15401,33 @@
       <c r="C94" s="110"/>
       <c r="D94" s="107"/>
       <c r="E94" s="107"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="104"/>
-      <c r="I94" s="104"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="107"/>
+      <c r="H94" s="107"/>
+      <c r="I94" s="107"/>
       <c r="J94" s="107"/>
       <c r="K94" s="107"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="107"/>
+      <c r="M94" s="110"/>
       <c r="N94" s="107"/>
       <c r="O94" s="107"/>
-      <c r="P94" s="104"/>
-      <c r="Q94" s="104"/>
-      <c r="R94" s="105"/>
-      <c r="S94" s="105"/>
-      <c r="T94" s="105"/>
+      <c r="P94" s="107"/>
+      <c r="Q94" s="107"/>
+      <c r="R94" s="107"/>
+      <c r="S94" s="107"/>
+      <c r="T94" s="107"/>
       <c r="U94" s="107"/>
       <c r="V94" s="107"/>
       <c r="W94" s="107"/>
-      <c r="X94" s="104"/>
-      <c r="Y94" s="104"/>
+      <c r="X94" s="107"/>
+      <c r="Y94" s="107"/>
       <c r="Z94" s="107"/>
-      <c r="AA94" s="105"/>
-      <c r="AB94" s="105"/>
+      <c r="AA94" s="107"/>
+      <c r="AB94" s="107"/>
       <c r="AC94" s="107"/>
       <c r="AD94" s="107"/>
       <c r="AE94" s="107"/>
-      <c r="AF94" s="105"/>
-      <c r="AG94" s="105"/>
+      <c r="AF94" s="107"/>
+      <c r="AG94" s="107"/>
       <c r="AH94" s="107"/>
       <c r="AI94" s="124"/>
     </row>
@@ -15506,34 +15436,34 @@
       <c r="C95" s="110"/>
       <c r="D95" s="107"/>
       <c r="E95" s="107"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="104"/>
-      <c r="I95" s="104"/>
+      <c r="F95" s="104"/>
+      <c r="G95" s="107"/>
+      <c r="H95" s="107"/>
+      <c r="I95" s="107"/>
       <c r="J95" s="107"/>
-      <c r="K95" s="105"/>
-      <c r="L95" s="105"/>
+      <c r="K95" s="107"/>
+      <c r="L95" s="107"/>
       <c r="M95" s="107"/>
       <c r="N95" s="107"/>
       <c r="O95" s="107"/>
-      <c r="P95" s="105"/>
-      <c r="Q95" s="105"/>
-      <c r="R95" s="105"/>
-      <c r="S95" s="105"/>
-      <c r="T95" s="105"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="107"/>
+      <c r="R95" s="107"/>
+      <c r="S95" s="107"/>
+      <c r="T95" s="107"/>
       <c r="U95" s="107"/>
       <c r="V95" s="107"/>
       <c r="W95" s="107"/>
-      <c r="X95" s="104"/>
-      <c r="Y95" s="104"/>
-      <c r="Z95" s="105"/>
-      <c r="AA95" s="105"/>
-      <c r="AB95" s="105"/>
+      <c r="X95" s="107"/>
+      <c r="Y95" s="107"/>
+      <c r="Z95" s="107"/>
+      <c r="AA95" s="107"/>
+      <c r="AB95" s="107"/>
       <c r="AC95" s="107"/>
       <c r="AD95" s="107"/>
       <c r="AE95" s="107"/>
-      <c r="AF95" s="104"/>
-      <c r="AG95" s="104"/>
+      <c r="AF95" s="107"/>
+      <c r="AG95" s="107"/>
       <c r="AH95" s="107"/>
       <c r="AI95" s="124"/>
     </row>
@@ -15542,34 +15472,34 @@
       <c r="C96" s="110"/>
       <c r="D96" s="107"/>
       <c r="E96" s="107"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
+      <c r="F96" s="104"/>
+      <c r="G96" s="107"/>
       <c r="H96" s="107"/>
       <c r="I96" s="107"/>
-      <c r="J96" s="105"/>
-      <c r="K96" s="105"/>
-      <c r="L96" s="105"/>
-      <c r="M96" s="105"/>
-      <c r="N96" s="105"/>
+      <c r="J96" s="107"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="107"/>
       <c r="O96" s="107"/>
-      <c r="P96" s="105"/>
-      <c r="Q96" s="105"/>
-      <c r="R96" s="105"/>
+      <c r="P96" s="107"/>
+      <c r="Q96" s="107"/>
+      <c r="R96" s="107"/>
       <c r="S96" s="107"/>
       <c r="T96" s="107"/>
       <c r="U96" s="107"/>
       <c r="V96" s="107"/>
       <c r="W96" s="107"/>
-      <c r="X96" s="105"/>
-      <c r="Y96" s="105"/>
-      <c r="Z96" s="105"/>
-      <c r="AA96" s="105"/>
-      <c r="AB96" s="105"/>
+      <c r="X96" s="107"/>
+      <c r="Y96" s="107"/>
+      <c r="Z96" s="107"/>
+      <c r="AA96" s="107"/>
+      <c r="AB96" s="107"/>
       <c r="AC96" s="107"/>
       <c r="AD96" s="107"/>
       <c r="AE96" s="107"/>
-      <c r="AF96" s="104"/>
-      <c r="AG96" s="104"/>
+      <c r="AF96" s="107"/>
+      <c r="AG96" s="107"/>
       <c r="AH96" s="107"/>
       <c r="AI96" s="124"/>
     </row>
@@ -15577,35 +15507,34 @@
       <c r="B97" s="70"/>
       <c r="C97" s="110"/>
       <c r="D97" s="107"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="104"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="104"/>
+      <c r="G97" s="107"/>
+      <c r="H97" s="107"/>
+      <c r="I97" s="107"/>
       <c r="J97" s="107"/>
       <c r="K97" s="107"/>
       <c r="L97" s="107"/>
       <c r="M97" s="107"/>
-      <c r="N97" s="105"/>
+      <c r="N97" s="107"/>
       <c r="O97" s="107"/>
-      <c r="P97" s="105"/>
-      <c r="Q97" s="105"/>
-      <c r="R97" s="105"/>
-      <c r="S97" s="105"/>
-      <c r="T97" s="105"/>
-      <c r="U97" s="105"/>
+      <c r="P97" s="107"/>
+      <c r="Q97" s="107"/>
+      <c r="R97" s="107"/>
+      <c r="S97" s="107"/>
+      <c r="T97" s="107"/>
+      <c r="U97" s="107"/>
       <c r="V97" s="107"/>
       <c r="W97" s="107"/>
-      <c r="X97" s="107"/>
       <c r="Y97" s="107"/>
-      <c r="Z97" s="105"/>
-      <c r="AA97" s="105"/>
-      <c r="AB97" s="105"/>
+      <c r="Z97" s="107"/>
+      <c r="AA97" s="107"/>
+      <c r="AB97" s="110"/>
       <c r="AC97" s="107"/>
       <c r="AD97" s="107"/>
       <c r="AE97" s="107"/>
-      <c r="AF97" s="105"/>
-      <c r="AG97" s="105"/>
+      <c r="AF97" s="107"/>
+      <c r="AG97" s="107"/>
       <c r="AH97" s="107"/>
       <c r="AI97" s="124"/>
     </row>
@@ -15613,36 +15542,36 @@
       <c r="B98" s="70"/>
       <c r="C98" s="110"/>
       <c r="D98" s="107"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="104"/>
-      <c r="I98" s="104"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="104"/>
+      <c r="H98" s="107"/>
+      <c r="I98" s="107"/>
       <c r="J98" s="107"/>
       <c r="K98" s="107"/>
       <c r="L98" s="107"/>
-      <c r="M98" s="107"/>
-      <c r="N98" s="105"/>
-      <c r="O98" s="107"/>
+      <c r="M98" s="128"/>
+      <c r="N98" s="104"/>
+      <c r="O98" s="104"/>
       <c r="P98" s="104"/>
       <c r="Q98" s="104"/>
-      <c r="R98" s="105"/>
-      <c r="S98" s="105"/>
-      <c r="T98" s="105"/>
-      <c r="U98" s="105"/>
-      <c r="V98" s="107"/>
-      <c r="W98" s="107"/>
+      <c r="R98" s="104"/>
+      <c r="S98" s="104"/>
+      <c r="T98" s="104"/>
+      <c r="U98" s="104"/>
+      <c r="V98" s="104"/>
+      <c r="W98" s="104"/>
       <c r="X98" s="104"/>
       <c r="Y98" s="104"/>
-      <c r="Z98" s="105"/>
-      <c r="AA98" s="105"/>
-      <c r="AB98" s="105"/>
-      <c r="AC98" s="107"/>
-      <c r="AD98" s="105"/>
-      <c r="AE98" s="105"/>
+      <c r="Z98" s="104"/>
+      <c r="AA98" s="104"/>
+      <c r="AB98" s="104"/>
+      <c r="AC98" s="104"/>
+      <c r="AD98" s="104"/>
+      <c r="AE98" s="104"/>
       <c r="AF98" s="104"/>
       <c r="AG98" s="104"/>
-      <c r="AH98" s="107"/>
+      <c r="AH98" s="104"/>
       <c r="AI98" s="124"/>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.45">
@@ -15650,35 +15579,33 @@
       <c r="C99" s="110"/>
       <c r="D99" s="107"/>
       <c r="E99" s="107"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="105"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="105"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="107"/>
-      <c r="N99" s="105"/>
-      <c r="O99" s="107"/>
-      <c r="P99" s="104"/>
-      <c r="Q99" s="104"/>
-      <c r="R99" s="105"/>
-      <c r="S99" s="105"/>
-      <c r="T99" s="105"/>
-      <c r="U99" s="105"/>
-      <c r="V99" s="107"/>
-      <c r="W99" s="107"/>
-      <c r="X99" s="104"/>
-      <c r="Y99" s="104"/>
-      <c r="Z99" s="105"/>
-      <c r="AA99" s="105"/>
-      <c r="AB99" s="105"/>
-      <c r="AC99" s="107"/>
-      <c r="AD99" s="105"/>
-      <c r="AE99" s="105"/>
-      <c r="AF99" s="104"/>
-      <c r="AG99" s="104"/>
-      <c r="AH99" s="107"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="122"/>
+      <c r="H99" s="122"/>
+      <c r="I99" s="122"/>
+      <c r="J99" s="122"/>
+      <c r="K99" s="122"/>
+      <c r="L99" s="122"/>
+      <c r="M99" s="122"/>
+      <c r="N99" s="122"/>
+      <c r="O99" s="122"/>
+      <c r="P99" s="122"/>
+      <c r="Q99" s="122"/>
+      <c r="R99" s="122"/>
+      <c r="S99" s="122"/>
+      <c r="U99" s="122"/>
+      <c r="V99" s="122"/>
+      <c r="X99" s="122"/>
+      <c r="Y99" s="122"/>
+      <c r="Z99" s="122"/>
+      <c r="AA99" s="67"/>
+      <c r="AB99" s="122"/>
+      <c r="AC99" s="122"/>
+      <c r="AD99" s="122"/>
+      <c r="AE99" s="122"/>
+      <c r="AF99" s="122"/>
+      <c r="AG99" s="122"/>
+      <c r="AH99" s="63"/>
       <c r="AI99" s="124"/>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.45">
@@ -15686,35 +15613,35 @@
       <c r="C100" s="110"/>
       <c r="D100" s="107"/>
       <c r="E100" s="107"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
       <c r="L100" s="107"/>
       <c r="M100" s="107"/>
-      <c r="N100" s="105"/>
-      <c r="O100" s="105"/>
-      <c r="P100" s="105"/>
-      <c r="Q100" s="105"/>
-      <c r="R100" s="105"/>
-      <c r="S100" s="105"/>
-      <c r="T100" s="105"/>
-      <c r="U100" s="105"/>
+      <c r="N100" s="107"/>
+      <c r="O100" s="107"/>
+      <c r="P100" s="107"/>
+      <c r="Q100" s="107"/>
+      <c r="R100" s="107"/>
+      <c r="S100" s="107"/>
+      <c r="T100" s="107"/>
+      <c r="U100" s="107"/>
       <c r="V100" s="107"/>
       <c r="W100" s="107"/>
       <c r="X100" s="107"/>
       <c r="Y100" s="107"/>
-      <c r="Z100" s="105"/>
-      <c r="AA100" s="105"/>
-      <c r="AB100" s="105"/>
+      <c r="Z100" s="107"/>
+      <c r="AA100" s="107"/>
+      <c r="AB100" s="107"/>
       <c r="AC100" s="107"/>
       <c r="AD100" s="107"/>
       <c r="AE100" s="107"/>
-      <c r="AF100" s="105"/>
-      <c r="AG100" s="105"/>
-      <c r="AH100" s="107"/>
+      <c r="AF100" s="107"/>
+      <c r="AG100" s="107"/>
+      <c r="AH100" s="104"/>
       <c r="AI100" s="124"/>
     </row>
     <row r="101" spans="2:35" x14ac:dyDescent="0.45">
@@ -15722,35 +15649,35 @@
       <c r="C101" s="110"/>
       <c r="D101" s="107"/>
       <c r="E101" s="107"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
+      <c r="F101" s="104"/>
+      <c r="G101" s="107"/>
       <c r="H101" s="107"/>
       <c r="I101" s="107"/>
       <c r="J101" s="107"/>
       <c r="K101" s="107"/>
       <c r="L101" s="107"/>
       <c r="M101" s="107"/>
-      <c r="N101" s="105"/>
-      <c r="O101" s="105"/>
-      <c r="P101" s="105"/>
-      <c r="Q101" s="105"/>
-      <c r="R101" s="105"/>
-      <c r="S101" s="105"/>
-      <c r="T101" s="105"/>
-      <c r="U101" s="105"/>
+      <c r="N101" s="107"/>
+      <c r="O101" s="107"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="107"/>
+      <c r="S101" s="107"/>
+      <c r="T101" s="107"/>
+      <c r="U101" s="107"/>
       <c r="V101" s="107"/>
       <c r="W101" s="107"/>
-      <c r="X101" s="104"/>
-      <c r="Y101" s="104"/>
-      <c r="Z101" s="105"/>
-      <c r="AA101" s="105"/>
-      <c r="AB101" s="105"/>
+      <c r="X101" s="107"/>
+      <c r="Y101" s="107"/>
+      <c r="Z101" s="107"/>
+      <c r="AA101" s="107"/>
+      <c r="AB101" s="107"/>
       <c r="AC101" s="107"/>
       <c r="AD101" s="107"/>
       <c r="AE101" s="107"/>
-      <c r="AF101" s="105"/>
-      <c r="AG101" s="105"/>
-      <c r="AH101" s="107"/>
+      <c r="AF101" s="107"/>
+      <c r="AG101" s="107"/>
+      <c r="AH101" s="104"/>
       <c r="AI101" s="124"/>
     </row>
     <row r="102" spans="2:35" x14ac:dyDescent="0.45">
@@ -15758,35 +15685,35 @@
       <c r="C102" s="110"/>
       <c r="D102" s="107"/>
       <c r="E102" s="107"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="104"/>
+      <c r="F102" s="104"/>
+      <c r="G102" s="107"/>
+      <c r="H102" s="107"/>
+      <c r="I102" s="107"/>
       <c r="J102" s="107"/>
       <c r="K102" s="107"/>
       <c r="L102" s="107"/>
-      <c r="M102" s="107"/>
-      <c r="N102" s="105"/>
-      <c r="O102" s="105"/>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="104"/>
-      <c r="R102" s="105"/>
-      <c r="S102" s="105"/>
-      <c r="T102" s="105"/>
+      <c r="M102" s="110"/>
+      <c r="N102" s="107"/>
+      <c r="O102" s="107"/>
+      <c r="P102" s="107"/>
+      <c r="Q102" s="107"/>
+      <c r="R102" s="107"/>
+      <c r="S102" s="107"/>
+      <c r="T102" s="107"/>
       <c r="U102" s="107"/>
       <c r="V102" s="107"/>
       <c r="W102" s="107"/>
-      <c r="X102" s="104"/>
-      <c r="Y102" s="104"/>
-      <c r="Z102" s="105"/>
-      <c r="AA102" s="105"/>
-      <c r="AB102" s="105"/>
-      <c r="AC102" s="105"/>
+      <c r="X102" s="107"/>
+      <c r="Y102" s="107"/>
+      <c r="Z102" s="107"/>
+      <c r="AA102" s="107"/>
+      <c r="AB102" s="107"/>
+      <c r="AC102" s="107"/>
       <c r="AD102" s="107"/>
       <c r="AE102" s="107"/>
-      <c r="AF102" s="105"/>
-      <c r="AG102" s="105"/>
-      <c r="AH102" s="107"/>
+      <c r="AF102" s="107"/>
+      <c r="AG102" s="107"/>
+      <c r="AH102" s="104"/>
       <c r="AI102" s="124"/>
     </row>
     <row r="103" spans="2:35" x14ac:dyDescent="0.45">
@@ -15794,35 +15721,35 @@
       <c r="C103" s="110"/>
       <c r="D103" s="107"/>
       <c r="E103" s="107"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
+      <c r="F103" s="104"/>
+      <c r="G103" s="104"/>
       <c r="H103" s="104"/>
       <c r="I103" s="104"/>
-      <c r="J103" s="107"/>
-      <c r="K103" s="107"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="107"/>
-      <c r="N103" s="105"/>
-      <c r="O103" s="105"/>
+      <c r="J103" s="104"/>
+      <c r="K103" s="104"/>
+      <c r="L103" s="104"/>
+      <c r="M103" s="104"/>
+      <c r="N103" s="104"/>
+      <c r="O103" s="104"/>
       <c r="P103" s="104"/>
       <c r="Q103" s="104"/>
-      <c r="R103" s="105"/>
-      <c r="S103" s="105"/>
-      <c r="T103" s="105"/>
-      <c r="U103" s="107"/>
-      <c r="V103" s="107"/>
-      <c r="W103" s="107"/>
-      <c r="X103" s="105"/>
-      <c r="Y103" s="105"/>
-      <c r="Z103" s="105"/>
-      <c r="AA103" s="105"/>
-      <c r="AB103" s="105"/>
-      <c r="AC103" s="105"/>
+      <c r="R103" s="104"/>
+      <c r="S103" s="104"/>
+      <c r="T103" s="104"/>
+      <c r="U103" s="104"/>
+      <c r="V103" s="104"/>
+      <c r="W103" s="104"/>
+      <c r="X103" s="104"/>
+      <c r="Y103" s="104"/>
+      <c r="Z103" s="104"/>
+      <c r="AA103" s="104"/>
+      <c r="AB103" s="107"/>
+      <c r="AC103" s="107"/>
       <c r="AD103" s="107"/>
       <c r="AE103" s="107"/>
-      <c r="AF103" s="104"/>
+      <c r="AF103" s="107"/>
       <c r="AG103" s="104"/>
-      <c r="AH103" s="107"/>
+      <c r="AH103" s="104"/>
       <c r="AI103" s="124"/>
     </row>
     <row r="104" spans="2:35" x14ac:dyDescent="0.45">
@@ -15830,35 +15757,35 @@
       <c r="C104" s="110"/>
       <c r="D104" s="107"/>
       <c r="E104" s="107"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
       <c r="H104" s="107"/>
       <c r="I104" s="107"/>
       <c r="J104" s="107"/>
       <c r="K104" s="107"/>
       <c r="L104" s="107"/>
       <c r="M104" s="107"/>
-      <c r="N104" s="105"/>
+      <c r="N104" s="107"/>
       <c r="O104" s="107"/>
       <c r="P104" s="107"/>
       <c r="Q104" s="107"/>
-      <c r="R104" s="105"/>
-      <c r="S104" s="105"/>
-      <c r="T104" s="105"/>
+      <c r="R104" s="107"/>
+      <c r="S104" s="107"/>
+      <c r="T104" s="107"/>
       <c r="U104" s="107"/>
       <c r="V104" s="107"/>
       <c r="W104" s="107"/>
       <c r="X104" s="107"/>
       <c r="Y104" s="107"/>
-      <c r="Z104" s="105"/>
-      <c r="AA104" s="105"/>
-      <c r="AB104" s="105"/>
+      <c r="Z104" s="107"/>
+      <c r="AA104" s="107"/>
+      <c r="AB104" s="107"/>
       <c r="AC104" s="107"/>
       <c r="AD104" s="107"/>
       <c r="AE104" s="107"/>
-      <c r="AF104" s="104"/>
-      <c r="AG104" s="104"/>
-      <c r="AH104" s="107"/>
+      <c r="AF104" s="107"/>
+      <c r="AG104" s="107"/>
+      <c r="AH104" s="104"/>
       <c r="AI104" s="124"/>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.45">
@@ -15866,35 +15793,35 @@
       <c r="C105" s="110"/>
       <c r="D105" s="107"/>
       <c r="E105" s="107"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="107"/>
+      <c r="I105" s="107"/>
       <c r="J105" s="107"/>
       <c r="K105" s="107"/>
       <c r="L105" s="107"/>
       <c r="M105" s="107"/>
-      <c r="N105" s="105"/>
+      <c r="N105" s="107"/>
       <c r="O105" s="107"/>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="105"/>
-      <c r="S105" s="105"/>
-      <c r="T105" s="105"/>
+      <c r="P105" s="107"/>
+      <c r="Q105" s="107"/>
+      <c r="R105" s="107"/>
+      <c r="S105" s="107"/>
+      <c r="T105" s="107"/>
       <c r="U105" s="107"/>
       <c r="V105" s="107"/>
       <c r="W105" s="107"/>
-      <c r="X105" s="105"/>
-      <c r="Y105" s="105"/>
-      <c r="Z105" s="105"/>
-      <c r="AA105" s="105"/>
-      <c r="AB105" s="105"/>
-      <c r="AC105" s="107"/>
-      <c r="AD105" s="126"/>
+      <c r="X105" s="107"/>
+      <c r="Y105" s="107"/>
+      <c r="Z105" s="107"/>
+      <c r="AA105" s="107"/>
+      <c r="AB105" s="107"/>
+      <c r="AC105" s="126"/>
+      <c r="AD105" s="107"/>
       <c r="AE105" s="107"/>
-      <c r="AF105" s="105"/>
-      <c r="AG105" s="105"/>
-      <c r="AH105" s="107"/>
+      <c r="AF105" s="107"/>
+      <c r="AG105" s="107"/>
+      <c r="AH105" s="104"/>
       <c r="AI105" s="124"/>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.45">
@@ -15903,34 +15830,34 @@
       <c r="D106" s="105"/>
       <c r="E106" s="127"/>
       <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="108"/>
-      <c r="M106" s="108"/>
-      <c r="N106" s="105"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="107"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="108"/>
+      <c r="L106" s="107"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="107"/>
       <c r="O106" s="107"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="105"/>
-      <c r="S106" s="105"/>
-      <c r="T106" s="105"/>
+      <c r="P106" s="107"/>
+      <c r="Q106" s="107"/>
+      <c r="R106" s="107"/>
+      <c r="S106" s="107"/>
+      <c r="T106" s="107"/>
       <c r="U106" s="107"/>
       <c r="V106" s="107"/>
       <c r="W106" s="107"/>
-      <c r="X106" s="104"/>
-      <c r="Y106" s="104"/>
+      <c r="X106" s="107"/>
+      <c r="Y106" s="107"/>
       <c r="Z106" s="107"/>
-      <c r="AA106" s="105"/>
-      <c r="AB106" s="105"/>
-      <c r="AC106" s="107"/>
-      <c r="AD106" s="126"/>
+      <c r="AA106" s="107"/>
+      <c r="AB106" s="107"/>
+      <c r="AC106" s="126"/>
+      <c r="AD106" s="107"/>
       <c r="AE106" s="107"/>
-      <c r="AF106" s="104"/>
-      <c r="AG106" s="104"/>
-      <c r="AH106" s="107"/>
+      <c r="AF106" s="107"/>
+      <c r="AG106" s="107"/>
+      <c r="AH106" s="104"/>
       <c r="AI106" s="124"/>
     </row>
     <row r="107" spans="2:35" x14ac:dyDescent="0.45">
@@ -15939,34 +15866,33 @@
       <c r="D107" s="105"/>
       <c r="E107" s="127"/>
       <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="104"/>
-      <c r="I107" s="104"/>
-      <c r="J107" s="107"/>
-      <c r="K107" s="105"/>
-      <c r="L107" s="108"/>
-      <c r="M107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="107"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="108"/>
+      <c r="L107" s="107"/>
+      <c r="M107" s="107"/>
       <c r="N107" s="107"/>
       <c r="O107" s="107"/>
-      <c r="P107" s="105"/>
-      <c r="Q107" s="105"/>
-      <c r="R107" s="105"/>
-      <c r="S107" s="105"/>
-      <c r="T107" s="105"/>
+      <c r="P107" s="107"/>
+      <c r="Q107" s="107"/>
+      <c r="R107" s="107"/>
+      <c r="S107" s="107"/>
+      <c r="T107" s="107"/>
       <c r="U107" s="107"/>
       <c r="V107" s="107"/>
       <c r="W107" s="107"/>
-      <c r="X107" s="104"/>
-      <c r="Y107" s="104"/>
+      <c r="Y107" s="107"/>
       <c r="Z107" s="107"/>
-      <c r="AA107" s="105"/>
-      <c r="AB107" s="105"/>
-      <c r="AC107" s="107"/>
-      <c r="AD107" s="126"/>
+      <c r="AA107" s="110"/>
+      <c r="AB107" s="107"/>
+      <c r="AC107" s="126"/>
+      <c r="AD107" s="107"/>
       <c r="AE107" s="107"/>
-      <c r="AF107" s="104"/>
-      <c r="AG107" s="104"/>
-      <c r="AH107" s="107"/>
+      <c r="AF107" s="107"/>
+      <c r="AG107" s="107"/>
+      <c r="AH107" s="104"/>
       <c r="AI107" s="124"/>
     </row>
     <row r="108" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16005,6 +15931,506 @@
       <c r="AH108" s="61"/>
       <c r="AI108" s="62"/>
     </row>
+    <row r="110" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="129"/>
+      <c r="K111" s="129"/>
+      <c r="L111" s="129"/>
+      <c r="M111" s="129"/>
+      <c r="N111" s="129"/>
+      <c r="O111" s="43"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="129"/>
+      <c r="R111" s="129"/>
+      <c r="S111" s="129"/>
+      <c r="T111" s="129"/>
+      <c r="U111" s="129"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="43"/>
+      <c r="X111" s="129"/>
+      <c r="Y111" s="129"/>
+      <c r="Z111" s="129"/>
+      <c r="AA111" s="129"/>
+      <c r="AB111" s="129"/>
+      <c r="AC111" s="43"/>
+      <c r="AD111" s="43"/>
+      <c r="AE111" s="129"/>
+      <c r="AF111" s="129"/>
+      <c r="AG111" s="129"/>
+      <c r="AH111" s="129"/>
+      <c r="AI111" s="130"/>
+    </row>
+    <row r="112" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B112" s="70"/>
+      <c r="C112" s="110"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="104"/>
+      <c r="I112" s="104"/>
+      <c r="J112" s="107"/>
+      <c r="K112" s="107"/>
+      <c r="L112" s="107"/>
+      <c r="M112" s="107"/>
+      <c r="O112" s="104"/>
+      <c r="P112" s="104"/>
+      <c r="R112" s="105"/>
+      <c r="S112" s="105"/>
+      <c r="T112" s="105"/>
+      <c r="U112" s="107"/>
+      <c r="V112" s="104"/>
+      <c r="W112" s="104"/>
+      <c r="Z112" s="107"/>
+      <c r="AA112" s="105"/>
+      <c r="AB112" s="105"/>
+      <c r="AC112" s="105"/>
+      <c r="AD112" s="105"/>
+      <c r="AE112" s="107"/>
+      <c r="AH112" s="107"/>
+      <c r="AI112" s="124"/>
+    </row>
+    <row r="113" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B113" s="70"/>
+      <c r="C113" s="110"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="107"/>
+      <c r="F113" s="105"/>
+      <c r="G113" s="105"/>
+      <c r="H113" s="104"/>
+      <c r="I113" s="104"/>
+      <c r="J113" s="107"/>
+      <c r="K113" s="105"/>
+      <c r="L113" s="105"/>
+      <c r="M113" s="107"/>
+      <c r="O113" s="105"/>
+      <c r="P113" s="105"/>
+      <c r="R113" s="105"/>
+      <c r="S113" s="105"/>
+      <c r="T113" s="105"/>
+      <c r="U113" s="107"/>
+      <c r="V113" s="104"/>
+      <c r="W113" s="104"/>
+      <c r="Z113" s="105"/>
+      <c r="AA113" s="105"/>
+      <c r="AB113" s="105"/>
+      <c r="AC113" s="104"/>
+      <c r="AD113" s="104"/>
+      <c r="AE113" s="107"/>
+      <c r="AH113" s="107"/>
+      <c r="AI113" s="124"/>
+    </row>
+    <row r="114" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B114" s="70"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="107"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="107"/>
+      <c r="J114" s="105"/>
+      <c r="K114" s="105"/>
+      <c r="L114" s="105"/>
+      <c r="M114" s="105"/>
+      <c r="O114" s="105"/>
+      <c r="P114" s="105"/>
+      <c r="R114" s="105"/>
+      <c r="S114" s="107"/>
+      <c r="T114" s="107"/>
+      <c r="U114" s="107"/>
+      <c r="V114" s="105"/>
+      <c r="W114" s="105"/>
+      <c r="Z114" s="105"/>
+      <c r="AA114" s="105"/>
+      <c r="AB114" s="105"/>
+      <c r="AC114" s="104"/>
+      <c r="AD114" s="104"/>
+      <c r="AE114" s="107"/>
+      <c r="AH114" s="107"/>
+      <c r="AI114" s="124"/>
+    </row>
+    <row r="115" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B115" s="70"/>
+      <c r="C115" s="110"/>
+      <c r="D115" s="107"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="104"/>
+      <c r="I115" s="104"/>
+      <c r="J115" s="107"/>
+      <c r="K115" s="107"/>
+      <c r="L115" s="107"/>
+      <c r="M115" s="107"/>
+      <c r="O115" s="105"/>
+      <c r="P115" s="105"/>
+      <c r="R115" s="105"/>
+      <c r="S115" s="105"/>
+      <c r="T115" s="105"/>
+      <c r="U115" s="105"/>
+      <c r="V115" s="107"/>
+      <c r="W115" s="107"/>
+      <c r="Z115" s="105"/>
+      <c r="AA115" s="105"/>
+      <c r="AB115" s="105"/>
+      <c r="AC115" s="105"/>
+      <c r="AD115" s="105"/>
+      <c r="AE115" s="107"/>
+      <c r="AH115" s="107"/>
+      <c r="AI115" s="124"/>
+    </row>
+    <row r="116" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B116" s="70"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="107"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="104"/>
+      <c r="I116" s="104"/>
+      <c r="J116" s="107"/>
+      <c r="K116" s="107"/>
+      <c r="L116" s="107"/>
+      <c r="M116" s="107"/>
+      <c r="O116" s="104"/>
+      <c r="P116" s="104"/>
+      <c r="R116" s="105"/>
+      <c r="S116" s="105"/>
+      <c r="T116" s="105"/>
+      <c r="U116" s="105"/>
+      <c r="V116" s="104"/>
+      <c r="W116" s="104"/>
+      <c r="Z116" s="105"/>
+      <c r="AA116" s="105"/>
+      <c r="AB116" s="105"/>
+      <c r="AC116" s="104"/>
+      <c r="AD116" s="104"/>
+      <c r="AE116" s="105"/>
+      <c r="AH116" s="107"/>
+      <c r="AI116" s="124"/>
+    </row>
+    <row r="117" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B117" s="70"/>
+      <c r="C117" s="110"/>
+      <c r="D117" s="107"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="105"/>
+      <c r="I117" s="105"/>
+      <c r="J117" s="105"/>
+      <c r="K117" s="105"/>
+      <c r="L117" s="107"/>
+      <c r="M117" s="107"/>
+      <c r="O117" s="104"/>
+      <c r="P117" s="104"/>
+      <c r="R117" s="105"/>
+      <c r="S117" s="105"/>
+      <c r="T117" s="105"/>
+      <c r="U117" s="105"/>
+      <c r="V117" s="104"/>
+      <c r="W117" s="104"/>
+      <c r="Z117" s="105"/>
+      <c r="AA117" s="105"/>
+      <c r="AB117" s="105"/>
+      <c r="AC117" s="104"/>
+      <c r="AD117" s="104"/>
+      <c r="AE117" s="105"/>
+      <c r="AH117" s="107"/>
+      <c r="AI117" s="124"/>
+    </row>
+    <row r="118" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B118" s="70"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="107"/>
+      <c r="E118" s="107"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="105"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="107"/>
+      <c r="M118" s="107"/>
+      <c r="O118" s="105"/>
+      <c r="P118" s="105"/>
+      <c r="R118" s="105"/>
+      <c r="S118" s="105"/>
+      <c r="T118" s="105"/>
+      <c r="U118" s="105"/>
+      <c r="V118" s="107"/>
+      <c r="W118" s="107"/>
+      <c r="Z118" s="105"/>
+      <c r="AA118" s="105"/>
+      <c r="AB118" s="105"/>
+      <c r="AC118" s="105"/>
+      <c r="AD118" s="105"/>
+      <c r="AE118" s="107"/>
+      <c r="AH118" s="107"/>
+      <c r="AI118" s="124"/>
+    </row>
+    <row r="119" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B119" s="70"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="107"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="107"/>
+      <c r="K119" s="107"/>
+      <c r="L119" s="107"/>
+      <c r="M119" s="107"/>
+      <c r="O119" s="105"/>
+      <c r="P119" s="105"/>
+      <c r="R119" s="105"/>
+      <c r="S119" s="105"/>
+      <c r="T119" s="105"/>
+      <c r="U119" s="105"/>
+      <c r="V119" s="104"/>
+      <c r="W119" s="104"/>
+      <c r="Z119" s="105"/>
+      <c r="AA119" s="105"/>
+      <c r="AB119" s="105"/>
+      <c r="AC119" s="105"/>
+      <c r="AD119" s="105"/>
+      <c r="AE119" s="107"/>
+      <c r="AH119" s="107"/>
+      <c r="AI119" s="124"/>
+    </row>
+    <row r="120" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B120" s="70"/>
+      <c r="C120" s="110"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="104"/>
+      <c r="I120" s="104"/>
+      <c r="J120" s="107"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
+      <c r="M120" s="107"/>
+      <c r="O120" s="104"/>
+      <c r="P120" s="104"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
+      <c r="T120" s="105"/>
+      <c r="U120" s="107"/>
+      <c r="V120" s="104"/>
+      <c r="W120" s="104"/>
+      <c r="Z120" s="105"/>
+      <c r="AA120" s="105"/>
+      <c r="AB120" s="105"/>
+      <c r="AC120" s="105"/>
+      <c r="AD120" s="105"/>
+      <c r="AE120" s="107"/>
+      <c r="AH120" s="107"/>
+      <c r="AI120" s="124"/>
+    </row>
+    <row r="121" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B121" s="70"/>
+      <c r="C121" s="110"/>
+      <c r="D121" s="107"/>
+      <c r="E121" s="107"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="104"/>
+      <c r="I121" s="104"/>
+      <c r="J121" s="107"/>
+      <c r="K121" s="107"/>
+      <c r="L121" s="107"/>
+      <c r="M121" s="107"/>
+      <c r="O121" s="104"/>
+      <c r="P121" s="104"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="105"/>
+      <c r="T121" s="105"/>
+      <c r="U121" s="107"/>
+      <c r="V121" s="105"/>
+      <c r="W121" s="105"/>
+      <c r="Z121" s="105"/>
+      <c r="AA121" s="105"/>
+      <c r="AB121" s="105"/>
+      <c r="AC121" s="104"/>
+      <c r="AD121" s="104"/>
+      <c r="AE121" s="107"/>
+      <c r="AH121" s="107"/>
+      <c r="AI121" s="124"/>
+    </row>
+    <row r="122" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B122" s="70"/>
+      <c r="C122" s="110"/>
+      <c r="D122" s="107"/>
+      <c r="E122" s="107"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="107"/>
+      <c r="I122" s="107"/>
+      <c r="J122" s="107"/>
+      <c r="K122" s="107"/>
+      <c r="L122" s="107"/>
+      <c r="M122" s="107"/>
+      <c r="O122" s="107"/>
+      <c r="P122" s="107"/>
+      <c r="R122" s="105"/>
+      <c r="S122" s="105"/>
+      <c r="T122" s="105"/>
+      <c r="U122" s="107"/>
+      <c r="V122" s="107"/>
+      <c r="W122" s="107"/>
+      <c r="Z122" s="105"/>
+      <c r="AA122" s="105"/>
+      <c r="AB122" s="105"/>
+      <c r="AC122" s="104"/>
+      <c r="AD122" s="104"/>
+      <c r="AE122" s="107"/>
+      <c r="AH122" s="107"/>
+      <c r="AI122" s="124"/>
+    </row>
+    <row r="123" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B123" s="70"/>
+      <c r="C123" s="110"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="107"/>
+      <c r="F123" s="105"/>
+      <c r="G123" s="105"/>
+      <c r="H123" s="105"/>
+      <c r="I123" s="105"/>
+      <c r="J123" s="107"/>
+      <c r="K123" s="107"/>
+      <c r="L123" s="107"/>
+      <c r="M123" s="107"/>
+      <c r="O123" s="104"/>
+      <c r="P123" s="104"/>
+      <c r="R123" s="105"/>
+      <c r="S123" s="105"/>
+      <c r="T123" s="105"/>
+      <c r="U123" s="107"/>
+      <c r="V123" s="105"/>
+      <c r="W123" s="105"/>
+      <c r="Z123" s="105"/>
+      <c r="AA123" s="105"/>
+      <c r="AB123" s="105"/>
+      <c r="AC123" s="105"/>
+      <c r="AD123" s="105"/>
+      <c r="AE123" s="107"/>
+      <c r="AG123" s="134"/>
+      <c r="AH123" s="130"/>
+      <c r="AI123" s="124"/>
+    </row>
+    <row r="124" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B124" s="70"/>
+      <c r="C124" s="110"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="105"/>
+      <c r="G124" s="105"/>
+      <c r="H124" s="104"/>
+      <c r="I124" s="104"/>
+      <c r="J124" s="105"/>
+      <c r="K124" s="105"/>
+      <c r="L124" s="108"/>
+      <c r="M124" s="108"/>
+      <c r="O124" s="104"/>
+      <c r="P124" s="104"/>
+      <c r="R124" s="105"/>
+      <c r="S124" s="105"/>
+      <c r="T124" s="105"/>
+      <c r="U124" s="107"/>
+      <c r="V124" s="104"/>
+      <c r="W124" s="104"/>
+      <c r="Z124" s="107"/>
+      <c r="AA124" s="105"/>
+      <c r="AB124" s="105"/>
+      <c r="AC124" s="104"/>
+      <c r="AD124" s="104"/>
+      <c r="AE124" s="107"/>
+      <c r="AG124" s="135"/>
+      <c r="AH124" s="124"/>
+      <c r="AI124" s="124"/>
+    </row>
+    <row r="125" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B125" s="70"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="105"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="105"/>
+      <c r="G125" s="105"/>
+      <c r="H125" s="104"/>
+      <c r="I125" s="104"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="105"/>
+      <c r="L125" s="108"/>
+      <c r="M125" s="108"/>
+      <c r="O125" s="105"/>
+      <c r="P125" s="105"/>
+      <c r="R125" s="105"/>
+      <c r="S125" s="105"/>
+      <c r="T125" s="105"/>
+      <c r="U125" s="107"/>
+      <c r="V125" s="104"/>
+      <c r="W125" s="104"/>
+      <c r="Z125" s="107"/>
+      <c r="AA125" s="105"/>
+      <c r="AB125" s="105"/>
+      <c r="AC125" s="104"/>
+      <c r="AD125" s="104"/>
+      <c r="AE125" s="107"/>
+      <c r="AG125" s="136"/>
+      <c r="AH125" s="137"/>
+      <c r="AI125" s="124"/>
+    </row>
+    <row r="126" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B126" s="60"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="109"/>
+      <c r="K126" s="109"/>
+      <c r="L126" s="109"/>
+      <c r="M126" s="109"/>
+      <c r="N126" s="109"/>
+      <c r="O126" s="61"/>
+      <c r="P126" s="61"/>
+      <c r="Q126" s="109"/>
+      <c r="R126" s="109"/>
+      <c r="S126" s="109"/>
+      <c r="T126" s="109"/>
+      <c r="U126" s="109"/>
+      <c r="V126" s="61"/>
+      <c r="W126" s="61"/>
+      <c r="X126" s="109"/>
+      <c r="Y126" s="109"/>
+      <c r="Z126" s="109"/>
+      <c r="AA126" s="109"/>
+      <c r="AB126" s="109"/>
+      <c r="AC126" s="61"/>
+      <c r="AD126" s="61"/>
+      <c r="AE126" s="109"/>
+      <c r="AF126" s="109"/>
+      <c r="AG126" s="61"/>
+      <c r="AH126" s="61"/>
+      <c r="AI126" s="137"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruri\Desktop\ゲーム大賞\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25849B-54B3-4E41-9F98-84E5BF955230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -1394,7 +1393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2007,7 +2006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2413,21 +2412,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2435,9 +2419,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2453,6 +2434,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5171,7 +5167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B314E92D-39CE-4A69-84B6-AC5234CB9296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AZ44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5216,12 +5212,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5323,12 +5319,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="135" t="s">
+      <c r="I6" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5385,12 +5381,12 @@
     </row>
     <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5481,12 +5477,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="135" t="s">
+      <c r="I10" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="137"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="145"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -6165,7 +6161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E394162-BAFD-4C97-A1DA-C1B53F0989A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6184,13 +6180,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
@@ -6211,42 +6207,42 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="137"/>
-      <c r="U3" s="135" t="s">
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="145"/>
+      <c r="U3" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AF3" s="135" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AF3" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="137"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="144"/>
+      <c r="AJ3" s="144"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="144"/>
+      <c r="AN3" s="144"/>
+      <c r="AO3" s="145"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
@@ -6681,42 +6677,42 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="135" t="s">
+      <c r="J14" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="U14" s="135" t="s">
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="145"/>
+      <c r="U14" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="136"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="137"/>
-      <c r="AF14" s="135" t="s">
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="144"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="145"/>
+      <c r="AF14" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="136"/>
-      <c r="AM14" s="136"/>
-      <c r="AN14" s="136"/>
-      <c r="AO14" s="137"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="144"/>
+      <c r="AI14" s="144"/>
+      <c r="AJ14" s="144"/>
+      <c r="AK14" s="144"/>
+      <c r="AL14" s="144"/>
+      <c r="AM14" s="144"/>
+      <c r="AN14" s="144"/>
+      <c r="AO14" s="145"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J15" s="8"/>
@@ -7008,30 +7004,30 @@
     </row>
     <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="135" t="s">
+      <c r="J25" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="137"/>
-      <c r="U25" s="135" t="s">
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="145"/>
+      <c r="U25" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="137"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="144"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="144"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="144"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="145"/>
     </row>
     <row r="26" spans="10:41" x14ac:dyDescent="0.45">
       <c r="J26" s="8"/>
@@ -7233,15 +7229,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J3:S3"/>
     <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AF14:AO14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7251,11 +7247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B2DA2-2FF9-4422-8659-19ED0EA63C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7271,13 +7267,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
@@ -7295,10 +7291,10 @@
       <c r="F3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="141" t="s">
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -7325,8 +7321,8 @@
       <c r="F4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
       <c r="J4" s="2" t="s">
         <v>134</v>
       </c>
@@ -7351,8 +7347,8 @@
       <c r="F5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
       <c r="J5" s="118"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
@@ -7371,8 +7367,8 @@
       <c r="F6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
@@ -7390,8 +7386,8 @@
       <c r="F7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
@@ -7409,8 +7405,8 @@
       <c r="F8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="140"/>
-      <c r="H8" s="148"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="142"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
@@ -7428,8 +7424,8 @@
       <c r="F9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="28">
@@ -7447,8 +7443,8 @@
       <c r="F10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="140"/>
-      <c r="H10" s="141"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="142"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
@@ -7466,8 +7462,8 @@
       <c r="F11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="28">
@@ -7485,8 +7481,8 @@
       <c r="F12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="142"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
@@ -7504,8 +7500,8 @@
       <c r="F13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="142"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
@@ -7523,8 +7519,8 @@
       <c r="F14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="30">
@@ -7542,8 +7538,8 @@
       <c r="F15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7556,7 +7552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436FCDC-7CBA-47E0-866B-2D6811792D1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
@@ -12578,7 +12574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EA6AD2-7FEB-4F70-843E-9A262B6F37DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO126"/>
   <sheetViews>
     <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruri\Desktop\ゲーム大賞\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliin\Desktop\NEW GAME AWARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -437,7 +437,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -522,7 +522,7 @@
       <rPr>
         <sz val="6"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -539,7 +539,7 @@
       <rPr>
         <sz val="6"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1394,18 +1394,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1413,7 +1413,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1421,7 +1421,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1429,7 +1429,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1437,14 +1437,14 @@
     <font>
       <sz val="6"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1452,7 +1452,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1460,7 +1460,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1468,7 +1468,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2415,16 +2415,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2449,6 +2443,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5174,15 +5174,15 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="15" width="3" style="11"/>
     <col min="16" max="52" width="3" style="2"/>
     <col min="53" max="16384" width="3" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:47" ht="15" thickBot="1"/>
+    <row r="2" spans="2:47" ht="15" thickBot="1">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -5204,7 +5204,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:47" ht="15" thickBot="1">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5212,12 +5212,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="143"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:47">
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:47" ht="15" thickBot="1">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:47" ht="15" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5319,12 +5319,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5346,7 +5346,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:47" ht="15" thickBot="1">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -5379,14 +5379,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:47" ht="15" thickBot="1">
       <c r="B8" s="15"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5425,7 +5425,7 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
     </row>
-    <row r="9" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:47" ht="15" thickBot="1">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -5469,7 +5469,7 @@
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
     </row>
-    <row r="10" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:47" ht="15" thickBot="1">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -5477,12 +5477,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="145"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5515,7 +5515,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:47" ht="15" thickBot="1">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5559,7 +5559,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:47">
       <c r="B12" s="34" t="s">
         <v>4</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
     </row>
-    <row r="13" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:47" ht="15" thickBot="1">
       <c r="P13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:47">
       <c r="P14" s="3"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -5641,7 +5641,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:47">
       <c r="P15" s="8"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -5672,7 +5672,7 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:47">
       <c r="P16" s="8"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -5703,7 +5703,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
     </row>
-    <row r="17" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="16:31">
       <c r="P17" s="8"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5723,7 +5723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="16:31">
       <c r="P18" s="8"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5743,7 +5743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="16:31">
       <c r="P19" s="8"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -5760,7 +5760,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="9"/>
     </row>
-    <row r="20" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="16:31">
       <c r="P20" s="8"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5777,7 +5777,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="9"/>
     </row>
-    <row r="21" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="16:31">
       <c r="P21" s="8"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5794,7 +5794,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="16:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="16:31" ht="15" thickBot="1">
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -5811,12 +5811,12 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="7"/>
     </row>
-    <row r="24" spans="16:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="16:31" ht="15" thickBot="1">
       <c r="P24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="16:31">
       <c r="P25" s="3"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -5836,7 +5836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="16:31">
       <c r="P26" s="8"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -5856,7 +5856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="16:31">
       <c r="P27" s="8"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -5873,7 +5873,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="9"/>
     </row>
-    <row r="28" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="16:31">
       <c r="P28" s="8"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -5890,7 +5890,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="9"/>
     </row>
-    <row r="29" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="16:31">
       <c r="P29" s="8"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5907,7 +5907,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="9"/>
     </row>
-    <row r="30" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="16:31">
       <c r="P30" s="8"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5924,7 +5924,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="9"/>
     </row>
-    <row r="31" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="16:31">
       <c r="P31" s="8"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -5941,7 +5941,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="9"/>
     </row>
-    <row r="32" spans="16:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="16:31">
       <c r="P32" s="8"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -5958,7 +5958,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="9"/>
     </row>
-    <row r="33" spans="16:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="16:36" ht="15" thickBot="1">
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -5975,12 +5975,12 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="7"/>
     </row>
-    <row r="35" spans="16:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="16:36" ht="15" thickBot="1">
       <c r="P35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="16:36">
       <c r="P36" s="3"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -6000,7 +6000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="37" spans="16:36">
       <c r="P37" s="8"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6020,7 +6020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="38" spans="16:36">
       <c r="P38" s="8"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -6040,7 +6040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="16:36">
       <c r="P39" s="8"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -6060,7 +6060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="40" spans="16:36">
       <c r="P40" s="8"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -6077,7 +6077,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="41" spans="16:36">
       <c r="P41" s="8"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -6094,7 +6094,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="42" spans="16:36">
       <c r="P42" s="8"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -6111,7 +6111,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="9"/>
     </row>
-    <row r="43" spans="16:36" x14ac:dyDescent="0.45">
+    <row r="43" spans="16:36">
       <c r="P43" s="8"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -6128,7 +6128,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="9"/>
     </row>
-    <row r="44" spans="16:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="16:36" ht="15" thickBot="1">
       <c r="P44" s="5"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -6168,30 +6168,30 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3" style="2"/>
-    <col min="2" max="2" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="146" t="s">
+    <row r="2" spans="2:41" ht="15" thickBot="1">
+      <c r="B2" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:41" ht="15" thickBot="1">
       <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
@@ -6207,44 +6207,44 @@
       <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="145"/>
-      <c r="U3" s="143" t="s">
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="143"/>
+      <c r="U3" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AF3" s="143" t="s">
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="143"/>
+      <c r="AF3" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="145"/>
-    </row>
-    <row r="4" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="143"/>
+    </row>
+    <row r="4" spans="2:41">
       <c r="B4" s="25">
         <v>1</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:41">
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:41">
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41">
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:41">
       <c r="B8" s="28">
         <v>5</v>
       </c>
@@ -6479,7 +6479,7 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41">
       <c r="B9" s="28">
         <v>6</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:41">
       <c r="B10" s="28">
         <v>7</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:41">
       <c r="B11" s="28">
         <v>8</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:41" ht="15" thickBot="1">
       <c r="B12" s="30">
         <v>9</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AN12" s="33"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:41" ht="15" thickBot="1">
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6676,45 +6676,45 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="143" t="s">
+    <row r="14" spans="2:41" ht="15" thickBot="1">
+      <c r="J14" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="145"/>
-      <c r="U14" s="143" t="s">
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="143"/>
+      <c r="U14" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="145"/>
-      <c r="AF14" s="143" t="s">
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="143"/>
+      <c r="AF14" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="144"/>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="144"/>
-      <c r="AJ14" s="144"/>
-      <c r="AK14" s="144"/>
-      <c r="AL14" s="144"/>
-      <c r="AM14" s="144"/>
-      <c r="AN14" s="144"/>
-      <c r="AO14" s="145"/>
-    </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="AG14" s="142"/>
+      <c r="AH14" s="142"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="142"/>
+      <c r="AK14" s="142"/>
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="142"/>
+      <c r="AN14" s="142"/>
+      <c r="AO14" s="143"/>
+    </row>
+    <row r="15" spans="2:41">
       <c r="J15" s="8"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -6746,7 +6746,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:41">
       <c r="J16" s="8"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -6778,7 +6778,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:41">
       <c r="J17" s="8"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -6810,7 +6810,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="9"/>
     </row>
-    <row r="18" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:41">
       <c r="J18" s="8"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -6842,7 +6842,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="19" spans="10:41">
       <c r="J19" s="8"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -6874,7 +6874,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="20" spans="10:41">
       <c r="J20" s="8"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -6906,7 +6906,7 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="21" spans="10:41">
       <c r="J21" s="8"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -6938,7 +6938,7 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="22" spans="10:41">
       <c r="J22" s="8"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -6970,7 +6970,7 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="10:41" ht="15" thickBot="1">
       <c r="J23" s="5"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
@@ -7002,34 +7002,34 @@
       <c r="AN23" s="33"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="25" spans="10:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="143" t="s">
+    <row r="24" spans="10:41" ht="15" thickBot="1"/>
+    <row r="25" spans="10:41" ht="15" thickBot="1">
+      <c r="J25" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="145"/>
-      <c r="U25" s="143" t="s">
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="143"/>
+      <c r="U25" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="145"/>
-    </row>
-    <row r="26" spans="10:41" x14ac:dyDescent="0.45">
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="142"/>
+      <c r="Z25" s="142"/>
+      <c r="AA25" s="142"/>
+      <c r="AB25" s="142"/>
+      <c r="AC25" s="142"/>
+      <c r="AD25" s="143"/>
+    </row>
+    <row r="26" spans="10:41">
       <c r="J26" s="8"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -7051,7 +7051,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="9"/>
     </row>
-    <row r="27" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="27" spans="10:41">
       <c r="J27" s="8"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -7073,7 +7073,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="9"/>
     </row>
-    <row r="28" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="28" spans="10:41">
       <c r="J28" s="8"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -7095,7 +7095,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="9"/>
     </row>
-    <row r="29" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="29" spans="10:41">
       <c r="J29" s="8"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -7117,7 +7117,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="9"/>
     </row>
-    <row r="30" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="30" spans="10:41">
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -7139,7 +7139,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="9"/>
     </row>
-    <row r="31" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="31" spans="10:41">
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -7161,7 +7161,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="9"/>
     </row>
-    <row r="32" spans="10:41" x14ac:dyDescent="0.45">
+    <row r="32" spans="10:41">
       <c r="J32" s="8"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -7183,7 +7183,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="9"/>
     </row>
-    <row r="33" spans="10:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="10:30">
       <c r="J33" s="8"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -7205,7 +7205,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="9"/>
     </row>
-    <row r="34" spans="10:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="10:30" ht="15" thickBot="1">
       <c r="J34" s="5"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
@@ -7229,15 +7229,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="U3:AD3"/>
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="J14:S14"/>
     <mergeCell ref="U14:AD14"/>
     <mergeCell ref="AF14:AO14"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="U3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7251,31 +7251,31 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3" style="2"/>
-    <col min="2" max="2" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.453125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="3.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="147" t="s">
+    <row r="2" spans="2:12" ht="15" thickBot="1">
+      <c r="B2" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1">
       <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
@@ -7291,10 +7291,10 @@
       <c r="F3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="139" t="s">
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -7305,7 +7305,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="B4" s="39">
         <v>1</v>
       </c>
@@ -7321,8 +7321,8 @@
       <c r="F4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="146"/>
       <c r="J4" s="2" t="s">
         <v>134</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12">
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -7348,10 +7348,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
+      <c r="H5" s="147"/>
       <c r="J5" s="118"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12">
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -7368,9 +7368,9 @@
         <v>85</v>
       </c>
       <c r="G6" s="135"/>
-      <c r="H6" s="136"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H6" s="147"/>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -7387,9 +7387,9 @@
         <v>90</v>
       </c>
       <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H7" s="147"/>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="28">
         <v>5</v>
       </c>
@@ -7406,9 +7406,9 @@
         <v>88</v>
       </c>
       <c r="G8" s="135"/>
-      <c r="H8" s="142"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H8" s="140"/>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="28">
         <v>6</v>
       </c>
@@ -7425,9 +7425,9 @@
         <v>93</v>
       </c>
       <c r="G9" s="135"/>
-      <c r="H9" s="142"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H9" s="140"/>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="28">
         <v>7</v>
       </c>
@@ -7444,9 +7444,9 @@
         <v>92</v>
       </c>
       <c r="G10" s="135"/>
-      <c r="H10" s="142"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H10" s="140"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="28">
         <v>8</v>
       </c>
@@ -7463,9 +7463,9 @@
         <v>95</v>
       </c>
       <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H11" s="147"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="28">
         <v>9</v>
       </c>
@@ -7482,9 +7482,9 @@
         <v>97</v>
       </c>
       <c r="G12" s="135"/>
-      <c r="H12" s="142"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H12" s="140"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="28">
         <v>10</v>
       </c>
@@ -7501,9 +7501,9 @@
         <v>99</v>
       </c>
       <c r="G13" s="135"/>
-      <c r="H13" s="142"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H13" s="140"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="28">
         <v>11</v>
       </c>
@@ -7520,9 +7520,9 @@
         <v>101</v>
       </c>
       <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H14" s="147"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1">
       <c r="B15" s="30">
         <v>12</v>
       </c>
@@ -7538,8 +7538,8 @@
       <c r="F15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="137"/>
-      <c r="H15" s="142"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7559,14 +7559,14 @@
       <selection activeCell="AR88" sqref="AR88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
     <col min="2" max="15" width="3" style="11"/>
     <col min="53" max="16384" width="3" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -7593,7 +7593,7 @@
       <c r="BI1"/>
       <c r="BJ1"/>
     </row>
-    <row r="2" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:62" ht="15" thickBot="1">
       <c r="A2"/>
       <c r="B2" t="s">
         <v>66</v>
@@ -7622,7 +7622,7 @@
       <c r="BI2"/>
       <c r="BJ2"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62">
       <c r="A3"/>
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
@@ -7672,7 +7672,7 @@
       <c r="BI3"/>
       <c r="BJ3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62">
       <c r="A4"/>
       <c r="B4" s="43"/>
       <c r="C4"/>
@@ -7704,7 +7704,7 @@
       <c r="BI4"/>
       <c r="BJ4"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62">
       <c r="A5"/>
       <c r="B5" s="43"/>
       <c r="C5"/>
@@ -7736,7 +7736,7 @@
       <c r="BI5"/>
       <c r="BJ5"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62">
       <c r="A6"/>
       <c r="B6" s="43"/>
       <c r="C6"/>
@@ -7768,7 +7768,7 @@
       <c r="BI6"/>
       <c r="BJ6"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62">
       <c r="A7"/>
       <c r="B7" s="43"/>
       <c r="C7"/>
@@ -7800,7 +7800,7 @@
       <c r="BI7"/>
       <c r="BJ7"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62">
       <c r="A8"/>
       <c r="B8" s="43"/>
       <c r="C8"/>
@@ -7832,7 +7832,7 @@
       <c r="BI8"/>
       <c r="BJ8"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62">
       <c r="A9"/>
       <c r="B9" s="43"/>
       <c r="C9"/>
@@ -7864,7 +7864,7 @@
       <c r="BI9"/>
       <c r="BJ9"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62">
       <c r="A10"/>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
@@ -7914,7 +7914,7 @@
       <c r="BI10"/>
       <c r="BJ10"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62">
       <c r="A11"/>
       <c r="B11" s="43"/>
       <c r="C11"/>
@@ -7946,7 +7946,7 @@
       <c r="BI11"/>
       <c r="BJ11"/>
     </row>
-    <row r="12" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:62" ht="15" thickBot="1">
       <c r="A12"/>
       <c r="B12" s="43"/>
       <c r="C12"/>
@@ -7978,7 +7978,7 @@
       <c r="BI12"/>
       <c r="BJ12"/>
     </row>
-    <row r="13" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:62" ht="15" thickBot="1">
       <c r="A13"/>
       <c r="B13" s="43"/>
       <c r="C13"/>
@@ -8015,7 +8015,7 @@
       <c r="BI13"/>
       <c r="BJ13"/>
     </row>
-    <row r="14" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:62" ht="15" thickBot="1">
       <c r="A14"/>
       <c r="B14" s="43"/>
       <c r="C14"/>
@@ -8052,7 +8052,7 @@
       <c r="BI14"/>
       <c r="BJ14"/>
     </row>
-    <row r="15" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:62" ht="15" thickBot="1">
       <c r="A15"/>
       <c r="B15" s="43"/>
       <c r="C15"/>
@@ -8091,7 +8091,7 @@
       <c r="BI15"/>
       <c r="BJ15"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62">
       <c r="A16"/>
       <c r="B16" s="43"/>
       <c r="C16"/>
@@ -8124,7 +8124,7 @@
       <c r="BI16"/>
       <c r="BJ16"/>
     </row>
-    <row r="17" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:68" ht="15" thickBot="1">
       <c r="A17"/>
       <c r="B17" s="43"/>
       <c r="C17"/>
@@ -8154,7 +8154,7 @@
       <c r="BI17"/>
       <c r="BJ17"/>
     </row>
-    <row r="18" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:68" ht="15" thickBot="1">
       <c r="A18"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -8200,7 +8200,7 @@
       <c r="BI18"/>
       <c r="BJ18"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:68">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -8227,7 +8227,7 @@
       <c r="BI19"/>
       <c r="BJ19"/>
     </row>
-    <row r="20" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:68" ht="15" thickBot="1">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>113</v>
@@ -8256,7 +8256,7 @@
       <c r="BI20"/>
       <c r="BJ20"/>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:68">
       <c r="A21"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
@@ -8306,7 +8306,7 @@
       <c r="BI21"/>
       <c r="BJ21"/>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:68">
       <c r="A22"/>
       <c r="B22" s="43"/>
       <c r="M22"/>
@@ -8327,7 +8327,7 @@
       <c r="BI22"/>
       <c r="BJ22"/>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:68">
       <c r="A23"/>
       <c r="B23" s="43"/>
       <c r="C23"/>
@@ -8341,7 +8341,7 @@
       <c r="BO23"/>
       <c r="BP23"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:68">
       <c r="A24"/>
       <c r="B24" s="43"/>
       <c r="C24"/>
@@ -8362,7 +8362,7 @@
       <c r="BI24"/>
       <c r="BJ24"/>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:68">
       <c r="A25"/>
       <c r="B25" s="43"/>
       <c r="C25"/>
@@ -8387,7 +8387,7 @@
       <c r="BI25"/>
       <c r="BJ25"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:68">
       <c r="A26"/>
       <c r="B26" s="43"/>
       <c r="C26"/>
@@ -8410,7 +8410,7 @@
       <c r="BI26"/>
       <c r="BJ26"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:68">
       <c r="A27"/>
       <c r="B27" s="43"/>
       <c r="C27"/>
@@ -8433,7 +8433,7 @@
       <c r="BI27"/>
       <c r="BJ27"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:68">
       <c r="A28"/>
       <c r="B28" s="43"/>
       <c r="C28"/>
@@ -8458,7 +8458,7 @@
       <c r="BI28"/>
       <c r="BJ28"/>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:68">
       <c r="A29"/>
       <c r="B29" s="43"/>
       <c r="C29"/>
@@ -8485,7 +8485,7 @@
       <c r="BI29"/>
       <c r="BJ29"/>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:68">
       <c r="A30"/>
       <c r="B30" s="43"/>
       <c r="C30"/>
@@ -8512,7 +8512,7 @@
       <c r="BI30"/>
       <c r="BJ30"/>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:68">
       <c r="A31"/>
       <c r="B31" s="43"/>
       <c r="C31" s="61"/>
@@ -8555,7 +8555,7 @@
       <c r="BI31"/>
       <c r="BJ31"/>
     </row>
-    <row r="32" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:68" ht="15" thickBot="1">
       <c r="A32"/>
       <c r="B32" s="43"/>
       <c r="E32" s="64"/>
@@ -8574,7 +8574,7 @@
       <c r="BI32"/>
       <c r="BJ32"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:62">
       <c r="A33"/>
       <c r="B33" s="43"/>
       <c r="E33" s="64"/>
@@ -8595,7 +8595,7 @@
       <c r="BI33"/>
       <c r="BJ33"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:62">
       <c r="A34"/>
       <c r="B34" s="43"/>
       <c r="D34" s="65"/>
@@ -8617,7 +8617,7 @@
       <c r="BI34"/>
       <c r="BJ34"/>
     </row>
-    <row r="35" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:62" ht="15" thickBot="1">
       <c r="A35"/>
       <c r="B35" s="43"/>
       <c r="C35" s="63"/>
@@ -8662,7 +8662,7 @@
       <c r="BI35"/>
       <c r="BJ35"/>
     </row>
-    <row r="36" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:62" ht="15" thickBot="1">
       <c r="A36"/>
       <c r="B36" s="58"/>
       <c r="C36" s="59"/>
@@ -8709,7 +8709,7 @@
       <c r="BI36"/>
       <c r="BJ36"/>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:62">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -8736,7 +8736,7 @@
       <c r="BI37"/>
       <c r="BJ37"/>
     </row>
-    <row r="38" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:62" ht="15" thickBot="1">
       <c r="A38"/>
       <c r="B38" t="s">
         <v>115</v>
@@ -8765,7 +8765,7 @@
       <c r="BI38"/>
       <c r="BJ38"/>
     </row>
-    <row r="39" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:62" ht="15" thickBot="1">
       <c r="A39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="41"/>
@@ -8815,7 +8815,7 @@
       <c r="BI39"/>
       <c r="BJ39"/>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:62">
       <c r="A40"/>
       <c r="B40" s="43"/>
       <c r="E40"/>
@@ -8845,7 +8845,7 @@
       <c r="BI40"/>
       <c r="BJ40"/>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:62">
       <c r="A41"/>
       <c r="B41" s="43"/>
       <c r="C41"/>
@@ -8876,7 +8876,7 @@
       <c r="BI41"/>
       <c r="BJ41"/>
     </row>
-    <row r="42" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:62" ht="15" thickBot="1">
       <c r="A42"/>
       <c r="B42" s="43"/>
       <c r="C42"/>
@@ -8907,7 +8907,7 @@
       <c r="BI42"/>
       <c r="BJ42"/>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:62">
       <c r="A43"/>
       <c r="B43" s="43"/>
       <c r="D43"/>
@@ -8934,7 +8934,7 @@
       <c r="BI43"/>
       <c r="BJ43"/>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:62">
       <c r="A44"/>
       <c r="B44" s="43"/>
       <c r="C44"/>
@@ -8960,7 +8960,7 @@
       <c r="BI44"/>
       <c r="BJ44"/>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:62">
       <c r="A45"/>
       <c r="B45" s="43"/>
       <c r="C45" s="65"/>
@@ -8981,7 +8981,7 @@
       <c r="BI45"/>
       <c r="BJ45"/>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:62">
       <c r="A46"/>
       <c r="B46" s="43"/>
       <c r="C46"/>
@@ -9005,7 +9005,7 @@
       <c r="BI46"/>
       <c r="BJ46"/>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:62">
       <c r="A47"/>
       <c r="B47" s="43"/>
       <c r="C47"/>
@@ -9038,7 +9038,7 @@
       <c r="BI47"/>
       <c r="BJ47"/>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:62">
       <c r="A48"/>
       <c r="B48" s="43"/>
       <c r="E48" s="61"/>
@@ -9065,7 +9065,7 @@
       <c r="BI48"/>
       <c r="BJ48"/>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:62">
       <c r="A49"/>
       <c r="B49" s="43"/>
       <c r="C49"/>
@@ -9096,7 +9096,7 @@
       <c r="BI49"/>
       <c r="BJ49"/>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:62">
       <c r="A50"/>
       <c r="B50" s="43"/>
       <c r="C50"/>
@@ -9125,7 +9125,7 @@
       <c r="BI50"/>
       <c r="BJ50"/>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:62">
       <c r="A51"/>
       <c r="B51" s="43"/>
       <c r="C51"/>
@@ -9168,7 +9168,7 @@
       <c r="BI51"/>
       <c r="BJ51"/>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:62">
       <c r="A52"/>
       <c r="B52" s="43"/>
       <c r="C52"/>
@@ -9195,7 +9195,7 @@
       <c r="BI52"/>
       <c r="BJ52"/>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:62">
       <c r="A53"/>
       <c r="B53" s="43"/>
       <c r="C53"/>
@@ -9222,7 +9222,7 @@
       <c r="BI53"/>
       <c r="BJ53"/>
     </row>
-    <row r="54" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:62" ht="15" thickBot="1">
       <c r="A54"/>
       <c r="B54" s="58"/>
       <c r="C54" s="59"/>
@@ -9269,7 +9269,7 @@
       <c r="BI54"/>
       <c r="BJ54"/>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:62">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -9296,7 +9296,7 @@
       <c r="BI55"/>
       <c r="BJ55"/>
     </row>
-    <row r="56" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:62" ht="15" thickBot="1">
       <c r="A56"/>
       <c r="B56" t="s">
         <v>117</v>
@@ -9325,7 +9325,7 @@
       <c r="BI56"/>
       <c r="BJ56"/>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:62">
       <c r="A57"/>
       <c r="B57" s="40"/>
       <c r="C57" s="41"/>
@@ -9375,7 +9375,7 @@
       <c r="BI57"/>
       <c r="BJ57"/>
     </row>
-    <row r="58" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:62" ht="15" thickBot="1">
       <c r="A58"/>
       <c r="B58" s="43"/>
       <c r="C58"/>
@@ -9403,7 +9403,7 @@
       <c r="BI58"/>
       <c r="BJ58"/>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:62">
       <c r="A59"/>
       <c r="B59" s="43"/>
       <c r="C59"/>
@@ -9433,7 +9433,7 @@
       <c r="BI59"/>
       <c r="BJ59"/>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:62">
       <c r="A60"/>
       <c r="B60" s="43"/>
       <c r="C60"/>
@@ -9463,7 +9463,7 @@
       <c r="BI60"/>
       <c r="BJ60"/>
     </row>
-    <row r="61" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:62" ht="15" thickBot="1">
       <c r="A61"/>
       <c r="B61" s="43"/>
       <c r="C61"/>
@@ -9490,7 +9490,7 @@
       <c r="BI61"/>
       <c r="BJ61"/>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:62">
       <c r="A62"/>
       <c r="B62" s="43"/>
       <c r="C62" s="63"/>
@@ -9532,7 +9532,7 @@
       <c r="BI62"/>
       <c r="BJ62"/>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:62">
       <c r="A63"/>
       <c r="B63" s="43"/>
       <c r="C63"/>
@@ -9557,7 +9557,7 @@
       <c r="BI63"/>
       <c r="BJ63"/>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:62">
       <c r="A64"/>
       <c r="B64" s="43"/>
       <c r="C64"/>
@@ -9581,7 +9581,7 @@
       <c r="BI64"/>
       <c r="BJ64"/>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:62">
       <c r="A65"/>
       <c r="B65" s="43"/>
       <c r="G65"/>
@@ -9604,7 +9604,7 @@
       <c r="BI65"/>
       <c r="BJ65"/>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:62">
       <c r="A66"/>
       <c r="B66" s="43"/>
       <c r="C66"/>
@@ -9629,7 +9629,7 @@
       <c r="BI66"/>
       <c r="BJ66"/>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:62">
       <c r="A67"/>
       <c r="B67" s="43"/>
       <c r="C67" s="61"/>
@@ -9670,7 +9670,7 @@
       <c r="BI67"/>
       <c r="BJ67"/>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:62">
       <c r="A68"/>
       <c r="B68" s="43"/>
       <c r="C68"/>
@@ -9695,7 +9695,7 @@
       <c r="BI68"/>
       <c r="BJ68"/>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:62">
       <c r="A69"/>
       <c r="B69" s="43"/>
       <c r="C69"/>
@@ -9719,7 +9719,7 @@
       <c r="BI69"/>
       <c r="BJ69"/>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:62">
       <c r="A70"/>
       <c r="B70" s="43"/>
       <c r="D70" s="52"/>
@@ -9742,7 +9742,7 @@
       <c r="BI70"/>
       <c r="BJ70"/>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:62">
       <c r="A71"/>
       <c r="B71" s="43"/>
       <c r="D71" s="52"/>
@@ -9765,7 +9765,7 @@
       <c r="BI71"/>
       <c r="BJ71"/>
     </row>
-    <row r="72" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:62" ht="15" thickBot="1">
       <c r="A72"/>
       <c r="B72" s="58"/>
       <c r="C72" s="59"/>
@@ -9812,7 +9812,7 @@
       <c r="BI72"/>
       <c r="BJ72"/>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:62">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -9839,7 +9839,7 @@
       <c r="BI73"/>
       <c r="BJ73"/>
     </row>
-    <row r="74" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:62" ht="15" thickBot="1">
       <c r="A74"/>
       <c r="B74" t="s">
         <v>123</v>
@@ -9868,7 +9868,7 @@
       <c r="BI74"/>
       <c r="BJ74"/>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:62">
       <c r="A75"/>
       <c r="B75" s="40"/>
       <c r="C75" s="41"/>
@@ -9918,7 +9918,7 @@
       <c r="BI75"/>
       <c r="BJ75"/>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:62">
       <c r="A76"/>
       <c r="B76" s="53"/>
       <c r="C76"/>
@@ -9950,7 +9950,7 @@
       <c r="BI76"/>
       <c r="BJ76"/>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:62">
       <c r="A77"/>
       <c r="B77" s="68"/>
       <c r="C77" s="65"/>
@@ -9982,7 +9982,7 @@
       <c r="BI77"/>
       <c r="BJ77"/>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:62">
       <c r="A78"/>
       <c r="B78" s="68"/>
       <c r="C78" s="65"/>
@@ -10011,7 +10011,7 @@
       <c r="BI78"/>
       <c r="BJ78"/>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:62">
       <c r="A79"/>
       <c r="B79" s="68"/>
       <c r="C79" s="65"/>
@@ -10040,7 +10040,7 @@
       <c r="BI79"/>
       <c r="BJ79"/>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:62">
       <c r="A80"/>
       <c r="B80" s="68"/>
       <c r="C80" s="65"/>
@@ -10069,7 +10069,7 @@
       <c r="BI80"/>
       <c r="BJ80"/>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:62">
       <c r="A81"/>
       <c r="B81" s="68"/>
       <c r="C81" s="65"/>
@@ -10098,7 +10098,7 @@
       <c r="BI81"/>
       <c r="BJ81"/>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:62">
       <c r="A82"/>
       <c r="B82" s="68"/>
       <c r="C82" s="65"/>
@@ -10127,7 +10127,7 @@
       <c r="BI82"/>
       <c r="BJ82"/>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:62">
       <c r="A83"/>
       <c r="B83" s="68"/>
       <c r="C83" s="65"/>
@@ -10156,7 +10156,7 @@
       <c r="BI83"/>
       <c r="BJ83"/>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:62">
       <c r="A84"/>
       <c r="B84" s="68"/>
       <c r="C84" s="65"/>
@@ -10185,7 +10185,7 @@
       <c r="BI84"/>
       <c r="BJ84"/>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:62">
       <c r="A85"/>
       <c r="B85" s="68"/>
       <c r="C85" s="65"/>
@@ -10214,7 +10214,7 @@
       <c r="BI85"/>
       <c r="BJ85"/>
     </row>
-    <row r="86" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:62" ht="15" thickBot="1">
       <c r="A86"/>
       <c r="B86" s="68"/>
       <c r="C86" s="65"/>
@@ -10243,7 +10243,7 @@
       <c r="BI86"/>
       <c r="BJ86"/>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:62">
       <c r="A87"/>
       <c r="B87" s="68"/>
       <c r="C87" s="65"/>
@@ -10276,7 +10276,7 @@
       <c r="BI87"/>
       <c r="BJ87"/>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:62">
       <c r="A88"/>
       <c r="B88" s="68"/>
       <c r="C88" s="65"/>
@@ -10306,7 +10306,7 @@
       <c r="BI88"/>
       <c r="BJ88"/>
     </row>
-    <row r="89" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:62" ht="15" thickBot="1">
       <c r="A89"/>
       <c r="B89" s="68"/>
       <c r="C89" s="65"/>
@@ -10336,7 +10336,7 @@
       <c r="BI89"/>
       <c r="BJ89"/>
     </row>
-    <row r="90" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:62" ht="15" thickBot="1">
       <c r="A90"/>
       <c r="B90" s="58"/>
       <c r="C90" s="59"/>
@@ -10383,7 +10383,7 @@
       <c r="BI90"/>
       <c r="BJ90"/>
     </row>
-    <row r="92" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:62" ht="15" thickBot="1">
       <c r="B92" t="s">
         <v>128</v>
       </c>
@@ -10401,7 +10401,7 @@
       <c r="N92"/>
       <c r="O92"/>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:62">
       <c r="B93" s="40"/>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
@@ -10437,7 +10437,7 @@
       <c r="AH93" s="41"/>
       <c r="AI93" s="42"/>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:62">
       <c r="B94" s="43"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -10452,7 +10452,7 @@
       <c r="M94"/>
       <c r="AI94" s="44"/>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:62">
       <c r="B95" s="43"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -10467,7 +10467,7 @@
       <c r="M95"/>
       <c r="AI95" s="44"/>
     </row>
-    <row r="96" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:62" ht="15" thickBot="1">
       <c r="B96" s="43"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -10482,7 +10482,7 @@
       <c r="M96"/>
       <c r="AI96" s="44"/>
     </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:35">
       <c r="B97" s="43"/>
       <c r="C97"/>
       <c r="D97"/>
@@ -10501,7 +10501,7 @@
       <c r="Y97" s="61"/>
       <c r="AI97" s="44"/>
     </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:35">
       <c r="B98" s="43"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -10520,7 +10520,7 @@
       <c r="Y98" s="61"/>
       <c r="AI98" s="44"/>
     </row>
-    <row r="99" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:35" ht="15" thickBot="1">
       <c r="B99" s="43"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -10539,7 +10539,7 @@
       <c r="Y99" s="61"/>
       <c r="AI99" s="44"/>
     </row>
-    <row r="100" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:35">
       <c r="B100" s="43"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -10566,7 +10566,7 @@
       <c r="Y100" s="61"/>
       <c r="AI100" s="44"/>
     </row>
-    <row r="101" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:35">
       <c r="B101" s="43"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -10593,7 +10593,7 @@
       <c r="Y101" s="61"/>
       <c r="AI101" s="44"/>
     </row>
-    <row r="102" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:35">
       <c r="B102" s="43"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -10614,7 +10614,7 @@
       <c r="Y102" s="61"/>
       <c r="AI102" s="44"/>
     </row>
-    <row r="103" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:35">
       <c r="B103" s="43"/>
       <c r="C103"/>
       <c r="D103"/>
@@ -10635,7 +10635,7 @@
       <c r="Y103" s="61"/>
       <c r="AI103" s="44"/>
     </row>
-    <row r="104" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:35" ht="15" thickBot="1">
       <c r="B104" s="43"/>
       <c r="C104"/>
       <c r="D104"/>
@@ -10656,7 +10656,7 @@
       <c r="Y104" s="61"/>
       <c r="AI104" s="44"/>
     </row>
-    <row r="105" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:35">
       <c r="B105" s="43"/>
       <c r="C105"/>
       <c r="D105"/>
@@ -10677,7 +10677,7 @@
       <c r="AF105" s="50"/>
       <c r="AI105" s="44"/>
     </row>
-    <row r="106" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:35">
       <c r="B106" s="43"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -10698,7 +10698,7 @@
       <c r="AF106" s="54"/>
       <c r="AI106" s="44"/>
     </row>
-    <row r="107" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:35" ht="15" thickBot="1">
       <c r="B107" s="43"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -10720,7 +10720,7 @@
       <c r="AF107" s="57"/>
       <c r="AI107" s="44"/>
     </row>
-    <row r="108" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:35" ht="15" thickBot="1">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
       <c r="D108" s="59"/>
@@ -10756,7 +10756,7 @@
       <c r="AH108" s="59"/>
       <c r="AI108" s="60"/>
     </row>
-    <row r="110" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:35" ht="15" thickBot="1">
       <c r="B110" t="s">
         <v>129</v>
       </c>
@@ -10774,7 +10774,7 @@
       <c r="N110"/>
       <c r="O110"/>
     </row>
-    <row r="111" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:35">
       <c r="B111" s="40"/>
       <c r="C111" s="41"/>
       <c r="D111" s="41"/>
@@ -10810,7 +10810,7 @@
       <c r="AH111" s="67"/>
       <c r="AI111" s="42"/>
     </row>
-    <row r="112" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:35">
       <c r="B112" s="43"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -10825,7 +10825,7 @@
       <c r="Z112" s="61"/>
       <c r="AI112" s="44"/>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:35">
       <c r="B113" s="43"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -10843,7 +10843,7 @@
       <c r="Z113" s="61"/>
       <c r="AI113" s="44"/>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:35">
       <c r="B114" s="43"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -10864,7 +10864,7 @@
       <c r="Z114" s="61"/>
       <c r="AI114" s="44"/>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:35">
       <c r="B115" s="43"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -10885,7 +10885,7 @@
       <c r="Z115" s="61"/>
       <c r="AI115" s="44"/>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:35">
       <c r="B116" s="43"/>
       <c r="C116" s="61"/>
       <c r="D116" s="61"/>
@@ -10907,7 +10907,7 @@
       <c r="Z116" s="61"/>
       <c r="AI116" s="44"/>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:35">
       <c r="B117" s="43"/>
       <c r="C117" s="61"/>
       <c r="D117" s="61"/>
@@ -10929,7 +10929,7 @@
       <c r="Z117" s="61"/>
       <c r="AI117" s="44"/>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:35">
       <c r="B118" s="43"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -10950,7 +10950,7 @@
       <c r="Z118" s="61"/>
       <c r="AI118" s="44"/>
     </row>
-    <row r="119" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:35" ht="15" thickBot="1">
       <c r="B119" s="43"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -10971,7 +10971,7 @@
       <c r="Z119" s="61"/>
       <c r="AI119" s="44"/>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:35">
       <c r="B120" s="43"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -10988,7 +10988,7 @@
       <c r="AG120" s="50"/>
       <c r="AI120" s="44"/>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:35">
       <c r="B121" s="43"/>
       <c r="C121" s="61"/>
       <c r="D121" s="61"/>
@@ -11012,7 +11012,7 @@
       <c r="AG121" s="54"/>
       <c r="AI121" s="44"/>
     </row>
-    <row r="122" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:35" ht="15" thickBot="1">
       <c r="B122" s="43"/>
       <c r="C122" s="61"/>
       <c r="D122" s="61"/>
@@ -11036,7 +11036,7 @@
       <c r="AG122" s="57"/>
       <c r="AI122" s="44"/>
     </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:35">
       <c r="B123" s="43"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -11054,7 +11054,7 @@
       <c r="AH123" s="61"/>
       <c r="AI123" s="44"/>
     </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:35">
       <c r="B124" s="43"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -11076,7 +11076,7 @@
       <c r="AH124" s="61"/>
       <c r="AI124" s="44"/>
     </row>
-    <row r="125" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:35">
       <c r="B125" s="43"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -11098,7 +11098,7 @@
       <c r="AH125" s="61"/>
       <c r="AI125" s="44"/>
     </row>
-    <row r="126" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:35" ht="15" thickBot="1">
       <c r="B126" s="58"/>
       <c r="C126" s="59"/>
       <c r="D126" s="59"/>
@@ -11134,7 +11134,7 @@
       <c r="AH126" s="59"/>
       <c r="AI126" s="60"/>
     </row>
-    <row r="128" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:35" ht="15" thickBot="1">
       <c r="B128" t="s">
         <v>130</v>
       </c>
@@ -11152,7 +11152,7 @@
       <c r="N128"/>
       <c r="O128"/>
     </row>
-    <row r="129" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:35">
       <c r="B129" s="40"/>
       <c r="C129" s="41"/>
       <c r="D129" s="41"/>
@@ -11188,7 +11188,7 @@
       <c r="AH129" s="41"/>
       <c r="AI129" s="42"/>
     </row>
-    <row r="130" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:35">
       <c r="B130" s="43"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -11200,7 +11200,7 @@
       <c r="O130"/>
       <c r="AI130" s="44"/>
     </row>
-    <row r="131" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:35">
       <c r="B131" s="43"/>
       <c r="C131" s="61"/>
       <c r="D131"/>
@@ -11213,7 +11213,7 @@
       <c r="AH131" s="61"/>
       <c r="AI131" s="44"/>
     </row>
-    <row r="132" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:35">
       <c r="B132" s="43"/>
       <c r="C132" s="61"/>
       <c r="D132" s="61"/>
@@ -11236,7 +11236,7 @@
       <c r="AH132" s="61"/>
       <c r="AI132" s="44"/>
     </row>
-    <row r="133" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:35">
       <c r="B133" s="43"/>
       <c r="C133" s="61"/>
       <c r="D133" s="61"/>
@@ -11261,7 +11261,7 @@
       <c r="AH133" s="61"/>
       <c r="AI133" s="44"/>
     </row>
-    <row r="134" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:35" ht="15" thickBot="1">
       <c r="B134" s="43"/>
       <c r="C134" s="61"/>
       <c r="D134" s="61"/>
@@ -11290,7 +11290,7 @@
       <c r="AH134" s="61"/>
       <c r="AI134" s="44"/>
     </row>
-    <row r="135" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:35">
       <c r="B135" s="43"/>
       <c r="C135" s="61"/>
       <c r="D135" s="61"/>
@@ -11324,7 +11324,7 @@
       <c r="AH135" s="61"/>
       <c r="AI135" s="44"/>
     </row>
-    <row r="136" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:35">
       <c r="B136" s="43"/>
       <c r="C136" s="61"/>
       <c r="D136" s="61"/>
@@ -11360,7 +11360,7 @@
       <c r="AH136" s="61"/>
       <c r="AI136" s="44"/>
     </row>
-    <row r="137" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:35" ht="15" thickBot="1">
       <c r="B137" s="43"/>
       <c r="C137" s="61"/>
       <c r="D137" s="61"/>
@@ -11396,7 +11396,7 @@
       <c r="AH137" s="61"/>
       <c r="AI137" s="44"/>
     </row>
-    <row r="138" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:35">
       <c r="B138" s="43"/>
       <c r="C138" s="61"/>
       <c r="D138" s="61"/>
@@ -11426,7 +11426,7 @@
       <c r="AH138" s="61"/>
       <c r="AI138" s="44"/>
     </row>
-    <row r="139" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:35">
       <c r="B139" s="43"/>
       <c r="C139" s="61"/>
       <c r="D139" s="61"/>
@@ -11454,7 +11454,7 @@
       <c r="AH139" s="61"/>
       <c r="AI139" s="44"/>
     </row>
-    <row r="140" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:35" ht="15" thickBot="1">
       <c r="B140" s="43"/>
       <c r="C140" s="61"/>
       <c r="D140" s="61"/>
@@ -11479,7 +11479,7 @@
       <c r="AH140" s="61"/>
       <c r="AI140" s="44"/>
     </row>
-    <row r="141" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:35" ht="15" thickBot="1">
       <c r="B141" s="43"/>
       <c r="C141" s="61"/>
       <c r="D141" s="61"/>
@@ -11503,7 +11503,7 @@
       <c r="AH141" s="61"/>
       <c r="AI141" s="44"/>
     </row>
-    <row r="142" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:35">
       <c r="B142" s="43"/>
       <c r="C142" s="61"/>
       <c r="E142" s="52"/>
@@ -11524,7 +11524,7 @@
       <c r="AH142" s="61"/>
       <c r="AI142" s="44"/>
     </row>
-    <row r="143" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:35" ht="15" thickBot="1">
       <c r="B143" s="43"/>
       <c r="C143"/>
       <c r="E143" s="52"/>
@@ -11542,7 +11542,7 @@
       <c r="AE143" s="57"/>
       <c r="AI143" s="44"/>
     </row>
-    <row r="144" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:35" ht="15" thickBot="1">
       <c r="B144" s="58"/>
       <c r="C144" s="59"/>
       <c r="D144" s="59"/>
@@ -11578,7 +11578,7 @@
       <c r="AH144" s="59"/>
       <c r="AI144" s="60"/>
     </row>
-    <row r="145" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:35">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -11594,7 +11594,7 @@
       <c r="N145"/>
       <c r="O145"/>
     </row>
-    <row r="146" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:35" ht="15" thickBot="1">
       <c r="B146" t="s">
         <v>131</v>
       </c>
@@ -11612,7 +11612,7 @@
       <c r="N146"/>
       <c r="O146"/>
     </row>
-    <row r="147" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:35">
       <c r="B147" s="40"/>
       <c r="C147" s="67"/>
       <c r="D147" s="67"/>
@@ -11648,7 +11648,7 @@
       <c r="AH147" s="67"/>
       <c r="AI147" s="42"/>
     </row>
-    <row r="148" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:35">
       <c r="B148" s="43"/>
       <c r="C148"/>
       <c r="D148"/>
@@ -11663,7 +11663,7 @@
       <c r="Q148" s="61"/>
       <c r="AI148" s="44"/>
     </row>
-    <row r="149" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:35">
       <c r="B149" s="43"/>
       <c r="C149"/>
       <c r="F149" s="61"/>
@@ -11689,7 +11689,7 @@
       <c r="AE149" s="61"/>
       <c r="AI149" s="44"/>
     </row>
-    <row r="150" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:35">
       <c r="B150" s="43"/>
       <c r="C150"/>
       <c r="F150" s="61"/>
@@ -11715,7 +11715,7 @@
       <c r="AE150" s="61"/>
       <c r="AI150" s="44"/>
     </row>
-    <row r="151" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:35">
       <c r="B151" s="43"/>
       <c r="C151"/>
       <c r="F151"/>
@@ -11736,7 +11736,7 @@
       <c r="AE151" s="61"/>
       <c r="AI151" s="44"/>
     </row>
-    <row r="152" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:35">
       <c r="B152" s="43"/>
       <c r="C152"/>
       <c r="F152"/>
@@ -11756,7 +11756,7 @@
       <c r="AE152" s="61"/>
       <c r="AI152" s="44"/>
     </row>
-    <row r="153" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:35">
       <c r="B153" s="43"/>
       <c r="C153"/>
       <c r="F153"/>
@@ -11776,7 +11776,7 @@
       <c r="AE153" s="61"/>
       <c r="AI153" s="44"/>
     </row>
-    <row r="154" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:35">
       <c r="B154" s="43"/>
       <c r="F154" s="61"/>
       <c r="G154" s="61"/>
@@ -11804,7 +11804,7 @@
       <c r="AE154" s="61"/>
       <c r="AI154" s="44"/>
     </row>
-    <row r="155" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="2:35" ht="15" thickBot="1">
       <c r="B155" s="43"/>
       <c r="F155" s="61"/>
       <c r="G155" s="61"/>
@@ -11832,7 +11832,7 @@
       <c r="AE155" s="61"/>
       <c r="AI155" s="44"/>
     </row>
-    <row r="156" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:35">
       <c r="B156" s="43"/>
       <c r="F156" s="61"/>
       <c r="G156" s="61"/>
@@ -11850,7 +11850,7 @@
       <c r="Z156" s="61"/>
       <c r="AI156" s="44"/>
     </row>
-    <row r="157" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:35">
       <c r="B157" s="43"/>
       <c r="F157" s="61"/>
       <c r="G157" s="61"/>
@@ -11868,7 +11868,7 @@
       <c r="Z157" s="61"/>
       <c r="AI157" s="44"/>
     </row>
-    <row r="158" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:35" ht="15" thickBot="1">
       <c r="B158" s="43"/>
       <c r="F158" s="61"/>
       <c r="G158" s="61"/>
@@ -11886,7 +11886,7 @@
       <c r="Z158" s="61"/>
       <c r="AI158" s="44"/>
     </row>
-    <row r="159" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:35">
       <c r="B159" s="43"/>
       <c r="C159"/>
       <c r="F159" s="61"/>
@@ -11914,7 +11914,7 @@
       <c r="AE159" s="61"/>
       <c r="AI159" s="44"/>
     </row>
-    <row r="160" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:35">
       <c r="B160" s="43"/>
       <c r="C160"/>
       <c r="F160" s="61"/>
@@ -11942,13 +11942,13 @@
       <c r="AE160" s="61"/>
       <c r="AI160" s="44"/>
     </row>
-    <row r="161" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:35">
       <c r="B161" s="43"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="AI161" s="44"/>
     </row>
-    <row r="162" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:35" ht="15" thickBot="1">
       <c r="B162" s="58"/>
       <c r="C162" s="71"/>
       <c r="D162" s="71"/>
@@ -11984,7 +11984,7 @@
       <c r="AH162" s="71"/>
       <c r="AI162" s="60"/>
     </row>
-    <row r="164" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:35" ht="15" thickBot="1">
       <c r="B164" t="s">
         <v>132</v>
       </c>
@@ -12002,7 +12002,7 @@
       <c r="N164"/>
       <c r="O164"/>
     </row>
-    <row r="165" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:35">
       <c r="B165" s="40"/>
       <c r="C165" s="41"/>
       <c r="D165" s="41"/>
@@ -12038,7 +12038,7 @@
       <c r="AH165" s="41"/>
       <c r="AI165" s="42"/>
     </row>
-    <row r="166" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:35" ht="15" thickBot="1">
       <c r="B166" s="43"/>
       <c r="C166" s="105"/>
       <c r="E166" s="16"/>
@@ -12068,7 +12068,7 @@
       <c r="AH166" s="105"/>
       <c r="AI166" s="44"/>
     </row>
-    <row r="167" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:35">
       <c r="B167" s="43"/>
       <c r="C167" s="105"/>
       <c r="D167" s="105"/>
@@ -12104,7 +12104,7 @@
       <c r="AH167" s="105"/>
       <c r="AI167" s="44"/>
     </row>
-    <row r="168" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:35">
       <c r="B168" s="43"/>
       <c r="C168" s="105"/>
       <c r="D168" s="105"/>
@@ -12140,7 +12140,7 @@
       <c r="AH168" s="105"/>
       <c r="AI168" s="44"/>
     </row>
-    <row r="169" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="2:35" ht="15" thickBot="1">
       <c r="B169" s="43"/>
       <c r="C169" s="105"/>
       <c r="D169" s="105"/>
@@ -12171,7 +12171,7 @@
       <c r="AH169" s="105"/>
       <c r="AI169" s="44"/>
     </row>
-    <row r="170" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:35">
       <c r="B170" s="43"/>
       <c r="C170" s="102"/>
       <c r="D170" s="102"/>
@@ -12207,7 +12207,7 @@
       <c r="AH170" s="102"/>
       <c r="AI170" s="44"/>
     </row>
-    <row r="171" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:35" ht="15" thickBot="1">
       <c r="B171" s="43"/>
       <c r="C171" s="105"/>
       <c r="D171" s="105"/>
@@ -12243,7 +12243,7 @@
       <c r="AH171" s="105"/>
       <c r="AI171" s="44"/>
     </row>
-    <row r="172" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:35">
       <c r="B172" s="43"/>
       <c r="C172" s="106"/>
       <c r="D172" s="106"/>
@@ -12279,7 +12279,7 @@
       <c r="AH172" s="105"/>
       <c r="AI172" s="44"/>
     </row>
-    <row r="173" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:35">
       <c r="B173" s="43"/>
       <c r="C173" s="105"/>
       <c r="D173" s="16"/>
@@ -12314,7 +12314,7 @@
       <c r="AH173" s="105"/>
       <c r="AI173" s="44"/>
     </row>
-    <row r="174" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:35" ht="15" thickBot="1">
       <c r="B174" s="43"/>
       <c r="C174" s="105"/>
       <c r="D174" s="16"/>
@@ -12349,7 +12349,7 @@
       <c r="AH174" s="105"/>
       <c r="AI174" s="44"/>
     </row>
-    <row r="175" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:35">
       <c r="B175" s="43"/>
       <c r="C175" s="102"/>
       <c r="D175" s="16"/>
@@ -12385,7 +12385,7 @@
       <c r="AH175" s="102"/>
       <c r="AI175" s="44"/>
     </row>
-    <row r="176" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:35" ht="15" thickBot="1">
       <c r="B176" s="43"/>
       <c r="C176" s="106"/>
       <c r="D176" s="106"/>
@@ -12421,7 +12421,7 @@
       <c r="AH176" s="105"/>
       <c r="AI176" s="44"/>
     </row>
-    <row r="177" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:35">
       <c r="B177" s="43"/>
       <c r="C177" s="105"/>
       <c r="D177" s="105"/>
@@ -12457,7 +12457,7 @@
       <c r="AH177" s="105"/>
       <c r="AI177" s="44"/>
     </row>
-    <row r="178" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:35">
       <c r="B178" s="43"/>
       <c r="C178" s="105"/>
       <c r="D178" s="106"/>
@@ -12493,7 +12493,7 @@
       <c r="AH178" s="105"/>
       <c r="AI178" s="44"/>
     </row>
-    <row r="179" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:35" ht="15" thickBot="1">
       <c r="B179" s="43"/>
       <c r="C179" s="105"/>
       <c r="D179" s="106"/>
@@ -12529,7 +12529,7 @@
       <c r="AH179" s="105"/>
       <c r="AI179" s="44"/>
     </row>
-    <row r="180" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:35" ht="15" thickBot="1">
       <c r="B180" s="58"/>
       <c r="C180" s="59"/>
       <c r="D180" s="59"/>
@@ -12581,14 +12581,14 @@
       <selection activeCell="AO98" sqref="AO98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" ht="15" thickBot="1">
       <c r="B2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41">
       <c r="A3" s="103"/>
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
@@ -12625,7 +12625,7 @@
       <c r="AH3" s="41"/>
       <c r="AI3" s="42"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41">
       <c r="B4" s="68"/>
       <c r="C4" s="108"/>
       <c r="D4" s="105"/>
@@ -12663,7 +12663,7 @@
       <c r="AJ4" s="119"/>
       <c r="AK4" s="119"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41">
       <c r="B5" s="68"/>
       <c r="C5" s="108"/>
       <c r="D5" s="105"/>
@@ -12701,7 +12701,7 @@
       <c r="AJ5" s="119"/>
       <c r="AK5" s="119"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41">
       <c r="B6" s="68"/>
       <c r="C6" s="108"/>
       <c r="D6" s="105"/>
@@ -12739,7 +12739,7 @@
       <c r="AJ6" s="119"/>
       <c r="AK6" s="119"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41">
       <c r="B7" s="68"/>
       <c r="C7" s="108"/>
       <c r="D7" s="105"/>
@@ -12777,7 +12777,7 @@
       <c r="AJ7" s="119"/>
       <c r="AK7" s="119"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41">
       <c r="B8" s="68"/>
       <c r="C8" s="108"/>
       <c r="D8" s="105"/>
@@ -12815,7 +12815,7 @@
       <c r="AJ8" s="119"/>
       <c r="AK8" s="119"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41">
       <c r="B9" s="68"/>
       <c r="C9" s="108"/>
       <c r="D9" s="105"/>
@@ -12853,7 +12853,7 @@
       <c r="AJ9" s="119"/>
       <c r="AK9" s="119"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41">
       <c r="B10" s="68"/>
       <c r="C10" s="108"/>
       <c r="D10" s="105"/>
@@ -12891,7 +12891,7 @@
       <c r="AJ10" s="119"/>
       <c r="AK10" s="119"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41">
       <c r="B11" s="68"/>
       <c r="C11" s="108"/>
       <c r="D11" s="105"/>
@@ -12929,7 +12929,7 @@
       <c r="AJ11" s="119"/>
       <c r="AK11" s="119"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41">
       <c r="B12" s="68"/>
       <c r="C12" s="108"/>
       <c r="D12" s="105"/>
@@ -12967,7 +12967,7 @@
       <c r="AJ12" s="119"/>
       <c r="AK12" s="119"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41">
       <c r="B13" s="68"/>
       <c r="C13" s="108"/>
       <c r="D13" s="105"/>
@@ -13005,7 +13005,7 @@
       <c r="AJ13" s="119"/>
       <c r="AK13" s="119"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41">
       <c r="B14" s="68"/>
       <c r="C14" s="108"/>
       <c r="D14" s="105"/>
@@ -13044,7 +13044,7 @@
       <c r="AK14" s="119"/>
       <c r="AO14" s="103"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41">
       <c r="B15" s="68"/>
       <c r="C15" s="108"/>
       <c r="D15" s="105"/>
@@ -13082,7 +13082,7 @@
       <c r="AJ15" s="119"/>
       <c r="AK15" s="119"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41">
       <c r="B16" s="68"/>
       <c r="C16" s="108"/>
       <c r="D16" s="103"/>
@@ -13120,7 +13120,7 @@
       <c r="AJ16" s="119"/>
       <c r="AK16" s="119"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37">
       <c r="B17" s="68"/>
       <c r="C17" s="108"/>
       <c r="D17" s="103"/>
@@ -13158,7 +13158,7 @@
       <c r="AJ17" s="119"/>
       <c r="AK17" s="119"/>
     </row>
-    <row r="18" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:37" ht="15" thickBot="1">
       <c r="A18" s="103"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -13195,12 +13195,12 @@
       <c r="AH18" s="59"/>
       <c r="AI18" s="60"/>
     </row>
-    <row r="20" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:37" ht="15" thickBot="1">
       <c r="B20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37">
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -13236,7 +13236,7 @@
       <c r="AH21" s="125"/>
       <c r="AI21" s="126"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37">
       <c r="B22" s="68"/>
       <c r="C22" s="108"/>
       <c r="D22" s="105"/>
@@ -13272,7 +13272,7 @@
       <c r="AH22" s="105"/>
       <c r="AI22" s="120"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37">
       <c r="B23" s="68"/>
       <c r="C23" s="108"/>
       <c r="D23" s="105"/>
@@ -13308,7 +13308,7 @@
       <c r="AH23" s="105"/>
       <c r="AI23" s="120"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37">
       <c r="B24" s="68"/>
       <c r="C24" s="108"/>
       <c r="D24" s="105"/>
@@ -13344,7 +13344,7 @@
       <c r="AH24" s="105"/>
       <c r="AI24" s="120"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37">
       <c r="B25" s="68"/>
       <c r="C25" s="108"/>
       <c r="D25" s="105"/>
@@ -13380,7 +13380,7 @@
       <c r="AH25" s="105"/>
       <c r="AI25" s="120"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37">
       <c r="B26" s="68"/>
       <c r="C26" s="108"/>
       <c r="D26" s="105"/>
@@ -13416,7 +13416,7 @@
       <c r="AH26" s="105"/>
       <c r="AI26" s="120"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37">
       <c r="B27" s="68"/>
       <c r="C27" s="108"/>
       <c r="D27" s="105"/>
@@ -13452,7 +13452,7 @@
       <c r="AH27" s="105"/>
       <c r="AI27" s="120"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37">
       <c r="B28" s="68"/>
       <c r="C28" s="108"/>
       <c r="D28" s="105"/>
@@ -13488,7 +13488,7 @@
       <c r="AH28" s="105"/>
       <c r="AI28" s="120"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37">
       <c r="B29" s="68"/>
       <c r="C29" s="108"/>
       <c r="D29" s="105"/>
@@ -13524,7 +13524,7 @@
       <c r="AH29" s="105"/>
       <c r="AI29" s="120"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37">
       <c r="B30" s="68"/>
       <c r="C30" s="108"/>
       <c r="D30" s="105"/>
@@ -13560,7 +13560,7 @@
       <c r="AH30" s="105"/>
       <c r="AI30" s="120"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37">
       <c r="B31" s="68"/>
       <c r="C31" s="108"/>
       <c r="D31" s="105"/>
@@ -13596,7 +13596,7 @@
       <c r="AH31" s="105"/>
       <c r="AI31" s="120"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37">
       <c r="B32" s="68"/>
       <c r="C32" s="108"/>
       <c r="D32" s="105"/>
@@ -13632,7 +13632,7 @@
       <c r="AH32" s="105"/>
       <c r="AI32" s="120"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:35">
       <c r="B33" s="68"/>
       <c r="C33" s="108"/>
       <c r="D33" s="105"/>
@@ -13668,7 +13668,7 @@
       <c r="AH33" s="105"/>
       <c r="AI33" s="120"/>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:35">
       <c r="B34" s="68"/>
       <c r="C34" s="108"/>
       <c r="D34" s="103"/>
@@ -13704,7 +13704,7 @@
       <c r="AH34" s="105"/>
       <c r="AI34" s="120"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:35">
       <c r="B35" s="68"/>
       <c r="C35" s="108"/>
       <c r="D35" s="103"/>
@@ -13740,7 +13740,7 @@
       <c r="AH35" s="105"/>
       <c r="AI35" s="120"/>
     </row>
-    <row r="36" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:35" ht="15" thickBot="1">
       <c r="B36" s="58"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -13776,12 +13776,12 @@
       <c r="AH36" s="59"/>
       <c r="AI36" s="60"/>
     </row>
-    <row r="38" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:35" ht="15" thickBot="1">
       <c r="B38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:35">
       <c r="B39" s="130"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
@@ -13817,7 +13817,7 @@
       <c r="AH39" s="125"/>
       <c r="AI39" s="129"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:35">
       <c r="B40" s="68"/>
       <c r="C40" s="108"/>
       <c r="D40" s="105"/>
@@ -13848,7 +13848,7 @@
       <c r="AH40" s="105"/>
       <c r="AI40" s="120"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:35">
       <c r="B41" s="68"/>
       <c r="C41" s="108"/>
       <c r="D41" s="105"/>
@@ -13884,7 +13884,7 @@
       <c r="AH41" s="105"/>
       <c r="AI41" s="120"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:35">
       <c r="B42" s="68"/>
       <c r="C42" s="108"/>
       <c r="D42" s="105"/>
@@ -13920,7 +13920,7 @@
       <c r="AH42" s="105"/>
       <c r="AI42" s="120"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:35">
       <c r="B43" s="68"/>
       <c r="C43" s="108"/>
       <c r="D43" s="105"/>
@@ -13956,7 +13956,7 @@
       <c r="AH43" s="105"/>
       <c r="AI43" s="120"/>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:35">
       <c r="B44" s="68"/>
       <c r="C44" s="108"/>
       <c r="D44" s="105"/>
@@ -13986,7 +13986,7 @@
       <c r="AH44" s="105"/>
       <c r="AI44" s="120"/>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:35">
       <c r="B45" s="68"/>
       <c r="C45" s="108"/>
       <c r="D45" s="105"/>
@@ -14016,7 +14016,7 @@
       <c r="AH45" s="105"/>
       <c r="AI45" s="120"/>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:35">
       <c r="B46" s="68"/>
       <c r="C46" s="108"/>
       <c r="D46" s="105"/>
@@ -14050,7 +14050,7 @@
       <c r="AH46" s="105"/>
       <c r="AI46" s="120"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:35">
       <c r="B47" s="68"/>
       <c r="C47" s="108"/>
       <c r="D47" s="105"/>
@@ -14081,7 +14081,7 @@
       <c r="AH47" s="105"/>
       <c r="AI47" s="120"/>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:35">
       <c r="B48" s="68"/>
       <c r="C48" s="108"/>
       <c r="D48" s="105"/>
@@ -14116,7 +14116,7 @@
       <c r="AH48" s="105"/>
       <c r="AI48" s="120"/>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:35">
       <c r="B49" s="68"/>
       <c r="C49" s="108"/>
       <c r="D49" s="105"/>
@@ -14151,7 +14151,7 @@
       <c r="AH49" s="105"/>
       <c r="AI49" s="120"/>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:35">
       <c r="B50" s="68"/>
       <c r="C50" s="108"/>
       <c r="D50" s="105"/>
@@ -14175,7 +14175,7 @@
       <c r="AH50" s="105"/>
       <c r="AI50" s="120"/>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:35">
       <c r="B51" s="68"/>
       <c r="C51" s="108"/>
       <c r="D51" s="105"/>
@@ -14211,7 +14211,7 @@
       <c r="AH51" s="102"/>
       <c r="AI51" s="44"/>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:35">
       <c r="B52" s="68"/>
       <c r="C52" s="108"/>
       <c r="D52" s="103"/>
@@ -14247,7 +14247,7 @@
       <c r="AH52" s="102"/>
       <c r="AI52" s="44"/>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:35">
       <c r="B53" s="68"/>
       <c r="C53" s="108"/>
       <c r="D53" s="103"/>
@@ -14283,7 +14283,7 @@
       <c r="AH53" s="102"/>
       <c r="AI53" s="44"/>
     </row>
-    <row r="54" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:35" ht="15" thickBot="1">
       <c r="B54" s="58"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
@@ -14319,12 +14319,12 @@
       <c r="AH54" s="59"/>
       <c r="AI54" s="60"/>
     </row>
-    <row r="56" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:35" ht="15" thickBot="1">
       <c r="B56" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:35">
       <c r="B57" s="40"/>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
@@ -14360,7 +14360,7 @@
       <c r="AH57" s="125"/>
       <c r="AI57" s="126"/>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:35">
       <c r="B58" s="68"/>
       <c r="C58" s="108"/>
       <c r="D58" s="105"/>
@@ -14396,7 +14396,7 @@
       <c r="AH58" s="105"/>
       <c r="AI58" s="120"/>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:35">
       <c r="B59" s="68"/>
       <c r="C59" s="108"/>
       <c r="D59" s="105"/>
@@ -14432,7 +14432,7 @@
       <c r="AH59" s="105"/>
       <c r="AI59" s="120"/>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:35">
       <c r="B60" s="68"/>
       <c r="C60" s="108"/>
       <c r="D60" s="105"/>
@@ -14468,7 +14468,7 @@
       <c r="AH60" s="105"/>
       <c r="AI60" s="120"/>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:35">
       <c r="B61" s="68"/>
       <c r="C61" s="108"/>
       <c r="D61" s="105"/>
@@ -14504,7 +14504,7 @@
       <c r="AH61" s="105"/>
       <c r="AI61" s="120"/>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:35">
       <c r="B62" s="68"/>
       <c r="C62" s="108"/>
       <c r="D62" s="105"/>
@@ -14540,7 +14540,7 @@
       <c r="AH62" s="105"/>
       <c r="AI62" s="120"/>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:35">
       <c r="B63" s="68"/>
       <c r="C63" s="108"/>
       <c r="D63" s="105"/>
@@ -14576,7 +14576,7 @@
       <c r="AH63" s="105"/>
       <c r="AI63" s="120"/>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:35">
       <c r="B64" s="68"/>
       <c r="C64" s="108"/>
       <c r="D64" s="105"/>
@@ -14612,7 +14612,7 @@
       <c r="AH64" s="105"/>
       <c r="AI64" s="120"/>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:35">
       <c r="B65" s="68"/>
       <c r="C65" s="108"/>
       <c r="D65" s="105"/>
@@ -14648,7 +14648,7 @@
       <c r="AH65" s="105"/>
       <c r="AI65" s="120"/>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:35">
       <c r="B66" s="68"/>
       <c r="C66" s="108"/>
       <c r="D66" s="105"/>
@@ -14684,7 +14684,7 @@
       <c r="AH66" s="105"/>
       <c r="AI66" s="120"/>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:35">
       <c r="B67" s="68"/>
       <c r="C67" s="108"/>
       <c r="D67" s="105"/>
@@ -14720,7 +14720,7 @@
       <c r="AH67" s="105"/>
       <c r="AI67" s="120"/>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:35">
       <c r="B68" s="68"/>
       <c r="C68" s="108"/>
       <c r="D68" s="105"/>
@@ -14756,7 +14756,7 @@
       <c r="AH68" s="105"/>
       <c r="AI68" s="120"/>
     </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:35">
       <c r="B69" s="68"/>
       <c r="C69" s="108"/>
       <c r="D69" s="105"/>
@@ -14792,7 +14792,7 @@
       <c r="AH69" s="105"/>
       <c r="AI69" s="120"/>
     </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:35">
       <c r="B70" s="68"/>
       <c r="C70" s="108"/>
       <c r="D70" s="103"/>
@@ -14828,7 +14828,7 @@
       <c r="AH70" s="105"/>
       <c r="AI70" s="120"/>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:35">
       <c r="B71" s="68"/>
       <c r="C71" s="108"/>
       <c r="D71" s="103"/>
@@ -14864,7 +14864,7 @@
       <c r="AH71" s="105"/>
       <c r="AI71" s="120"/>
     </row>
-    <row r="72" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:35" ht="15" thickBot="1">
       <c r="B72" s="58"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -14900,12 +14900,12 @@
       <c r="AH72" s="59"/>
       <c r="AI72" s="60"/>
     </row>
-    <row r="74" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:35" ht="15" thickBot="1">
       <c r="B74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:35" ht="15" thickBot="1">
       <c r="B75" s="130"/>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
@@ -14941,7 +14941,7 @@
       <c r="AH75" s="41"/>
       <c r="AI75" s="42"/>
     </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:35">
       <c r="B76" s="68"/>
       <c r="C76" s="108"/>
       <c r="D76" s="105"/>
@@ -14971,7 +14971,7 @@
       <c r="AH76" s="105"/>
       <c r="AI76" s="120"/>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:35">
       <c r="B77" s="68"/>
       <c r="C77" s="108"/>
       <c r="D77" s="105"/>
@@ -15001,7 +15001,7 @@
       <c r="AH77" s="105"/>
       <c r="AI77" s="120"/>
     </row>
-    <row r="78" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:35" ht="15" thickBot="1">
       <c r="B78" s="68"/>
       <c r="C78" s="108"/>
       <c r="D78" s="105"/>
@@ -15031,7 +15031,7 @@
       <c r="AH78" s="105"/>
       <c r="AI78" s="120"/>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:35">
       <c r="B79" s="68"/>
       <c r="C79" s="108"/>
       <c r="D79" s="105"/>
@@ -15061,7 +15061,7 @@
       <c r="AH79" s="105"/>
       <c r="AI79" s="120"/>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:35">
       <c r="B80" s="68"/>
       <c r="C80" s="108"/>
       <c r="D80" s="105"/>
@@ -15091,7 +15091,7 @@
       <c r="AH80" s="105"/>
       <c r="AI80" s="120"/>
     </row>
-    <row r="81" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:35">
       <c r="B81" s="68"/>
       <c r="C81" s="108"/>
       <c r="D81" s="105"/>
@@ -15121,7 +15121,7 @@
       <c r="AH81" s="105"/>
       <c r="AI81" s="120"/>
     </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:35">
       <c r="B82" s="68"/>
       <c r="C82" s="108"/>
       <c r="D82" s="105"/>
@@ -15151,7 +15151,7 @@
       <c r="AH82" s="105"/>
       <c r="AI82" s="120"/>
     </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:35">
       <c r="B83" s="68"/>
       <c r="C83" s="108"/>
       <c r="D83" s="105"/>
@@ -15181,7 +15181,7 @@
       <c r="AH83" s="105"/>
       <c r="AI83" s="120"/>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:35">
       <c r="B84" s="68"/>
       <c r="C84" s="108"/>
       <c r="D84" s="105"/>
@@ -15211,7 +15211,7 @@
       <c r="AH84" s="105"/>
       <c r="AI84" s="120"/>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:35">
       <c r="B85" s="68"/>
       <c r="C85" s="108"/>
       <c r="D85" s="105"/>
@@ -15241,7 +15241,7 @@
       <c r="AH85" s="105"/>
       <c r="AI85" s="120"/>
     </row>
-    <row r="86" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:35" ht="15" thickBot="1">
       <c r="B86" s="68"/>
       <c r="C86" s="108"/>
       <c r="D86" s="105"/>
@@ -15271,7 +15271,7 @@
       <c r="AH86" s="105"/>
       <c r="AI86" s="120"/>
     </row>
-    <row r="87" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:35">
       <c r="B87" s="68"/>
       <c r="C87" s="108"/>
       <c r="D87" s="105"/>
@@ -15298,7 +15298,7 @@
       <c r="AD87" s="105"/>
       <c r="AI87" s="120"/>
     </row>
-    <row r="88" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:35">
       <c r="B88" s="68"/>
       <c r="C88" s="108"/>
       <c r="D88" s="103"/>
@@ -15325,7 +15325,7 @@
       <c r="AD88" s="105"/>
       <c r="AI88" s="120"/>
     </row>
-    <row r="89" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:35" ht="15" thickBot="1">
       <c r="B89" s="68"/>
       <c r="C89" s="108"/>
       <c r="D89" s="103"/>
@@ -15352,7 +15352,7 @@
       <c r="AD89" s="105"/>
       <c r="AI89" s="120"/>
     </row>
-    <row r="90" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:35" ht="15" thickBot="1">
       <c r="B90" s="58"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
@@ -15388,12 +15388,12 @@
       <c r="AH90" s="59"/>
       <c r="AI90" s="60"/>
     </row>
-    <row r="92" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:35" ht="15" thickBot="1">
       <c r="B92" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:35">
       <c r="B93" s="40"/>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
@@ -15429,7 +15429,7 @@
       <c r="AH93" s="41"/>
       <c r="AI93" s="42"/>
     </row>
-    <row r="94" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:35">
       <c r="B94" s="68"/>
       <c r="C94" s="108"/>
       <c r="D94" s="105"/>
@@ -15464,7 +15464,7 @@
       <c r="AH94" s="105"/>
       <c r="AI94" s="120"/>
     </row>
-    <row r="95" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:35">
       <c r="B95" s="68"/>
       <c r="C95" s="108"/>
       <c r="D95" s="105"/>
@@ -15500,7 +15500,7 @@
       <c r="AH95" s="105"/>
       <c r="AI95" s="120"/>
     </row>
-    <row r="96" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:35">
       <c r="B96" s="68"/>
       <c r="C96" s="108"/>
       <c r="D96" s="105"/>
@@ -15536,7 +15536,7 @@
       <c r="AH96" s="105"/>
       <c r="AI96" s="120"/>
     </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:35">
       <c r="B97" s="68"/>
       <c r="C97" s="108"/>
       <c r="D97" s="105"/>
@@ -15571,7 +15571,7 @@
       <c r="AH97" s="105"/>
       <c r="AI97" s="120"/>
     </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:35">
       <c r="B98" s="68"/>
       <c r="C98" s="108"/>
       <c r="D98" s="105"/>
@@ -15607,7 +15607,7 @@
       <c r="AH98" s="102"/>
       <c r="AI98" s="120"/>
     </row>
-    <row r="99" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:35">
       <c r="B99" s="68"/>
       <c r="C99" s="108"/>
       <c r="D99" s="105"/>
@@ -15641,7 +15641,7 @@
       <c r="AH99" s="61"/>
       <c r="AI99" s="120"/>
     </row>
-    <row r="100" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:35">
       <c r="B100" s="68"/>
       <c r="C100" s="108"/>
       <c r="D100" s="105"/>
@@ -15677,7 +15677,7 @@
       <c r="AH100" s="102"/>
       <c r="AI100" s="120"/>
     </row>
-    <row r="101" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:35">
       <c r="B101" s="68"/>
       <c r="C101" s="108"/>
       <c r="D101" s="105"/>
@@ -15713,7 +15713,7 @@
       <c r="AH101" s="102"/>
       <c r="AI101" s="120"/>
     </row>
-    <row r="102" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:35">
       <c r="B102" s="68"/>
       <c r="C102" s="108"/>
       <c r="D102" s="105"/>
@@ -15749,7 +15749,7 @@
       <c r="AH102" s="102"/>
       <c r="AI102" s="120"/>
     </row>
-    <row r="103" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:35">
       <c r="B103" s="68"/>
       <c r="C103" s="108"/>
       <c r="D103" s="105"/>
@@ -15785,7 +15785,7 @@
       <c r="AH103" s="102"/>
       <c r="AI103" s="120"/>
     </row>
-    <row r="104" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:35">
       <c r="B104" s="68"/>
       <c r="C104" s="108"/>
       <c r="D104" s="105"/>
@@ -15821,7 +15821,7 @@
       <c r="AH104" s="102"/>
       <c r="AI104" s="120"/>
     </row>
-    <row r="105" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:35">
       <c r="B105" s="68"/>
       <c r="C105" s="108"/>
       <c r="D105" s="105"/>
@@ -15857,7 +15857,7 @@
       <c r="AH105" s="102"/>
       <c r="AI105" s="120"/>
     </row>
-    <row r="106" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:35">
       <c r="B106" s="68"/>
       <c r="C106" s="108"/>
       <c r="D106" s="103"/>
@@ -15893,7 +15893,7 @@
       <c r="AH106" s="102"/>
       <c r="AI106" s="120"/>
     </row>
-    <row r="107" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:35">
       <c r="B107" s="68"/>
       <c r="C107" s="108"/>
       <c r="D107" s="103"/>
@@ -15928,7 +15928,7 @@
       <c r="AH107" s="102"/>
       <c r="AI107" s="120"/>
     </row>
-    <row r="108" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:35" ht="15" thickBot="1">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
       <c r="D108" s="59"/>
@@ -15964,12 +15964,12 @@
       <c r="AH108" s="59"/>
       <c r="AI108" s="60"/>
     </row>
-    <row r="110" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:35" ht="15" thickBot="1">
       <c r="B110" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:35">
       <c r="B111" s="40"/>
       <c r="C111" s="41"/>
       <c r="D111" s="41"/>
@@ -16005,7 +16005,7 @@
       <c r="AH111" s="125"/>
       <c r="AI111" s="126"/>
     </row>
-    <row r="112" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:35">
       <c r="B112" s="68"/>
       <c r="C112" s="108"/>
       <c r="D112" s="105"/>
@@ -16035,7 +16035,7 @@
       <c r="AH112" s="105"/>
       <c r="AI112" s="120"/>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:35">
       <c r="B113" s="68"/>
       <c r="C113" s="108"/>
       <c r="D113" s="105"/>
@@ -16065,7 +16065,7 @@
       <c r="AH113" s="105"/>
       <c r="AI113" s="120"/>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:35">
       <c r="B114" s="68"/>
       <c r="C114" s="108"/>
       <c r="D114" s="105"/>
@@ -16095,7 +16095,7 @@
       <c r="AH114" s="105"/>
       <c r="AI114" s="120"/>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:35">
       <c r="B115" s="68"/>
       <c r="C115" s="108"/>
       <c r="D115" s="105"/>
@@ -16125,7 +16125,7 @@
       <c r="AH115" s="105"/>
       <c r="AI115" s="120"/>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:35">
       <c r="B116" s="68"/>
       <c r="C116" s="108"/>
       <c r="D116" s="105"/>
@@ -16155,7 +16155,7 @@
       <c r="AH116" s="105"/>
       <c r="AI116" s="120"/>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:35">
       <c r="B117" s="68"/>
       <c r="C117" s="108"/>
       <c r="D117" s="105"/>
@@ -16185,7 +16185,7 @@
       <c r="AH117" s="105"/>
       <c r="AI117" s="120"/>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:35">
       <c r="B118" s="68"/>
       <c r="C118" s="108"/>
       <c r="D118" s="105"/>
@@ -16215,7 +16215,7 @@
       <c r="AH118" s="105"/>
       <c r="AI118" s="120"/>
     </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:35">
       <c r="B119" s="68"/>
       <c r="C119" s="108"/>
       <c r="D119" s="105"/>
@@ -16245,7 +16245,7 @@
       <c r="AH119" s="105"/>
       <c r="AI119" s="120"/>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:35">
       <c r="B120" s="68"/>
       <c r="C120" s="108"/>
       <c r="D120" s="105"/>
@@ -16275,7 +16275,7 @@
       <c r="AH120" s="105"/>
       <c r="AI120" s="120"/>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:35">
       <c r="B121" s="68"/>
       <c r="C121" s="108"/>
       <c r="D121" s="105"/>
@@ -16305,7 +16305,7 @@
       <c r="AH121" s="105"/>
       <c r="AI121" s="120"/>
     </row>
-    <row r="122" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:35" ht="15" thickBot="1">
       <c r="B122" s="68"/>
       <c r="C122" s="108"/>
       <c r="D122" s="105"/>
@@ -16335,7 +16335,7 @@
       <c r="AH122" s="105"/>
       <c r="AI122" s="120"/>
     </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:35">
       <c r="B123" s="68"/>
       <c r="C123" s="108"/>
       <c r="D123" s="105"/>
@@ -16366,7 +16366,7 @@
       <c r="AH123" s="126"/>
       <c r="AI123" s="120"/>
     </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:35">
       <c r="B124" s="68"/>
       <c r="C124" s="108"/>
       <c r="D124" s="103"/>
@@ -16397,7 +16397,7 @@
       <c r="AH124" s="120"/>
       <c r="AI124" s="120"/>
     </row>
-    <row r="125" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:35" ht="15" thickBot="1">
       <c r="B125" s="68"/>
       <c r="C125" s="108"/>
       <c r="D125" s="103"/>
@@ -16428,7 +16428,7 @@
       <c r="AH125" s="133"/>
       <c r="AI125" s="120"/>
     </row>
-    <row r="126" spans="2:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:35" ht="15" thickBot="1">
       <c r="B126" s="58"/>
       <c r="C126" s="59"/>
       <c r="D126" s="59"/>

--- a/SIN_リスト.xlsx
+++ b/SIN_リスト.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliin\Desktop\NEW GAME AWARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平間　達樹\Desktop\N_GameAward\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DFE751-DA59-4433-8151-19CF4A03B6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チャート" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="154">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -437,7 +438,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -522,7 +523,7 @@
       <rPr>
         <sz val="6"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -539,7 +540,7 @@
       <rPr>
         <sz val="6"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1289,27 +1290,6 @@
   </si>
   <si>
     <t>Title_BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>は採用アイコン。</t>
-    <rPh sb="1" eb="3">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>は「仮」採用アイコン。</t>
-    <rPh sb="2" eb="3">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1389,23 +1369,63 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>流用元</t>
+    <rPh sb="0" eb="2">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://taira-komori.jpn.org/index.html</t>
+  </si>
+  <si>
+    <t>https://soundeffect-lab.info/</t>
+  </si>
+  <si>
+    <t>https://soundeffect-lab.info/sound/battle/</t>
+  </si>
+  <si>
+    <t>https://www.zapsplat.com/sound-effect-categories/</t>
+  </si>
+  <si>
+    <t>http://soundbible.com/</t>
+  </si>
+  <si>
+    <t>http://soundbible.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.purple-planet.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1413,7 +1433,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1421,7 +1441,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1429,7 +1449,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1437,14 +1457,14 @@
     <font>
       <sz val="6"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1452,7 +1472,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1460,7 +1480,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1468,7 +1488,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2001,12 +2030,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,15 +2387,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2430,6 +2453,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2445,14 +2489,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5167,22 +5206,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AZ44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="15" width="3" style="11"/>
     <col min="16" max="52" width="3" style="2"/>
     <col min="53" max="16384" width="3" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" ht="15" thickBot="1"/>
-    <row r="2" spans="2:47" ht="15" thickBot="1">
+    <row r="1" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -5204,7 +5243,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="2:47" ht="15" thickBot="1">
+    <row r="3" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5212,12 +5251,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="143"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -5241,7 +5280,7 @@
       </c>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="2:47">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -5276,7 +5315,7 @@
       </c>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="2:47" ht="15" thickBot="1">
+    <row r="5" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -5311,7 +5350,7 @@
       </c>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="2:47" ht="15" thickBot="1">
+    <row r="6" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5319,12 +5358,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="141" t="s">
+      <c r="I6" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="17"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -5346,7 +5385,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="2:47" ht="15" thickBot="1">
+    <row r="7" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -5379,14 +5418,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="2:47" ht="15" thickBot="1">
+    <row r="8" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -5425,7 +5464,7 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
     </row>
-    <row r="9" spans="2:47" ht="15" thickBot="1">
+    <row r="9" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -5469,7 +5508,7 @@
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
     </row>
-    <row r="10" spans="2:47" ht="15" thickBot="1">
+    <row r="10" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -5477,12 +5516,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="141" t="s">
+      <c r="I10" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="147"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -5515,7 +5554,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="2:47" ht="15" thickBot="1">
+    <row r="11" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5559,7 +5598,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
     </row>
-    <row r="12" spans="2:47">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B12" s="34" t="s">
         <v>4</v>
       </c>
@@ -5594,7 +5633,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
     </row>
-    <row r="13" spans="2:47" ht="15" thickBot="1">
+    <row r="13" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5649,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="2:47">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.45">
       <c r="P14" s="3"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -5641,7 +5680,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
     </row>
-    <row r="15" spans="2:47">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.45">
       <c r="P15" s="8"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -5672,7 +5711,7 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
     </row>
-    <row r="16" spans="2:47">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.45">
       <c r="P16" s="8"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -5703,7 +5742,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
     </row>
-    <row r="17" spans="16:31">
+    <row r="17" spans="16:31" x14ac:dyDescent="0.45">
       <c r="P17" s="8"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5723,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="16:31"